--- a/output_corners_NNNN_AH(withoutG).xlsx
+++ b/output_corners_NNNN_AH(withoutG).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE77"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,7 +593,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -603,100 +603,100 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fc nuremberga</t>
+          <t>osnabruck</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>greuther furth</t>
+          <t>hamburgo sv</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.660677137301531</v>
+        <v>4.7772725100183</v>
       </c>
       <c r="F2" t="n">
-        <v>8.222443394560729</v>
+        <v>9.172505407612919</v>
       </c>
       <c r="G2" t="n">
-        <v>3.620333557291243</v>
+        <v>1.467019774200609</v>
       </c>
       <c r="H2" t="n">
-        <v>2.127450958827465</v>
+        <v>7.933137461861531</v>
       </c>
       <c r="I2" t="n">
-        <v>1.214201721734734</v>
+        <v>2.24497427683314</v>
       </c>
       <c r="J2" t="n">
-        <v>5.668496555029527</v>
+        <v>1.803229447072364</v>
       </c>
       <c r="K2" t="n">
-        <v>1.886956538703899</v>
+        <v>1.144234843965073</v>
       </c>
       <c r="L2" t="n">
-        <v>2.924145603992547</v>
+        <v>14.4204866027723</v>
       </c>
       <c r="M2" t="n">
-        <v>1.115240435877172</v>
+        <v>1.731445849271293</v>
       </c>
       <c r="N2" t="n">
-        <v>9.677509698642947</v>
+        <v>2.367155204990576</v>
       </c>
       <c r="O2" t="n">
-        <v>1.519711189176655</v>
+        <v>1.074512946482389</v>
       </c>
       <c r="P2" t="n">
-        <v>4.330415289213136</v>
+        <v>28.71475073108925</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.058714670374958</v>
+        <v>1.427832942142058</v>
       </c>
       <c r="R2" t="n">
-        <v>18.03151859005416</v>
+        <v>3.33736092174959</v>
       </c>
       <c r="S2" t="n">
-        <v>1.300262854076756</v>
+        <v>1.036081868810685</v>
       </c>
       <c r="T2" t="n">
-        <v>1.633138765491177</v>
+        <v>3.189632657307722</v>
       </c>
       <c r="U2" t="n">
-        <v>2.57943258966969</v>
+        <v>1.456697609374148</v>
       </c>
       <c r="V2" t="n">
-        <v>2.677085601905017</v>
+        <v>1.502220298090341</v>
       </c>
       <c r="W2" t="n">
-        <v>1.596272485354409</v>
+        <v>2.991158071074451</v>
       </c>
       <c r="X2" t="n">
-        <v>2.280632328462377</v>
+        <v>5.866618229194062</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.780864247899063</v>
+        <v>1.205481497192683</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.613089015982307</v>
+        <v>2.012271465136586</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.276771481570632</v>
+        <v>1.987877298176206</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.513839221160647</v>
+        <v>12.17359687998695</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.39779791467264</v>
+        <v>1.089496695714081</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.93289220149793</v>
+        <v>2.958538475527882</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.126057429572934</v>
+        <v>1.51058481234609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -706,100 +706,100 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>fc magdeburg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>sc paderborn</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>wehen wiesbaden</t>
-        </is>
-      </c>
       <c r="E3" t="n">
-        <v>3.449355068800578</v>
+        <v>1.243109868502755</v>
       </c>
       <c r="F3" t="n">
-        <v>7.916346211096132</v>
+        <v>12.9234870119813</v>
       </c>
       <c r="G3" t="n">
-        <v>1.713003907361637</v>
+        <v>8.461140442535099</v>
       </c>
       <c r="H3" t="n">
-        <v>5.397920154028236</v>
+        <v>1.422838636984571</v>
       </c>
       <c r="I3" t="n">
-        <v>1.813249981150201</v>
+        <v>1.069972309170117</v>
       </c>
       <c r="J3" t="n">
-        <v>2.229634212331211</v>
+        <v>15.29136771188716</v>
       </c>
       <c r="K3" t="n">
-        <v>1.227380208138626</v>
+        <v>3.364968365075132</v>
       </c>
       <c r="L3" t="n">
-        <v>9.236980497420284</v>
+        <v>1.715154128063377</v>
       </c>
       <c r="M3" t="n">
-        <v>1.4703153648007</v>
+        <v>1.034205525084502</v>
       </c>
       <c r="N3" t="n">
-        <v>3.12623289571617</v>
+        <v>30.23504309697262</v>
       </c>
       <c r="O3" t="n">
-        <v>1.121403711021677</v>
+        <v>2.398299975849933</v>
       </c>
       <c r="P3" t="n">
-        <v>17.29955296961606</v>
+        <v>2.193245823644844</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.267307337658846</v>
+        <v>1.015519543722038</v>
       </c>
       <c r="R3" t="n">
-        <v>4.74101215760961</v>
+        <v>65.43488403463515</v>
       </c>
       <c r="S3" t="n">
-        <v>1.06135137582387</v>
+        <v>1.83805028283731</v>
       </c>
       <c r="T3" t="n">
-        <v>2.836512478219435</v>
+        <v>1.254717416242771</v>
       </c>
       <c r="U3" t="n">
-        <v>1.544510321525033</v>
+        <v>4.925919219622198</v>
       </c>
       <c r="V3" t="n">
-        <v>1.761522401793717</v>
+        <v>3.696770489674357</v>
       </c>
       <c r="W3" t="n">
-        <v>2.313159005755528</v>
+        <v>1.370813906422105</v>
       </c>
       <c r="X3" t="n">
-        <v>4.996175632915367</v>
+        <v>1.519262968149222</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.250239251689361</v>
+        <v>2.92580650140379</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.549318560642873</v>
+        <v>7.165321954820747</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.645445052685008</v>
+        <v>1.162197531179712</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.903011478545908</v>
+        <v>1.986356010039994</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.112321544503201</v>
+        <v>2.013832723500567</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.086626711547913</v>
+        <v>15.71215105476795</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.323978275785254</v>
+        <v>1.067971025873604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -809,100 +809,100 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>karlsruher sc</t>
+          <t>fc st. pauli</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>fc kaiserslautern</t>
+          <t>schalke 04</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.253556106803773</v>
+        <v>1.220628402624336</v>
       </c>
       <c r="F4" t="n">
-        <v>12.30014341125295</v>
+        <v>13.79230507795323</v>
       </c>
       <c r="G4" t="n">
-        <v>8.266540585963245</v>
+        <v>9.238246105831061</v>
       </c>
       <c r="H4" t="n">
-        <v>1.447218731687991</v>
+        <v>1.383885913557472</v>
       </c>
       <c r="I4" t="n">
-        <v>1.07052345777988</v>
+        <v>1.063171964673838</v>
       </c>
       <c r="J4" t="n">
-        <v>15.17967909516338</v>
+        <v>16.82980686390031</v>
       </c>
       <c r="K4" t="n">
-        <v>3.236042296854565</v>
+        <v>3.604940594805876</v>
       </c>
       <c r="L4" t="n">
-        <v>1.766335455332543</v>
+        <v>1.648272337089551</v>
       </c>
       <c r="M4" t="n">
-        <v>1.033728616414133</v>
+        <v>1.030761214880961</v>
       </c>
       <c r="N4" t="n">
-        <v>30.6484145012534</v>
+        <v>33.50846898829487</v>
       </c>
       <c r="O4" t="n">
-        <v>2.304911567175318</v>
+        <v>2.542561579118964</v>
       </c>
       <c r="P4" t="n">
-        <v>2.29479997044013</v>
+        <v>2.077693004916298</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.014926704094096</v>
+        <v>1.013897531323413</v>
       </c>
       <c r="R4" t="n">
-        <v>67.99402585434241</v>
+        <v>72.95522548060902</v>
       </c>
       <c r="S4" t="n">
-        <v>1.772320067060304</v>
+        <v>1.927908036368546</v>
       </c>
       <c r="T4" t="n">
-        <v>1.322278028048653</v>
+        <v>1.221613089265839</v>
       </c>
       <c r="U4" t="n">
-        <v>4.102910881188073</v>
+        <v>5.512368846591166</v>
       </c>
       <c r="V4" t="n">
-        <v>4.328004514956719</v>
+        <v>3.658831615575114</v>
       </c>
       <c r="W4" t="n">
-        <v>1.300480361581783</v>
+        <v>1.376105050858475</v>
       </c>
       <c r="X4" t="n">
-        <v>1.652247178388233</v>
+        <v>1.454371210504213</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.533161097716203</v>
+        <v>3.200843664567362</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.853453164774297</v>
+        <v>7.066306885220897</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.127332522269997</v>
+        <v>1.164844940904038</v>
       </c>
       <c r="AB4" t="n">
-        <v>2.242232124133696</v>
+        <v>1.863180245953804</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.805002527766199</v>
+        <v>2.158506586182371</v>
       </c>
       <c r="AD4" t="n">
-        <v>20.5411849457573</v>
+        <v>15.43658049289408</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.051173969376771</v>
+        <v>1.069268480890763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -912,100 +912,100 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hansa rostock</t>
+          <t>greuther furth</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>fortuna dusseldorf</t>
+          <t>karlsruher sc</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.479924381773233</v>
+        <v>1.965355673333437</v>
       </c>
       <c r="F5" t="n">
-        <v>8.650647919460658</v>
+        <v>7.389377749787881</v>
       </c>
       <c r="G5" t="n">
-        <v>1.512439049834611</v>
+        <v>2.81011870979366</v>
       </c>
       <c r="H5" t="n">
-        <v>7.454862096541664</v>
+        <v>2.682262126940581</v>
       </c>
       <c r="I5" t="n">
-        <v>2.120781627239948</v>
+        <v>1.310334698006539</v>
       </c>
       <c r="J5" t="n">
-        <v>1.892234468959501</v>
+        <v>4.222327398204529</v>
       </c>
       <c r="K5" t="n">
-        <v>1.154921977424703</v>
+        <v>1.594437682442886</v>
       </c>
       <c r="L5" t="n">
-        <v>13.63323594023903</v>
+        <v>3.970217242978373</v>
       </c>
       <c r="M5" t="n">
-        <v>1.648941019177299</v>
+        <v>1.168496830582286</v>
       </c>
       <c r="N5" t="n">
-        <v>2.540972092144459</v>
+        <v>6.934829732667562</v>
       </c>
       <c r="O5" t="n">
-        <v>1.079156283056096</v>
+        <v>1.336675710291566</v>
       </c>
       <c r="P5" t="n">
-        <v>27.40303916826068</v>
+        <v>6.39514120514896</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.37301196525444</v>
+        <v>1.087172301220935</v>
       </c>
       <c r="R5" t="n">
-        <v>3.680879149058607</v>
+        <v>12.47153380137963</v>
       </c>
       <c r="S5" t="n">
-        <v>1.037874427774289</v>
+        <v>1.185351960583651</v>
       </c>
       <c r="T5" t="n">
-        <v>3.500864679971071</v>
+        <v>2.04564338533423</v>
       </c>
       <c r="U5" t="n">
-        <v>1.399861699039057</v>
+        <v>1.956348994337452</v>
       </c>
       <c r="V5" t="n">
-        <v>1.637407460410433</v>
+        <v>2.644594461556759</v>
       </c>
       <c r="W5" t="n">
-        <v>2.568855186219643</v>
+        <v>1.608052637519774</v>
       </c>
       <c r="X5" t="n">
-        <v>6.657192907423608</v>
+        <v>3.163012089317236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.176766112869822</v>
+        <v>1.462318266707263</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.28947801003038</v>
+        <v>4.535808680961525</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.775507602472755</v>
+        <v>1.282820732180583</v>
       </c>
       <c r="AB5" t="n">
-        <v>14.3077555087688</v>
+        <v>5.45137387838852</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.075144151794875</v>
+        <v>1.22464974349942</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.532436050373769</v>
+        <v>8.739517005371511</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.394876703738445</v>
+        <v>1.129207029237866</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1015,100 +1015,100 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sv elversberg</t>
+          <t>eintracht braunschweig</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>hamburgo sv</t>
+          <t>fc nuremberga</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.336093669062664</v>
+        <v>3.438703415942447</v>
       </c>
       <c r="F6" t="n">
-        <v>9.306178549990859</v>
+        <v>8.674121735153998</v>
       </c>
       <c r="G6" t="n">
-        <v>1.418155078935826</v>
+        <v>1.68376453945786</v>
       </c>
       <c r="H6" t="n">
-        <v>9.238022176309979</v>
+        <v>5.160903816238965</v>
       </c>
       <c r="I6" t="n">
-        <v>2.360532696588352</v>
+        <v>1.887263724153966</v>
       </c>
       <c r="J6" t="n">
-        <v>1.735006224038262</v>
+        <v>2.127060616564182</v>
       </c>
       <c r="K6" t="n">
-        <v>1.121388359802635</v>
+        <v>1.240332399921684</v>
       </c>
       <c r="L6" t="n">
-        <v>17.63221318991959</v>
+        <v>8.357276266095337</v>
       </c>
       <c r="M6" t="n">
-        <v>1.785622509181872</v>
+        <v>1.537412446378141</v>
       </c>
       <c r="N6" t="n">
-        <v>2.272875952906916</v>
+        <v>2.860768217668647</v>
       </c>
       <c r="O6" t="n">
-        <v>1.060124289448507</v>
+        <v>1.135919865427416</v>
       </c>
       <c r="P6" t="n">
-        <v>37.0895510684184</v>
+        <v>14.6440359889362</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.453193393368686</v>
+        <v>1.320736906122602</v>
       </c>
       <c r="R6" t="n">
-        <v>3.206563499451702</v>
+        <v>4.117820185051457</v>
       </c>
       <c r="S6" t="n">
-        <v>1.027708851188096</v>
+        <v>1.073292096327721</v>
       </c>
       <c r="T6" t="n">
-        <v>4.050549159168943</v>
+        <v>1.999806229927328</v>
       </c>
       <c r="U6" t="n">
-        <v>1.327809829582431</v>
+        <v>2.00019380762679</v>
       </c>
       <c r="V6" t="n">
-        <v>1.574615987058307</v>
+        <v>1.410917144217916</v>
       </c>
       <c r="W6" t="n">
-        <v>2.740292686807073</v>
+        <v>3.433580623420483</v>
       </c>
       <c r="X6" t="n">
-        <v>8.102234653737996</v>
+        <v>3.062273835830753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.140800754798166</v>
+        <v>1.48490165691171</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.159970916988503</v>
+        <v>1.828396907180907</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.86209057947434</v>
+        <v>2.20715081301193</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.36289231694737</v>
+        <v>5.222342287782826</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.057594090992774</v>
+        <v>1.236835370475165</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.26200564189481</v>
+        <v>2.588444933575297</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.442085546330615</v>
+        <v>1.629546532500301</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1118,100 +1118,100 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>schalke 04</t>
+          <t>wehen wiesbaden</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>fc magdeburg</t>
+          <t>sv elversberg</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.404500853617062</v>
+        <v>1.949836263831878</v>
       </c>
       <c r="F7" t="n">
-        <v>7.460957638950446</v>
+        <v>7.263748941288812</v>
       </c>
       <c r="G7" t="n">
-        <v>2.221816286288725</v>
+        <v>2.861504877671447</v>
       </c>
       <c r="H7" t="n">
-        <v>3.433421465308808</v>
+        <v>2.67350505741025</v>
       </c>
       <c r="I7" t="n">
-        <v>1.474504285912229</v>
+        <v>1.29773830150015</v>
       </c>
       <c r="J7" t="n">
-        <v>3.107462523921172</v>
+        <v>4.358654210632345</v>
       </c>
       <c r="K7" t="n">
-        <v>1.410944020284253</v>
+        <v>1.59754823899218</v>
       </c>
       <c r="L7" t="n">
-        <v>5.318655452875284</v>
+        <v>3.98744746276812</v>
       </c>
       <c r="M7" t="n">
-        <v>1.269749841431196</v>
+        <v>1.159118529517449</v>
       </c>
       <c r="N7" t="n">
-        <v>4.707138416446726</v>
+        <v>7.284623186455108</v>
       </c>
       <c r="O7" t="n">
-        <v>1.231553549689688</v>
+        <v>1.334733919997849</v>
       </c>
       <c r="P7" t="n">
-        <v>8.957904453363394</v>
+        <v>6.490408889732008</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.148317869553359</v>
+        <v>1.08079388843793</v>
       </c>
       <c r="R7" t="n">
-        <v>7.742275917334686</v>
+        <v>13.37717381022275</v>
       </c>
       <c r="S7" t="n">
-        <v>1.1256612222301</v>
+        <v>1.182135797184463</v>
       </c>
       <c r="T7" t="n">
-        <v>2.148419185895611</v>
+        <v>2.169559455444498</v>
       </c>
       <c r="U7" t="n">
-        <v>1.870762185342746</v>
+        <v>1.855022799691653</v>
       </c>
       <c r="V7" t="n">
-        <v>2.039957885812927</v>
+        <v>2.909325373667551</v>
       </c>
       <c r="W7" t="n">
-        <v>1.961577400048568</v>
+        <v>1.523745200158912</v>
       </c>
       <c r="X7" t="n">
-        <v>3.391226365329512</v>
+        <v>3.438563341752452</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.418195455896205</v>
+        <v>1.410077516904424</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.150481506039593</v>
+        <v>5.173236529299468</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.465012136673352</v>
+        <v>1.239622171659621</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.976981854858097</v>
+        <v>6.087143064392392</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.20092498408928</v>
+        <v>1.196573988060122</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.422783717588779</v>
+        <v>10.35764988703591</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.226101944805291</v>
+        <v>1.106864438408344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1221,100 +1221,100 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>holstein kiel</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>hertha berlim</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>eintracht braunschweig</t>
-        </is>
-      </c>
       <c r="E8" t="n">
-        <v>1.705073529312542</v>
+        <v>1.228247375928119</v>
       </c>
       <c r="F8" t="n">
-        <v>8.08752866137046</v>
+        <v>13.60877304293317</v>
       </c>
       <c r="G8" t="n">
-        <v>3.449847773191854</v>
+        <v>8.900776108486051</v>
       </c>
       <c r="H8" t="n">
-        <v>2.202970049273581</v>
+        <v>1.394659184208896</v>
       </c>
       <c r="I8" t="n">
-        <v>1.230084388054666</v>
+        <v>1.066517007803577</v>
       </c>
       <c r="J8" t="n">
-        <v>5.346231434713448</v>
+        <v>16.03374900676496</v>
       </c>
       <c r="K8" t="n">
-        <v>1.831275891368912</v>
+        <v>3.533831822524354</v>
       </c>
       <c r="L8" t="n">
-        <v>3.05677329512569</v>
+        <v>1.663251078268325</v>
       </c>
       <c r="M8" t="n">
-        <v>1.124552683308719</v>
+        <v>1.032768463759347</v>
       </c>
       <c r="N8" t="n">
-        <v>9.028731083387214</v>
+        <v>31.5171462215633</v>
       </c>
       <c r="O8" t="n">
-        <v>1.486198455789892</v>
+        <v>2.507724650234854</v>
       </c>
       <c r="P8" t="n">
-        <v>4.573560619468954</v>
+        <v>2.098644397953699</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.063964576321723</v>
+        <v>1.015002231558599</v>
       </c>
       <c r="R8" t="n">
-        <v>16.63365314842848</v>
+        <v>67.65675010374164</v>
       </c>
       <c r="S8" t="n">
-        <v>1.279832947159744</v>
+        <v>1.91021262372299</v>
       </c>
       <c r="T8" t="n">
-        <v>1.665131901620864</v>
+        <v>1.21439841630241</v>
       </c>
       <c r="U8" t="n">
-        <v>2.503461189522098</v>
+        <v>5.664213557386983</v>
       </c>
       <c r="V8" t="n">
-        <v>2.605655068759738</v>
+        <v>3.440324578918324</v>
       </c>
       <c r="W8" t="n">
-        <v>1.622798768836718</v>
+        <v>1.409781554732056</v>
       </c>
       <c r="X8" t="n">
-        <v>2.347076775369092</v>
+        <v>1.440241638351324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.742348185556094</v>
+        <v>3.271479825817781</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.443552200532766</v>
+        <v>6.501777137720017</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.290397804872912</v>
+        <v>1.1817594524402</v>
       </c>
       <c r="AB8" t="n">
-        <v>3.653971958688019</v>
+        <v>1.836500500624285</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.376793732400378</v>
+        <v>2.195456546952087</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.509725405732308</v>
+        <v>13.88317850161273</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.133160661139045</v>
+        <v>1.077620596491372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1324,100 +1324,100 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>fortuna dusseldorf</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>hannover sportverein</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>osnabruck</t>
-        </is>
-      </c>
       <c r="E9" t="n">
-        <v>1.271165543603912</v>
+        <v>1.334402234855335</v>
       </c>
       <c r="F9" t="n">
-        <v>11.85471422100115</v>
+        <v>11.74089700161742</v>
       </c>
       <c r="G9" t="n">
-        <v>7.753995271468385</v>
+        <v>6.044910999287773</v>
       </c>
       <c r="H9" t="n">
-        <v>1.476370084465955</v>
+        <v>1.548254507496706</v>
       </c>
       <c r="I9" t="n">
-        <v>1.076479742058049</v>
+        <v>1.113366541021915</v>
       </c>
       <c r="J9" t="n">
-        <v>14.07535790642429</v>
+        <v>9.820944795402086</v>
       </c>
       <c r="K9" t="n">
-        <v>3.099208226144322</v>
+        <v>2.823970412146602</v>
       </c>
       <c r="L9" t="n">
-        <v>1.814645954474867</v>
+        <v>1.886008477427632</v>
       </c>
       <c r="M9" t="n">
-        <v>1.036932829923448</v>
+        <v>1.06173316743412</v>
       </c>
       <c r="N9" t="n">
-        <v>28.0761813289892</v>
+        <v>17.19874763541294</v>
       </c>
       <c r="O9" t="n">
-        <v>2.227527117156819</v>
+        <v>2.128657372334993</v>
       </c>
       <c r="P9" t="n">
-        <v>2.376286989042467</v>
+        <v>2.430160651031313</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.016527385691898</v>
+        <v>1.031665883095736</v>
       </c>
       <c r="R9" t="n">
-        <v>61.50563704640724</v>
+        <v>32.57972878813131</v>
       </c>
       <c r="S9" t="n">
-        <v>1.726592642349787</v>
+        <v>1.699222146322431</v>
       </c>
       <c r="T9" t="n">
-        <v>1.336790720864771</v>
+        <v>1.166443789860528</v>
       </c>
       <c r="U9" t="n">
-        <v>3.969202944286345</v>
+        <v>7.008034308987739</v>
       </c>
       <c r="V9" t="n">
-        <v>4.163497331371718</v>
+        <v>2.102227622486454</v>
       </c>
       <c r="W9" t="n">
-        <v>1.316105845920342</v>
+        <v>1.907253619487557</v>
       </c>
       <c r="X9" t="n">
-        <v>1.680943978844517</v>
+        <v>1.34631555932132</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.468549588612098</v>
+        <v>3.887539912904044</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.406354663626125</v>
+        <v>3.288261204316027</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.13501918898256</v>
+        <v>1.437013046462458</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.298068227131501</v>
+        <v>1.660335507152873</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.770375531192086</v>
+        <v>2.514381688047697</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.23931099653569</v>
+        <v>5.738700557621166</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.054826632441869</v>
+        <v>1.211028316273692</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1427,100 +1427,100 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>fc st. pauli</t>
+          <t>fc kaiserslautern</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>holstein kiel</t>
+          <t>hansa rostock</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.548670834298787</v>
+        <v>3.265096296269618</v>
       </c>
       <c r="F10" t="n">
-        <v>8.69090855692968</v>
+        <v>8.629818534769685</v>
       </c>
       <c r="G10" t="n">
-        <v>4.180213632572527</v>
+        <v>1.730543844615891</v>
       </c>
       <c r="H10" t="n">
-        <v>1.938274173279793</v>
+        <v>4.825383997291196</v>
       </c>
       <c r="I10" t="n">
-        <v>1.174107438008551</v>
+        <v>1.835230624263089</v>
       </c>
       <c r="J10" t="n">
-        <v>6.743580006908642</v>
+        <v>2.197274107235095</v>
       </c>
       <c r="K10" t="n">
-        <v>2.065786556294564</v>
+        <v>1.261411665000981</v>
       </c>
       <c r="L10" t="n">
-        <v>2.595462736808151</v>
+        <v>7.678608511831407</v>
       </c>
       <c r="M10" t="n">
-        <v>1.0919024152691</v>
+        <v>1.507845135649227</v>
       </c>
       <c r="N10" t="n">
-        <v>11.88110684655996</v>
+        <v>2.969104220564414</v>
       </c>
       <c r="O10" t="n">
-        <v>1.626777408791496</v>
+        <v>1.149731788924064</v>
       </c>
       <c r="P10" t="n">
-        <v>3.736033389986178</v>
+        <v>13.19993100021979</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.045715999191782</v>
+        <v>1.303720912611814</v>
       </c>
       <c r="R10" t="n">
-        <v>22.87418010497653</v>
+        <v>4.292496362534315</v>
       </c>
       <c r="S10" t="n">
-        <v>1.365492615572595</v>
+        <v>1.081967676700957</v>
       </c>
       <c r="T10" t="n">
-        <v>1.551247799370937</v>
+        <v>1.879159567130174</v>
       </c>
       <c r="U10" t="n">
-        <v>2.814066198796913</v>
+        <v>2.137449943545839</v>
       </c>
       <c r="V10" t="n">
-        <v>2.903340143619106</v>
+        <v>1.39811291765775</v>
       </c>
       <c r="W10" t="n">
-        <v>1.525392165637063</v>
+        <v>3.511850170256669</v>
       </c>
       <c r="X10" t="n">
-        <v>2.112107805219788</v>
+        <v>2.800276346519784</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.899193401310917</v>
+        <v>1.555470276512357</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.158633440699957</v>
+        <v>1.802815269073003</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.240463607639265</v>
+        <v>2.245616567749992</v>
       </c>
       <c r="AB10" t="n">
-        <v>3.163076918501046</v>
+        <v>4.635681058554906</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.462304410650812</v>
+        <v>1.275051629638128</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.32000856506274</v>
+        <v>2.537652860031162</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.107296038734195</v>
+        <v>1.650341846325271</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1530,100 +1530,100 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>msv duisburgo</t>
+          <t>spvgg unterhaching</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>sc verl</t>
+          <t>bielefeld</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.811220074434206</v>
+        <v>1.226319080135184</v>
       </c>
       <c r="F11" t="n">
-        <v>7.844489362955749</v>
+        <v>13.26680572978846</v>
       </c>
       <c r="G11" t="n">
-        <v>3.121021142489854</v>
+        <v>9.159568378138054</v>
       </c>
       <c r="H11" t="n">
-        <v>2.384791407567816</v>
+        <v>1.399266501176754</v>
       </c>
       <c r="I11" t="n">
-        <v>1.267956119038768</v>
+        <v>1.062575765552453</v>
       </c>
       <c r="J11" t="n">
-        <v>4.731954334863755</v>
+        <v>16.98062750285907</v>
       </c>
       <c r="K11" t="n">
-        <v>1.722130419451659</v>
+        <v>3.504592789659814</v>
       </c>
       <c r="L11" t="n">
-        <v>3.379299230168273</v>
+        <v>1.682785256133764</v>
       </c>
       <c r="M11" t="n">
-        <v>1.14686895885117</v>
+        <v>1.029786753218364</v>
       </c>
       <c r="N11" t="n">
-        <v>7.808790692207134</v>
+        <v>34.57197048866252</v>
       </c>
       <c r="O11" t="n">
-        <v>1.42029181841465</v>
+        <v>2.464589328806612</v>
       </c>
       <c r="P11" t="n">
-        <v>5.172253314284929</v>
+        <v>2.148901511835553</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.076662132991703</v>
+        <v>1.013107104763413</v>
       </c>
       <c r="R11" t="n">
-        <v>14.04424963114741</v>
+        <v>77.29449966642562</v>
       </c>
       <c r="S11" t="n">
-        <v>1.23967863997524</v>
+        <v>1.870396626428266</v>
       </c>
       <c r="T11" t="n">
-        <v>1.740746737289074</v>
+        <v>1.274601444085482</v>
       </c>
       <c r="U11" t="n">
-        <v>2.349989071379134</v>
+        <v>4.641641446316306</v>
       </c>
       <c r="V11" t="n">
-        <v>2.463894296870111</v>
+        <v>4.273132189612152</v>
       </c>
       <c r="W11" t="n">
-        <v>1.683109430877664</v>
+        <v>1.30551775549233</v>
       </c>
       <c r="X11" t="n">
-        <v>2.505468085735276</v>
+        <v>1.558310799266583</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.664245233409645</v>
+        <v>2.791117064748947</v>
       </c>
       <c r="Z11" t="n">
-        <v>4.111080020896029</v>
+        <v>8.703781222804402</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.321431783587485</v>
+        <v>1.129806386121122</v>
       </c>
       <c r="AB11" t="n">
-        <v>3.992052314571764</v>
+        <v>2.06100107177948</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.334218755176787</v>
+        <v>1.942506116721286</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.691464543272597</v>
+        <v>20.10362292711571</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.149444115489691</v>
+        <v>1.052346091828509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1633,100 +1633,100 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>rot-weiss essen</t>
+          <t>sc verl</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>jahn regensburg</t>
+          <t>borussia dortmund ii</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.665879228890104</v>
+        <v>1.435147593418753</v>
       </c>
       <c r="F12" t="n">
-        <v>8.205402063134462</v>
+        <v>8.633275553174727</v>
       </c>
       <c r="G12" t="n">
-        <v>3.599123103590967</v>
+        <v>5.336843856946512</v>
       </c>
       <c r="H12" t="n">
-        <v>2.136283847924082</v>
+        <v>1.793279545584552</v>
       </c>
       <c r="I12" t="n">
-        <v>1.216063569512159</v>
+        <v>1.115850473093247</v>
       </c>
       <c r="J12" t="n">
-        <v>5.628267515240361</v>
+        <v>9.631816282658711</v>
       </c>
       <c r="K12" t="n">
-        <v>1.88006179250628</v>
+        <v>2.260589669261067</v>
       </c>
       <c r="L12" t="n">
-        <v>2.939616843502792</v>
+        <v>2.424314317537287</v>
       </c>
       <c r="M12" t="n">
-        <v>1.116330366159979</v>
+        <v>1.054288253600862</v>
       </c>
       <c r="N12" t="n">
-        <v>9.596207791736756</v>
+        <v>19.42019099292078</v>
       </c>
       <c r="O12" t="n">
-        <v>1.515565743486781</v>
+        <v>1.702092219173259</v>
       </c>
       <c r="P12" t="n">
-        <v>4.358683645435365</v>
+        <v>3.566897361318845</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.059327463172206</v>
+        <v>1.02342827559132</v>
       </c>
       <c r="R12" t="n">
-        <v>17.85560019813029</v>
+        <v>43.68346580191678</v>
       </c>
       <c r="S12" t="n">
-        <v>1.297735692183769</v>
+        <v>1.389575374173204</v>
       </c>
       <c r="T12" t="n">
-        <v>1.636899934773545</v>
+        <v>1.875628956268738</v>
       </c>
       <c r="U12" t="n">
-        <v>2.570105357846454</v>
+        <v>2.142036239026672</v>
       </c>
       <c r="V12" t="n">
-        <v>2.668269369812322</v>
+        <v>5.868910277483962</v>
       </c>
       <c r="W12" t="n">
-        <v>1.599423581164533</v>
+        <v>1.205384766407475</v>
       </c>
       <c r="X12" t="n">
-        <v>2.288425986870166</v>
+        <v>2.792679064850803</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.776140818479757</v>
+        <v>1.557824330973166</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.592092627476692</v>
+        <v>13.25675567672143</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.27838925765744</v>
+        <v>1.081587658787981</v>
       </c>
       <c r="AB12" t="n">
-        <v>3.530223362952551</v>
+        <v>4.618869754061607</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.395222024522407</v>
+        <v>1.276329370206722</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.880274666254675</v>
+        <v>34.0984406951853</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.126899130087718</v>
+        <v>1.0302129036594</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1736,100 +1736,100 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sv sandhausen</t>
+          <t>preusen munster</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>preusen munster</t>
+          <t>vfb lubeck</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.693936442911415</v>
+        <v>1.550757924121823</v>
       </c>
       <c r="F13" t="n">
-        <v>8.119223229862286</v>
+        <v>8.35509382498692</v>
       </c>
       <c r="G13" t="n">
-        <v>3.490467337908518</v>
+        <v>4.246887476825171</v>
       </c>
       <c r="H13" t="n">
-        <v>2.183996487461518</v>
+        <v>1.963410705599463</v>
       </c>
       <c r="I13" t="n">
-        <v>1.226101843777846</v>
+        <v>1.165800702756189</v>
       </c>
       <c r="J13" t="n">
-        <v>5.422785693789132</v>
+        <v>7.031337523764923</v>
       </c>
       <c r="K13" t="n">
-        <v>1.844597100236332</v>
+        <v>2.037978916144357</v>
       </c>
       <c r="L13" t="n">
-        <v>3.02337673906958</v>
+        <v>2.675617037956051</v>
       </c>
       <c r="M13" t="n">
-        <v>1.12221468729675</v>
+        <v>1.084654046310819</v>
       </c>
       <c r="N13" t="n">
-        <v>9.182322617018217</v>
+        <v>12.81278442767354</v>
       </c>
       <c r="O13" t="n">
-        <v>1.494223335027483</v>
+        <v>1.596795077483706</v>
       </c>
       <c r="P13" t="n">
-        <v>4.512162380273829</v>
+        <v>3.944485611541809</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.062643540001961</v>
+        <v>1.040474835138492</v>
       </c>
       <c r="R13" t="n">
-        <v>16.96333795900891</v>
+        <v>25.70670965251162</v>
       </c>
       <c r="S13" t="n">
-        <v>1.28472487650814</v>
+        <v>1.339617893217136</v>
       </c>
       <c r="T13" t="n">
-        <v>1.657127748558711</v>
+        <v>1.718601232334322</v>
       </c>
       <c r="U13" t="n">
-        <v>2.521774118036129</v>
+        <v>2.391592381147991</v>
       </c>
       <c r="V13" t="n">
-        <v>2.622792244199843</v>
+        <v>3.570574385086793</v>
       </c>
       <c r="W13" t="n">
-        <v>1.616221826037303</v>
+        <v>1.38901811431776</v>
       </c>
       <c r="X13" t="n">
-        <v>2.330421528692688</v>
+        <v>2.458883323559423</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.751641474850929</v>
+        <v>1.685455775558647</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.484105412456732</v>
+        <v>6.837098575625629</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.287017722375648</v>
+        <v>1.171317990786684</v>
       </c>
       <c r="AB13" t="n">
-        <v>3.618750219488941</v>
+        <v>3.892039849476746</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.381861543173504</v>
+        <v>1.345776701583462</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.610592047846348</v>
+        <v>14.80218276152656</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.131395822258398</v>
+        <v>1.072452308252829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1839,100 +1839,100 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>vfb lubeck</t>
+          <t>hallescher</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>dinamo dresden</t>
+          <t>1860 munique</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.342514046670474</v>
+        <v>1.681456099389919</v>
       </c>
       <c r="F14" t="n">
-        <v>9.311066774390916</v>
+        <v>7.84904914470032</v>
       </c>
       <c r="G14" t="n">
-        <v>1.417588910828152</v>
+        <v>3.598761175395635</v>
       </c>
       <c r="H14" t="n">
-        <v>9.251661579601594</v>
+        <v>2.189104906264907</v>
       </c>
       <c r="I14" t="n">
-        <v>2.362273706700643</v>
+        <v>1.210688221451939</v>
       </c>
       <c r="J14" t="n">
-        <v>1.734066872964867</v>
+        <v>5.746349810675639</v>
       </c>
       <c r="K14" t="n">
-        <v>1.121187713571778</v>
+        <v>1.840968693957453</v>
       </c>
       <c r="L14" t="n">
-        <v>17.6634694106548</v>
+        <v>3.077908726047001</v>
       </c>
       <c r="M14" t="n">
-        <v>1.786603915537046</v>
+        <v>1.1101622592743</v>
       </c>
       <c r="N14" t="n">
-        <v>2.271287849256712</v>
+        <v>10.07751898506397</v>
       </c>
       <c r="O14" t="n">
-        <v>1.060011512330115</v>
+        <v>1.481253092335</v>
       </c>
       <c r="P14" t="n">
-        <v>37.16701856702921</v>
+        <v>4.694271322071139</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.453764793443264</v>
+        <v>1.054269820707731</v>
       </c>
       <c r="R14" t="n">
-        <v>3.203784900128075</v>
+        <v>19.4264474612045</v>
       </c>
       <c r="S14" t="n">
-        <v>1.02764950055661</v>
+        <v>1.270689376285271</v>
       </c>
       <c r="T14" t="n">
-        <v>4.054821621003581</v>
+        <v>1.839444524784601</v>
       </c>
       <c r="U14" t="n">
-        <v>1.327351356008629</v>
+        <v>2.191263949522568</v>
       </c>
       <c r="V14" t="n">
-        <v>1.574252841286083</v>
+        <v>3.201769095563906</v>
       </c>
       <c r="W14" t="n">
-        <v>2.741393212370396</v>
+        <v>1.454180232620571</v>
       </c>
       <c r="X14" t="n">
-        <v>8.113695536396616</v>
+        <v>2.715048088113982</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.140573910548123</v>
+        <v>1.58307402977819</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.159225735660691</v>
+        <v>5.897048122161619</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.862644754371381</v>
+        <v>1.204204650445335</v>
       </c>
       <c r="AB14" t="n">
-        <v>18.39578313553886</v>
+        <v>4.447755790818254</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.057485195820649</v>
+        <v>1.290043744589773</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.260461160542401</v>
+        <v>12.25453064247297</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.442387605438905</v>
+        <v>1.088853105630736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1942,100 +1942,100 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>bielefeld</t>
+          <t>köln</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>sc friburgo ii</t>
+          <t>msv duisburgo</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.79756586378436</v>
+        <v>1.225639787306493</v>
       </c>
       <c r="F15" t="n">
-        <v>7.870533328061589</v>
+        <v>13.70937098088537</v>
       </c>
       <c r="G15" t="n">
-        <v>3.158201005493274</v>
+        <v>8.996301759298465</v>
       </c>
       <c r="H15" t="n">
-        <v>2.361302319191636</v>
+        <v>1.39026647950519</v>
       </c>
       <c r="I15" t="n">
-        <v>1.26309491080506</v>
+        <v>1.065675670041128</v>
       </c>
       <c r="J15" t="n">
-        <v>4.80090970570294</v>
+        <v>16.22633875488097</v>
       </c>
       <c r="K15" t="n">
-        <v>1.734590682688191</v>
+        <v>3.562351758387952</v>
       </c>
       <c r="L15" t="n">
-        <v>3.337382853153883</v>
+        <v>1.655901521324592</v>
       </c>
       <c r="M15" t="n">
-        <v>1.143997042485597</v>
+        <v>1.032326222122872</v>
       </c>
       <c r="N15" t="n">
-        <v>7.944587074418762</v>
+        <v>31.93463864100807</v>
       </c>
       <c r="O15" t="n">
-        <v>1.427828927832973</v>
+        <v>2.524619119621039</v>
       </c>
       <c r="P15" t="n">
-        <v>5.093872436531365</v>
+        <v>2.086244867577658</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.075019855871327</v>
+        <v>1.014785492922726</v>
       </c>
       <c r="R15" t="n">
-        <v>14.32980433493758</v>
+        <v>68.63386281582218</v>
       </c>
       <c r="S15" t="n">
-        <v>1.244267503568645</v>
+        <v>1.920602738708459</v>
       </c>
       <c r="T15" t="n">
-        <v>1.731083412299415</v>
+        <v>1.211528998685025</v>
       </c>
       <c r="U15" t="n">
-        <v>2.367832976615875</v>
+        <v>5.727484204135241</v>
       </c>
       <c r="V15" t="n">
-        <v>2.480210599305464</v>
+        <v>3.444718325564795</v>
       </c>
       <c r="W15" t="n">
-        <v>1.675579542849656</v>
+        <v>1.409045078749092</v>
       </c>
       <c r="X15" t="n">
-        <v>2.485120593939111</v>
+        <v>1.43462272211295</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.673345992292529</v>
+        <v>3.300846111170691</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.149071466663638</v>
+        <v>6.513030503699436</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.317553923620373</v>
+        <v>1.181388439503276</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.948309898107244</v>
+        <v>1.825904343600649</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.33917737095479</v>
+        <v>2.210793971176317</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.784166119424621</v>
+        <v>13.91384098560217</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.147402050951667</v>
+        <v>1.077436294988835</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2045,100 +2045,100 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>borussia dortmund ii</t>
+          <t>jahn regensburg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>köln</t>
+          <t>sv sandhausen</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.949978878195207</v>
+        <v>1.268333939771984</v>
       </c>
       <c r="F16" t="n">
-        <v>9.008824638413591</v>
+        <v>12.79525154561171</v>
       </c>
       <c r="G16" t="n">
-        <v>1.455653520717846</v>
+        <v>7.495683466843229</v>
       </c>
       <c r="H16" t="n">
-        <v>8.426104783520904</v>
+        <v>1.451507389336741</v>
       </c>
       <c r="I16" t="n">
-        <v>2.254000169096846</v>
+        <v>1.084417547085788</v>
       </c>
       <c r="J16" t="n">
-        <v>1.797448058336562</v>
+        <v>12.8458784283766</v>
       </c>
       <c r="K16" t="n">
-        <v>1.134660098281818</v>
+        <v>3.214803176242558</v>
       </c>
       <c r="L16" t="n">
-        <v>15.79183834789363</v>
+        <v>1.743223802912986</v>
       </c>
       <c r="M16" t="n">
-        <v>1.725172803347158</v>
+        <v>1.043734834846962</v>
       </c>
       <c r="N16" t="n">
-        <v>2.378981665313883</v>
+        <v>23.86506862319779</v>
       </c>
       <c r="O16" t="n">
-        <v>1.067604849139147</v>
+        <v>2.345489738192732</v>
       </c>
       <c r="P16" t="n">
-        <v>32.580098997863</v>
+        <v>2.213006892470256</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.417823775116674</v>
+        <v>1.021204030237162</v>
       </c>
       <c r="R16" t="n">
-        <v>3.39335351302294</v>
+        <v>48.16084578333601</v>
       </c>
       <c r="S16" t="n">
-        <v>1.031665511880367</v>
+        <v>1.824397623960344</v>
       </c>
       <c r="T16" t="n">
-        <v>3.802269262871013</v>
+        <v>1.184435470229143</v>
       </c>
       <c r="U16" t="n">
-        <v>1.356853644740573</v>
+        <v>6.421950554075082</v>
       </c>
       <c r="V16" t="n">
-        <v>1.599936670779444</v>
+        <v>2.654919776245267</v>
       </c>
       <c r="W16" t="n">
-        <v>2.666842599737718</v>
+        <v>1.604258897835417</v>
       </c>
       <c r="X16" t="n">
-        <v>7.442169523568941</v>
+        <v>1.381570129907354</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.155227209768613</v>
+        <v>3.620750215020247</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.212037135581197</v>
+        <v>4.560337918112054</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.825057228564601</v>
+        <v>1.280872215784021</v>
       </c>
       <c r="AB16" t="n">
-        <v>16.48739826117029</v>
+        <v>1.726226320716223</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.064568624318726</v>
+        <v>2.376981212982992</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.370249660797575</v>
+        <v>8.800808562485315</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.421896484804688</v>
+        <v>1.128191839600971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2148,100 +2148,100 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fc ingolstadt</t>
+          <t>fc saarbrucken</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1860 munique</t>
+          <t>waldhof mannheim</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.727485488311934</v>
+        <v>1.236186872993979</v>
       </c>
       <c r="F17" t="n">
-        <v>8.027721598268025</v>
+        <v>13.17340321372456</v>
       </c>
       <c r="G17" t="n">
-        <v>3.372049062137881</v>
+        <v>8.684303091723834</v>
       </c>
       <c r="H17" t="n">
-        <v>2.24121093823118</v>
+        <v>1.410828708783499</v>
       </c>
       <c r="I17" t="n">
-        <v>1.238094621209099</v>
+        <v>1.067877252978094</v>
       </c>
       <c r="J17" t="n">
-        <v>5.200010881899682</v>
+        <v>15.73247599343366</v>
       </c>
       <c r="K17" t="n">
-        <v>1.805664830367251</v>
+        <v>3.434104478630737</v>
       </c>
       <c r="L17" t="n">
-        <v>3.12423404122816</v>
+        <v>1.694484605409988</v>
       </c>
       <c r="M17" t="n">
-        <v>1.129260783983224</v>
+        <v>1.033143045928731</v>
       </c>
       <c r="N17" t="n">
-        <v>8.736298428530199</v>
+        <v>31.17224192822628</v>
       </c>
       <c r="O17" t="n">
-        <v>1.470757920545249</v>
+        <v>2.439916727037672</v>
       </c>
       <c r="P17" t="n">
-        <v>4.697931311800627</v>
+        <v>2.157410840473787</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.066630506135361</v>
+        <v>1.015018394414802</v>
       </c>
       <c r="R17" t="n">
-        <v>16.00814053503482</v>
+        <v>67.58501384238616</v>
       </c>
       <c r="S17" t="n">
-        <v>1.270421464241063</v>
+        <v>1.863997437237281</v>
       </c>
       <c r="T17" t="n">
-        <v>1.68119435769435</v>
+        <v>1.24440799699623</v>
       </c>
       <c r="U17" t="n">
-        <v>2.468009810569654</v>
+        <v>5.091519149495856</v>
       </c>
       <c r="V17" t="n">
-        <v>2.572608310181281</v>
+        <v>3.685729906868383</v>
       </c>
       <c r="W17" t="n">
-        <v>1.635886249313236</v>
+        <v>1.372338259868439</v>
       </c>
       <c r="X17" t="n">
-        <v>2.380564232144619</v>
+        <v>1.499040964780522</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.724341524078574</v>
+        <v>3.003843513006593</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.365568546340137</v>
+        <v>7.136477708399448</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.29712661805312</v>
+        <v>1.162959933616515</v>
       </c>
       <c r="AB17" t="n">
-        <v>3.724981080619222</v>
+        <v>1.947855552527791</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.366975024932195</v>
+        <v>2.055013073809768</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.316396163016092</v>
+        <v>15.63178066901687</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.136679312836412</v>
+        <v>1.068344381495379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2251,100 +2251,100 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>erzgebirge aue</t>
+          <t>sc friburgo ii</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hallescher</t>
+          <t>fc ingolstadt</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.391395208673534</v>
+        <v>2.439709604162419</v>
       </c>
       <c r="F18" t="n">
-        <v>9.899195793673465</v>
+        <v>6.986266284184028</v>
       </c>
       <c r="G18" t="n">
-        <v>5.546969193493958</v>
+        <v>2.237250688440733</v>
       </c>
       <c r="H18" t="n">
-        <v>1.675594730015505</v>
+        <v>3.594329239789308</v>
       </c>
       <c r="I18" t="n">
-        <v>1.118177446426116</v>
+        <v>1.451037319453757</v>
       </c>
       <c r="J18" t="n">
-        <v>9.461851480478522</v>
+        <v>3.217111438164543</v>
       </c>
       <c r="K18" t="n">
-        <v>2.48017732461745</v>
+        <v>1.38545608809513</v>
       </c>
       <c r="L18" t="n">
-        <v>2.147706991531827</v>
+        <v>5.811065458756594</v>
       </c>
       <c r="M18" t="n">
-        <v>1.059958187549131</v>
+        <v>1.245916385282837</v>
       </c>
       <c r="N18" t="n">
-        <v>17.67828933589061</v>
+        <v>5.066422816234327</v>
       </c>
       <c r="O18" t="n">
-        <v>1.871302525277217</v>
+        <v>1.207854166311519</v>
       </c>
       <c r="P18" t="n">
-        <v>2.946704534472</v>
+        <v>10.32918753369157</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.028426675411972</v>
+        <v>1.128890081127581</v>
       </c>
       <c r="R18" t="n">
-        <v>36.17822557536428</v>
+        <v>8.758548922086185</v>
       </c>
       <c r="S18" t="n">
-        <v>1.513688637536988</v>
+        <v>1.107190470380039</v>
       </c>
       <c r="T18" t="n">
-        <v>1.432429569607466</v>
+        <v>2.780438373378985</v>
       </c>
       <c r="U18" t="n">
-        <v>3.312515309505179</v>
+        <v>1.561659428909163</v>
       </c>
       <c r="V18" t="n">
-        <v>3.41525786973581</v>
+        <v>2.592075773939143</v>
       </c>
       <c r="W18" t="n">
-        <v>1.414034465027697</v>
+        <v>1.628110807518779</v>
       </c>
       <c r="X18" t="n">
-        <v>1.871487214026293</v>
+        <v>4.860707636526706</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.147463765280015</v>
+        <v>1.259019872558817</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.437654214146841</v>
+        <v>4.411472997577356</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.183902830267941</v>
+        <v>1.293128510971696</v>
       </c>
       <c r="AB18" t="n">
-        <v>2.674389500909806</v>
+        <v>9.557802676722552</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.597232602961637</v>
+        <v>1.116852425532085</v>
       </c>
       <c r="AD18" t="n">
-        <v>13.70870192863916</v>
+        <v>8.430095946855287</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.078686242357018</v>
+        <v>1.134587764027898</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2354,100 +2354,100 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>waldhof mannheim</t>
+          <t>dinamo dresden</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ssv ulm 1846</t>
+          <t>erzgebirge aue</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2.572231286686055</v>
+        <v>1.248767068474845</v>
       </c>
       <c r="F19" t="n">
-        <v>7.485924653792172</v>
+        <v>13.12971762475197</v>
       </c>
       <c r="G19" t="n">
-        <v>2.093590008209359</v>
+        <v>8.126972933092244</v>
       </c>
       <c r="H19" t="n">
-        <v>3.739303234741828</v>
+        <v>1.424397808471153</v>
       </c>
       <c r="I19" t="n">
-        <v>1.531005104765807</v>
+        <v>1.075318546691913</v>
       </c>
       <c r="J19" t="n">
-        <v>2.883221067038589</v>
+        <v>14.27694231927293</v>
       </c>
       <c r="K19" t="n">
-        <v>1.365056335245137</v>
+        <v>3.356279839432702</v>
       </c>
       <c r="L19" t="n">
-        <v>5.906714021770761</v>
+        <v>1.706045547487899</v>
       </c>
       <c r="M19" t="n">
-        <v>1.303403397219119</v>
+        <v>1.038050644073013</v>
       </c>
       <c r="N19" t="n">
-        <v>4.295942000536658</v>
+        <v>27.28076408065957</v>
       </c>
       <c r="O19" t="n">
-        <v>1.203802380893418</v>
+        <v>2.416339219980903</v>
       </c>
       <c r="P19" t="n">
-        <v>10.15810154406467</v>
+        <v>2.16120788431881</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.168212893558202</v>
+        <v>1.017928154722262</v>
       </c>
       <c r="R19" t="n">
-        <v>6.944847501562069</v>
+        <v>56.77818885946215</v>
       </c>
       <c r="S19" t="n">
-        <v>1.109192936460515</v>
+        <v>1.861172244439781</v>
       </c>
       <c r="T19" t="n">
-        <v>2.26068704270826</v>
+        <v>1.20224235490825</v>
       </c>
       <c r="U19" t="n">
-        <v>1.793218273943515</v>
+        <v>5.944562678048635</v>
       </c>
       <c r="V19" t="n">
-        <v>1.973408089777979</v>
+        <v>3.026156104221216</v>
       </c>
       <c r="W19" t="n">
-        <v>2.027318357532951</v>
+        <v>1.4935453877007</v>
       </c>
       <c r="X19" t="n">
-        <v>3.644125546817969</v>
+        <v>1.416439066636317</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.3781968678467</v>
+        <v>3.401311692673915</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.004554359616504</v>
+        <v>5.460003630696178</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.498863996979015</v>
+        <v>1.22421506411283</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.569885520950039</v>
+        <v>1.791665770821588</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.179536903629113</v>
+        <v>2.26315932412008</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.091965650963457</v>
+        <v>11.10198180350985</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.244381328021302</v>
+        <v>1.098990477259874</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2457,100 +2457,100 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>spvgg unterhaching</t>
+          <t>ssv ulm 1846</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>fc saarbrucken</t>
+          <t>rot-weiss essen</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.729612422334214</v>
+        <v>2.882039435407671</v>
       </c>
       <c r="F20" t="n">
-        <v>8.022305886635689</v>
+        <v>8.449106699901371</v>
       </c>
       <c r="G20" t="n">
-        <v>3.364926060348784</v>
+        <v>1.870320303953321</v>
       </c>
       <c r="H20" t="n">
-        <v>2.24484439017949</v>
+        <v>4.129295277584635</v>
       </c>
       <c r="I20" t="n">
-        <v>1.238854397014978</v>
+        <v>1.704997742527725</v>
       </c>
       <c r="J20" t="n">
-        <v>5.186650999509506</v>
+        <v>2.418444258295867</v>
       </c>
       <c r="K20" t="n">
-        <v>1.803313255768308</v>
+        <v>1.319560767295778</v>
       </c>
       <c r="L20" t="n">
-        <v>3.130654600309294</v>
+        <v>6.351043759827246</v>
       </c>
       <c r="M20" t="n">
-        <v>1.129707695831786</v>
+        <v>1.429030619676207</v>
       </c>
       <c r="N20" t="n">
-        <v>8.70964277475769</v>
+        <v>3.330835968665149</v>
       </c>
       <c r="O20" t="n">
-        <v>1.469339328793524</v>
+        <v>1.186879428553259</v>
       </c>
       <c r="P20" t="n">
-        <v>4.709792858775728</v>
+        <v>10.5269273394231</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.066883937324405</v>
+        <v>1.2556391882929</v>
       </c>
       <c r="R20" t="n">
-        <v>15.95127290652364</v>
+        <v>4.911763320317871</v>
       </c>
       <c r="S20" t="n">
-        <v>1.269556829199895</v>
+        <v>1.104965637332189</v>
       </c>
       <c r="T20" t="n">
-        <v>1.682717113728246</v>
+        <v>1.711597471625693</v>
       </c>
       <c r="U20" t="n">
-        <v>2.464735510347917</v>
+        <v>2.405288860450039</v>
       </c>
       <c r="V20" t="n">
-        <v>2.569571097465901</v>
+        <v>1.414056858004632</v>
       </c>
       <c r="W20" t="n">
-        <v>1.637116726737971</v>
+        <v>3.415127248028371</v>
       </c>
       <c r="X20" t="n">
-        <v>2.3837433677748</v>
+        <v>2.444184169488584</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.722677357151927</v>
+        <v>1.692432461958173</v>
       </c>
       <c r="Z20" t="n">
-        <v>4.358415805083059</v>
+        <v>1.834677190816383</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.297759437198476</v>
+        <v>2.198067960886672</v>
       </c>
       <c r="AB20" t="n">
-        <v>3.731735557435038</v>
+        <v>3.860581533416709</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.366067644167926</v>
+        <v>1.349579268522226</v>
       </c>
       <c r="AD20" t="n">
-        <v>8.298706095025516</v>
+        <v>2.600940755880244</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.137010586120403</v>
+        <v>1.624632733177044</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2560,100 +2560,100 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>kvc westerlo</t>
+          <t>royal charleroi sc</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>royal antwerp fc</t>
+          <t>kv kortrijk</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.413427581517083</v>
+        <v>1.224800618620842</v>
       </c>
       <c r="F21" t="n">
-        <v>9.365206385508625</v>
+        <v>13.72600774432911</v>
       </c>
       <c r="G21" t="n">
-        <v>1.411440693541462</v>
+        <v>9.034551030179617</v>
       </c>
       <c r="H21" t="n">
-        <v>9.40246183401309</v>
+        <v>1.389143807107691</v>
       </c>
       <c r="I21" t="n">
-        <v>2.381478679979534</v>
+        <v>1.065278552244129</v>
       </c>
       <c r="J21" t="n">
-        <v>1.72386205772992</v>
+        <v>16.31896718940998</v>
       </c>
       <c r="K21" t="n">
-        <v>1.119012739332181</v>
+        <v>3.569744093918629</v>
       </c>
       <c r="L21" t="n">
-        <v>18.00946758658959</v>
+        <v>1.65445088861696</v>
       </c>
       <c r="M21" t="n">
-        <v>1.797427233319077</v>
+        <v>1.032081489214636</v>
       </c>
       <c r="N21" t="n">
-        <v>2.254032917634087</v>
+        <v>32.17062282581876</v>
       </c>
       <c r="O21" t="n">
-        <v>1.058790787830914</v>
+        <v>2.527998536472743</v>
       </c>
       <c r="P21" t="n">
-        <v>38.02577178571138</v>
+        <v>2.084400286888521</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.460066766050742</v>
+        <v>1.01464784657242</v>
       </c>
       <c r="R21" t="n">
-        <v>3.173597559728336</v>
+        <v>69.26942069989278</v>
       </c>
       <c r="S21" t="n">
-        <v>1.027008214866865</v>
+        <v>1.922168697381397</v>
       </c>
       <c r="T21" t="n">
-        <v>4.10176195947388</v>
+        <v>1.212775585183075</v>
       </c>
       <c r="U21" t="n">
-        <v>1.322397402852158</v>
+        <v>5.699787332929137</v>
       </c>
       <c r="V21" t="n">
-        <v>1.570255743446503</v>
+        <v>3.473763011775798</v>
       </c>
       <c r="W21" t="n">
-        <v>2.753599172813614</v>
+        <v>1.404242441672756</v>
       </c>
       <c r="X21" t="n">
-        <v>8.239836493792499</v>
+        <v>1.437063758517431</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.138124666331541</v>
+        <v>3.287995699739808</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.151026505428825</v>
+        <v>6.587523229732842</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.868789724027633</v>
+        <v>1.178970173167014</v>
       </c>
       <c r="AB21" t="n">
-        <v>18.75850152573564</v>
+        <v>1.830506708327698</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.056311057470181</v>
+        <v>2.204084193387905</v>
       </c>
       <c r="AD21" t="n">
-        <v>3.243476093904795</v>
+        <v>14.11713149882709</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.445736864643603</v>
+        <v>1.076236180150319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2663,100 +2663,100 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>clube brugge</t>
+          <t>gent</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>royal charleroi sc</t>
+          <t>eupen</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.250876120955071</v>
+        <v>1.226347161713955</v>
       </c>
       <c r="F22" t="n">
-        <v>12.37298243224813</v>
+        <v>13.6800302939626</v>
       </c>
       <c r="G22" t="n">
-        <v>8.351493159909774</v>
+        <v>8.9709460415752</v>
       </c>
       <c r="H22" t="n">
-        <v>1.442791360385089</v>
+        <v>1.39149099146704</v>
       </c>
       <c r="I22" t="n">
-        <v>1.069617427076456</v>
+        <v>1.065889492053107</v>
       </c>
       <c r="J22" t="n">
-        <v>15.36421944898606</v>
+        <v>16.1769268337052</v>
       </c>
       <c r="K22" t="n">
-        <v>3.258399981269546</v>
+        <v>3.554337192415806</v>
       </c>
       <c r="L22" t="n">
-        <v>1.759022941862718</v>
+        <v>1.65799826410443</v>
       </c>
       <c r="M22" t="n">
-        <v>1.033242495039445</v>
+        <v>1.032434477618637</v>
       </c>
       <c r="N22" t="n">
-        <v>31.08197786638581</v>
+        <v>31.83138910877366</v>
       </c>
       <c r="O22" t="n">
-        <v>2.317483233834673</v>
+        <v>2.519760848246388</v>
       </c>
       <c r="P22" t="n">
-        <v>2.282519833912561</v>
+        <v>2.089849292063409</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.0146848293994</v>
+        <v>1.014836502139987</v>
       </c>
       <c r="R22" t="n">
-        <v>69.09748842168334</v>
+        <v>68.40133156485837</v>
       </c>
       <c r="S22" t="n">
-        <v>1.779715037193084</v>
+        <v>1.917558058056544</v>
       </c>
       <c r="T22" t="n">
-        <v>1.320142909253081</v>
+        <v>1.212552173984993</v>
       </c>
       <c r="U22" t="n">
-        <v>4.12360502480932</v>
+        <v>5.704727226504891</v>
       </c>
       <c r="V22" t="n">
-        <v>4.356043417481514</v>
+        <v>3.446614452965914</v>
       </c>
       <c r="W22" t="n">
-        <v>1.297969923389857</v>
+        <v>1.408728068612424</v>
       </c>
       <c r="X22" t="n">
-        <v>1.648029617055206</v>
+        <v>1.436626275762263</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.543139346846874</v>
+        <v>3.290288183536822</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.930139238862877</v>
+        <v>6.517888174234371</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.126101190644843</v>
+        <v>1.1812287542668</v>
       </c>
       <c r="AB22" t="n">
-        <v>2.234044541729839</v>
+        <v>1.829681765643286</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.810343521797225</v>
+        <v>2.205281399940928</v>
       </c>
       <c r="AD22" t="n">
-        <v>20.76604291231945</v>
+        <v>13.92708076867061</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.050591815693</v>
+        <v>1.077356985532538</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2766,100 +2766,100 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>rwd molenbeek 47</t>
+          <t>kv mechelen</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>cercle brugge</t>
+          <t>oud-heverlee leuven</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.411681989450237</v>
+        <v>1.237217219795525</v>
       </c>
       <c r="F23" t="n">
-        <v>9.363892568122598</v>
+        <v>13.3026662007282</v>
       </c>
       <c r="G23" t="n">
-        <v>1.411589258676473</v>
+        <v>8.579155046282555</v>
       </c>
       <c r="H23" t="n">
-        <v>9.398734566996978</v>
+        <v>1.409328478445265</v>
       </c>
       <c r="I23" t="n">
-        <v>2.381009690286409</v>
+        <v>1.069611098703656</v>
       </c>
       <c r="J23" t="n">
-        <v>1.724107880656948</v>
+        <v>15.36552530591617</v>
       </c>
       <c r="K23" t="n">
-        <v>1.119065555890946</v>
+        <v>3.443025718118263</v>
       </c>
       <c r="L23" t="n">
-        <v>18.00088111528414</v>
+        <v>1.68716592985188</v>
       </c>
       <c r="M23" t="n">
-        <v>1.797163897765427</v>
+        <v>1.034454017721953</v>
       </c>
       <c r="N23" t="n">
-        <v>2.254447175547154</v>
+        <v>30.02419125891463</v>
       </c>
       <c r="O23" t="n">
-        <v>1.058820480727965</v>
+        <v>2.4552525911981</v>
       </c>
       <c r="P23" t="n">
-        <v>38.00437664045624</v>
+        <v>2.138137349969164</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.459913951350959</v>
+        <v>1.015858152125503</v>
       </c>
       <c r="R23" t="n">
-        <v>3.174319776694277</v>
+        <v>64.05904950878654</v>
       </c>
       <c r="S23" t="n">
-        <v>1.027023830443524</v>
+        <v>1.878628576794438</v>
       </c>
       <c r="T23" t="n">
-        <v>4.100566456719225</v>
+        <v>1.220988350907927</v>
       </c>
       <c r="U23" t="n">
-        <v>1.322521711422409</v>
+        <v>5.525125400915996</v>
       </c>
       <c r="V23" t="n">
-        <v>1.570346029401843</v>
+        <v>3.386151640845752</v>
       </c>
       <c r="W23" t="n">
-        <v>2.753321577514552</v>
+        <v>1.41908484896021</v>
       </c>
       <c r="X23" t="n">
-        <v>8.236618798483924</v>
+        <v>1.453147573585147</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.138186082181018</v>
+        <v>3.206786614983603</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.151211650305179</v>
+        <v>6.363366223412545</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.868649999967345</v>
+        <v>1.186450068547385</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.74923282543873</v>
+        <v>1.860867801280326</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.056340463265926</v>
+        <v>2.161618541793235</v>
       </c>
       <c r="AD23" t="n">
-        <v>3.24385945022486</v>
+        <v>13.50708396247979</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.445660711904121</v>
+        <v>1.079954688319029</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2869,100 +2869,100 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>royal union saint-gilloise</t>
+          <t>genk</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>genk</t>
+          <t>sint truiden</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.212890626292046</v>
+        <v>1.889881938222094</v>
       </c>
       <c r="F24" t="n">
-        <v>7.480001548153973</v>
+        <v>7.144323227413614</v>
       </c>
       <c r="G24" t="n">
-        <v>2.413054209683036</v>
+        <v>3.02210536700392</v>
       </c>
       <c r="H24" t="n">
-        <v>3.088910058293576</v>
+        <v>2.591132018654211</v>
       </c>
       <c r="I24" t="n">
-        <v>1.408907773561407</v>
+        <v>1.268233910987816</v>
       </c>
       <c r="J24" t="n">
-        <v>3.445539225851445</v>
+        <v>4.728089398977686</v>
       </c>
       <c r="K24" t="n">
-        <v>1.478718552782927</v>
+        <v>1.628483361704836</v>
       </c>
       <c r="L24" t="n">
-        <v>4.667724030728253</v>
+        <v>3.877924930337019</v>
       </c>
       <c r="M24" t="n">
-        <v>1.230646028975597</v>
+        <v>1.139580181843697</v>
       </c>
       <c r="N24" t="n">
-        <v>5.335648024990729</v>
+        <v>8.164340859792027</v>
       </c>
       <c r="O24" t="n">
-        <v>1.272648648486632</v>
+        <v>1.347472579794809</v>
       </c>
       <c r="P24" t="n">
-        <v>7.655569416805012</v>
+        <v>6.356378877961673</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.12530186057232</v>
+        <v>1.068620606381528</v>
       </c>
       <c r="R24" t="n">
-        <v>8.980727464320733</v>
+        <v>15.57288200631804</v>
       </c>
       <c r="S24" t="n">
-        <v>1.150250104442611</v>
+        <v>1.186693290893668</v>
       </c>
       <c r="T24" t="n">
-        <v>2.018852305428974</v>
+        <v>2.314882463361826</v>
       </c>
       <c r="U24" t="n">
-        <v>1.981496527682649</v>
+        <v>1.760524250542706</v>
       </c>
       <c r="V24" t="n">
-        <v>2.135787563710176</v>
+        <v>3.416278167435292</v>
       </c>
       <c r="W24" t="n">
-        <v>1.880446336930639</v>
+        <v>1.4138596348207</v>
       </c>
       <c r="X24" t="n">
-        <v>3.10405309789056</v>
+        <v>3.767521925158507</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.475273176804597</v>
+        <v>1.361334084080554</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.363005577845827</v>
+        <v>6.440261614383041</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.423189860140586</v>
+        <v>1.183814689601725</v>
       </c>
       <c r="AB24" t="n">
-        <v>5.317101684647067</v>
+        <v>6.862980414779464</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.231636888136387</v>
+        <v>1.170561715928504</v>
       </c>
       <c r="AD24" t="n">
-        <v>5.911490267613053</v>
+        <v>13.71578854264991</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.203604190482493</v>
+        <v>1.078642389864058</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2972,100 +2972,100 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sint truiden</t>
+          <t>cercle brugge</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>kv mechelen</t>
+          <t>royal union saint-gilloise</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1.673106136102891</v>
+        <v>2.781595645891238</v>
       </c>
       <c r="F25" t="n">
-        <v>8.182297142612336</v>
+        <v>7.837123353704357</v>
       </c>
       <c r="G25" t="n">
-        <v>3.570227204587213</v>
+        <v>1.949711945172339</v>
       </c>
       <c r="H25" t="n">
-        <v>2.148561708726959</v>
+        <v>4.063501803771715</v>
       </c>
       <c r="I25" t="n">
-        <v>1.218649832792539</v>
+        <v>1.624007799897829</v>
       </c>
       <c r="J25" t="n">
-        <v>5.57352282061349</v>
+        <v>2.60254407102561</v>
       </c>
       <c r="K25" t="n">
-        <v>1.870654134124302</v>
+        <v>1.326423832611693</v>
       </c>
       <c r="L25" t="n">
-        <v>2.961140204097256</v>
+        <v>6.426820089626299</v>
       </c>
       <c r="M25" t="n">
-        <v>1.117845158290361</v>
+        <v>1.365703431973173</v>
       </c>
       <c r="N25" t="n">
-        <v>9.485711373360559</v>
+        <v>3.734456153732125</v>
       </c>
       <c r="O25" t="n">
-        <v>1.509907449712559</v>
+        <v>1.184269974586326</v>
       </c>
       <c r="P25" t="n">
-        <v>4.398052012370299</v>
+        <v>11.03276165615339</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.060179887513091</v>
+        <v>1.209068434833474</v>
       </c>
       <c r="R25" t="n">
-        <v>17.61684727779632</v>
+        <v>5.783122812377261</v>
       </c>
       <c r="S25" t="n">
-        <v>1.294286254701102</v>
+        <v>1.099673453259669</v>
       </c>
       <c r="T25" t="n">
-        <v>1.642118971664015</v>
+        <v>2.100406564302203</v>
       </c>
       <c r="U25" t="n">
-        <v>2.557343800960368</v>
+        <v>1.908755029677714</v>
       </c>
       <c r="V25" t="n">
-        <v>2.656225683384052</v>
+        <v>1.706454281483715</v>
       </c>
       <c r="W25" t="n">
-        <v>1.603782449476794</v>
+        <v>2.415519767110439</v>
       </c>
       <c r="X25" t="n">
-        <v>2.29924834493152</v>
+        <v>3.284215096962412</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.76967579285445</v>
+        <v>1.437787142432347</v>
       </c>
       <c r="Z25" t="n">
-        <v>4.56344225067299</v>
+        <v>2.433400245311607</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.280627530812697</v>
+        <v>1.697641850746725</v>
       </c>
       <c r="AB25" t="n">
-        <v>3.552997962595027</v>
+        <v>5.729374934658539</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.391696356460675</v>
+        <v>1.211444432682138</v>
       </c>
       <c r="AD25" t="n">
-        <v>8.808571180025256</v>
+        <v>3.837532848499966</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.128064402173608</v>
+        <v>1.352418827689921</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3075,100 +3075,100 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>eupen</t>
+          <t>standard liege</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>standard liege</t>
+          <t>kvc westerlo</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.406923921830019</v>
+        <v>1.256668288432168</v>
       </c>
       <c r="F26" t="n">
-        <v>9.733960441193435</v>
+        <v>12.34344135375082</v>
       </c>
       <c r="G26" t="n">
-        <v>5.362033604528214</v>
+        <v>8.114882400793705</v>
       </c>
       <c r="H26" t="n">
-        <v>1.701399238085704</v>
+        <v>1.449383048810964</v>
       </c>
       <c r="I26" t="n">
-        <v>1.123654471395525</v>
+        <v>1.072817102731415</v>
       </c>
       <c r="J26" t="n">
-        <v>9.087050866129765</v>
+        <v>14.73303746632828</v>
       </c>
       <c r="K26" t="n">
-        <v>2.425721537321958</v>
+        <v>3.225273077491304</v>
       </c>
       <c r="L26" t="n">
-        <v>2.191245995733607</v>
+        <v>1.765406994622295</v>
       </c>
       <c r="M26" t="n">
-        <v>1.063043111434835</v>
+        <v>1.035276905125758</v>
       </c>
       <c r="N26" t="n">
-        <v>16.86216126140378</v>
+        <v>29.3471579050126</v>
       </c>
       <c r="O26" t="n">
-        <v>1.839457176419862</v>
+        <v>2.306494462457153</v>
       </c>
       <c r="P26" t="n">
-        <v>3.022356205255962</v>
+        <v>2.287232457405177</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.030063322459343</v>
+        <v>1.015837262031239</v>
       </c>
       <c r="R26" t="n">
-        <v>34.26312324103132</v>
+        <v>64.14222736401592</v>
       </c>
       <c r="S26" t="n">
-        <v>1.494472733043304</v>
+        <v>1.77686046078718</v>
       </c>
       <c r="T26" t="n">
-        <v>1.444416627683792</v>
+        <v>1.299212629878402</v>
       </c>
       <c r="U26" t="n">
-        <v>3.250140831165103</v>
+        <v>4.342104911836088</v>
       </c>
       <c r="V26" t="n">
-        <v>3.348665508467556</v>
+        <v>3.992502419272927</v>
       </c>
       <c r="W26" t="n">
-        <v>1.425773698466102</v>
+        <v>1.334168485064405</v>
       </c>
       <c r="X26" t="n">
-        <v>1.895559083029299</v>
+        <v>1.606741258059263</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.116620911953036</v>
+        <v>2.648149003742755</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.267958632804025</v>
+        <v>7.94686289754767</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.189826851291678</v>
+        <v>1.143949868415139</v>
       </c>
       <c r="AB26" t="n">
-        <v>2.722612637993754</v>
+        <v>2.15414315204475</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.580513562912584</v>
+        <v>1.866443645425041</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.24897051890433</v>
+        <v>17.91807994310629</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.081639513986637</v>
+        <v>1.059108362376989</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3178,100 +3178,100 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>oud-heverlee leuven</t>
+          <t>royal antwerp fc</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>gent</t>
+          <t>rwd molenbeek 47</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.727990656049811</v>
+        <v>1.226584611365943</v>
       </c>
       <c r="F27" t="n">
-        <v>8.838805804124354</v>
+        <v>13.69091925882421</v>
       </c>
       <c r="G27" t="n">
-        <v>1.480700101459271</v>
+        <v>8.953596861892818</v>
       </c>
       <c r="H27" t="n">
-        <v>7.965049019056258</v>
+        <v>1.391528010793769</v>
       </c>
       <c r="I27" t="n">
-        <v>2.191577082348671</v>
+        <v>1.066124394209475</v>
       </c>
       <c r="J27" t="n">
-        <v>1.839223928366378</v>
+        <v>16.12301189228442</v>
       </c>
       <c r="K27" t="n">
-        <v>1.143574007485664</v>
+        <v>3.554095677529273</v>
       </c>
       <c r="L27" t="n">
-        <v>14.76116619677531</v>
+        <v>1.657527917074839</v>
       </c>
       <c r="M27" t="n">
-        <v>1.689537459495319</v>
+        <v>1.032603293925576</v>
       </c>
       <c r="N27" t="n">
-        <v>2.450247533661061</v>
+        <v>31.67174753209653</v>
       </c>
       <c r="O27" t="n">
-        <v>1.07266825977542</v>
+        <v>2.52084797319135</v>
       </c>
       <c r="P27" t="n">
-        <v>30.09253410509369</v>
+        <v>2.088307751651774</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.396901544857934</v>
+        <v>1.014941645022878</v>
       </c>
       <c r="R27" t="n">
-        <v>3.519516522310182</v>
+        <v>67.92703503990755</v>
       </c>
       <c r="S27" t="n">
-        <v>1.034373079924478</v>
+        <v>1.918857738982613</v>
       </c>
       <c r="T27" t="n">
-        <v>3.660033087792473</v>
+        <v>1.210118995244397</v>
       </c>
       <c r="U27" t="n">
-        <v>1.375935173359023</v>
+        <v>5.759207985155571</v>
       </c>
       <c r="V27" t="n">
-        <v>1.61662771183564</v>
+        <v>3.412357400366559</v>
       </c>
       <c r="W27" t="n">
-        <v>2.621724065924799</v>
+        <v>1.414532274466482</v>
       </c>
       <c r="X27" t="n">
-        <v>7.069438105579503</v>
+        <v>1.431861750255443</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.164759897473989</v>
+        <v>3.315555844916823</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.246474841478341</v>
+        <v>6.430243195187749</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.802262481939854</v>
+        <v>1.184153814857904</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.44528114609143</v>
+        <v>1.820700509240372</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.069226759236221</v>
+        <v>2.218471280011248</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.442199316058729</v>
+        <v>13.68856336683554</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.409466988801643</v>
+        <v>1.078811128658878</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3281,100 +3281,100 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>kv kortrijk</t>
+          <t>anderlecht</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>anderlecht</t>
+          <t>clube brugge</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.285424678529994</v>
+        <v>4.531441508218451</v>
       </c>
       <c r="F28" t="n">
-        <v>9.267131272302326</v>
+        <v>9.092812146774564</v>
       </c>
       <c r="G28" t="n">
-        <v>1.422693295569326</v>
+        <v>1.494003011126019</v>
       </c>
       <c r="H28" t="n">
-        <v>9.130751664541627</v>
+        <v>7.391113090219253</v>
       </c>
       <c r="I28" t="n">
-        <v>2.346700424655759</v>
+        <v>2.187222394497526</v>
       </c>
       <c r="J28" t="n">
-        <v>1.742555643179231</v>
+        <v>1.842302170709335</v>
       </c>
       <c r="K28" t="n">
-        <v>1.122989858903331</v>
+        <v>1.156467267263721</v>
       </c>
       <c r="L28" t="n">
-        <v>17.38722721330793</v>
+        <v>13.15869953036086</v>
       </c>
       <c r="M28" t="n">
-        <v>1.777801207657504</v>
+        <v>1.702197442493762</v>
       </c>
       <c r="N28" t="n">
-        <v>2.285675555855318</v>
+        <v>2.424100885996724</v>
       </c>
       <c r="O28" t="n">
-        <v>1.061023136311182</v>
+        <v>1.082245637989734</v>
       </c>
       <c r="P28" t="n">
-        <v>36.48437464750938</v>
+        <v>25.59887154020417</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.448626868052645</v>
+        <v>1.41284348064727</v>
       </c>
       <c r="R28" t="n">
-        <v>3.229023875321378</v>
+        <v>3.422225484661078</v>
       </c>
       <c r="S28" t="n">
-        <v>1.028181418157532</v>
+        <v>1.04065227131926</v>
       </c>
       <c r="T28" t="n">
-        <v>4.017816570630822</v>
+        <v>2.903103580231359</v>
       </c>
       <c r="U28" t="n">
-        <v>1.331365401639029</v>
+        <v>1.525457473984906</v>
       </c>
       <c r="V28" t="n">
-        <v>1.57768883619406</v>
+        <v>1.478531661416006</v>
       </c>
       <c r="W28" t="n">
-        <v>2.731035701829065</v>
+        <v>3.089725885724959</v>
       </c>
       <c r="X28" t="n">
-        <v>8.014542669724667</v>
+        <v>5.158056438542981</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.142560968987484</v>
+        <v>1.240496976118585</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.166278203123507</v>
+        <v>1.964312864770857</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.857428353991198</v>
+        <v>2.037007838983485</v>
       </c>
       <c r="AB28" t="n">
-        <v>18.11159191868351</v>
+        <v>10.31852179922797</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.058439916329943</v>
+        <v>1.107313157767453</v>
       </c>
       <c r="AD28" t="n">
-        <v>3.275083647024769</v>
+        <v>2.861172205022023</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.439544278430266</v>
+        <v>1.537295795252953</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>18/09/2023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3384,100 +3384,100 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>flamengo</t>
+          <t>bahia</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>athletico-pr</t>
+          <t>santos</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.764706296635587</v>
+        <v>1.228568679804165</v>
       </c>
       <c r="F29" t="n">
-        <v>7.93904019228825</v>
+        <v>13.62325947720341</v>
       </c>
       <c r="G29" t="n">
-        <v>3.253369251628867</v>
+        <v>8.877776427422909</v>
       </c>
       <c r="H29" t="n">
-        <v>2.304896192394416</v>
+        <v>1.394711705847992</v>
       </c>
       <c r="I29" t="n">
-        <v>1.251382445737756</v>
+        <v>1.066834138851545</v>
       </c>
       <c r="J29" t="n">
-        <v>4.978002509543599</v>
+        <v>15.96241317960635</v>
       </c>
       <c r="K29" t="n">
-        <v>1.766344484586972</v>
+        <v>3.533494662519872</v>
       </c>
       <c r="L29" t="n">
-        <v>3.23702597985476</v>
+        <v>1.662622181209103</v>
       </c>
       <c r="M29" t="n">
-        <v>1.137085820625667</v>
+        <v>1.032996489019833</v>
       </c>
       <c r="N29" t="n">
-        <v>8.294700468917569</v>
+        <v>31.30625468664046</v>
       </c>
       <c r="O29" t="n">
-        <v>1.447022077081522</v>
+        <v>2.509155637040817</v>
       </c>
       <c r="P29" t="n">
-        <v>4.906896662536379</v>
+        <v>2.096575041907802</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.071077198676961</v>
+        <v>1.015144377600795</v>
       </c>
       <c r="R29" t="n">
-        <v>15.06920951604903</v>
+        <v>67.03110582421631</v>
       </c>
       <c r="S29" t="n">
-        <v>1.255957627338624</v>
+        <v>1.911930293671665</v>
       </c>
       <c r="T29" t="n">
-        <v>1.707753732879527</v>
+        <v>1.211128865389927</v>
       </c>
       <c r="U29" t="n">
-        <v>2.412920841733262</v>
+        <v>5.736443774057765</v>
       </c>
       <c r="V29" t="n">
-        <v>2.521626724450693</v>
+        <v>3.39480167968372</v>
       </c>
       <c r="W29" t="n">
-        <v>1.657191401761822</v>
+        <v>1.417571111830884</v>
       </c>
       <c r="X29" t="n">
-        <v>2.436124026785526</v>
+        <v>1.433839202071947</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.696318689297538</v>
+        <v>3.305001473412637</v>
       </c>
       <c r="Z29" t="n">
-        <v>4.245830315958414</v>
+        <v>6.385424802886438</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.308087577802022</v>
+        <v>1.185686373239123</v>
       </c>
       <c r="AB29" t="n">
-        <v>3.843351998200733</v>
+        <v>1.824427390337794</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.35169757407201</v>
+        <v>2.212963096228849</v>
       </c>
       <c r="AD29" t="n">
-        <v>8.021209214385815</v>
+        <v>13.56689277770571</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.14242560924564</v>
+        <v>1.079574165045321</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>13/09/2023</t>
+          <t>18/09/2023</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3487,100 +3487,100 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>internacional</t>
+          <t>corinthians</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>são paulo</t>
+          <t>grêmio</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.770429193045673</v>
+        <v>2.391457416613515</v>
       </c>
       <c r="F30" t="n">
-        <v>7.54907254070124</v>
+        <v>7.816733088870117</v>
       </c>
       <c r="G30" t="n">
-        <v>1.974027742240832</v>
+        <v>2.203059202860209</v>
       </c>
       <c r="H30" t="n">
-        <v>4.105686452401748</v>
+        <v>3.349181185597883</v>
       </c>
       <c r="I30" t="n">
-        <v>1.596676715440193</v>
+        <v>1.49442771254118</v>
       </c>
       <c r="J30" t="n">
-        <v>2.675949428095679</v>
+        <v>3.022540352482186</v>
       </c>
       <c r="K30" t="n">
-        <v>1.321990006179362</v>
+        <v>1.425680235364857</v>
       </c>
       <c r="L30" t="n">
-        <v>6.622699267429994</v>
+        <v>5.05382434109153</v>
       </c>
       <c r="M30" t="n">
-        <v>1.342445410611034</v>
+        <v>1.288937868516328</v>
       </c>
       <c r="N30" t="n">
-        <v>3.92017346126986</v>
+        <v>4.460951674956686</v>
       </c>
       <c r="O30" t="n">
-        <v>1.177850522042428</v>
+        <v>1.246680644216257</v>
       </c>
       <c r="P30" t="n">
-        <v>11.64682250206536</v>
+        <v>8.243939678442034</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.19135657462409</v>
+        <v>1.163717624046797</v>
       </c>
       <c r="R30" t="n">
-        <v>6.22584605187696</v>
+        <v>7.10807789217707</v>
       </c>
       <c r="S30" t="n">
-        <v>1.093924736681391</v>
+        <v>1.138046428378745</v>
       </c>
       <c r="T30" t="n">
-        <v>2.392236915891779</v>
+        <v>1.834146228920247</v>
       </c>
       <c r="U30" t="n">
-        <v>1.718268556583607</v>
+        <v>2.198830571103152</v>
       </c>
       <c r="V30" t="n">
-        <v>1.909409278406424</v>
+        <v>1.75305642865509</v>
       </c>
       <c r="W30" t="n">
-        <v>2.099614907989856</v>
+        <v>2.327921735939411</v>
       </c>
       <c r="X30" t="n">
-        <v>3.945095600833396</v>
+        <v>2.703716570456488</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.339547551433313</v>
+        <v>1.586952088945207</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.865532609863024</v>
+        <v>2.53143254057808</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.536039946293635</v>
+        <v>1.652983382227547</v>
       </c>
       <c r="AB30" t="n">
-        <v>7.288956814616631</v>
+        <v>4.422881635116434</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.159008883265954</v>
+        <v>1.292151498825049</v>
       </c>
       <c r="AD30" t="n">
-        <v>4.780553993002658</v>
+        <v>4.048000835285617</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.264511498010841</v>
+        <v>1.328083899591942</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>14/09/2023</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3590,100 +3590,100 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>américa-mg</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>red bull bragantino</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>grêmio</t>
-        </is>
-      </c>
       <c r="E31" t="n">
-        <v>1.251075338916847</v>
+        <v>4.242895696866269</v>
       </c>
       <c r="F31" t="n">
-        <v>12.36758916092661</v>
+        <v>9.001301059565357</v>
       </c>
       <c r="G31" t="n">
-        <v>8.345077417903161</v>
+        <v>1.530885175968164</v>
       </c>
       <c r="H31" t="n">
-        <v>1.443118740369586</v>
+        <v>6.770985429228261</v>
       </c>
       <c r="I31" t="n">
-        <v>1.069685442909906</v>
+        <v>2.116185248878931</v>
       </c>
       <c r="J31" t="n">
-        <v>15.35019938515523</v>
+        <v>1.895908632553938</v>
       </c>
       <c r="K31" t="n">
-        <v>3.256731455695022</v>
+        <v>1.173280631577288</v>
       </c>
       <c r="L31" t="n">
-        <v>1.75956078931842</v>
+        <v>11.75429691165642</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03327914693456</v>
+        <v>1.665404133497675</v>
       </c>
       <c r="N31" t="n">
-        <v>31.04884716445407</v>
+        <v>2.502846089553928</v>
       </c>
       <c r="O31" t="n">
-        <v>2.31655031968848</v>
+        <v>1.092986088092483</v>
       </c>
       <c r="P31" t="n">
-        <v>2.283418319878258</v>
+        <v>22.23151163847099</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.014703136788029</v>
+        <v>1.393535210923863</v>
       </c>
       <c r="R31" t="n">
-        <v>69.01269786282296</v>
+        <v>3.541068682653325</v>
       </c>
       <c r="S31" t="n">
-        <v>1.779169180080628</v>
+        <v>1.04709980226693</v>
       </c>
       <c r="T31" t="n">
-        <v>1.320286828512707</v>
+        <v>2.600107201975876</v>
       </c>
       <c r="U31" t="n">
-        <v>4.122201448756506</v>
+        <v>1.624958127033714</v>
       </c>
       <c r="V31" t="n">
-        <v>4.353751966822259</v>
+        <v>1.451062848949653</v>
       </c>
       <c r="W31" t="n">
-        <v>1.298173511306955</v>
+        <v>3.216985952907903</v>
       </c>
       <c r="X31" t="n">
-        <v>1.64831387069987</v>
+        <v>4.430440280082625</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.542462756381375</v>
+        <v>1.291507771117914</v>
       </c>
       <c r="Z31" t="n">
-        <v>8.923866944570367</v>
+        <v>1.908924897587009</v>
       </c>
       <c r="AA31" t="n">
-        <v>1.126201008547377</v>
+        <v>2.100200910608539</v>
       </c>
       <c r="AB31" t="n">
-        <v>2.234596215322274</v>
+        <v>8.477160848204246</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.809981423553096</v>
+        <v>1.133740602924192</v>
       </c>
       <c r="AD31" t="n">
-        <v>20.74763448510568</v>
+        <v>2.749453343822806</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.050638976569788</v>
+        <v>1.571607127181144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>14/09/2023</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3693,100 +3693,100 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>vasco da gama</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>coritiba</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>bahia</t>
-        </is>
-      </c>
       <c r="E32" t="n">
-        <v>3.066790448156249</v>
+        <v>1.518661016344501</v>
       </c>
       <c r="F32" t="n">
-        <v>7.688301360781529</v>
+        <v>8.215430028254628</v>
       </c>
       <c r="G32" t="n">
-        <v>1.838713688607445</v>
+        <v>4.549527771963183</v>
       </c>
       <c r="H32" t="n">
-        <v>4.662968361639846</v>
+        <v>1.929857236168166</v>
       </c>
       <c r="I32" t="n">
-        <v>1.692750379624022</v>
+        <v>1.146394924542444</v>
       </c>
       <c r="J32" t="n">
-        <v>2.443521403110211</v>
+        <v>7.830837907294174</v>
       </c>
       <c r="K32" t="n">
-        <v>1.273002631000699</v>
+        <v>2.075433906521913</v>
       </c>
       <c r="L32" t="n">
-        <v>7.734064873398994</v>
+        <v>2.653259954997265</v>
       </c>
       <c r="M32" t="n">
-        <v>1.399357559392215</v>
+        <v>1.071603016330377</v>
       </c>
       <c r="N32" t="n">
-        <v>3.504021713078146</v>
+        <v>14.96589209853931</v>
       </c>
       <c r="O32" t="n">
-        <v>1.148498717906656</v>
+        <v>1.604865554855621</v>
       </c>
       <c r="P32" t="n">
-        <v>14.01118666660401</v>
+        <v>3.967413386792087</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.225154982804795</v>
+        <v>1.032530214713429</v>
       </c>
       <c r="R32" t="n">
-        <v>5.441385162978954</v>
+        <v>31.74065169287655</v>
       </c>
       <c r="S32" t="n">
-        <v>1.076856940540767</v>
+        <v>1.336993829188405</v>
       </c>
       <c r="T32" t="n">
-        <v>2.587176432562771</v>
+        <v>1.882755213289317</v>
       </c>
       <c r="U32" t="n">
-        <v>1.630049677832808</v>
+        <v>2.132816872611612</v>
       </c>
       <c r="V32" t="n">
-        <v>1.834320081590239</v>
+        <v>4.641436195363752</v>
       </c>
       <c r="W32" t="n">
-        <v>2.198580763025588</v>
+        <v>1.274616922101558</v>
       </c>
       <c r="X32" t="n">
-        <v>4.399910890337321</v>
+        <v>2.808017693417883</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.294125355709186</v>
+        <v>1.553091932474177</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.704088246232457</v>
+        <v>9.718438715179696</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.586824069827889</v>
+        <v>1.114699435606389</v>
       </c>
       <c r="AB32" t="n">
-        <v>8.401430444942607</v>
+        <v>4.652823041233455</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.135109018106534</v>
+        <v>1.273760866242874</v>
       </c>
       <c r="AD32" t="n">
-        <v>4.42369709318243</v>
+        <v>23.10291941649784</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.292081914019581</v>
+        <v>1.045242892178921</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>14/09/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3796,100 +3796,100 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>são paulo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>fortaleza</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>corinthians</t>
-        </is>
-      </c>
       <c r="E33" t="n">
-        <v>1.476480787439902</v>
+        <v>1.889123189880085</v>
       </c>
       <c r="F33" t="n">
-        <v>9.135578222302367</v>
+        <v>7.244051373835008</v>
       </c>
       <c r="G33" t="n">
-        <v>4.689294484287648</v>
+        <v>3.006527805349357</v>
       </c>
       <c r="H33" t="n">
-        <v>1.817314137280629</v>
+        <v>2.576570880663251</v>
       </c>
       <c r="I33" t="n">
-        <v>1.148333768653781</v>
+        <v>1.27289425013224</v>
       </c>
       <c r="J33" t="n">
-        <v>7.741553248970941</v>
+        <v>4.664423121833523</v>
       </c>
       <c r="K33" t="n">
-        <v>2.223519763560196</v>
+        <v>1.634288005864543</v>
       </c>
       <c r="L33" t="n">
-        <v>2.388022677762528</v>
+        <v>3.826779590097049</v>
       </c>
       <c r="M33" t="n">
-        <v>1.077071213242321</v>
+        <v>1.14357251283776</v>
       </c>
       <c r="N33" t="n">
-        <v>13.97501308116019</v>
+        <v>7.965121528032472</v>
       </c>
       <c r="O33" t="n">
-        <v>1.720449324078758</v>
+        <v>1.353759452453691</v>
       </c>
       <c r="P33" t="n">
-        <v>3.367282118685365</v>
+        <v>6.210433897691788</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.037601918414642</v>
+        <v>1.07149776265315</v>
       </c>
       <c r="R33" t="n">
-        <v>27.59438779087938</v>
+        <v>14.98645164396541</v>
       </c>
       <c r="S33" t="n">
-        <v>1.422425359490036</v>
+        <v>1.191922596013165</v>
       </c>
       <c r="T33" t="n">
-        <v>1.497373635915171</v>
+        <v>2.2042589716956</v>
       </c>
       <c r="U33" t="n">
-        <v>3.010560930034003</v>
+        <v>1.830386173990464</v>
       </c>
       <c r="V33" t="n">
-        <v>3.099819094226015</v>
+        <v>3.188648265493155</v>
       </c>
       <c r="W33" t="n">
-        <v>1.476231501442078</v>
+        <v>1.456903018984951</v>
       </c>
       <c r="X33" t="n">
-        <v>2.002444517969064</v>
+        <v>3.516549648788703</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.997561443127031</v>
+        <v>1.3973694699333</v>
       </c>
       <c r="Z33" t="n">
-        <v>5.642464732044407</v>
+        <v>5.864151500256875</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.215402821069925</v>
+        <v>1.205585701832517</v>
       </c>
       <c r="AB33" t="n">
-        <v>2.938540223750477</v>
+        <v>6.269459105600862</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.515852076602934</v>
+        <v>1.189772798300514</v>
       </c>
       <c r="AD33" t="n">
-        <v>11.58055475114449</v>
+        <v>12.16704058089681</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.094513002722455</v>
+        <v>1.089549240262516</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>14/09/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3899,100 +3899,100 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>goiás</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>cruzeiro</t>
+          <t>flamengo</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.427402960350777</v>
+        <v>3.095527336609438</v>
       </c>
       <c r="F34" t="n">
-        <v>8.611112877109543</v>
+        <v>8.583928967768681</v>
       </c>
       <c r="G34" t="n">
-        <v>1.519745416062906</v>
+        <v>1.784259812608156</v>
       </c>
       <c r="H34" t="n">
-        <v>7.347556112422799</v>
+        <v>4.505822161138225</v>
       </c>
       <c r="I34" t="n">
-        <v>2.105642674039244</v>
+        <v>1.781878876507784</v>
       </c>
       <c r="J34" t="n">
-        <v>1.904451341722096</v>
+        <v>2.278970477456099</v>
       </c>
       <c r="K34" t="n">
-        <v>1.157540946828796</v>
+        <v>1.285239796554692</v>
       </c>
       <c r="L34" t="n">
-        <v>13.39777087966177</v>
+        <v>7.048685094928046</v>
       </c>
       <c r="M34" t="n">
-        <v>1.640233736035702</v>
+        <v>1.476818632464644</v>
       </c>
       <c r="N34" t="n">
-        <v>2.561929563712082</v>
+        <v>3.097233480225102</v>
       </c>
       <c r="O34" t="n">
-        <v>1.080659661297699</v>
+        <v>1.165325187922003</v>
       </c>
       <c r="P34" t="n">
-        <v>26.84616694017846</v>
+        <v>11.89418843067251</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.367880250194896</v>
+        <v>1.285472203850156</v>
       </c>
       <c r="R34" t="n">
-        <v>3.718275850552506</v>
+        <v>4.502968017596906</v>
       </c>
       <c r="S34" t="n">
-        <v>1.038690456589347</v>
+        <v>1.091792060176278</v>
       </c>
       <c r="T34" t="n">
-        <v>3.46717288410574</v>
+        <v>1.7759223734226</v>
       </c>
       <c r="U34" t="n">
-        <v>1.405322223846694</v>
+        <v>2.288788716826133</v>
       </c>
       <c r="V34" t="n">
-        <v>1.642146465970887</v>
+        <v>1.389453552108861</v>
       </c>
       <c r="W34" t="n">
-        <v>2.557277121330972</v>
+        <v>3.567700293359955</v>
       </c>
       <c r="X34" t="n">
-        <v>6.570605484982646</v>
+        <v>2.579795505316267</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.179513699667984</v>
+        <v>1.632993318840849</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.299305381987476</v>
+        <v>1.785541921196089</v>
       </c>
       <c r="AA34" t="n">
-        <v>1.769642005538648</v>
+        <v>2.27300653601958</v>
       </c>
       <c r="AB34" t="n">
-        <v>14.07091476410511</v>
+        <v>4.152601740292029</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.076505739502347</v>
+        <v>1.317198327723872</v>
       </c>
       <c r="AD34" t="n">
-        <v>3.553118063480273</v>
+        <v>2.503454717471127</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.391677930724776</v>
+        <v>1.66513476487143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4002,100 +4002,100 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>palmeiras</t>
+          <t>fluminense</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>goiás</t>
+          <t>cruzeiro</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.25152139978314</v>
+        <v>1.728134943938299</v>
       </c>
       <c r="F35" t="n">
-        <v>12.35535291792718</v>
+        <v>8.163104547646373</v>
       </c>
       <c r="G35" t="n">
-        <v>8.330838733363436</v>
+        <v>3.346282635213128</v>
       </c>
       <c r="H35" t="n">
-        <v>1.443856234784666</v>
+        <v>2.230524143139671</v>
       </c>
       <c r="I35" t="n">
-        <v>1.069835935877611</v>
+        <v>1.243444257705313</v>
       </c>
       <c r="J35" t="n">
-        <v>15.31927541935614</v>
+        <v>5.107716523798603</v>
       </c>
       <c r="K35" t="n">
-        <v>3.252981757674632</v>
+        <v>1.812661828355931</v>
       </c>
       <c r="L35" t="n">
-        <v>1.760779684144195</v>
+        <v>3.0863314589773</v>
       </c>
       <c r="M35" t="n">
-        <v>1.033359795705048</v>
+        <v>1.133866117303287</v>
       </c>
       <c r="N35" t="n">
-        <v>30.97620275740094</v>
+        <v>8.470150177990178</v>
       </c>
       <c r="O35" t="n">
-        <v>2.314440988424797</v>
+        <v>1.479310224507755</v>
       </c>
       <c r="P35" t="n">
-        <v>2.285466312993993</v>
+        <v>4.598866897815891</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.01474321342098</v>
+        <v>1.069981811942432</v>
       </c>
       <c r="R35" t="n">
-        <v>68.82781822699393</v>
+        <v>15.28942709889569</v>
       </c>
       <c r="S35" t="n">
-        <v>1.777927814903908</v>
+        <v>1.277865236029398</v>
       </c>
       <c r="T35" t="n">
-        <v>1.320647321234252</v>
+        <v>1.604764903950565</v>
       </c>
       <c r="U35" t="n">
-        <v>4.118691265377641</v>
+        <v>2.653535106729247</v>
       </c>
       <c r="V35" t="n">
-        <v>4.349114157680216</v>
+        <v>2.3782153185774</v>
       </c>
       <c r="W35" t="n">
-        <v>1.298586418055291</v>
+        <v>1.725576030479914</v>
       </c>
       <c r="X35" t="n">
-        <v>1.649025898302264</v>
+        <v>2.221989446975765</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.540770564958689</v>
+        <v>1.818337672616442</v>
       </c>
       <c r="Z35" t="n">
-        <v>8.911174889561828</v>
+        <v>3.912782995617401</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.126403475332017</v>
+        <v>1.343314281051698</v>
       </c>
       <c r="AB35" t="n">
-        <v>2.235978198973803</v>
+        <v>3.391013881778082</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.809075759451316</v>
+        <v>1.418232619902795</v>
       </c>
       <c r="AD35" t="n">
-        <v>20.7103940185487</v>
+        <v>7.211081451190083</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.05073465294803</v>
+        <v>1.161002557744335</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4105,100 +4105,100 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>cuiabá</t>
+          <t>athletico-pr</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>américa-mg</t>
+          <t>internacional</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.361526623317861</v>
+        <v>1.234211121461765</v>
       </c>
       <c r="F36" t="n">
-        <v>10.2595767485477</v>
+        <v>13.28543562867453</v>
       </c>
       <c r="G36" t="n">
-        <v>5.950240660811213</v>
+        <v>8.733971281761097</v>
       </c>
       <c r="H36" t="n">
-        <v>1.62602183028958</v>
+        <v>1.406662461785406</v>
       </c>
       <c r="I36" t="n">
-        <v>1.107689248403685</v>
+        <v>1.067597214404246</v>
       </c>
       <c r="J36" t="n">
-        <v>10.28597807880864</v>
+        <v>15.79350900496844</v>
       </c>
       <c r="K36" t="n">
-        <v>2.597388384263577</v>
+        <v>3.459041819620166</v>
       </c>
       <c r="L36" t="n">
-        <v>2.064327819794631</v>
+        <v>1.686248466043054</v>
       </c>
       <c r="M36" t="n">
-        <v>1.054084785192248</v>
+        <v>1.033096414453598</v>
       </c>
       <c r="N36" t="n">
-        <v>19.48948824416009</v>
+        <v>31.21475336556592</v>
       </c>
       <c r="O36" t="n">
-        <v>1.939560144348154</v>
+        <v>2.457198157055352</v>
       </c>
       <c r="P36" t="n">
-        <v>2.802513240662445</v>
+        <v>2.141647703317963</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.025335097586905</v>
+        <v>1.015044795558793</v>
       </c>
       <c r="R36" t="n">
-        <v>40.47093539189139</v>
+        <v>67.46816808457821</v>
       </c>
       <c r="S36" t="n">
-        <v>1.554780945538291</v>
+        <v>1.8759269581095</v>
       </c>
       <c r="T36" t="n">
-        <v>1.409157037187439</v>
+        <v>1.235758183852575</v>
       </c>
       <c r="U36" t="n">
-        <v>3.44404937251975</v>
+        <v>5.24163430366992</v>
       </c>
       <c r="V36" t="n">
-        <v>3.557951006075424</v>
+        <v>3.611221170670556</v>
       </c>
       <c r="W36" t="n">
-        <v>1.390937902104022</v>
+        <v>1.382962581351622</v>
       </c>
       <c r="X36" t="n">
-        <v>1.824877500288212</v>
+        <v>1.48208446787448</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.212301220060677</v>
+        <v>3.074325282473877</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.804445616819045</v>
+        <v>6.942462600791217</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.172281741619283</v>
+        <v>1.168280402785682</v>
       </c>
       <c r="AB36" t="n">
-        <v>2.581446943389081</v>
+        <v>1.915653476792428</v>
       </c>
       <c r="AC36" t="n">
-        <v>1.632332310723605</v>
+        <v>2.092116204814775</v>
       </c>
       <c r="AD36" t="n">
-        <v>14.7122121022681</v>
+        <v>15.09319168419172</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.072927693397814</v>
+        <v>1.070956247698078</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4208,203 +4208,203 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>vasco da gama</t>
+          <t>atlético mineiro</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>fluminense</t>
+          <t>cuiabá</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5.122764752842889</v>
+        <v>1.580756181439548</v>
       </c>
       <c r="F37" t="n">
-        <v>9.141736744149147</v>
+        <v>8.92809704574217</v>
       </c>
       <c r="G37" t="n">
-        <v>1.438011966488547</v>
+        <v>3.915650306532557</v>
       </c>
       <c r="H37" t="n">
-        <v>8.787889872020646</v>
+        <v>1.967266842986858</v>
       </c>
       <c r="I37" t="n">
-        <v>2.30198761380525</v>
+        <v>1.196817413298654</v>
       </c>
       <c r="J37" t="n">
-        <v>1.768056461825588</v>
+        <v>6.080851248068101</v>
       </c>
       <c r="K37" t="n">
-        <v>1.1284044865083</v>
+        <v>2.033840875711261</v>
       </c>
       <c r="L37" t="n">
-        <v>16.60797906957829</v>
+        <v>2.606037743325137</v>
       </c>
       <c r="M37" t="n">
-        <v>1.752459958676183</v>
+        <v>1.108359311449428</v>
       </c>
       <c r="N37" t="n">
-        <v>2.328974370622085</v>
+        <v>10.22855624148836</v>
       </c>
       <c r="O37" t="n">
-        <v>1.06406979376011</v>
+        <v>1.622650373041422</v>
       </c>
       <c r="P37" t="n">
-        <v>34.56946252746597</v>
+        <v>3.694442661264249</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.433809481628433</v>
+        <v>1.056570948943095</v>
       </c>
       <c r="R37" t="n">
-        <v>3.305159389892087</v>
+        <v>18.67691754659977</v>
       </c>
       <c r="S37" t="n">
-        <v>1.029788978574853</v>
+        <v>1.371134266234782</v>
       </c>
       <c r="T37" t="n">
-        <v>3.91318738819464</v>
+        <v>1.412169204628156</v>
       </c>
       <c r="U37" t="n">
-        <v>1.343266624060088</v>
+        <v>3.426188052797793</v>
       </c>
       <c r="V37" t="n">
-        <v>1.588068831849323</v>
+        <v>2.271697945066003</v>
       </c>
       <c r="W37" t="n">
-        <v>2.700481212131683</v>
+        <v>1.786350252337711</v>
       </c>
       <c r="X37" t="n">
-        <v>7.735592668153086</v>
+        <v>1.830901016171018</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.148465034818414</v>
+        <v>2.203512789776367</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.187607159219735</v>
+        <v>3.669127623718562</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.842029278989027</v>
+        <v>1.374654246995813</v>
       </c>
       <c r="AB37" t="n">
-        <v>17.31650310802117</v>
+        <v>2.593426091522097</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.061287641927908</v>
+        <v>1.627578527376042</v>
       </c>
       <c r="AD37" t="n">
-        <v>3.319379644380295</v>
+        <v>6.629074065124749</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.431149769906334</v>
+        <v>1.177649110391984</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BRA A</t>
+          <t>ESP B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>atlético mineiro</t>
+          <t>cartagena</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>botafogo</t>
+          <t>eibar</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.003961907989569</v>
+        <v>3.445998298794004</v>
       </c>
       <c r="F38" t="n">
-        <v>7.592575214110816</v>
+        <v>8.700654553910205</v>
       </c>
       <c r="G38" t="n">
-        <v>2.707965668730093</v>
+        <v>1.681026983198692</v>
       </c>
       <c r="H38" t="n">
-        <v>2.719523792681998</v>
+        <v>5.168852287469418</v>
       </c>
       <c r="I38" t="n">
-        <v>1.336131938351572</v>
+        <v>1.891806237340683</v>
       </c>
       <c r="J38" t="n">
-        <v>3.975022263293725</v>
+        <v>2.121319809314123</v>
       </c>
       <c r="K38" t="n">
-        <v>1.581556361276204</v>
+        <v>1.239874174243535</v>
       </c>
       <c r="L38" t="n">
-        <v>3.984344589419431</v>
+        <v>8.362953826485986</v>
       </c>
       <c r="M38" t="n">
-        <v>1.187303119111255</v>
+        <v>1.540799489448878</v>
       </c>
       <c r="N38" t="n">
-        <v>6.338939387368231</v>
+        <v>2.849114171722104</v>
       </c>
       <c r="O38" t="n">
-        <v>1.335081948493936</v>
+        <v>1.135815057864794</v>
       </c>
       <c r="P38" t="n">
-        <v>6.32139188072785</v>
+        <v>14.63807414190524</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.099987393541044</v>
+        <v>1.323171428988157</v>
       </c>
       <c r="R38" t="n">
-        <v>11.0012608048385</v>
+        <v>4.094332946235316</v>
       </c>
       <c r="S38" t="n">
-        <v>1.187920758781483</v>
+        <v>1.073324135768359</v>
       </c>
       <c r="T38" t="n">
-        <v>1.875522430386996</v>
+        <v>1.98553221952866</v>
       </c>
       <c r="U38" t="n">
-        <v>2.142175191968505</v>
+        <v>2.014680169947421</v>
       </c>
       <c r="V38" t="n">
-        <v>2.276926391876453</v>
+        <v>1.403069094267252</v>
       </c>
       <c r="W38" t="n">
-        <v>1.783130497076258</v>
+        <v>3.480964217358124</v>
       </c>
       <c r="X38" t="n">
-        <v>2.792449901378336</v>
+        <v>3.031036657737484</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.557895648425673</v>
+        <v>1.492359404834165</v>
       </c>
       <c r="Z38" t="n">
-        <v>3.681011937982754</v>
+        <v>1.812711499708587</v>
       </c>
       <c r="AA38" t="n">
-        <v>1.372993490194012</v>
+        <v>2.230448935887543</v>
       </c>
       <c r="AB38" t="n">
-        <v>4.61836283978458</v>
+        <v>5.151706012762853</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.276368082549603</v>
+        <v>1.240864838918237</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.657243697685736</v>
+        <v>2.5572812251431</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.176764525878403</v>
+        <v>1.642144773759864</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4414,100 +4414,100 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>real saragoza</t>
+          <t>racing santander</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>racing santander</t>
+          <t>albacete</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.261999711167308</v>
+        <v>1.554639107777683</v>
       </c>
       <c r="F39" t="n">
-        <v>12.07886571525195</v>
+        <v>8.049864154921057</v>
       </c>
       <c r="G39" t="n">
-        <v>8.011693160465116</v>
+        <v>4.300368732185355</v>
       </c>
       <c r="H39" t="n">
-        <v>1.461203006340111</v>
+        <v>1.99132196059887</v>
       </c>
       <c r="I39" t="n">
-        <v>1.073370929217772</v>
+        <v>1.158787279971617</v>
       </c>
       <c r="J39" t="n">
-        <v>14.62937624834902</v>
+        <v>7.297733673495448</v>
       </c>
       <c r="K39" t="n">
-        <v>3.168242587869338</v>
+        <v>2.008754007018958</v>
       </c>
       <c r="L39" t="n">
-        <v>1.789506914975174</v>
+        <v>2.761500141861374</v>
       </c>
       <c r="M39" t="n">
-        <v>1.035256603897339</v>
+        <v>1.078538619178847</v>
       </c>
       <c r="N39" t="n">
-        <v>29.36348058116491</v>
+        <v>13.73258952672453</v>
       </c>
       <c r="O39" t="n">
-        <v>2.26661335199508</v>
+        <v>1.567697938952932</v>
       </c>
       <c r="P39" t="n">
-        <v>2.333857369740275</v>
+        <v>4.166952991793787</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.015687699431118</v>
+        <v>1.03617207569299</v>
       </c>
       <c r="R39" t="n">
-        <v>64.74420955672011</v>
+        <v>28.64563495021642</v>
       </c>
       <c r="S39" t="n">
-        <v>1.749705345328427</v>
+        <v>1.315760923067441</v>
       </c>
       <c r="T39" t="n">
-        <v>1.329299977877823</v>
+        <v>1.910643502908022</v>
       </c>
       <c r="U39" t="n">
-        <v>4.03674481378502</v>
+        <v>2.098124564449897</v>
       </c>
       <c r="V39" t="n">
-        <v>4.247043986132471</v>
+        <v>4.38349271741038</v>
       </c>
       <c r="W39" t="n">
-        <v>1.307972421769097</v>
+        <v>1.295552579396526</v>
       </c>
       <c r="X39" t="n">
-        <v>1.666125603156863</v>
+        <v>2.868201361419404</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.501218381729902</v>
+        <v>1.535274205795584</v>
       </c>
       <c r="Z39" t="n">
-        <v>8.63281046892528</v>
+        <v>9.00534683870643</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.131013340901258</v>
+        <v>1.124916511445192</v>
       </c>
       <c r="AB39" t="n">
-        <v>2.269208124175926</v>
+        <v>4.786496717336004</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.787892845114966</v>
+        <v>1.264096359947078</v>
       </c>
       <c r="AD39" t="n">
-        <v>19.89675038494653</v>
+        <v>20.98700126946467</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.052919151686346</v>
+        <v>1.050032517960949</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4517,100 +4517,100 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>albacete</t>
+          <t>burgos</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>burgos</t>
+          <t>elche</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.287593807487173</v>
+        <v>2.37259487660966</v>
       </c>
       <c r="F40" t="n">
-        <v>11.48852723268077</v>
+        <v>7.131426849847232</v>
       </c>
       <c r="G40" t="n">
-        <v>7.335992971564171</v>
+        <v>2.281562362202359</v>
       </c>
       <c r="H40" t="n">
-        <v>1.503562910408755</v>
+        <v>3.437515796528468</v>
       </c>
       <c r="I40" t="n">
-        <v>1.082079275948723</v>
+        <v>1.440456914946</v>
       </c>
       <c r="J40" t="n">
-        <v>13.18334334022058</v>
+        <v>3.270369623150538</v>
       </c>
       <c r="K40" t="n">
-        <v>2.985849194469611</v>
+        <v>1.410253751554845</v>
       </c>
       <c r="L40" t="n">
-        <v>1.859803377827413</v>
+        <v>5.441747700962662</v>
       </c>
       <c r="M40" t="n">
-        <v>1.039967787284656</v>
+        <v>1.242869992722548</v>
       </c>
       <c r="N40" t="n">
-        <v>26.02014917357975</v>
+        <v>5.117429200660415</v>
       </c>
       <c r="O40" t="n">
-        <v>2.163056607810545</v>
+        <v>1.225136605526529</v>
       </c>
       <c r="P40" t="n">
-        <v>2.452750393763059</v>
+        <v>9.43358838291865</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.018057987423955</v>
+        <v>1.128816020474939</v>
       </c>
       <c r="R40" t="n">
-        <v>56.37715674081426</v>
+        <v>8.763009572202611</v>
       </c>
       <c r="S40" t="n">
-        <v>1.688349495063429</v>
+        <v>1.118573489076772</v>
       </c>
       <c r="T40" t="n">
-        <v>1.350211324113069</v>
+        <v>2.501635517000615</v>
       </c>
       <c r="U40" t="n">
-        <v>3.855418803297009</v>
+        <v>1.66594056192638</v>
       </c>
       <c r="V40" t="n">
-        <v>4.027301000049164</v>
+        <v>2.42848122944584</v>
       </c>
       <c r="W40" t="n">
-        <v>1.330327245286729</v>
+        <v>1.700044200362322</v>
       </c>
       <c r="X40" t="n">
-        <v>1.707528712026251</v>
+        <v>4.199067802702253</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.413370203925941</v>
+        <v>1.312591061419611</v>
       </c>
       <c r="Z40" t="n">
-        <v>8.039931209440494</v>
+        <v>4.028873528143972</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.142046842540025</v>
+        <v>1.330155746256193</v>
       </c>
       <c r="AB40" t="n">
-        <v>2.349992051174365</v>
+        <v>7.906480321013585</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.740745102261969</v>
+        <v>1.144791551343079</v>
       </c>
       <c r="AD40" t="n">
-        <v>18.18428245167119</v>
+        <v>7.491602279166455</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.058192712021138</v>
+        <v>1.1540451735944</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4620,100 +4620,100 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>real valladolid</t>
+          <t>levante</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>cartagena</t>
+          <t>cd eldense</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.792531796499744</v>
+        <v>1.401818252661311</v>
       </c>
       <c r="F41" t="n">
-        <v>7.880482144304755</v>
+        <v>8.990816335406558</v>
       </c>
       <c r="G41" t="n">
-        <v>3.172246135399897</v>
+        <v>5.700729156122578</v>
       </c>
       <c r="H41" t="n">
-        <v>2.352649747337143</v>
+        <v>1.731407052008536</v>
       </c>
       <c r="I41" t="n">
-        <v>1.261301814155025</v>
+        <v>1.106575081489306</v>
       </c>
       <c r="J41" t="n">
-        <v>4.82699218233028</v>
+        <v>10.38305639578934</v>
       </c>
       <c r="K41" t="n">
-        <v>1.739289680842083</v>
+        <v>2.367227725319129</v>
       </c>
       <c r="L41" t="n">
-        <v>3.321960670134391</v>
+        <v>2.307657352577683</v>
       </c>
       <c r="M41" t="n">
-        <v>1.142938209958155</v>
+        <v>1.049724024473564</v>
       </c>
       <c r="N41" t="n">
-        <v>7.996029964925027</v>
+        <v>21.11100289220663</v>
       </c>
       <c r="O41" t="n">
-        <v>1.430670516026493</v>
+        <v>1.764726323779527</v>
       </c>
       <c r="P41" t="n">
-        <v>5.065075964453204</v>
+        <v>3.339706595530147</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.07441494487678</v>
+        <v>1.021345087800866</v>
       </c>
       <c r="R41" t="n">
-        <v>14.43816086480807</v>
+        <v>47.84918653552912</v>
       </c>
       <c r="S41" t="n">
-        <v>1.245997862953715</v>
+        <v>1.42740401805527</v>
       </c>
       <c r="T41" t="n">
-        <v>1.727515934318334</v>
+        <v>1.792730166415805</v>
       </c>
       <c r="U41" t="n">
-        <v>2.374540340394025</v>
+        <v>2.261463285194924</v>
       </c>
       <c r="V41" t="n">
-        <v>2.486353457540826</v>
+        <v>5.904038107725871</v>
       </c>
       <c r="W41" t="n">
-        <v>1.672787481959036</v>
+        <v>1.203913586728576</v>
       </c>
       <c r="X41" t="n">
-        <v>2.477616570112644</v>
+        <v>2.615454647866906</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.676765556252368</v>
+        <v>1.619020782366394</v>
       </c>
       <c r="Z41" t="n">
-        <v>4.163393474787422</v>
+        <v>13.36127214282175</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.31611622391274</v>
+        <v>1.080897822525549</v>
       </c>
       <c r="AB41" t="n">
-        <v>3.932200853634209</v>
+        <v>4.230046228703087</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.341040757409434</v>
+        <v>1.309593092233084</v>
       </c>
       <c r="AD41" t="n">
-        <v>7.819167359612269</v>
+        <v>34.43448898381927</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.146645469639399</v>
+        <v>1.029909235355263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4723,100 +4723,100 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>huesca</t>
+          <t>andorra cf</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>villarreal b</t>
+          <t>sporting gijon</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.739405035273428</v>
+        <v>1.986227020349576</v>
       </c>
       <c r="F42" t="n">
-        <v>7.997940729782012</v>
+        <v>6.997770907941417</v>
       </c>
       <c r="G42" t="n">
-        <v>3.3326824485361</v>
+        <v>2.827812544904633</v>
       </c>
       <c r="H42" t="n">
-        <v>2.261581571971828</v>
+        <v>2.773241711877845</v>
       </c>
       <c r="I42" t="n">
-        <v>1.242352049313302</v>
+        <v>1.297247158030169</v>
       </c>
       <c r="J42" t="n">
-        <v>5.126228776828898</v>
+        <v>4.36420373747864</v>
       </c>
       <c r="K42" t="n">
-        <v>1.792655839476967</v>
+        <v>1.563938911035998</v>
       </c>
       <c r="L42" t="n">
-        <v>3.160252246103829</v>
+        <v>4.238233267560402</v>
       </c>
       <c r="M42" t="n">
-        <v>1.131765963451298</v>
+        <v>1.155413208528286</v>
       </c>
       <c r="N42" t="n">
-        <v>8.589213282454494</v>
+        <v>7.434459525478442</v>
       </c>
       <c r="O42" t="n">
-        <v>1.46290890418171</v>
+        <v>1.308810365830555</v>
       </c>
       <c r="P42" t="n">
-        <v>4.764523542789782</v>
+        <v>7.110347705332988</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.068052013083096</v>
+        <v>1.07696374692562</v>
       </c>
       <c r="R42" t="n">
-        <v>15.69464244619688</v>
+        <v>13.99313040159584</v>
       </c>
       <c r="S42" t="n">
-        <v>1.265637865890176</v>
+        <v>1.163656807799533</v>
       </c>
       <c r="T42" t="n">
-        <v>1.689716176626821</v>
+        <v>2.47902883881844</v>
       </c>
       <c r="U42" t="n">
-        <v>2.449871749986607</v>
+        <v>1.676119338415927</v>
       </c>
       <c r="V42" t="n">
-        <v>2.555777883210986</v>
+        <v>3.342808277461276</v>
       </c>
       <c r="W42" t="n">
-        <v>1.642765275680671</v>
+        <v>1.426838170933741</v>
       </c>
       <c r="X42" t="n">
-        <v>2.398365579053108</v>
+        <v>4.146317380296539</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.715120577179211</v>
+        <v>1.317831890152719</v>
       </c>
       <c r="Z42" t="n">
-        <v>4.325963091345077</v>
+        <v>6.253078595577955</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.300664791681613</v>
+        <v>1.190364560858046</v>
       </c>
       <c r="AB42" t="n">
-        <v>3.762831664117478</v>
+        <v>7.777438888628804</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.361947495023888</v>
+        <v>1.147548361030271</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.218534389050715</v>
+        <v>13.20879854911784</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.138532276235579</v>
+        <v>1.081908141573215</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4826,100 +4826,100 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>eibar</t>
+          <t>ad alcorcón</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>racing de ferrol</t>
+          <t>huesca</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.585832396726082</v>
+        <v>2.209191840447237</v>
       </c>
       <c r="F43" t="n">
-        <v>8.006123345918546</v>
+        <v>6.876953529876485</v>
       </c>
       <c r="G43" t="n">
-        <v>1.677232313592647</v>
+        <v>2.487979588322568</v>
       </c>
       <c r="H43" t="n">
-        <v>5.66409706586294</v>
+        <v>3.186998907896635</v>
       </c>
       <c r="I43" t="n">
-        <v>1.855341407776362</v>
+        <v>1.368654193255923</v>
       </c>
       <c r="J43" t="n">
-        <v>2.16912380355782</v>
+        <v>3.712569172665809</v>
       </c>
       <c r="K43" t="n">
-        <v>1.214403771164866</v>
+        <v>1.457247599159416</v>
       </c>
       <c r="L43" t="n">
-        <v>9.790868558630869</v>
+        <v>5.048461897871965</v>
       </c>
       <c r="M43" t="n">
-        <v>1.494978265491806</v>
+        <v>1.196061420436232</v>
       </c>
       <c r="N43" t="n">
-        <v>3.020290727323975</v>
+        <v>6.100442492842419</v>
       </c>
       <c r="O43" t="n">
-        <v>1.113754402460972</v>
+        <v>1.247007388293722</v>
       </c>
       <c r="P43" t="n">
-        <v>18.53510127252543</v>
+        <v>8.801058229710085</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.28194623011034</v>
+        <v>1.099444320889786</v>
       </c>
       <c r="R43" t="n">
-        <v>4.546775566421473</v>
+        <v>11.05587841570454</v>
       </c>
       <c r="S43" t="n">
-        <v>1.05702847017866</v>
+        <v>1.128187736913888</v>
       </c>
       <c r="T43" t="n">
-        <v>2.924995695946896</v>
+        <v>2.735826864385441</v>
       </c>
       <c r="U43" t="n">
-        <v>1.519481680974931</v>
+        <v>1.576094321684579</v>
       </c>
       <c r="V43" t="n">
-        <v>1.74018185694205</v>
+        <v>3.026708446508516</v>
       </c>
       <c r="W43" t="n">
-        <v>2.351019334804219</v>
+        <v>1.493410880939849</v>
       </c>
       <c r="X43" t="n">
-        <v>5.211510796096575</v>
+        <v>4.753492778023142</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.237444482138535</v>
+        <v>1.266418522463941</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.504277801378408</v>
+        <v>5.461367061157165</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.664770828289612</v>
+        <v>1.224146542145453</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.45642897061656</v>
+        <v>9.286246701662325</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.105748163826667</v>
+        <v>1.120681900503806</v>
       </c>
       <c r="AD43" t="n">
-        <v>3.98949098818898</v>
+        <v>11.10554377225462</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.334505106036729</v>
+        <v>1.098955585422881</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4929,100 +4929,100 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sporting gijon</t>
+          <t>villarreal b</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>tenerife</t>
+          <t>sd amorebieta</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.510241407165351</v>
+        <v>4.163005883058023</v>
       </c>
       <c r="F44" t="n">
-        <v>7.473097925415216</v>
+        <v>8.96701275515241</v>
       </c>
       <c r="G44" t="n">
-        <v>2.137580560201616</v>
+        <v>1.542569295529832</v>
       </c>
       <c r="H44" t="n">
-        <v>3.625798995439113</v>
+        <v>6.605660729556446</v>
       </c>
       <c r="I44" t="n">
-        <v>1.510223251685487</v>
+        <v>2.09474832337512</v>
       </c>
       <c r="J44" t="n">
-        <v>2.959926359091967</v>
+        <v>1.91345195845287</v>
       </c>
       <c r="K44" t="n">
-        <v>1.380836462248997</v>
+        <v>1.178391102894863</v>
       </c>
       <c r="L44" t="n">
-        <v>5.687436718762585</v>
+        <v>11.39293150809326</v>
       </c>
       <c r="M44" t="n">
-        <v>1.291030450213137</v>
+        <v>1.653725074096194</v>
       </c>
       <c r="N44" t="n">
-        <v>4.436066567150093</v>
+        <v>2.529695034847098</v>
       </c>
       <c r="O44" t="n">
-        <v>1.213336213371641</v>
+        <v>1.096219242782585</v>
       </c>
       <c r="P44" t="n">
-        <v>9.708083070446555</v>
+        <v>21.39374688493639</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.160891087536265</v>
+        <v>1.387049479560508</v>
       </c>
       <c r="R44" t="n">
-        <v>7.21538467613752</v>
+        <v>3.58364899788909</v>
       </c>
       <c r="S44" t="n">
-        <v>1.114835836074393</v>
+        <v>1.049034638197782</v>
       </c>
       <c r="T44" t="n">
-        <v>2.219306343913462</v>
+        <v>2.53272985591552</v>
       </c>
       <c r="U44" t="n">
-        <v>1.820138437720597</v>
+        <v>1.652430691645063</v>
       </c>
       <c r="V44" t="n">
-        <v>1.996468050581688</v>
+        <v>1.446662314928372</v>
       </c>
       <c r="W44" t="n">
-        <v>2.003544468301066</v>
+        <v>3.238827782371483</v>
       </c>
       <c r="X44" t="n">
-        <v>3.550478623745432</v>
+        <v>4.271848648744756</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.392083270445717</v>
+        <v>1.305637609607538</v>
       </c>
       <c r="Z44" t="n">
-        <v>3.054962877953328</v>
+        <v>1.90007371209104</v>
       </c>
       <c r="AA44" t="n">
-        <v>1.486626795417329</v>
+        <v>2.111020115982293</v>
       </c>
       <c r="AB44" t="n">
-        <v>6.349096048237254</v>
+        <v>8.085178947147055</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.186947475046656</v>
+        <v>1.141139695618085</v>
       </c>
       <c r="AD44" t="n">
-        <v>5.205793723037043</v>
+        <v>2.731673561041583</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.237767248194448</v>
+        <v>1.577476045426547</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5032,100 +5032,100 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>sd amorebieta</t>
+          <t>cd mirandés</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>cd mirandés</t>
+          <t>cd leganés</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1.577819971849156</v>
+        <v>3.842403370575945</v>
       </c>
       <c r="F45" t="n">
-        <v>8.547519138538002</v>
+        <v>8.871236022409267</v>
       </c>
       <c r="G45" t="n">
-        <v>4.012501005829886</v>
+        <v>1.594839465126173</v>
       </c>
       <c r="H45" t="n">
-        <v>1.987325186062915</v>
+        <v>5.942241690496679</v>
       </c>
       <c r="I45" t="n">
-        <v>1.184537500490802</v>
+        <v>2.010153663214961</v>
       </c>
       <c r="J45" t="n">
-        <v>6.418952772961427</v>
+        <v>1.989948397372885</v>
       </c>
       <c r="K45" t="n">
-        <v>2.012837527205831</v>
+        <v>1.202337332454395</v>
       </c>
       <c r="L45" t="n">
-        <v>2.680191496166265</v>
+        <v>9.950479968193878</v>
       </c>
       <c r="M45" t="n">
-        <v>1.097946228360653</v>
+        <v>1.608446465075182</v>
       </c>
       <c r="N45" t="n">
-        <v>11.20968358595544</v>
+        <v>2.643529969192007</v>
       </c>
       <c r="O45" t="n">
-        <v>1.595170254272638</v>
+        <v>1.111725851971466</v>
       </c>
       <c r="P45" t="n">
-        <v>3.888100692626144</v>
+        <v>18.08260382175794</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.049057833263151</v>
+        <v>1.362468047866453</v>
       </c>
       <c r="R45" t="n">
-        <v>21.38410450449155</v>
+        <v>3.758863866446063</v>
       </c>
       <c r="S45" t="n">
-        <v>1.346248315563646</v>
+        <v>1.058539085167234</v>
       </c>
       <c r="T45" t="n">
-        <v>1.572740362633522</v>
+        <v>2.243068480778871</v>
       </c>
       <c r="U45" t="n">
-        <v>2.745991840704035</v>
+        <v>1.804460909002719</v>
       </c>
       <c r="V45" t="n">
-        <v>2.836793255682502</v>
+        <v>1.41691972224092</v>
       </c>
       <c r="W45" t="n">
-        <v>1.544427086122127</v>
+        <v>3.398543284604184</v>
       </c>
       <c r="X45" t="n">
-        <v>2.156122572941896</v>
+        <v>3.604192758880621</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.864960189692842</v>
+        <v>1.383996152585048</v>
       </c>
       <c r="Z45" t="n">
-        <v>4.996855914340768</v>
+        <v>1.84040627358425</v>
       </c>
       <c r="AA45" t="n">
-        <v>1.25019665993262</v>
+        <v>2.189900684266787</v>
       </c>
       <c r="AB45" t="n">
-        <v>3.25403091063538</v>
+        <v>6.475561199552079</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.443649639089516</v>
+        <v>1.18262968188207</v>
       </c>
       <c r="AD45" t="n">
-        <v>9.904750832258834</v>
+        <v>2.612348908737588</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.112299604878033</v>
+        <v>1.620213152736875</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5135,100 +5135,100 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>elche</t>
+          <t>real oviedo</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>cd leganés</t>
+          <t>real valladolid</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.733454523259283</v>
+        <v>2.141499439582688</v>
       </c>
       <c r="F46" t="n">
-        <v>7.535085793301133</v>
+        <v>6.780990989160464</v>
       </c>
       <c r="G46" t="n">
-        <v>1.994216486553191</v>
+        <v>2.593587007818885</v>
       </c>
       <c r="H46" t="n">
-        <v>4.036941373995549</v>
+        <v>3.082694559348814</v>
       </c>
       <c r="I46" t="n">
-        <v>1.584513745258138</v>
+        <v>1.339435058246896</v>
       </c>
       <c r="J46" t="n">
-        <v>2.710823754124672</v>
+        <v>3.94607164376234</v>
       </c>
       <c r="K46" t="n">
-        <v>1.329278664567815</v>
+        <v>1.48014721866497</v>
       </c>
       <c r="L46" t="n">
-        <v>6.487433357670496</v>
+        <v>4.883915301343253</v>
       </c>
       <c r="M46" t="n">
-        <v>1.33522197323065</v>
+        <v>1.17734262877672</v>
       </c>
       <c r="N46" t="n">
-        <v>3.983098006263297</v>
+        <v>6.638802170114586</v>
       </c>
       <c r="O46" t="n">
-        <v>1.182234559368665</v>
+        <v>1.257472144064045</v>
       </c>
       <c r="P46" t="n">
-        <v>11.36338595171831</v>
+        <v>8.535031650204985</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.187070921203862</v>
+        <v>1.087994991802196</v>
       </c>
       <c r="R46" t="n">
-        <v>6.345566235332971</v>
+        <v>12.36428312020185</v>
       </c>
       <c r="S46" t="n">
-        <v>1.096493559600971</v>
+        <v>1.132713443874226</v>
       </c>
       <c r="T46" t="n">
-        <v>2.367775789888508</v>
+        <v>2.847929096915409</v>
       </c>
       <c r="U46" t="n">
-        <v>1.731113978908424</v>
+        <v>1.541146303540117</v>
       </c>
       <c r="V46" t="n">
-        <v>1.920359669192531</v>
+        <v>3.37880120966547</v>
       </c>
       <c r="W46" t="n">
-        <v>2.086531747829998</v>
+        <v>1.420379809770077</v>
       </c>
       <c r="X46" t="n">
-        <v>3.888760942434425</v>
+        <v>5.023852017923951</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.346169177695014</v>
+        <v>1.248518085542305</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.889227500161645</v>
+        <v>6.344634430155047</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.529316876826342</v>
+        <v>1.187103535904698</v>
       </c>
       <c r="AB46" t="n">
-        <v>7.153290177360351</v>
+        <v>9.973821345289281</v>
       </c>
       <c r="AC46" t="n">
-        <v>1.162514682580593</v>
+        <v>1.11143524720658</v>
       </c>
       <c r="AD46" t="n">
-        <v>4.833366198799605</v>
+        <v>13.45633407994343</v>
       </c>
       <c r="AE46" t="n">
-        <v>1.260867328645289</v>
+        <v>1.080280441547417</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5238,203 +5238,203 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>andorra cf</t>
+          <t>racing de ferrol</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>real oviedo</t>
+          <t>real saragoza</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1.413714518808688</v>
+        <v>4.304167819100158</v>
       </c>
       <c r="F47" t="n">
-        <v>9.665877589211506</v>
+        <v>9.010138483098917</v>
       </c>
       <c r="G47" t="n">
-        <v>5.285778577515571</v>
+        <v>1.522809479302963</v>
       </c>
       <c r="H47" t="n">
-        <v>1.712690809535638</v>
+        <v>6.904980405881893</v>
       </c>
       <c r="I47" t="n">
-        <v>1.126054098767747</v>
+        <v>2.130334538322583</v>
       </c>
       <c r="J47" t="n">
-        <v>8.93310181720061</v>
+        <v>1.884693837174966</v>
       </c>
       <c r="K47" t="n">
-        <v>2.403133008901238</v>
+        <v>1.169348572097531</v>
       </c>
       <c r="L47" t="n">
-        <v>2.210327622205538</v>
+        <v>12.06086648620177</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06439826541512</v>
+        <v>1.672354963721936</v>
       </c>
       <c r="N47" t="n">
-        <v>16.52836856014452</v>
+        <v>2.487309611673466</v>
       </c>
       <c r="O47" t="n">
-        <v>1.826222571189224</v>
+        <v>1.090408830198564</v>
       </c>
       <c r="P47" t="n">
-        <v>3.055588072333034</v>
+        <v>22.96980316290443</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.03078489207086</v>
+        <v>1.3969319059642</v>
       </c>
       <c r="R47" t="n">
-        <v>33.48346616574808</v>
+        <v>3.519323805857503</v>
       </c>
       <c r="S47" t="n">
-        <v>1.486478790891712</v>
+        <v>1.045517021367241</v>
       </c>
       <c r="T47" t="n">
-        <v>1.449635577622471</v>
+        <v>2.673874819473371</v>
       </c>
       <c r="U47" t="n">
-        <v>3.224023297461646</v>
+        <v>1.597416239473999</v>
       </c>
       <c r="V47" t="n">
-        <v>3.320979556094806</v>
+        <v>1.460276527258977</v>
       </c>
       <c r="W47" t="n">
-        <v>1.430852567130131</v>
+        <v>3.172606989009768</v>
       </c>
       <c r="X47" t="n">
-        <v>1.906053438699178</v>
+        <v>4.605440027406982</v>
       </c>
       <c r="Y47" t="n">
-        <v>2.103687660449368</v>
+        <v>1.27735865591951</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.197689384406627</v>
+        <v>1.927476791931208</v>
       </c>
       <c r="AA47" t="n">
-        <v>1.192393182055099</v>
+        <v>2.078194094666005</v>
       </c>
       <c r="AB47" t="n">
-        <v>2.743683089222822</v>
+        <v>8.913716810199446</v>
       </c>
       <c r="AC47" t="n">
-        <v>1.573498708670571</v>
+        <v>1.126362873979919</v>
       </c>
       <c r="AD47" t="n">
-        <v>13.05946408092545</v>
+        <v>2.786785097578559</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.082922424519818</v>
+        <v>1.559664394646673</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ING C</t>
+          <t>ESP B</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>fleetwood town</t>
+          <t>tenerife</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>oxford united</t>
+          <t>espanhol de barcelona</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2.895355543820049</v>
+        <v>4.111242517071542</v>
       </c>
       <c r="F48" t="n">
-        <v>7.602441524821828</v>
+        <v>8.962108262780999</v>
       </c>
       <c r="G48" t="n">
-        <v>1.911744019465456</v>
+        <v>1.549946298946001</v>
       </c>
       <c r="H48" t="n">
-        <v>4.339257213803942</v>
+        <v>6.493364909568412</v>
       </c>
       <c r="I48" t="n">
-        <v>1.63747860841667</v>
+        <v>2.082694233351444</v>
       </c>
       <c r="J48" t="n">
-        <v>2.568680088707192</v>
+        <v>1.923621803087038</v>
       </c>
       <c r="K48" t="n">
-        <v>1.299467796570495</v>
+        <v>1.182037788579853</v>
       </c>
       <c r="L48" t="n">
-        <v>7.085345738975193</v>
+        <v>11.13866817893795</v>
       </c>
       <c r="M48" t="n">
-        <v>1.366648674973071</v>
+        <v>1.647805796597211</v>
       </c>
       <c r="N48" t="n">
-        <v>3.72740655635383</v>
+        <v>2.543672509960226</v>
       </c>
       <c r="O48" t="n">
-        <v>1.164329200491475</v>
+        <v>1.098632284078238</v>
       </c>
       <c r="P48" t="n">
-        <v>12.62354779398</v>
+        <v>20.78903918515586</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.205724801304775</v>
+        <v>1.384165778533923</v>
       </c>
       <c r="R48" t="n">
-        <v>5.860862636190034</v>
+        <v>3.603042894180375</v>
       </c>
       <c r="S48" t="n">
-        <v>1.086032252606894</v>
+        <v>1.0505330244002</v>
       </c>
       <c r="T48" t="n">
-        <v>2.474635802236701</v>
+        <v>2.471523875812867</v>
       </c>
       <c r="U48" t="n">
-        <v>1.678133542182563</v>
+        <v>1.679567634910172</v>
       </c>
       <c r="V48" t="n">
-        <v>1.87522442047333</v>
+        <v>1.438212699912486</v>
       </c>
       <c r="W48" t="n">
-        <v>2.142564097399373</v>
+        <v>3.281996848105286</v>
       </c>
       <c r="X48" t="n">
-        <v>4.136082762182164</v>
+        <v>4.128835971224699</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.31886913574442</v>
+        <v>1.319607678125925</v>
       </c>
       <c r="Z48" t="n">
-        <v>2.791808827878373</v>
+        <v>1.883095104395707</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.558095252373586</v>
+        <v>2.132380867046353</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.752449126313766</v>
+        <v>7.734763953540764</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.148094414529252</v>
+        <v>1.148483303483006</v>
       </c>
       <c r="AD48" t="n">
-        <v>4.616944828108815</v>
+        <v>2.697624740216318</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.27647643177429</v>
+        <v>1.589058333276043</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5444,100 +5444,100 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>stevenage f.c.</t>
+          <t>peterborough united</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>charlton athletic</t>
+          <t>cheltenham town</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.250957351282132</v>
+        <v>1.227134827673293</v>
       </c>
       <c r="F49" t="n">
-        <v>12.37084451206416</v>
+        <v>13.66665543170218</v>
       </c>
       <c r="G49" t="n">
-        <v>8.348847517580099</v>
+        <v>8.934727751403631</v>
       </c>
       <c r="H49" t="n">
-        <v>1.442923395441018</v>
+        <v>1.392508412067785</v>
       </c>
       <c r="I49" t="n">
-        <v>1.069645751364882</v>
+        <v>1.06627856166381</v>
       </c>
       <c r="J49" t="n">
-        <v>15.35837765265669</v>
+        <v>16.08783496347393</v>
       </c>
       <c r="K49" t="n">
-        <v>3.257726754316743</v>
+        <v>3.547716097935</v>
       </c>
       <c r="L49" t="n">
-        <v>1.759237511499147</v>
+        <v>1.659246487021133</v>
       </c>
       <c r="M49" t="n">
-        <v>1.033257907292605</v>
+        <v>1.032677642451804</v>
       </c>
       <c r="N49" t="n">
-        <v>31.06803739038473</v>
+        <v>31.601962839727</v>
       </c>
       <c r="O49" t="n">
-        <v>2.317110897254613</v>
+        <v>2.516883320104737</v>
       </c>
       <c r="P49" t="n">
-        <v>2.282874490725029</v>
+        <v>2.091316459262945</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.014692597191922</v>
+        <v>1.014974781712077</v>
       </c>
       <c r="R49" t="n">
-        <v>69.06148613056847</v>
+        <v>67.77893669685572</v>
       </c>
       <c r="S49" t="n">
-        <v>1.779499481227381</v>
+        <v>1.916324491866807</v>
       </c>
       <c r="T49" t="n">
-        <v>1.32018916157546</v>
+        <v>1.211120582962224</v>
       </c>
       <c r="U49" t="n">
-        <v>4.123153810327607</v>
+        <v>5.736629588498853</v>
       </c>
       <c r="V49" t="n">
-        <v>4.35495253761248</v>
+        <v>3.416474421948459</v>
       </c>
       <c r="W49" t="n">
-        <v>1.298066809824869</v>
+        <v>1.413826023117463</v>
       </c>
       <c r="X49" t="n">
-        <v>1.648120969066738</v>
+        <v>1.433822983912638</v>
       </c>
       <c r="Y49" t="n">
-        <v>2.542921842877496</v>
+        <v>3.305087644229975</v>
       </c>
       <c r="Z49" t="n">
-        <v>8.927153102643381</v>
+        <v>6.440763173944506</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.126148692607759</v>
+        <v>1.183797744549688</v>
       </c>
       <c r="AB49" t="n">
-        <v>2.234221833458589</v>
+        <v>1.824396820306783</v>
       </c>
       <c r="AC49" t="n">
-        <v>1.810227118732584</v>
+        <v>2.213008074955784</v>
       </c>
       <c r="AD49" t="n">
-        <v>20.75727858845603</v>
+        <v>13.71715180227956</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.050614258209847</v>
+        <v>1.07863395951763</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5547,100 +5547,100 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>barnsley fc</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>bolton wanderers fc</t>
+          <t>portsmouth</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3.568012330208734</v>
+        <v>4.161604808595225</v>
       </c>
       <c r="F50" t="n">
-        <v>7.99421340333958</v>
+        <v>8.995097957370213</v>
       </c>
       <c r="G50" t="n">
-        <v>1.68168571991122</v>
+        <v>1.541933452601751</v>
       </c>
       <c r="H50" t="n">
-        <v>5.629225773123197</v>
+        <v>6.592918635740391</v>
       </c>
       <c r="I50" t="n">
-        <v>1.849871531931328</v>
+        <v>2.097707397080504</v>
       </c>
       <c r="J50" t="n">
-        <v>2.176648425589108</v>
+        <v>1.91098957942675</v>
       </c>
       <c r="K50" t="n">
-        <v>1.216018843972981</v>
+        <v>1.178797523284123</v>
       </c>
       <c r="L50" t="n">
-        <v>9.718026252644618</v>
+        <v>11.34749952092442</v>
       </c>
       <c r="M50" t="n">
-        <v>1.491777150725161</v>
+        <v>1.656482985313662</v>
       </c>
       <c r="N50" t="n">
-        <v>3.033441363685621</v>
+        <v>2.523268724965062</v>
       </c>
       <c r="O50" t="n">
-        <v>1.114704862203948</v>
+        <v>1.096641705368319</v>
       </c>
       <c r="P50" t="n">
-        <v>18.37192443082396</v>
+        <v>21.25578791858442</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.280046819921617</v>
+        <v>1.389288627684554</v>
       </c>
       <c r="R50" t="n">
-        <v>4.570831478393128</v>
+        <v>3.568788114741214</v>
       </c>
       <c r="S50" t="n">
-        <v>1.057564146331747</v>
+        <v>1.049368605359583</v>
       </c>
       <c r="T50" t="n">
-        <v>2.913447241929411</v>
+        <v>2.500126943915458</v>
       </c>
       <c r="U50" t="n">
-        <v>1.522616970087797</v>
+        <v>1.666610251923024</v>
       </c>
       <c r="V50" t="n">
-        <v>1.742852793930841</v>
+        <v>1.437236109276311</v>
       </c>
       <c r="W50" t="n">
-        <v>2.346161727020575</v>
+        <v>3.287093812208567</v>
       </c>
       <c r="X50" t="n">
-        <v>5.183298320975124</v>
+        <v>4.195543390256073</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.239045825392367</v>
+        <v>1.312935822761545</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.509906779775789</v>
+        <v>1.881134171328968</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.662292542423376</v>
+        <v>2.13490094078607</v>
       </c>
       <c r="AB50" t="n">
-        <v>10.38360045523551</v>
+        <v>7.897846130968086</v>
       </c>
       <c r="AC50" t="n">
-        <v>1.106568902285482</v>
+        <v>1.144972790203375</v>
       </c>
       <c r="AD50" t="n">
-        <v>4.001606487887397</v>
+        <v>2.693697122287076</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.333154930213329</v>
+        <v>1.590424336701744</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5650,100 +5650,100 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>shrewsbury town</t>
+          <t>oxford united</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>bristol rovers</t>
+          <t>exeter city</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1.738849036308725</v>
+        <v>3.298309250745932</v>
       </c>
       <c r="F51" t="n">
-        <v>7.999300144474236</v>
+        <v>8.67374458232284</v>
       </c>
       <c r="G51" t="n">
-        <v>3.33448916315501</v>
+        <v>1.719619776358181</v>
       </c>
       <c r="H51" t="n">
-        <v>2.260630846386384</v>
+        <v>4.880511536304932</v>
       </c>
       <c r="I51" t="n">
-        <v>1.242153507932609</v>
+        <v>1.848667686150187</v>
       </c>
       <c r="J51" t="n">
-        <v>5.129611867024047</v>
+        <v>2.178317516172085</v>
       </c>
       <c r="K51" t="n">
-        <v>1.793253633977397</v>
+        <v>1.257697984052951</v>
       </c>
       <c r="L51" t="n">
-        <v>3.158569937980321</v>
+        <v>7.774979799826114</v>
       </c>
       <c r="M51" t="n">
-        <v>1.131649096298066</v>
+        <v>1.516669681191469</v>
       </c>
       <c r="N51" t="n">
-        <v>8.595950356817537</v>
+        <v>2.935472578328852</v>
       </c>
       <c r="O51" t="n">
-        <v>1.463269677949678</v>
+        <v>1.147601916101014</v>
       </c>
       <c r="P51" t="n">
-        <v>4.761410267457633</v>
+        <v>13.37921477709519</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.067985655802373</v>
+        <v>1.309508069909559</v>
       </c>
       <c r="R51" t="n">
-        <v>15.70898512631694</v>
+        <v>4.230933527168477</v>
       </c>
       <c r="S51" t="n">
-        <v>1.265857731248208</v>
+        <v>1.080780567912131</v>
       </c>
       <c r="T51" t="n">
-        <v>1.689318899961559</v>
+        <v>1.875182375886798</v>
       </c>
       <c r="U51" t="n">
-        <v>2.450707357734957</v>
+        <v>2.142618987255917</v>
       </c>
       <c r="V51" t="n">
-        <v>2.556551746840694</v>
+        <v>1.388169173808921</v>
       </c>
       <c r="W51" t="n">
-        <v>1.642445715042678</v>
+        <v>3.576196327460706</v>
       </c>
       <c r="X51" t="n">
-        <v>2.397535166075825</v>
+        <v>2.791718384630459</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.715545500588673</v>
+        <v>1.558123424182115</v>
       </c>
       <c r="Z51" t="n">
-        <v>4.327782501840053</v>
+        <v>1.782981745174362</v>
       </c>
       <c r="AA51" t="n">
-        <v>1.300500408138772</v>
+        <v>2.277168984032074</v>
       </c>
       <c r="AB51" t="n">
-        <v>3.761064388941264</v>
+        <v>4.61674478033785</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.362179166847844</v>
+        <v>1.276491724115127</v>
       </c>
       <c r="AD51" t="n">
-        <v>8.223025180935286</v>
+        <v>2.498392760395721</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.138446146171473</v>
+        <v>1.667381761598943</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5753,100 +5753,100 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>port vale fc</t>
+          <t>leyton orient</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>northampton</t>
+          <t>shrewsbury town</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.680567182643385</v>
+        <v>1.485374257312368</v>
       </c>
       <c r="F52" t="n">
-        <v>8.159116454425325</v>
+        <v>7.970379980760611</v>
       </c>
       <c r="G52" t="n">
-        <v>3.541070165675479</v>
+        <v>4.967599700446781</v>
       </c>
       <c r="H52" t="n">
-        <v>2.161245991018479</v>
+        <v>1.903925791646327</v>
       </c>
       <c r="I52" t="n">
-        <v>1.221319442406916</v>
+        <v>1.123967035547691</v>
       </c>
       <c r="J52" t="n">
-        <v>5.518355862118111</v>
+        <v>9.066660589099069</v>
       </c>
       <c r="K52" t="n">
-        <v>1.861143984766693</v>
+        <v>2.106285504011002</v>
       </c>
       <c r="L52" t="n">
-        <v>2.983398330047761</v>
+        <v>2.663331736066915</v>
       </c>
       <c r="M52" t="n">
-        <v>1.119409684905287</v>
+        <v>1.056706629067589</v>
       </c>
       <c r="N52" t="n">
-        <v>9.374530096056963</v>
+        <v>18.63462255547044</v>
       </c>
       <c r="O52" t="n">
-        <v>1.504185157792242</v>
+        <v>1.601202982133066</v>
       </c>
       <c r="P52" t="n">
-        <v>4.43881574393127</v>
+        <v>4.088043258965689</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.061061201703518</v>
+        <v>1.023789626500732</v>
       </c>
       <c r="R52" t="n">
-        <v>17.37701145901932</v>
+        <v>43.03512820889458</v>
       </c>
       <c r="S52" t="n">
-        <v>1.290797784604997</v>
+        <v>1.323829660448132</v>
       </c>
       <c r="T52" t="n">
-        <v>1.647500827831868</v>
+        <v>2.195527366129574</v>
       </c>
       <c r="U52" t="n">
-        <v>2.544399569879258</v>
+        <v>1.836450949038015</v>
       </c>
       <c r="V52" t="n">
-        <v>2.644036952613998</v>
+        <v>7.08468003056579</v>
       </c>
       <c r="W52" t="n">
-        <v>1.608258834091298</v>
+        <v>1.164347179305502</v>
       </c>
       <c r="X52" t="n">
-        <v>2.310417823140151</v>
+        <v>3.496892070163007</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.763115383766455</v>
+        <v>1.400497887733976</v>
       </c>
       <c r="Z52" t="n">
-        <v>4.534485026450258</v>
+        <v>16.96821153584213</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.282926647734116</v>
+        <v>1.062624420884919</v>
       </c>
       <c r="AB52" t="n">
-        <v>3.576531492886673</v>
+        <v>6.223407300351306</v>
       </c>
       <c r="AC52" t="n">
-        <v>1.388118679224692</v>
+        <v>1.191445916908058</v>
       </c>
       <c r="AD52" t="n">
-        <v>8.73621187953357</v>
+        <v>46.37063295669299</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.129262230090354</v>
+        <v>1.022040688763468</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5856,100 +5856,100 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>peterborough united</t>
+          <t>charlton athletic</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>leyton orient</t>
+          <t>wycombe wanderers</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.664604301600151</v>
+        <v>1.598293105044249</v>
       </c>
       <c r="F53" t="n">
-        <v>8.209546770836102</v>
+        <v>7.724712633645469</v>
       </c>
       <c r="G53" t="n">
-        <v>3.604289072821848</v>
+        <v>4.08366818234914</v>
       </c>
       <c r="H53" t="n">
-        <v>2.134118670794287</v>
+        <v>2.079739619240236</v>
       </c>
       <c r="I53" t="n">
-        <v>1.215607295030633</v>
+        <v>1.168772572529896</v>
       </c>
       <c r="J53" t="n">
-        <v>5.638061990703618</v>
+        <v>6.925133361481846</v>
       </c>
       <c r="K53" t="n">
-        <v>1.881741942666056</v>
+        <v>1.926149214292659</v>
       </c>
       <c r="L53" t="n">
-        <v>2.935823372892577</v>
+        <v>2.942454183535698</v>
       </c>
       <c r="M53" t="n">
-        <v>1.116063221131463</v>
+        <v>1.082905552040833</v>
       </c>
       <c r="N53" t="n">
-        <v>9.615993854481388</v>
+        <v>13.0619183562939</v>
       </c>
       <c r="O53" t="n">
-        <v>1.516576054408189</v>
+        <v>1.514812657346583</v>
       </c>
       <c r="P53" t="n">
-        <v>4.35174996968717</v>
+        <v>4.547755159414322</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.059177225092641</v>
+        <v>1.037895781086318</v>
       </c>
       <c r="R53" t="n">
-        <v>17.89839289413299</v>
+        <v>27.38816172497488</v>
       </c>
       <c r="S53" t="n">
-        <v>1.298351610067542</v>
+        <v>1.281868380163271</v>
       </c>
       <c r="T53" t="n">
-        <v>1.63597829665655</v>
+        <v>2.07458274656008</v>
       </c>
       <c r="U53" t="n">
-        <v>2.572380701129545</v>
+        <v>1.930593761347061</v>
       </c>
       <c r="V53" t="n">
-        <v>2.670417969467373</v>
+        <v>4.657603119650449</v>
       </c>
       <c r="W53" t="n">
-        <v>1.598652563776513</v>
+        <v>1.273403091392695</v>
       </c>
       <c r="X53" t="n">
-        <v>2.286515790917481</v>
+        <v>3.226947099541789</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.777293218676195</v>
+        <v>1.449045242343546</v>
       </c>
       <c r="Z53" t="n">
-        <v>4.597207802628957</v>
+        <v>9.763508668559449</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.277993392338682</v>
+        <v>1.114109546509341</v>
       </c>
       <c r="AB53" t="n">
-        <v>3.526206365094978</v>
+        <v>5.59769258745187</v>
       </c>
       <c r="AC53" t="n">
-        <v>1.395850479128376</v>
+        <v>1.217500405035609</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.893088014459313</v>
+        <v>23.23789002855532</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.126693126716452</v>
+        <v>1.044968295045794</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5959,100 +5959,100 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>wycombe wanderers</t>
+          <t>carlisle utd</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>blackpool fc</t>
+          <t>derby county</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2.719407287805073</v>
+        <v>4.245991202546384</v>
       </c>
       <c r="F54" t="n">
-        <v>7.530013894885999</v>
+        <v>9.01802230900698</v>
       </c>
       <c r="G54" t="n">
-        <v>2.002118520200683</v>
+        <v>1.530000226832953</v>
       </c>
       <c r="H54" t="n">
-        <v>4.010870682280351</v>
+        <v>6.771951674823217</v>
       </c>
       <c r="I54" t="n">
-        <v>1.579882416770013</v>
+        <v>2.118833832827316</v>
       </c>
       <c r="J54" t="n">
-        <v>2.724487535887141</v>
+        <v>1.893787773178953</v>
       </c>
       <c r="K54" t="n">
-        <v>1.332129840675398</v>
+        <v>1.173251623772583</v>
       </c>
       <c r="L54" t="n">
-        <v>6.436244627534308</v>
+        <v>11.74653899185702</v>
       </c>
       <c r="M54" t="n">
-        <v>1.33247055047877</v>
+        <v>1.667467295654686</v>
       </c>
       <c r="N54" t="n">
-        <v>4.007785196493232</v>
+        <v>2.498200745579824</v>
       </c>
       <c r="O54" t="n">
-        <v>1.183950515202177</v>
+        <v>1.093053214691514</v>
       </c>
       <c r="P54" t="n">
-        <v>11.25638297495529</v>
+        <v>22.19479857962176</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.185438895335782</v>
+        <v>1.395063913413674</v>
       </c>
       <c r="R54" t="n">
-        <v>6.392611933916331</v>
+        <v>3.53123600016814</v>
       </c>
       <c r="S54" t="n">
-        <v>1.097500259345021</v>
+        <v>1.047181387274964</v>
       </c>
       <c r="T54" t="n">
-        <v>2.358472189216349</v>
+        <v>2.585174197868528</v>
       </c>
       <c r="U54" t="n">
-        <v>1.73612106890231</v>
+        <v>1.630845494043891</v>
       </c>
       <c r="V54" t="n">
-        <v>1.92462830543194</v>
+        <v>1.446210778891039</v>
       </c>
       <c r="W54" t="n">
-        <v>2.081515668647901</v>
+        <v>3.241093329222761</v>
       </c>
       <c r="X54" t="n">
-        <v>3.867378510771205</v>
+        <v>4.395187575830167</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.34875060834959</v>
+        <v>1.294534536801104</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.89847449297597</v>
+        <v>1.899165838451051</v>
       </c>
       <c r="AA54" t="n">
-        <v>1.52673870715663</v>
+        <v>2.112141895562504</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.101923750507183</v>
+        <v>8.389725435768687</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.163882742703378</v>
+        <v>1.135323025015202</v>
       </c>
       <c r="AD54" t="n">
-        <v>4.854006105460662</v>
+        <v>2.729851021404505</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.259470268763488</v>
+        <v>1.578084463706058</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -6062,100 +6062,100 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>derby county</t>
+          <t>cambridge utd fc</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>portsmouth</t>
+          <t>port vale fc</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>3.294503194769027</v>
+        <v>1.55423867040608</v>
       </c>
       <c r="F55" t="n">
-        <v>7.819189760487488</v>
+        <v>7.869853026025827</v>
       </c>
       <c r="G55" t="n">
-        <v>1.758787225285473</v>
+        <v>4.35671004328102</v>
       </c>
       <c r="H55" t="n">
-        <v>5.098405669102704</v>
+        <v>2.005271159635889</v>
       </c>
       <c r="I55" t="n">
-        <v>1.76493134685474</v>
+        <v>1.153198689631674</v>
       </c>
       <c r="J55" t="n">
-        <v>2.307306863696749</v>
+        <v>7.527470975138487</v>
       </c>
       <c r="K55" t="n">
-        <v>1.243997320113735</v>
+        <v>1.99475647979616</v>
       </c>
       <c r="L55" t="n">
-        <v>8.619675008539149</v>
+        <v>2.812243280175473</v>
       </c>
       <c r="M55" t="n">
-        <v>1.441923193363573</v>
+        <v>1.074085569895724</v>
       </c>
       <c r="N55" t="n">
-        <v>3.262836653556885</v>
+        <v>14.49790521160213</v>
       </c>
       <c r="O55" t="n">
-        <v>1.131239193125603</v>
+        <v>1.551802294393485</v>
       </c>
       <c r="P55" t="n">
-        <v>15.93712492883834</v>
+        <v>4.308401915184434</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.25044474879737</v>
+        <v>1.033222696373625</v>
       </c>
       <c r="R55" t="n">
-        <v>4.992896656056777</v>
+        <v>31.09990485883338</v>
       </c>
       <c r="S55" t="n">
-        <v>1.066947287698542</v>
+        <v>1.302260736644585</v>
       </c>
       <c r="T55" t="n">
-        <v>2.735857541189223</v>
+        <v>2.055208207782195</v>
       </c>
       <c r="U55" t="n">
-        <v>1.576084140703682</v>
+        <v>1.947680270703892</v>
       </c>
       <c r="V55" t="n">
-        <v>1.788418552147915</v>
+        <v>5.074250659302534</v>
       </c>
       <c r="W55" t="n">
-        <v>2.268361833033567</v>
+        <v>1.245443907020485</v>
       </c>
       <c r="X55" t="n">
-        <v>4.753566331260579</v>
+        <v>3.184114978619971</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.266413301843574</v>
+        <v>1.457851353884239</v>
       </c>
       <c r="Z55" t="n">
-        <v>2.606298361966795</v>
+        <v>10.93974477940429</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.622549349285007</v>
+        <v>1.100606204906997</v>
       </c>
       <c r="AB55" t="n">
-        <v>9.286432490085955</v>
+        <v>5.499587368822462</v>
       </c>
       <c r="AC55" t="n">
-        <v>1.12067919471937</v>
+        <v>1.222242600939139</v>
       </c>
       <c r="AD55" t="n">
-        <v>4.210134902063708</v>
+        <v>26.80956054740497</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.311513388224628</v>
+        <v>1.03874533230286</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -6165,100 +6165,100 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>barnsley fc</t>
+          <t>burton albion</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>burton albion</t>
+          <t>fleetwood town</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1.251281407223556</v>
+        <v>2.035669134587441</v>
       </c>
       <c r="F56" t="n">
-        <v>12.36196856233608</v>
+        <v>6.887331393700006</v>
       </c>
       <c r="G56" t="n">
-        <v>8.338475693288196</v>
+        <v>2.750525287346188</v>
       </c>
       <c r="H56" t="n">
-        <v>1.443458564448395</v>
+        <v>2.876131952038398</v>
       </c>
       <c r="I56" t="n">
-        <v>1.069755320846962</v>
+        <v>1.308989972429211</v>
       </c>
       <c r="J56" t="n">
-        <v>15.33582396092657</v>
+        <v>4.236350979736401</v>
       </c>
       <c r="K56" t="n">
-        <v>3.255002113317776</v>
+        <v>1.533011550127649</v>
       </c>
       <c r="L56" t="n">
-        <v>1.760121013662658</v>
+        <v>4.459632034955696</v>
       </c>
       <c r="M56" t="n">
-        <v>1.033316683793277</v>
+        <v>1.160951470658233</v>
       </c>
       <c r="N56" t="n">
-        <v>31.0149920743848</v>
+        <v>7.213052890479112</v>
       </c>
       <c r="O56" t="n">
-        <v>2.31557999585024</v>
+        <v>1.289048080806318</v>
       </c>
       <c r="P56" t="n">
-        <v>2.284357323115073</v>
+        <v>7.60910427749105</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.014721831551268</v>
+        <v>1.079429038217229</v>
       </c>
       <c r="R56" t="n">
-        <v>68.92633080452866</v>
+        <v>13.58985406905109</v>
       </c>
       <c r="S56" t="n">
-        <v>1.778599523670411</v>
+        <v>1.151306433975591</v>
       </c>
       <c r="T56" t="n">
-        <v>1.320445851608696</v>
+        <v>2.638712213510438</v>
       </c>
       <c r="U56" t="n">
-        <v>4.120652038339142</v>
+        <v>1.610235276063396</v>
       </c>
       <c r="V56" t="n">
-        <v>4.351513121606257</v>
+        <v>3.431670097625929</v>
       </c>
       <c r="W56" t="n">
-        <v>1.298372694277484</v>
+        <v>1.411239995497873</v>
       </c>
       <c r="X56" t="n">
-        <v>1.648627961530251</v>
+        <v>4.521846936305136</v>
       </c>
       <c r="Y56" t="n">
-        <v>2.541715836056138</v>
+        <v>1.283941925383369</v>
       </c>
       <c r="Z56" t="n">
-        <v>8.917739538218017</v>
+        <v>6.479623070369718</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.126298673399537</v>
+        <v>1.182494304290264</v>
       </c>
       <c r="AB56" t="n">
-        <v>2.235205821531761</v>
+        <v>8.704666877882753</v>
       </c>
       <c r="AC56" t="n">
-        <v>1.809581676647147</v>
+        <v>1.129791464816036</v>
       </c>
       <c r="AD56" t="n">
-        <v>20.72965418494069</v>
+        <v>13.82285138806922</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.050685125579306</v>
+        <v>1.07798577474979</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6268,100 +6268,100 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>lincoln city</t>
+          <t>bristol rovers</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>carlisle utd</t>
+          <t>wigan fc</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1.786057161765556</v>
+        <v>2.528951198844917</v>
       </c>
       <c r="F57" t="n">
-        <v>7.89355963524631</v>
+        <v>7.444415013693304</v>
       </c>
       <c r="G57" t="n">
-        <v>3.190587021189825</v>
+        <v>2.126527204839289</v>
       </c>
       <c r="H57" t="n">
-        <v>2.341527186185485</v>
+        <v>3.666382046236328</v>
       </c>
       <c r="I57" t="n">
-        <v>1.258994869739991</v>
+        <v>1.5140819004212</v>
       </c>
       <c r="J57" t="n">
-        <v>4.861080341104493</v>
+        <v>2.945215342498301</v>
       </c>
       <c r="K57" t="n">
-        <v>1.745419109129954</v>
+        <v>1.375040029020421</v>
       </c>
       <c r="L57" t="n">
-        <v>3.302150894838583</v>
+        <v>5.778248877863725</v>
       </c>
       <c r="M57" t="n">
-        <v>1.141576333898184</v>
+        <v>1.292564977052958</v>
       </c>
       <c r="N57" t="n">
-        <v>8.063327411198248</v>
+        <v>4.418044121593504</v>
       </c>
       <c r="O57" t="n">
-        <v>1.434376392200006</v>
+        <v>1.209281689916303</v>
       </c>
       <c r="P57" t="n">
-        <v>5.028120795168917</v>
+        <v>9.92310317119864</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.073637356012838</v>
+        <v>1.161273516323316</v>
       </c>
       <c r="R57" t="n">
-        <v>14.58006389889458</v>
+        <v>7.200646099854554</v>
       </c>
       <c r="S57" t="n">
-        <v>1.248254719967519</v>
+        <v>1.112068635856159</v>
       </c>
       <c r="T57" t="n">
-        <v>1.722924824374233</v>
+        <v>2.264827759224411</v>
       </c>
       <c r="U57" t="n">
-        <v>2.383269693173983</v>
+        <v>1.790621483998104</v>
       </c>
       <c r="V57" t="n">
-        <v>2.494360550573785</v>
+        <v>2.017162087346086</v>
       </c>
       <c r="W57" t="n">
-        <v>1.669182547422062</v>
+        <v>1.983127480310573</v>
       </c>
       <c r="X57" t="n">
-        <v>2.467965581475753</v>
+        <v>3.653523616751567</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.681214881751311</v>
+        <v>1.376857395836633</v>
       </c>
       <c r="Z57" t="n">
-        <v>4.182077290889556</v>
+        <v>3.100340894599623</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.31426012273902</v>
+        <v>1.47611318837394</v>
       </c>
       <c r="AB57" t="n">
-        <v>3.911501064241046</v>
+        <v>6.592122142580507</v>
       </c>
       <c r="AC57" t="n">
-        <v>1.343465442029874</v>
+        <v>1.178822989645671</v>
       </c>
       <c r="AD57" t="n">
-        <v>7.864873067405939</v>
+        <v>5.308668952710479</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.145669117284622</v>
+        <v>1.23209023737387</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6371,203 +6371,203 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>exeter city</t>
+          <t>blackpool fc</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>cheltenham town</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.251057053112107</v>
+        <v>1.24308074826074</v>
       </c>
       <c r="F58" t="n">
-        <v>12.36809540793555</v>
+        <v>12.30879867267064</v>
       </c>
       <c r="G58" t="n">
-        <v>8.345660583724838</v>
+        <v>8.748574737563324</v>
       </c>
       <c r="H58" t="n">
-        <v>1.443088420599091</v>
+        <v>1.436531207773643</v>
       </c>
       <c r="I58" t="n">
-        <v>1.069679309709595</v>
+        <v>1.064371664662385</v>
       </c>
       <c r="J58" t="n">
-        <v>15.3514624953626</v>
+        <v>16.53478545637704</v>
       </c>
       <c r="K58" t="n">
-        <v>3.256885879906137</v>
+        <v>3.290786963663169</v>
       </c>
       <c r="L58" t="n">
-        <v>1.759510540273296</v>
+        <v>1.759549755674456</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03327586958352</v>
+        <v>1.029794882789104</v>
       </c>
       <c r="N58" t="n">
-        <v>31.05180668502354</v>
+        <v>34.56281033485779</v>
       </c>
       <c r="O58" t="n">
-        <v>2.316637422359102</v>
+        <v>2.316569444633724</v>
       </c>
       <c r="P58" t="n">
-        <v>2.283333672523622</v>
+        <v>2.301550297935243</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.014701512655846</v>
+        <v>1.012684533010461</v>
       </c>
       <c r="R58" t="n">
-        <v>69.02021148499662</v>
+        <v>79.83616993824823</v>
       </c>
       <c r="S58" t="n">
-        <v>1.779220573269572</v>
+        <v>1.768314525828454</v>
       </c>
       <c r="T58" t="n">
-        <v>1.320271306464657</v>
+        <v>1.373462884938771</v>
       </c>
       <c r="U58" t="n">
-        <v>4.122352767216602</v>
+        <v>3.677642251288099</v>
       </c>
       <c r="V58" t="n">
-        <v>4.353933117993217</v>
+        <v>5.263309638176247</v>
       </c>
       <c r="W58" t="n">
-        <v>1.29815740648947</v>
+        <v>1.234559552289</v>
       </c>
       <c r="X58" t="n">
-        <v>1.64828321300423</v>
+        <v>1.753700960489228</v>
       </c>
       <c r="Y58" t="n">
-        <v>2.542535700355201</v>
+        <v>2.32678615581291</v>
       </c>
       <c r="Z58" t="n">
-        <v>8.924362768610591</v>
+        <v>11.48250672861889</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.126193112203435</v>
+        <v>1.095397029154281</v>
       </c>
       <c r="AB58" t="n">
-        <v>2.234536714457373</v>
+        <v>2.440623025911436</v>
       </c>
       <c r="AC58" t="n">
-        <v>1.810020462161418</v>
+        <v>1.694144118213946</v>
       </c>
       <c r="AD58" t="n">
-        <v>20.74908955962216</v>
+        <v>28.48814751566446</v>
       </c>
       <c r="AE58" t="n">
-        <v>1.050635245588462</v>
+        <v>1.036379315828036</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ING C</t>
+          <t>ING D</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>wigan fc</t>
+          <t>newport county afc</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>cambridge utd fc</t>
+          <t>bradford city</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.957501517084945</v>
+        <v>2.067721433405485</v>
       </c>
       <c r="F59" t="n">
-        <v>7.632059168028017</v>
+        <v>8.017075067626983</v>
       </c>
       <c r="G59" t="n">
-        <v>1.883769463028127</v>
+        <v>2.553351711481512</v>
       </c>
       <c r="H59" t="n">
-        <v>4.456184727140217</v>
+        <v>2.772119572242595</v>
       </c>
       <c r="I59" t="n">
-        <v>1.657609827952745</v>
+        <v>1.383849713747811</v>
       </c>
       <c r="J59" t="n">
-        <v>2.520658538685736</v>
+        <v>3.605186259581263</v>
       </c>
       <c r="K59" t="n">
-        <v>1.289336386492119</v>
+        <v>1.564296007822154</v>
       </c>
       <c r="L59" t="n">
-        <v>7.318682091066956</v>
+        <v>3.982289785573495</v>
       </c>
       <c r="M59" t="n">
-        <v>1.378572849851146</v>
+        <v>1.223401954038029</v>
       </c>
       <c r="N59" t="n">
-        <v>3.641499516917805</v>
+        <v>5.476236585781047</v>
       </c>
       <c r="O59" t="n">
-        <v>1.158260850219661</v>
+        <v>1.335312820651229</v>
       </c>
       <c r="P59" t="n">
-        <v>13.12030031604103</v>
+        <v>6.155512362798222</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.212807036860051</v>
+        <v>1.125316415897839</v>
       </c>
       <c r="R59" t="n">
-        <v>5.699092730930863</v>
+        <v>8.979800514046193</v>
       </c>
       <c r="S59" t="n">
-        <v>1.082506206440819</v>
+        <v>1.19396714227977</v>
       </c>
       <c r="T59" t="n">
-        <v>2.515498530873196</v>
+        <v>1.603313545562049</v>
       </c>
       <c r="U59" t="n">
-        <v>1.659848874563951</v>
+        <v>2.65751292566852</v>
       </c>
       <c r="V59" t="n">
-        <v>1.859664855379939</v>
+        <v>1.784792644481808</v>
       </c>
       <c r="W59" t="n">
-        <v>2.163244017411923</v>
+        <v>2.274221932419222</v>
       </c>
       <c r="X59" t="n">
-        <v>4.231484091377543</v>
+        <v>2.218996985716398</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.3094553374619</v>
+        <v>1.820346573221677</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.758377132602849</v>
+        <v>2.598602981901347</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.568706212938372</v>
+        <v>1.625546187090568</v>
       </c>
       <c r="AB59" t="n">
-        <v>7.985978315339964</v>
+        <v>3.384768023531284</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.143143874037539</v>
+        <v>1.419327997579921</v>
       </c>
       <c r="AD59" t="n">
-        <v>4.543110836177583</v>
+        <v>4.193414188743356</v>
       </c>
       <c r="AE59" t="n">
-        <v>1.282237854314157</v>
+        <v>1.313144471996447</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>15/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6577,100 +6577,100 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>salford city</t>
+          <t>doncaster rovers</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>notts county</t>
+          <t>gillingham</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>2.243022387128272</v>
+        <v>4.683508100856486</v>
       </c>
       <c r="F60" t="n">
-        <v>7.472717467686902</v>
+        <v>9.133156247464287</v>
       </c>
       <c r="G60" t="n">
-        <v>2.378953792860217</v>
+        <v>1.477118702986973</v>
       </c>
       <c r="H60" t="n">
-        <v>3.142729213737435</v>
+        <v>7.728627315137062</v>
       </c>
       <c r="I60" t="n">
-        <v>1.41929718935329</v>
+        <v>2.22209310445284</v>
       </c>
       <c r="J60" t="n">
-        <v>3.384943246441425</v>
+        <v>1.818268261523105</v>
       </c>
       <c r="K60" t="n">
-        <v>1.466694528449425</v>
+        <v>1.148618723130994</v>
       </c>
       <c r="L60" t="n">
-        <v>4.768578820496448</v>
+        <v>13.94750505198537</v>
       </c>
       <c r="M60" t="n">
-        <v>1.23683945240749</v>
+        <v>1.719511675424064</v>
       </c>
       <c r="N60" t="n">
-        <v>5.222269515635711</v>
+        <v>2.389831512338728</v>
       </c>
       <c r="O60" t="n">
-        <v>1.265352019323896</v>
+        <v>1.077234957313004</v>
       </c>
       <c r="P60" t="n">
-        <v>7.85543563584583</v>
+        <v>27.55022035133727</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.128937970665267</v>
+        <v>1.421483975646851</v>
       </c>
       <c r="R60" t="n">
-        <v>8.755667278152522</v>
+        <v>3.372569439835283</v>
       </c>
       <c r="S60" t="n">
-        <v>1.145869650467022</v>
+        <v>1.037664470831769</v>
       </c>
       <c r="T60" t="n">
-        <v>2.039334842196138</v>
+        <v>3.089844429740125</v>
       </c>
       <c r="U60" t="n">
-        <v>1.962153830893399</v>
+        <v>1.478504517259379</v>
       </c>
       <c r="V60" t="n">
-        <v>2.118973587026511</v>
+        <v>1.496129837570696</v>
       </c>
       <c r="W60" t="n">
-        <v>1.893676143560578</v>
+        <v>3.015601409696518</v>
       </c>
       <c r="X60" t="n">
-        <v>3.149108952079012</v>
+        <v>5.617684141798049</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.465309122198117</v>
+        <v>1.216558770433921</v>
       </c>
       <c r="Z60" t="n">
-        <v>3.325515182874998</v>
+        <v>1.999923851742887</v>
       </c>
       <c r="AA60" t="n">
-        <v>1.430012243034989</v>
+        <v>2.000076154056112</v>
       </c>
       <c r="AB60" t="n">
-        <v>5.419653795797146</v>
+        <v>11.51533630648567</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.226262066262056</v>
+        <v>1.095099193297624</v>
       </c>
       <c r="AD60" t="n">
-        <v>5.824700178652805</v>
+        <v>2.933414489149875</v>
       </c>
       <c r="AE60" t="n">
-        <v>1.207266765388773</v>
+        <v>1.517219667904579</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6680,100 +6680,100 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>bradford city</t>
+          <t>walsall</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>harrogate town fc</t>
+          <t>afc wimbledon</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1.725784620745422</v>
+        <v>4.253634068460408</v>
       </c>
       <c r="F61" t="n">
-        <v>8.032081436077045</v>
+        <v>9.028828430536098</v>
       </c>
       <c r="G61" t="n">
-        <v>3.3777771325004</v>
+        <v>1.52870005105193</v>
       </c>
       <c r="H61" t="n">
-        <v>2.238306099464545</v>
+        <v>6.785150618910112</v>
       </c>
       <c r="I61" t="n">
-        <v>1.237486895489494</v>
+        <v>2.121763383542122</v>
       </c>
       <c r="J61" t="n">
-        <v>5.210758652341048</v>
+        <v>1.891453594110339</v>
       </c>
       <c r="K61" t="n">
-        <v>1.807554772145926</v>
+        <v>1.172856346510887</v>
       </c>
       <c r="L61" t="n">
-        <v>3.119102709491874</v>
+        <v>11.7706611141879</v>
       </c>
       <c r="M61" t="n">
-        <v>1.12890332500879</v>
+        <v>1.669364140055962</v>
       </c>
       <c r="N61" t="n">
-        <v>8.757751787487329</v>
+        <v>2.493955143632876</v>
       </c>
       <c r="O61" t="n">
-        <v>1.47189784408316</v>
+        <v>1.092844811418561</v>
       </c>
       <c r="P61" t="n">
-        <v>4.688455234517073</v>
+        <v>22.24180344766067</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.066427831723094</v>
+        <v>1.396303342090977</v>
       </c>
       <c r="R61" t="n">
-        <v>16.05393107167083</v>
+        <v>3.52331962360902</v>
       </c>
       <c r="S61" t="n">
-        <v>1.271116208932634</v>
+        <v>1.047076982068118</v>
       </c>
       <c r="T61" t="n">
-        <v>1.679977909038378</v>
+        <v>2.583122326494269</v>
       </c>
       <c r="U61" t="n">
-        <v>2.470636011417189</v>
+        <v>1.631663127519931</v>
       </c>
       <c r="V61" t="n">
-        <v>2.575052872252884</v>
+        <v>1.444202212286856</v>
       </c>
       <c r="W61" t="n">
-        <v>1.634899321550803</v>
+        <v>3.251226969023337</v>
       </c>
       <c r="X61" t="n">
-        <v>2.378025143829568</v>
+        <v>4.390348264498398</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.72567616380422</v>
+        <v>1.294954949163003</v>
       </c>
       <c r="Z61" t="n">
-        <v>4.371327348575392</v>
+        <v>1.89512811378425</v>
       </c>
       <c r="AA61" t="n">
-        <v>1.296619075101848</v>
+        <v>2.117158521334329</v>
       </c>
       <c r="AB61" t="n">
-        <v>3.719588106733353</v>
+        <v>8.377736180871288</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.367702740545205</v>
+        <v>1.135542932884041</v>
       </c>
       <c r="AD61" t="n">
-        <v>8.33064394625444</v>
+        <v>2.721747953261485</v>
       </c>
       <c r="AE61" t="n">
-        <v>1.136413663974356</v>
+        <v>1.580805104548382</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -6783,100 +6783,100 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>notts county</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>forest green rovers</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>doncaster rovers</t>
-        </is>
-      </c>
       <c r="E62" t="n">
-        <v>1.698810126063484</v>
+        <v>1.227211723460287</v>
       </c>
       <c r="F62" t="n">
-        <v>8.105185700304631</v>
+        <v>13.67989101594477</v>
       </c>
       <c r="G62" t="n">
-        <v>3.472524934883107</v>
+        <v>8.92501068731937</v>
       </c>
       <c r="H62" t="n">
-        <v>2.19229707421459</v>
+        <v>1.392344786567048</v>
       </c>
       <c r="I62" t="n">
-        <v>1.227844797390173</v>
+        <v>1.066431523116624</v>
       </c>
       <c r="J62" t="n">
-        <v>5.388952530206569</v>
+        <v>16.05309457144991</v>
       </c>
       <c r="K62" t="n">
-        <v>1.838717146612758</v>
+        <v>3.548778610644569</v>
       </c>
       <c r="L62" t="n">
-        <v>3.037980980345972</v>
+        <v>1.658543542119793</v>
       </c>
       <c r="M62" t="n">
-        <v>1.123237672959243</v>
+        <v>1.03279488718441</v>
       </c>
       <c r="N62" t="n">
-        <v>9.114401838232736</v>
+        <v>31.4925580129878</v>
       </c>
       <c r="O62" t="n">
-        <v>1.49068171373721</v>
+        <v>2.518502477119567</v>
       </c>
       <c r="P62" t="n">
-        <v>4.538997566609732</v>
+        <v>2.08952879341176</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.063221320292976</v>
+        <v>1.015050503001831</v>
       </c>
       <c r="R62" t="n">
-        <v>16.81744885057558</v>
+        <v>67.44296206434562</v>
       </c>
       <c r="S62" t="n">
-        <v>1.282565890814662</v>
+        <v>1.917827969344978</v>
       </c>
       <c r="T62" t="n">
-        <v>1.660632207179843</v>
+        <v>1.209038649405106</v>
       </c>
       <c r="U62" t="n">
-        <v>2.513701556072895</v>
+        <v>5.783804348362651</v>
       </c>
       <c r="V62" t="n">
-        <v>2.615231934902943</v>
+        <v>3.389322262437592</v>
       </c>
       <c r="W62" t="n">
-        <v>1.619106134785583</v>
+        <v>1.418528724953074</v>
       </c>
       <c r="X62" t="n">
-        <v>2.337711072821202</v>
+        <v>1.429746331533833</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.74754558014611</v>
+        <v>3.326954127638136</v>
       </c>
       <c r="Z62" t="n">
-        <v>4.466205313224087</v>
+        <v>6.371449802292336</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.28849993281842</v>
+        <v>1.186169476920968</v>
       </c>
       <c r="AB62" t="n">
-        <v>3.634157991935759</v>
+        <v>1.816714649404493</v>
       </c>
       <c r="AC62" t="n">
-        <v>1.379627950586643</v>
+        <v>2.224417856015132</v>
       </c>
       <c r="AD62" t="n">
-        <v>8.566041971077047</v>
+        <v>13.52899574791651</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.132169502075554</v>
+        <v>1.07981485668285</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6886,100 +6886,100 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>tranmere rovers</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>accrington stanley</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>sutton united fc</t>
-        </is>
-      </c>
       <c r="E63" t="n">
-        <v>1.261534812004743</v>
+        <v>3.845645972011868</v>
       </c>
       <c r="F63" t="n">
-        <v>12.09095302393814</v>
+        <v>8.899982615337244</v>
       </c>
       <c r="G63" t="n">
-        <v>8.025146726975928</v>
+        <v>1.593356612703392</v>
       </c>
       <c r="H63" t="n">
-        <v>1.460426302008129</v>
+        <v>5.940469386366117</v>
       </c>
       <c r="I63" t="n">
-        <v>1.073216627995912</v>
+        <v>2.014037880985227</v>
       </c>
       <c r="J63" t="n">
-        <v>14.65809963353992</v>
+        <v>1.986156453078864</v>
       </c>
       <c r="K63" t="n">
-        <v>3.171900249048641</v>
+        <v>1.202409917316689</v>
       </c>
       <c r="L63" t="n">
-        <v>1.788208451197422</v>
+        <v>9.932323123740009</v>
       </c>
       <c r="M63" t="n">
-        <v>1.035174368461586</v>
+        <v>1.611623001729875</v>
       </c>
       <c r="N63" t="n">
-        <v>29.42979259434589</v>
+        <v>2.634994101221935</v>
       </c>
       <c r="O63" t="n">
-        <v>2.268699921297253</v>
+        <v>1.111952958502165</v>
       </c>
       <c r="P63" t="n">
-        <v>2.331649261186449</v>
+        <v>18.0161850429804</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.0156469872651</v>
+        <v>1.3648850030307</v>
       </c>
       <c r="R63" t="n">
-        <v>64.91006671491661</v>
+        <v>3.740589478038548</v>
       </c>
       <c r="S63" t="n">
-        <v>1.750948488575015</v>
+        <v>1.058767579070993</v>
       </c>
       <c r="T63" t="n">
-        <v>1.328856607329165</v>
+        <v>2.220006219917365</v>
       </c>
       <c r="U63" t="n">
-        <v>4.040839009200936</v>
+        <v>1.819667952240222</v>
       </c>
       <c r="V63" t="n">
-        <v>4.250693001395176</v>
+        <v>1.408246350121849</v>
       </c>
       <c r="W63" t="n">
-        <v>1.307626712079796</v>
+        <v>3.449501384890594</v>
       </c>
       <c r="X63" t="n">
-        <v>1.665248953937181</v>
+        <v>3.552058328779776</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.503196651541716</v>
+        <v>1.391840573831294</v>
       </c>
       <c r="Z63" t="n">
-        <v>8.642729964970385</v>
+        <v>1.823056905793393</v>
       </c>
       <c r="AA63" t="n">
-        <v>1.130843298740553</v>
+        <v>2.21498281948809</v>
       </c>
       <c r="AB63" t="n">
-        <v>2.267502618979004</v>
+        <v>6.352808533883495</v>
       </c>
       <c r="AC63" t="n">
-        <v>1.788953004929898</v>
+        <v>1.186817816043664</v>
       </c>
       <c r="AD63" t="n">
-        <v>19.92564101060038</v>
+        <v>2.577828153584585</v>
       </c>
       <c r="AE63" t="n">
-        <v>1.052838368826709</v>
+        <v>1.633782581283109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6989,100 +6989,100 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>afc wimbledon</t>
+          <t>grimsby town</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>crewe alexandra fc</t>
+          <t>crawley town</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1.834497442025088</v>
+        <v>3.374418073705304</v>
       </c>
       <c r="F64" t="n">
-        <v>7.803093812213813</v>
+        <v>8.645689726628914</v>
       </c>
       <c r="G64" t="n">
-        <v>3.060562867300667</v>
+        <v>1.70071487954281</v>
       </c>
       <c r="H64" t="n">
-        <v>2.424903849078681</v>
+        <v>5.038743282484511</v>
       </c>
       <c r="I64" t="n">
-        <v>1.276234866133026</v>
+        <v>1.867113872471543</v>
       </c>
       <c r="J64" t="n">
-        <v>4.620107823457855</v>
+        <v>2.153251068570372</v>
       </c>
       <c r="K64" t="n">
-        <v>1.701801739567609</v>
+        <v>1.247601773635097</v>
       </c>
       <c r="L64" t="n">
-        <v>3.451048868838018</v>
+        <v>8.113280414477064</v>
       </c>
       <c r="M64" t="n">
-        <v>1.15176410074552</v>
+        <v>1.525640798248796</v>
       </c>
       <c r="N64" t="n">
-        <v>7.589173560068796</v>
+        <v>2.902439847385441</v>
       </c>
       <c r="O64" t="n">
-        <v>1.407988601416207</v>
+        <v>1.140582114261204</v>
       </c>
       <c r="P64" t="n">
-        <v>5.306806216598596</v>
+        <v>14.12925283502606</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.079466370623103</v>
+        <v>1.313765618715353</v>
       </c>
       <c r="R64" t="n">
-        <v>13.58393949741146</v>
+        <v>4.187092340117722</v>
       </c>
       <c r="S64" t="n">
-        <v>1.232190618687686</v>
+        <v>1.076165796528209</v>
       </c>
       <c r="T64" t="n">
-        <v>1.757183118608228</v>
+        <v>1.962891787511846</v>
       </c>
       <c r="U64" t="n">
-        <v>2.320684488896282</v>
+        <v>2.038538299910152</v>
       </c>
       <c r="V64" t="n">
-        <v>2.43719783590545</v>
+        <v>1.41005563296608</v>
       </c>
       <c r="W64" t="n">
-        <v>1.695798431515164</v>
+        <v>3.438693483532072</v>
       </c>
       <c r="X64" t="n">
-        <v>2.540148028007025</v>
+        <v>2.981621366690422</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.649288238413041</v>
+        <v>1.504637271685325</v>
       </c>
       <c r="Z64" t="n">
-        <v>4.049075958557885</v>
+        <v>1.826674164439192</v>
       </c>
       <c r="AA64" t="n">
-        <v>1.327968215154918</v>
+        <v>2.209666447817915</v>
       </c>
       <c r="AB64" t="n">
-        <v>4.066813806504649</v>
+        <v>5.040339361722618</v>
       </c>
       <c r="AC64" t="n">
-        <v>1.32607131149567</v>
+        <v>1.247503962036903</v>
       </c>
       <c r="AD64" t="n">
-        <v>7.540626106055621</v>
+        <v>2.585019023403371</v>
       </c>
       <c r="AE64" t="n">
-        <v>1.152890561818562</v>
+        <v>1.630907254256664</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -7092,100 +7092,100 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>gillingham</t>
+          <t>harrogate town fc</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>morecambe</t>
+          <t>salford city</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.381009576334658</v>
+        <v>1.986887810590455</v>
       </c>
       <c r="F65" t="n">
-        <v>10.01774323938548</v>
+        <v>7.480371975702175</v>
       </c>
       <c r="G65" t="n">
-        <v>5.679585790824943</v>
+        <v>2.754690957422163</v>
       </c>
       <c r="H65" t="n">
-        <v>1.658348746151681</v>
+        <v>2.705814360547453</v>
       </c>
       <c r="I65" t="n">
-        <v>1.114523358027919</v>
+        <v>1.323537868618975</v>
       </c>
       <c r="J65" t="n">
-        <v>9.731843156015527</v>
+        <v>4.090828298611568</v>
       </c>
       <c r="K65" t="n">
-        <v>2.518951780261467</v>
+        <v>1.586230262288955</v>
       </c>
       <c r="L65" t="n">
-        <v>2.118660374936061</v>
+        <v>3.988220030292307</v>
       </c>
       <c r="M65" t="n">
-        <v>1.057906669336508</v>
+        <v>1.177894754715351</v>
       </c>
       <c r="N65" t="n">
-        <v>18.26916798113176</v>
+        <v>6.621301210370696</v>
       </c>
       <c r="O65" t="n">
-        <v>1.893926362643495</v>
+        <v>1.334647378661129</v>
       </c>
       <c r="P65" t="n">
-        <v>2.896369117782284</v>
+        <v>6.384220166771398</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.027343078819248</v>
+        <v>1.093424904671576</v>
       </c>
       <c r="R65" t="n">
-        <v>37.57232627717298</v>
+        <v>11.70378400187169</v>
       </c>
       <c r="S65" t="n">
-        <v>1.527323499746428</v>
+        <v>1.185727917697623</v>
       </c>
       <c r="T65" t="n">
-        <v>1.424367615255738</v>
+        <v>1.964514401110457</v>
       </c>
       <c r="U65" t="n">
-        <v>3.356447485742677</v>
+        <v>2.036791155060711</v>
       </c>
       <c r="V65" t="n">
-        <v>3.462531726084346</v>
+        <v>2.455608666146461</v>
       </c>
       <c r="W65" t="n">
-        <v>1.406086138670827</v>
+        <v>1.686997833454353</v>
       </c>
       <c r="X65" t="n">
-        <v>1.855322355220633</v>
+        <v>2.985157544277414</v>
       </c>
       <c r="Y65" t="n">
-        <v>2.169149846132627</v>
+        <v>1.503738357130741</v>
       </c>
       <c r="Z65" t="n">
-        <v>6.558696506528487</v>
+        <v>4.091815274922133</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.179898290691988</v>
+        <v>1.323434588124022</v>
       </c>
       <c r="AB65" t="n">
-        <v>2.642091290513621</v>
+        <v>5.048293410138109</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.608979540770364</v>
+        <v>1.247017668604679</v>
       </c>
       <c r="AD65" t="n">
-        <v>14.03839819445026</v>
+        <v>7.64453811716705</v>
       </c>
       <c r="AE65" t="n">
-        <v>1.076696537802139</v>
+        <v>1.150499550512979</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -7195,100 +7195,100 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>wrexham</t>
+          <t>sutton united fc</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>grimsby town</t>
+          <t>mk dons</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.256077076201686</v>
+        <v>3.396043217629221</v>
       </c>
       <c r="F66" t="n">
-        <v>12.23258181781455</v>
+        <v>8.67916482765302</v>
       </c>
       <c r="G66" t="n">
-        <v>8.188558227486736</v>
+        <v>1.693992996880594</v>
       </c>
       <c r="H66" t="n">
-        <v>1.451393459752844</v>
+        <v>5.073746478405721</v>
       </c>
       <c r="I66" t="n">
-        <v>1.07137266160042</v>
+        <v>1.876220033343323</v>
       </c>
       <c r="J66" t="n">
-        <v>15.01096691053073</v>
+        <v>2.141265848698277</v>
       </c>
       <c r="K66" t="n">
-        <v>3.215362182136045</v>
+        <v>1.245474284003887</v>
       </c>
       <c r="L66" t="n">
-        <v>1.773249291410227</v>
+        <v>8.172734145648318</v>
       </c>
       <c r="M66" t="n">
-        <v>1.034183748044972</v>
+        <v>1.531716995824753</v>
       </c>
       <c r="N66" t="n">
-        <v>30.25366752306932</v>
+        <v>2.880699710282699</v>
       </c>
       <c r="O66" t="n">
-        <v>2.293243991438042</v>
+        <v>1.139416849933954</v>
       </c>
       <c r="P66" t="n">
-        <v>2.30644404249797</v>
+        <v>14.2363996510671</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.015153013658361</v>
+        <v>1.317804626210519</v>
       </c>
       <c r="R66" t="n">
-        <v>66.99347314969445</v>
+        <v>4.146587297749352</v>
       </c>
       <c r="S66" t="n">
-        <v>1.765436534187842</v>
+        <v>1.075549244988185</v>
       </c>
       <c r="T66" t="n">
-        <v>1.324371661553379</v>
+        <v>1.956529427482888</v>
       </c>
       <c r="U66" t="n">
-        <v>4.08288336660211</v>
+        <v>2.045446142343478</v>
       </c>
       <c r="V66" t="n">
-        <v>4.303226051190284</v>
+        <v>1.402062380813194</v>
       </c>
       <c r="W66" t="n">
-        <v>1.302734352570167</v>
+        <v>3.487176238616118</v>
       </c>
       <c r="X66" t="n">
-        <v>1.65638385493152</v>
+        <v>2.967763817397759</v>
       </c>
       <c r="Y66" t="n">
-        <v>2.523498776648505</v>
+        <v>1.508191070065733</v>
       </c>
       <c r="Z66" t="n">
-        <v>8.785800132421754</v>
+        <v>1.810700763224667</v>
       </c>
       <c r="AA66" t="n">
-        <v>1.128438950781151</v>
+        <v>2.233500750662144</v>
       </c>
       <c r="AB66" t="n">
-        <v>2.250267323221196</v>
+        <v>5.009192086585739</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.799828949719004</v>
+        <v>1.249426811787312</v>
       </c>
       <c r="AD66" t="n">
-        <v>20.34318847518097</v>
+        <v>2.553290997597831</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.051697785051471</v>
+        <v>1.643794370498833</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>newport county afc</t>
+          <t>mansfield town</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -7307,91 +7307,91 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.996159337533751</v>
+        <v>1.233567080523874</v>
       </c>
       <c r="F67" t="n">
-        <v>7.599412234515463</v>
+        <v>13.51705795929539</v>
       </c>
       <c r="G67" t="n">
-        <v>2.721467124013374</v>
+        <v>8.668348152480348</v>
       </c>
       <c r="H67" t="n">
-        <v>2.705859023438112</v>
+        <v>1.401625676090297</v>
       </c>
       <c r="I67" t="n">
-        <v>1.333390202151109</v>
+        <v>1.069113224982958</v>
       </c>
       <c r="J67" t="n">
-        <v>3.999488267944805</v>
+        <v>15.46901081879167</v>
       </c>
       <c r="K67" t="n">
-        <v>1.586214913577399</v>
+        <v>3.489880651393344</v>
       </c>
       <c r="L67" t="n">
-        <v>3.959370721403198</v>
+        <v>1.671996392669672</v>
       </c>
       <c r="M67" t="n">
-        <v>1.185672779763237</v>
+        <v>1.034389423079105</v>
       </c>
       <c r="N67" t="n">
-        <v>6.38581908061679</v>
+        <v>30.07870823246257</v>
       </c>
       <c r="O67" t="n">
-        <v>1.337909675448112</v>
+        <v>2.488103226309374</v>
       </c>
       <c r="P67" t="n">
-        <v>6.27333282457388</v>
+        <v>2.109327438353927</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.099040615263286</v>
+        <v>1.015925103927075</v>
       </c>
       <c r="R67" t="n">
-        <v>11.09686780864226</v>
+        <v>63.79393871331838</v>
       </c>
       <c r="S67" t="n">
-        <v>1.189633393769491</v>
+        <v>1.901447097967618</v>
       </c>
       <c r="T67" t="n">
-        <v>1.870117868619325</v>
+        <v>1.205630919987237</v>
       </c>
       <c r="U67" t="n">
-        <v>2.149269582966694</v>
+        <v>5.863081875342821</v>
       </c>
       <c r="V67" t="n">
-        <v>2.283217983791123</v>
+        <v>3.256168523051289</v>
       </c>
       <c r="W67" t="n">
-        <v>1.779290824031013</v>
+        <v>1.443229302147864</v>
       </c>
       <c r="X67" t="n">
-        <v>2.780828150049902</v>
+        <v>1.423073855156396</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.561536496360965</v>
+        <v>3.363653503548063</v>
       </c>
       <c r="Z67" t="n">
-        <v>3.695323234998861</v>
+        <v>6.033849681854839</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.371013015068088</v>
+        <v>1.198655117494793</v>
       </c>
       <c r="AB67" t="n">
-        <v>4.592669124564604</v>
+        <v>1.804149456521921</v>
       </c>
       <c r="AC67" t="n">
-        <v>1.278344585968848</v>
+        <v>2.243549929543153</v>
       </c>
       <c r="AD67" t="n">
-        <v>6.691196180879822</v>
+        <v>12.61961205922057</v>
       </c>
       <c r="AE67" t="n">
-        <v>1.175709985777613</v>
+        <v>1.086061393005498</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -7401,203 +7401,203 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>mk dons</t>
+          <t>stockport county fc</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>stockport county fc</t>
+          <t>wrexham</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1.731205479700659</v>
+        <v>4.820520029799469</v>
       </c>
       <c r="F68" t="n">
-        <v>8.01828057848352</v>
+        <v>9.174323287696332</v>
       </c>
       <c r="G68" t="n">
-        <v>3.359618991214781</v>
+        <v>1.462942988358487</v>
       </c>
       <c r="H68" t="n">
-        <v>2.247566086576692</v>
+        <v>8.035223081820821</v>
       </c>
       <c r="I68" t="n">
-        <v>1.239423509844428</v>
+        <v>2.253252764746561</v>
       </c>
       <c r="J68" t="n">
-        <v>5.176699275061918</v>
+        <v>1.797923633707063</v>
       </c>
       <c r="K68" t="n">
-        <v>1.801560743562683</v>
+        <v>1.142141903443548</v>
       </c>
       <c r="L68" t="n">
-        <v>3.13546486887221</v>
+        <v>14.67166264683967</v>
       </c>
       <c r="M68" t="n">
-        <v>1.130042522079611</v>
+        <v>1.734991028745186</v>
       </c>
       <c r="N68" t="n">
-        <v>8.689792415651645</v>
+        <v>2.360560824405231</v>
       </c>
       <c r="O68" t="n">
-        <v>1.468282112516384</v>
+        <v>1.073143993223908</v>
       </c>
       <c r="P68" t="n">
-        <v>4.718681629517484</v>
+        <v>29.36450830012812</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.067073863971176</v>
+        <v>1.429235721343772</v>
       </c>
       <c r="R68" t="n">
-        <v>15.90893681672707</v>
+        <v>3.32972222551605</v>
       </c>
       <c r="S68" t="n">
-        <v>1.268912507073039</v>
+        <v>1.035255326460056</v>
       </c>
       <c r="T68" t="n">
-        <v>1.683855997343163</v>
+        <v>3.261900451696473</v>
       </c>
       <c r="U68" t="n">
-        <v>2.462296161597006</v>
+        <v>1.442106105620156</v>
       </c>
       <c r="V68" t="n">
-        <v>2.567303361954136</v>
+        <v>1.510590627794738</v>
       </c>
       <c r="W68" t="n">
-        <v>1.638038572668654</v>
+        <v>2.958516168459735</v>
       </c>
       <c r="X68" t="n">
-        <v>2.386121577038015</v>
+        <v>6.04830245352539</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.721437438508739</v>
+        <v>1.19808638828715</v>
       </c>
       <c r="Z68" t="n">
-        <v>4.353076802886278</v>
+        <v>2.029260786005094</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.298233550492853</v>
+        <v>1.971571066922053</v>
       </c>
       <c r="AB68" t="n">
-        <v>3.736789857411789</v>
+        <v>12.65829889732123</v>
       </c>
       <c r="AC68" t="n">
-        <v>1.365391590915099</v>
+        <v>1.085775807328955</v>
       </c>
       <c r="AD68" t="n">
-        <v>8.285506401513331</v>
+        <v>2.99316979510433</v>
       </c>
       <c r="AE68" t="n">
-        <v>1.137258818383892</v>
+        <v>1.501713402669568</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ING D</t>
+          <t>SUE A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>crawley town</t>
+          <t>degerfors if</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>tranmere rovers</t>
+          <t>malmo</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1.250977470420559</v>
+        <v>5.148741074366706</v>
       </c>
       <c r="F69" t="n">
-        <v>12.37039624086215</v>
+        <v>9.274067106460992</v>
       </c>
       <c r="G69" t="n">
-        <v>8.348155625039901</v>
+        <v>1.432766963766912</v>
       </c>
       <c r="H69" t="n">
-        <v>1.442954204227882</v>
+        <v>8.785901271098201</v>
       </c>
       <c r="I69" t="n">
-        <v>1.069653538435152</v>
+        <v>2.324966696989577</v>
       </c>
       <c r="J69" t="n">
-        <v>15.35677242629983</v>
+        <v>1.754735950927729</v>
       </c>
       <c r="K69" t="n">
-        <v>3.257569722682983</v>
+        <v>1.128437282362168</v>
       </c>
       <c r="L69" t="n">
-        <v>1.759284486368053</v>
+        <v>16.48687643828141</v>
       </c>
       <c r="M69" t="n">
-        <v>1.033262335420517</v>
+        <v>1.769923949826363</v>
       </c>
       <c r="N69" t="n">
-        <v>31.06403451103349</v>
+        <v>2.298829579500059</v>
       </c>
       <c r="O69" t="n">
-        <v>2.317029411180757</v>
+        <v>1.064570799927617</v>
       </c>
       <c r="P69" t="n">
-        <v>2.282947098121273</v>
+        <v>34.02857036069761</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.014694917207747</v>
+        <v>1.446356041033774</v>
       </c>
       <c r="R69" t="n">
-        <v>69.05074066513245</v>
+        <v>3.240363987645309</v>
       </c>
       <c r="S69" t="n">
-        <v>1.779455366058651</v>
+        <v>1.030276817587901</v>
       </c>
       <c r="T69" t="n">
-        <v>1.320184417423196</v>
+        <v>3.713448283977461</v>
       </c>
       <c r="U69" t="n">
-        <v>4.123200085900105</v>
+        <v>1.368534755537764</v>
       </c>
       <c r="V69" t="n">
-        <v>4.354479097445294</v>
+        <v>1.545395640570828</v>
       </c>
       <c r="W69" t="n">
-        <v>1.298108877995865</v>
+        <v>2.83353134057575</v>
       </c>
       <c r="X69" t="n">
-        <v>1.64811159896566</v>
+        <v>7.20894013961753</v>
       </c>
       <c r="Y69" t="n">
-        <v>2.542944149735831</v>
+        <v>1.161058083588095</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.92585718937184</v>
+        <v>2.100149504524112</v>
       </c>
       <c r="AA69" t="n">
-        <v>1.126169318485948</v>
+        <v>1.908967368423773</v>
       </c>
       <c r="AB69" t="n">
-        <v>2.234203648299777</v>
+        <v>15.83383204452417</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.810239056883025</v>
+        <v>1.067413463830416</v>
       </c>
       <c r="AD69" t="n">
-        <v>20.75347528851666</v>
+        <v>3.138447464963922</v>
       </c>
       <c r="AE69" t="n">
-        <v>1.050624003391511</v>
+        <v>1.467628976808589</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>23/09/2023</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -7607,100 +7607,100 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ifk gotemburgo</t>
+          <t>brommapojkarna</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>brommapojkarna</t>
+          <t>norrkoping</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1.754882787283988</v>
+        <v>3.364317591544931</v>
       </c>
       <c r="F70" t="n">
-        <v>7.961239117976063</v>
+        <v>8.65923275266395</v>
       </c>
       <c r="G70" t="n">
-        <v>3.283503061235957</v>
+        <v>1.702767527077073</v>
       </c>
       <c r="H70" t="n">
-        <v>2.288066591254513</v>
+        <v>5.015177530036887</v>
       </c>
       <c r="I70" t="n">
-        <v>1.247877497090418</v>
+        <v>1.865639512443884</v>
       </c>
       <c r="J70" t="n">
-        <v>5.034250836554277</v>
+        <v>2.155215289534079</v>
       </c>
       <c r="K70" t="n">
-        <v>1.776357376854289</v>
+        <v>1.249054990101724</v>
       </c>
       <c r="L70" t="n">
-        <v>3.207165663441131</v>
+        <v>8.05880420122592</v>
       </c>
       <c r="M70" t="n">
-        <v>1.135020096831134</v>
+        <v>1.525333618377645</v>
       </c>
       <c r="N70" t="n">
-        <v>8.406304864754114</v>
+        <v>2.903552266630562</v>
       </c>
       <c r="O70" t="n">
-        <v>1.453069752109557</v>
+        <v>1.141667054573681</v>
       </c>
       <c r="P70" t="n">
-        <v>4.851452622585505</v>
+        <v>14.0016057118673</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.069901481952319</v>
+        <v>1.313907139269317</v>
       </c>
       <c r="R70" t="n">
-        <v>15.30584834642157</v>
+        <v>4.18565548501925</v>
       </c>
       <c r="S70" t="n">
-        <v>1.259642295516203</v>
+        <v>1.076913576842839</v>
       </c>
       <c r="T70" t="n">
-        <v>1.700757577560511</v>
+        <v>1.943325333041811</v>
       </c>
       <c r="U70" t="n">
-        <v>2.427027023355518</v>
+        <v>2.060079661780564</v>
       </c>
       <c r="V70" t="n">
-        <v>2.534638373498466</v>
+        <v>1.403703103646935</v>
       </c>
       <c r="W70" t="n">
-        <v>1.651619311278091</v>
+        <v>3.477067902045575</v>
       </c>
       <c r="X70" t="n">
-        <v>2.421465988523257</v>
+        <v>2.939045394210294</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.703499069322712</v>
+        <v>1.515717684065496</v>
       </c>
       <c r="Z70" t="n">
-        <v>4.276324267664359</v>
+        <v>1.813977977437925</v>
       </c>
       <c r="AA70" t="n">
-        <v>1.305220093709737</v>
+        <v>2.2285344661874</v>
       </c>
       <c r="AB70" t="n">
-        <v>3.812055711675879</v>
+        <v>4.944759526439972</v>
       </c>
       <c r="AC70" t="n">
-        <v>1.355611731249819</v>
+        <v>1.253500877125068</v>
       </c>
       <c r="AD70" t="n">
-        <v>8.096192594441355</v>
+        <v>2.559795048716335</v>
       </c>
       <c r="AE70" t="n">
-        <v>1.140920639722113</v>
+        <v>1.64110986941712</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -7710,100 +7710,100 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>aik</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>djurgardens if</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>ifk varnamo</t>
-        </is>
-      </c>
       <c r="E71" t="n">
-        <v>1.890387636303715</v>
+        <v>3.595877773961674</v>
       </c>
       <c r="F71" t="n">
-        <v>7.717574125798452</v>
+        <v>8.620583719131094</v>
       </c>
       <c r="G71" t="n">
-        <v>2.928827404241481</v>
+        <v>1.65043093986787</v>
       </c>
       <c r="H71" t="n">
-        <v>2.521568099627022</v>
+        <v>5.497440852577151</v>
       </c>
       <c r="I71" t="n">
-        <v>1.296065645780128</v>
+        <v>1.922869785036215</v>
       </c>
       <c r="J71" t="n">
-        <v>4.377629300302694</v>
+        <v>2.083576487403104</v>
       </c>
       <c r="K71" t="n">
-        <v>1.657216722830301</v>
+        <v>1.222348671784527</v>
       </c>
       <c r="L71" t="n">
-        <v>3.624813262311855</v>
+        <v>9.099028768958041</v>
       </c>
       <c r="M71" t="n">
-        <v>1.163509147216817</v>
+        <v>1.553942057269712</v>
       </c>
       <c r="N71" t="n">
-        <v>7.115865791128944</v>
+        <v>2.805242961563224</v>
       </c>
       <c r="O71" t="n">
-        <v>1.380979483134442</v>
+        <v>1.123471594993316</v>
       </c>
       <c r="P71" t="n">
-        <v>5.634636296526383</v>
+        <v>16.34212068737517</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.08621864318243</v>
+        <v>1.32803973863849</v>
       </c>
       <c r="R71" t="n">
-        <v>12.59841958872044</v>
+        <v>4.048411159423678</v>
       </c>
       <c r="S71" t="n">
-        <v>1.21576666129109</v>
+        <v>1.065180037387066</v>
       </c>
       <c r="T71" t="n">
-        <v>1.796455641374366</v>
+        <v>2.205152805908928</v>
       </c>
       <c r="U71" t="n">
-        <v>2.255562705632165</v>
+        <v>1.829770295598157</v>
       </c>
       <c r="V71" t="n">
-        <v>2.378268651595912</v>
+        <v>1.45773068262807</v>
       </c>
       <c r="W71" t="n">
-        <v>1.725547953834754</v>
+        <v>3.184690775498118</v>
       </c>
       <c r="X71" t="n">
-        <v>2.623371092608085</v>
+        <v>3.518563216689205</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.616002098690456</v>
+        <v>1.397051776732671</v>
       </c>
       <c r="Z71" t="n">
-        <v>3.91290579683547</v>
+        <v>1.922348029993096</v>
       </c>
       <c r="AA71" t="n">
-        <v>1.343299807733701</v>
+        <v>2.084189446371437</v>
       </c>
       <c r="AB71" t="n">
-        <v>4.247275649523422</v>
+        <v>6.274179936743239</v>
       </c>
       <c r="AC71" t="n">
-        <v>1.307950450756086</v>
+        <v>1.189602935810622</v>
       </c>
       <c r="AD71" t="n">
-        <v>7.211377108295539</v>
+        <v>2.776455669204138</v>
       </c>
       <c r="AE71" t="n">
-        <v>1.160994894137801</v>
+        <v>1.56291863474871</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>16/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -7813,100 +7813,100 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ik sirius</t>
+          <t>kalmar</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>varbergs bois fc</t>
+          <t>bk hacken</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.638494943798382</v>
+        <v>3.98085726483135</v>
       </c>
       <c r="F72" t="n">
-        <v>8.299158400659408</v>
+        <v>8.923059942735826</v>
       </c>
       <c r="G72" t="n">
-        <v>3.714852950778602</v>
+        <v>1.570527735230412</v>
       </c>
       <c r="H72" t="n">
-        <v>2.089833934861808</v>
+        <v>6.222453650737959</v>
       </c>
       <c r="I72" t="n">
-        <v>1.206260995307965</v>
+        <v>2.048571049939444</v>
       </c>
       <c r="J72" t="n">
-        <v>5.848226386704455</v>
+        <v>1.953678818481352</v>
       </c>
       <c r="K72" t="n">
-        <v>1.917570987663182</v>
+        <v>1.191480876016715</v>
       </c>
       <c r="L72" t="n">
-        <v>2.858380839457239</v>
+        <v>10.54719144757451</v>
       </c>
       <c r="M72" t="n">
-        <v>1.110597407420048</v>
+        <v>1.629617751362087</v>
       </c>
       <c r="N72" t="n">
-        <v>10.04180326942036</v>
+        <v>2.588265257510044</v>
       </c>
       <c r="O72" t="n">
-        <v>1.538102835956952</v>
+        <v>1.104742845630696</v>
       </c>
       <c r="P72" t="n">
-        <v>4.210537662596875</v>
+        <v>19.42564015213922</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.056109475172353</v>
+        <v>1.374334248100834</v>
       </c>
       <c r="R72" t="n">
-        <v>18.82230179356116</v>
+        <v>3.671409322212568</v>
       </c>
       <c r="S72" t="n">
-        <v>1.311474309007526</v>
+        <v>1.054272198509418</v>
       </c>
       <c r="T72" t="n">
-        <v>1.617061993689775</v>
+        <v>2.352119862674432</v>
       </c>
       <c r="U72" t="n">
-        <v>2.620582713286901</v>
+        <v>1.739579402392659</v>
       </c>
       <c r="V72" t="n">
-        <v>2.716140231164635</v>
+        <v>1.425987113108268</v>
       </c>
       <c r="W72" t="n">
-        <v>1.582702964385005</v>
+        <v>3.347488854072074</v>
       </c>
       <c r="X72" t="n">
-        <v>2.247372107365393</v>
+        <v>3.852792972512986</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.801685394514814</v>
+        <v>1.350533673363305</v>
       </c>
       <c r="Z72" t="n">
-        <v>4.70633968068148</v>
+        <v>1.858567987484264</v>
       </c>
       <c r="AA72" t="n">
-        <v>1.26980797394591</v>
+        <v>2.164730125718004</v>
       </c>
       <c r="AB72" t="n">
-        <v>3.444077689488704</v>
+        <v>7.066925771372253</v>
       </c>
       <c r="AC72" t="n">
-        <v>1.409152296713284</v>
+        <v>1.164828125097336</v>
       </c>
       <c r="AD72" t="n">
-        <v>9.167287557847223</v>
+        <v>2.648570745314465</v>
       </c>
       <c r="AE72" t="n">
-        <v>1.122439670810805</v>
+        <v>1.606586039963514</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -7916,100 +7916,100 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>varbergs bois fc</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>hammarby if</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>malmo</t>
-        </is>
-      </c>
       <c r="E73" t="n">
-        <v>1.696784218515567</v>
+        <v>4.291603266035715</v>
       </c>
       <c r="F73" t="n">
-        <v>8.110988874678569</v>
+        <v>9.006854091538234</v>
       </c>
       <c r="G73" t="n">
-        <v>3.479951331579648</v>
+        <v>1.524482521858795</v>
       </c>
       <c r="H73" t="n">
-        <v>2.188846200000719</v>
+        <v>6.877953218023061</v>
       </c>
       <c r="I73" t="n">
-        <v>1.227120313145495</v>
+        <v>2.127274710637586</v>
       </c>
       <c r="J73" t="n">
-        <v>5.402952717661113</v>
+        <v>1.88709521340579</v>
       </c>
       <c r="K73" t="n">
-        <v>1.841151698175419</v>
+        <v>1.170127247174031</v>
       </c>
       <c r="L73" t="n">
-        <v>3.031908260704995</v>
+        <v>11.99975709617619</v>
       </c>
       <c r="M73" t="n">
-        <v>1.122812410060156</v>
+        <v>1.670787692006894</v>
       </c>
       <c r="N73" t="n">
-        <v>9.142499601711059</v>
+        <v>2.490784657971515</v>
       </c>
       <c r="O73" t="n">
-        <v>1.492148203410049</v>
+        <v>1.090911098423039</v>
       </c>
       <c r="P73" t="n">
-        <v>4.527836295866769</v>
+        <v>22.82383195439381</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.062981088064876</v>
+        <v>1.396121893878701</v>
       </c>
       <c r="R73" t="n">
-        <v>16.87778221566931</v>
+        <v>3.524475459329742</v>
       </c>
       <c r="S73" t="n">
-        <v>1.283459864952238</v>
+        <v>1.045821467196491</v>
       </c>
       <c r="T73" t="n">
-        <v>1.659175755094988</v>
+        <v>2.660282356129707</v>
       </c>
       <c r="U73" t="n">
-        <v>2.517046087133315</v>
+        <v>1.602307189682546</v>
       </c>
       <c r="V73" t="n">
-        <v>2.618362857698862</v>
+        <v>1.458864787727363</v>
       </c>
       <c r="W73" t="n">
-        <v>1.617908397515927</v>
+        <v>3.179291213328308</v>
       </c>
       <c r="X73" t="n">
-        <v>2.334681043978354</v>
+        <v>4.57308836838222</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.749242678250114</v>
+        <v>1.279869932366875</v>
       </c>
       <c r="Z73" t="n">
-        <v>4.473616402789423</v>
+        <v>1.924632503495053</v>
       </c>
       <c r="AA73" t="n">
-        <v>1.287884407500197</v>
+        <v>2.081510758295931</v>
       </c>
       <c r="AB73" t="n">
-        <v>3.627751997573819</v>
+        <v>8.83270028852006</v>
       </c>
       <c r="AC73" t="n">
-        <v>1.380553416351045</v>
+        <v>1.127669892012291</v>
       </c>
       <c r="AD73" t="n">
-        <v>8.584481507099209</v>
+        <v>2.781055806928302</v>
       </c>
       <c r="AE73" t="n">
-        <v>1.131848169062576</v>
+        <v>1.561464720032917</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>24/09/2023</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -8019,100 +8019,100 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>bk hacken</t>
+          <t>mjallby</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>halmstad</t>
+          <t>ifk gotemburgo</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.251114111168225</v>
+        <v>2.539194060849367</v>
       </c>
       <c r="F74" t="n">
-        <v>12.36671117274096</v>
+        <v>8.102719920131316</v>
       </c>
       <c r="G74" t="n">
-        <v>8.343752349530568</v>
+        <v>2.071427355930985</v>
       </c>
       <c r="H74" t="n">
-        <v>1.443178464594753</v>
+        <v>3.565279502905162</v>
       </c>
       <c r="I74" t="n">
-        <v>1.069700307332886</v>
+        <v>1.565550779027574</v>
       </c>
       <c r="J74" t="n">
-        <v>15.34713903374979</v>
+        <v>2.76818782164783</v>
       </c>
       <c r="K74" t="n">
-        <v>3.256427330949873</v>
+        <v>1.389821069738213</v>
       </c>
       <c r="L74" t="n">
-        <v>1.759652463467522</v>
+        <v>5.377197825164253</v>
       </c>
       <c r="M74" t="n">
-        <v>1.033287568228482</v>
+        <v>1.338001013001044</v>
       </c>
       <c r="N74" t="n">
-        <v>31.04124522212359</v>
+        <v>3.958571014687795</v>
       </c>
       <c r="O74" t="n">
-        <v>2.316391439626727</v>
+        <v>1.228456661074594</v>
       </c>
       <c r="P74" t="n">
-        <v>2.283561080404171</v>
+        <v>8.743598001601619</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.014707535175558</v>
+        <v>1.196690187717059</v>
       </c>
       <c r="R74" t="n">
-        <v>68.99235820709775</v>
+        <v>6.084137707156538</v>
       </c>
       <c r="S74" t="n">
-        <v>1.779082519146746</v>
+        <v>1.12913893512979</v>
       </c>
       <c r="T74" t="n">
-        <v>1.320280698691931</v>
+        <v>1.7196304902229</v>
       </c>
       <c r="U74" t="n">
-        <v>4.1222612042628</v>
+        <v>2.38960204380759</v>
       </c>
       <c r="V74" t="n">
-        <v>4.352878215866777</v>
+        <v>1.558140643770389</v>
       </c>
       <c r="W74" t="n">
-        <v>1.29825121451406</v>
+        <v>2.79166310707053</v>
       </c>
       <c r="X74" t="n">
-        <v>1.648301763645091</v>
+        <v>2.461044849896035</v>
       </c>
       <c r="Y74" t="n">
-        <v>2.542491561919372</v>
+        <v>1.68444168573686</v>
       </c>
       <c r="Z74" t="n">
-        <v>8.921475505300871</v>
+        <v>2.126207105159363</v>
       </c>
       <c r="AA74" t="n">
-        <v>1.1262391077686</v>
+        <v>1.887936149060697</v>
       </c>
       <c r="AB74" t="n">
-        <v>2.234572717758616</v>
+        <v>3.896669858792166</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.809996839890901</v>
+        <v>1.345224015420581</v>
       </c>
       <c r="AD74" t="n">
-        <v>20.74061668958407</v>
+        <v>3.192160966764734</v>
       </c>
       <c r="AE74" t="n">
-        <v>1.05065697874209</v>
+        <v>1.456170881226772</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>17/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -8122,100 +8122,100 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>elfsborg</t>
+          <t>ifk varnamo</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>kalmar</t>
+          <t>ik sirius</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1.25086316079252</v>
+        <v>2.677257354563273</v>
       </c>
       <c r="F75" t="n">
-        <v>12.3731561746906</v>
+        <v>8.048928947292605</v>
       </c>
       <c r="G75" t="n">
-        <v>8.35199175078036</v>
+        <v>1.991066913362393</v>
       </c>
       <c r="H75" t="n">
-        <v>1.442774205899597</v>
+        <v>3.825539787061233</v>
       </c>
       <c r="I75" t="n">
-        <v>1.069611314647901</v>
+        <v>1.607841592627043</v>
       </c>
       <c r="J75" t="n">
-        <v>15.36548074200394</v>
+        <v>2.645165470954497</v>
       </c>
       <c r="K75" t="n">
-        <v>3.258487478890676</v>
+        <v>1.35391467661479</v>
       </c>
       <c r="L75" t="n">
-        <v>1.759001452640172</v>
+        <v>5.887250354869185</v>
       </c>
       <c r="M75" t="n">
-        <v>1.033238775139977</v>
+        <v>1.361862501767649</v>
       </c>
       <c r="N75" t="n">
-        <v>31.08534447460088</v>
+        <v>3.763480590321289</v>
       </c>
       <c r="O75" t="n">
-        <v>2.317520535068174</v>
+        <v>1.204614031897035</v>
       </c>
       <c r="P75" t="n">
-        <v>2.282494720035837</v>
+        <v>9.789430679196558</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.014682772607041</v>
+        <v>1.21012475558325</v>
       </c>
       <c r="R75" t="n">
-        <v>69.10702765501519</v>
+        <v>5.759077516707955</v>
       </c>
       <c r="S75" t="n">
-        <v>1.779730305612531</v>
+        <v>1.113773011756822</v>
       </c>
       <c r="T75" t="n">
-        <v>1.320168999440329</v>
+        <v>1.842813470135404</v>
       </c>
       <c r="U75" t="n">
-        <v>4.123350485987243</v>
+        <v>2.186502156686393</v>
       </c>
       <c r="V75" t="n">
-        <v>4.356638045703511</v>
+        <v>1.582734221000614</v>
       </c>
       <c r="W75" t="n">
-        <v>1.297917138036375</v>
+        <v>2.716048181077984</v>
       </c>
       <c r="X75" t="n">
-        <v>1.648081147185362</v>
+        <v>2.72225802271381</v>
       </c>
       <c r="Y75" t="n">
-        <v>2.543016648984518</v>
+        <v>1.580633091448326</v>
       </c>
       <c r="Z75" t="n">
-        <v>8.93176704149109</v>
+        <v>2.17664106908709</v>
       </c>
       <c r="AA75" t="n">
-        <v>1.126075311436783</v>
+        <v>1.849876845430749</v>
       </c>
       <c r="AB75" t="n">
-        <v>2.234144548730723</v>
+        <v>4.463596250140884</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.810277856859204</v>
+        <v>1.288717254489268</v>
       </c>
       <c r="AD75" t="n">
-        <v>20.77082080705503</v>
+        <v>3.296591606600763</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.050579589474766</v>
+        <v>1.435427873691536</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>25/09/2023</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -8225,197 +8225,94 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>aik</t>
+          <t>halmstad</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>degerfors if</t>
+          <t>elfsborg</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1.764049654088315</v>
+        <v>4.955545204860474</v>
       </c>
       <c r="F76" t="n">
-        <v>7.940498270572948</v>
+        <v>9.223852054336719</v>
       </c>
       <c r="G76" t="n">
-        <v>3.25535826350624</v>
+        <v>1.449713886956183</v>
       </c>
       <c r="H76" t="n">
-        <v>2.3037707618998</v>
+        <v>8.337272472440013</v>
       </c>
       <c r="I76" t="n">
-        <v>1.25114820634605</v>
+        <v>2.284416553789653</v>
       </c>
       <c r="J76" t="n">
-        <v>4.981712688889885</v>
+        <v>1.778563618671461</v>
       </c>
       <c r="K76" t="n">
-        <v>1.767006002299701</v>
+        <v>1.136290427233848</v>
       </c>
       <c r="L76" t="n">
-        <v>3.235027974557501</v>
+        <v>15.38750410861492</v>
       </c>
       <c r="M76" t="n">
-        <v>1.136947728870338</v>
+        <v>1.75072877004845</v>
       </c>
       <c r="N76" t="n">
-        <v>8.302056107456899</v>
+        <v>2.332038999831408</v>
       </c>
       <c r="O76" t="n">
-        <v>1.447421692875224</v>
+        <v>1.069504758605158</v>
       </c>
       <c r="P76" t="n">
-        <v>4.903184090110422</v>
+        <v>31.16966867613956</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.070998562672392</v>
+        <v>1.437305340145961</v>
       </c>
       <c r="R76" t="n">
-        <v>15.08479217550219</v>
+        <v>3.286731736836844</v>
       </c>
       <c r="S76" t="n">
-        <v>1.25620108529693</v>
+        <v>1.033145872788152</v>
       </c>
       <c r="T76" t="n">
-        <v>1.707286426978616</v>
+        <v>3.42643485646435</v>
       </c>
       <c r="U76" t="n">
-        <v>2.413854362046501</v>
+        <v>1.41212728103368</v>
       </c>
       <c r="V76" t="n">
-        <v>2.522487120669558</v>
+        <v>1.521915424867413</v>
       </c>
       <c r="W76" t="n">
-        <v>1.656820006175304</v>
+        <v>2.916019248241301</v>
       </c>
       <c r="X76" t="n">
-        <v>2.435144441897461</v>
+        <v>6.466229434960309</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.696793974742961</v>
+        <v>1.182941461184251</v>
       </c>
       <c r="Z76" t="n">
-        <v>4.247845328650418</v>
+        <v>2.052283019957028</v>
       </c>
       <c r="AA76" t="n">
-        <v>1.307896435577963</v>
+        <v>1.950314678688664</v>
       </c>
       <c r="AB76" t="n">
-        <v>3.841259000345612</v>
+        <v>13.78640336764212</v>
       </c>
       <c r="AC76" t="n">
-        <v>1.351956650160496</v>
+        <v>1.07820807550391</v>
       </c>
       <c r="AD76" t="n">
-        <v>8.026159959727723</v>
+        <v>3.040214101670604</v>
       </c>
       <c r="AE76" t="n">
-        <v>1.142325253870074</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>18/09/2023</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>SUE A</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>norrkoping</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>mjallby</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>1.722915127578744</v>
-      </c>
-      <c r="F77" t="n">
-        <v>8.039503116661166</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3.387504495173109</v>
-      </c>
-      <c r="H77" t="n">
-        <v>2.233406307666681</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.236461593584379</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.229016580839212</v>
-      </c>
-      <c r="K77" t="n">
-        <v>1.810762839288351</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.110449714444405</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.12830036053649</v>
-      </c>
-      <c r="N77" t="n">
-        <v>8.794210365570954</v>
-      </c>
-      <c r="O77" t="n">
-        <v>1.473832659056395</v>
-      </c>
-      <c r="P77" t="n">
-        <v>4.672481258996712</v>
-      </c>
-      <c r="Q77" t="n">
-        <v>1.066086064018284</v>
-      </c>
-      <c r="R77" t="n">
-        <v>16.13178330189751</v>
-      </c>
-      <c r="S77" t="n">
-        <v>1.272295467145064</v>
-      </c>
-      <c r="T77" t="n">
-        <v>1.677923984657381</v>
-      </c>
-      <c r="U77" t="n">
-        <v>2.475091636572489</v>
-      </c>
-      <c r="V77" t="n">
-        <v>2.579198173809364</v>
-      </c>
-      <c r="W77" t="n">
-        <v>1.633232748482596</v>
-      </c>
-      <c r="X77" t="n">
-        <v>2.373739112236239</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>1.727940255244063</v>
-      </c>
-      <c r="Z77" t="n">
-        <v>4.381096297956448</v>
-      </c>
-      <c r="AA77" t="n">
-        <v>1.295762058183437</v>
-      </c>
-      <c r="AB77" t="n">
-        <v>3.710487969533572</v>
-      </c>
-      <c r="AC77" t="n">
-        <v>1.368937258250249</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>8.354823753571349</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>1.135965188766681</v>
+        <v>1.490144636869808</v>
       </c>
     </row>
   </sheetData>

--- a/output_corners_NNNN_AH(withoutG).xlsx
+++ b/output_corners_NNNN_AH(withoutG).xlsx
@@ -612,85 +612,85 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.7772725100183</v>
+        <v>4.966114164227371</v>
       </c>
       <c r="F2" t="n">
-        <v>9.172505407612919</v>
+        <v>9.507250749189517</v>
       </c>
       <c r="G2" t="n">
-        <v>1.467019774200609</v>
+        <v>1.442059964220943</v>
       </c>
       <c r="H2" t="n">
-        <v>7.933137461861531</v>
+        <v>8.235815554763533</v>
       </c>
       <c r="I2" t="n">
-        <v>2.24497427683314</v>
+        <v>2.324376873580772</v>
       </c>
       <c r="J2" t="n">
-        <v>1.803229447072364</v>
+        <v>1.755072079517863</v>
       </c>
       <c r="K2" t="n">
-        <v>1.144234843965073</v>
+        <v>1.138201422138472</v>
       </c>
       <c r="L2" t="n">
-        <v>14.4204866027723</v>
+        <v>14.91624352585962</v>
       </c>
       <c r="M2" t="n">
-        <v>1.731445849271293</v>
+        <v>1.784481128617615</v>
       </c>
       <c r="N2" t="n">
-        <v>2.367155204990576</v>
+        <v>2.274727923362752</v>
       </c>
       <c r="O2" t="n">
-        <v>1.074512946482389</v>
+        <v>1.071858472305531</v>
       </c>
       <c r="P2" t="n">
-        <v>28.71475073108925</v>
+        <v>29.53179947162596</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.427832942142058</v>
+        <v>1.463404590154523</v>
       </c>
       <c r="R2" t="n">
-        <v>3.33736092174959</v>
+        <v>3.157941507801096</v>
       </c>
       <c r="S2" t="n">
-        <v>1.036081868810685</v>
+        <v>1.035048613074492</v>
       </c>
       <c r="T2" t="n">
-        <v>3.189632657307722</v>
+        <v>3.020931527834214</v>
       </c>
       <c r="U2" t="n">
-        <v>1.456697609374148</v>
+        <v>1.494821316916005</v>
       </c>
       <c r="V2" t="n">
-        <v>1.502220298090341</v>
+        <v>1.434907508245426</v>
       </c>
       <c r="W2" t="n">
-        <v>2.991158071074451</v>
+        <v>3.29933947113114</v>
       </c>
       <c r="X2" t="n">
-        <v>5.866618229194062</v>
+        <v>5.447110554540318</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.205481497192683</v>
+        <v>1.224865109094048</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.012271465136586</v>
+        <v>1.876459670310315</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.987877298176206</v>
+        <v>2.140953809826692</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.17359687998695</v>
+        <v>11.06830921141999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.089496695714081</v>
+        <v>1.099321542376326</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.958538475527882</v>
+        <v>2.684338448657123</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.51058481234609</v>
+        <v>1.593704905802793</v>
       </c>
     </row>
     <row r="3">
@@ -715,85 +715,85 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.243109868502755</v>
+        <v>1.200940743577021</v>
       </c>
       <c r="F3" t="n">
-        <v>12.9234870119813</v>
+        <v>14.4725125189943</v>
       </c>
       <c r="G3" t="n">
-        <v>8.461140442535099</v>
+        <v>10.180920413695</v>
       </c>
       <c r="H3" t="n">
-        <v>1.422838636984571</v>
+        <v>1.353647345034573</v>
       </c>
       <c r="I3" t="n">
-        <v>1.069972309170117</v>
+        <v>1.055641906600542</v>
       </c>
       <c r="J3" t="n">
-        <v>15.29136771188716</v>
+        <v>18.97206568026284</v>
       </c>
       <c r="K3" t="n">
-        <v>3.364968365075132</v>
+        <v>3.827675688904828</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715154128063377</v>
+        <v>1.602134183272304</v>
       </c>
       <c r="M3" t="n">
-        <v>1.034205525084502</v>
+        <v>1.026502282280426</v>
       </c>
       <c r="N3" t="n">
-        <v>30.23504309697262</v>
+        <v>38.73259938215143</v>
       </c>
       <c r="O3" t="n">
-        <v>2.398299975849933</v>
+        <v>2.660759391811126</v>
       </c>
       <c r="P3" t="n">
-        <v>2.193245823644844</v>
+        <v>2.006320122816503</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.015519543722038</v>
+        <v>1.011675853425724</v>
       </c>
       <c r="R3" t="n">
-        <v>65.43488403463515</v>
+        <v>86.64684426380413</v>
       </c>
       <c r="S3" t="n">
-        <v>1.83805028283731</v>
+        <v>1.993719570270726</v>
       </c>
       <c r="T3" t="n">
-        <v>1.254717416242771</v>
+        <v>1.223097926704102</v>
       </c>
       <c r="U3" t="n">
-        <v>4.925919219622198</v>
+        <v>5.48233658991513</v>
       </c>
       <c r="V3" t="n">
-        <v>3.696770489674357</v>
+        <v>4.071663704300694</v>
       </c>
       <c r="W3" t="n">
-        <v>1.370813906422105</v>
+        <v>1.32555647240936</v>
       </c>
       <c r="X3" t="n">
-        <v>1.519262968149222</v>
+        <v>1.457279574540729</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.92580650140379</v>
+        <v>3.186845981485955</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.165321954820747</v>
+        <v>8.158907560573649</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.162197531179712</v>
+        <v>1.13968611712593</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.986356010039994</v>
+        <v>1.868678001394405</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.013832723500567</v>
+        <v>2.151174541538749</v>
       </c>
       <c r="AD3" t="n">
-        <v>15.71215105476795</v>
+        <v>18.52563992440303</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.067971025873604</v>
+        <v>1.057059257425892</v>
       </c>
     </row>
     <row r="4">
@@ -818,85 +818,85 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.220628402624336</v>
+        <v>1.203417677079083</v>
       </c>
       <c r="F4" t="n">
-        <v>13.79230507795323</v>
+        <v>14.44743081896349</v>
       </c>
       <c r="G4" t="n">
-        <v>9.238246105831061</v>
+        <v>10.01834816695376</v>
       </c>
       <c r="H4" t="n">
-        <v>1.383885913557472</v>
+        <v>1.356365992646948</v>
       </c>
       <c r="I4" t="n">
-        <v>1.063171964673838</v>
+        <v>1.057036876634683</v>
       </c>
       <c r="J4" t="n">
-        <v>16.82980686390031</v>
+        <v>18.53251683827148</v>
       </c>
       <c r="K4" t="n">
-        <v>3.604940594805876</v>
+        <v>3.806103894965924</v>
       </c>
       <c r="L4" t="n">
-        <v>1.648272337089551</v>
+        <v>1.604490832290855</v>
       </c>
       <c r="M4" t="n">
-        <v>1.030761214880961</v>
+        <v>1.02739034713727</v>
       </c>
       <c r="N4" t="n">
-        <v>33.50846898829487</v>
+        <v>37.50921235091958</v>
       </c>
       <c r="O4" t="n">
-        <v>2.542561579118964</v>
+        <v>2.654284807281977</v>
       </c>
       <c r="P4" t="n">
-        <v>2.077693004916298</v>
+        <v>2.007135490343517</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.013897531323413</v>
+        <v>1.012181204478029</v>
       </c>
       <c r="R4" t="n">
-        <v>72.95522548060902</v>
+        <v>83.09368800956375</v>
       </c>
       <c r="S4" t="n">
-        <v>1.927908036368546</v>
+        <v>1.99291506414784</v>
       </c>
       <c r="T4" t="n">
-        <v>1.221613089265839</v>
+        <v>1.214168055728458</v>
       </c>
       <c r="U4" t="n">
-        <v>5.512368846591166</v>
+        <v>5.66923041626661</v>
       </c>
       <c r="V4" t="n">
-        <v>3.658831615575114</v>
+        <v>3.880439870391726</v>
       </c>
       <c r="W4" t="n">
-        <v>1.376105050858475</v>
+        <v>1.347169198107234</v>
       </c>
       <c r="X4" t="n">
-        <v>1.454371210504213</v>
+        <v>1.439790532247989</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.200843664567362</v>
+        <v>3.273809749583511</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.066306885220897</v>
+        <v>7.648714401583456</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.164844940904038</v>
+        <v>1.150405016609202</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.863180245953804</v>
+        <v>1.835649520396881</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.158506586182371</v>
+        <v>2.196673935174478</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.43658049289408</v>
+        <v>17.07023380949949</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.069268480890763</v>
+        <v>1.062226848212307</v>
       </c>
     </row>
     <row r="5">
@@ -921,85 +921,85 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.965355673333437</v>
+        <v>1.803065778652638</v>
       </c>
       <c r="F5" t="n">
-        <v>7.389377749787881</v>
+        <v>7.490986323552998</v>
       </c>
       <c r="G5" t="n">
-        <v>2.81011870979366</v>
+        <v>3.206204192326235</v>
       </c>
       <c r="H5" t="n">
-        <v>2.682262126940581</v>
+        <v>2.409498394267066</v>
       </c>
       <c r="I5" t="n">
-        <v>1.310334698006539</v>
+        <v>1.249286520547374</v>
       </c>
       <c r="J5" t="n">
-        <v>4.222327398204529</v>
+        <v>5.011448343874489</v>
       </c>
       <c r="K5" t="n">
-        <v>1.594437682442886</v>
+        <v>1.709472252020547</v>
       </c>
       <c r="L5" t="n">
-        <v>3.970217242978373</v>
+        <v>3.49169091399048</v>
       </c>
       <c r="M5" t="n">
-        <v>1.168496830582286</v>
+        <v>1.131492856812469</v>
       </c>
       <c r="N5" t="n">
-        <v>6.934829732667562</v>
+        <v>8.604975846149333</v>
       </c>
       <c r="O5" t="n">
-        <v>1.336675710291566</v>
+        <v>1.401333887114628</v>
       </c>
       <c r="P5" t="n">
-        <v>6.39514120514896</v>
+        <v>5.508200109172605</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.087172301220935</v>
+        <v>1.065582542356083</v>
       </c>
       <c r="R5" t="n">
-        <v>12.47153380137963</v>
+        <v>16.2479602661705</v>
       </c>
       <c r="S5" t="n">
-        <v>1.185351960583651</v>
+        <v>1.22181801512434</v>
       </c>
       <c r="T5" t="n">
-        <v>2.04564338533423</v>
+        <v>2.010006537991512</v>
       </c>
       <c r="U5" t="n">
-        <v>1.956348994337452</v>
+        <v>1.990092600775228</v>
       </c>
       <c r="V5" t="n">
-        <v>2.644594461556759</v>
+        <v>3.10332879910148</v>
       </c>
       <c r="W5" t="n">
-        <v>1.608052637519774</v>
+        <v>1.475436841081237</v>
       </c>
       <c r="X5" t="n">
-        <v>3.163012089317236</v>
+        <v>3.084635086403903</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.462318266707263</v>
+        <v>1.479700263380412</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.535808680961525</v>
+        <v>5.651189529230761</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.282820732180583</v>
+        <v>1.214998764018413</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.45137387838852</v>
+        <v>5.273019464409963</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.22464974349942</v>
+        <v>1.234026549218653</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.739517005371511</v>
+        <v>11.6035334352849</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.129207029237866</v>
+        <v>1.094308185672556</v>
       </c>
     </row>
     <row r="6">
@@ -1024,85 +1024,85 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3.438703415942447</v>
+        <v>2.215796617601612</v>
       </c>
       <c r="F6" t="n">
-        <v>8.674121735153998</v>
+        <v>7.777592149361444</v>
       </c>
       <c r="G6" t="n">
-        <v>1.68376453945786</v>
+        <v>2.380269217885339</v>
       </c>
       <c r="H6" t="n">
-        <v>5.160903816238965</v>
+        <v>3.049712847784589</v>
       </c>
       <c r="I6" t="n">
-        <v>1.887263724153966</v>
+        <v>1.428140307415124</v>
       </c>
       <c r="J6" t="n">
-        <v>2.127060616564182</v>
+        <v>3.335682912074903</v>
       </c>
       <c r="K6" t="n">
-        <v>1.240332399921684</v>
+        <v>1.487873216524374</v>
       </c>
       <c r="L6" t="n">
-        <v>8.357276266095337</v>
+        <v>4.518924150618225</v>
       </c>
       <c r="M6" t="n">
-        <v>1.537412446378141</v>
+        <v>1.247544798468444</v>
       </c>
       <c r="N6" t="n">
-        <v>2.860768217668647</v>
+        <v>5.03967284381246</v>
       </c>
       <c r="O6" t="n">
-        <v>1.135919865427416</v>
+        <v>1.284177764907014</v>
       </c>
       <c r="P6" t="n">
-        <v>14.6440359889362</v>
+        <v>7.233978260858685</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.320736906122602</v>
+        <v>1.13821082389626</v>
       </c>
       <c r="R6" t="n">
-        <v>4.117820185051457</v>
+        <v>8.235323340164658</v>
       </c>
       <c r="S6" t="n">
-        <v>1.073292096327721</v>
+        <v>1.160411210651584</v>
       </c>
       <c r="T6" t="n">
-        <v>1.999806229927328</v>
+        <v>1.78395727898091</v>
       </c>
       <c r="U6" t="n">
-        <v>2.00019380762679</v>
+        <v>2.275579711817882</v>
       </c>
       <c r="V6" t="n">
-        <v>1.410917144217916</v>
+        <v>1.857151345727376</v>
       </c>
       <c r="W6" t="n">
-        <v>3.433580623420483</v>
+        <v>2.166655112874382</v>
       </c>
       <c r="X6" t="n">
-        <v>3.062273835830753</v>
+        <v>2.596830670011091</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.48490165691171</v>
+        <v>1.626240476701925</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.828396907180907</v>
+        <v>2.752983869005842</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.20715081301193</v>
+        <v>1.5704559053171</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.222342287782826</v>
+        <v>4.189565043400345</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.236835370475165</v>
+        <v>1.313522372609751</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.588444933575297</v>
+        <v>4.53122095681223</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.629546532500301</v>
+        <v>1.283188169822921</v>
       </c>
     </row>
     <row r="7">
@@ -1127,85 +1127,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1.949836263831878</v>
+        <v>1.835880984082996</v>
       </c>
       <c r="F7" t="n">
-        <v>7.263748941288812</v>
+        <v>7.329418024444768</v>
       </c>
       <c r="G7" t="n">
-        <v>2.861504877671447</v>
+        <v>3.136114577758318</v>
       </c>
       <c r="H7" t="n">
-        <v>2.67350505741025</v>
+        <v>2.480108033634184</v>
       </c>
       <c r="I7" t="n">
-        <v>1.29773830150015</v>
+        <v>1.25557484125928</v>
       </c>
       <c r="J7" t="n">
-        <v>4.358654210632345</v>
+        <v>4.912748199598812</v>
       </c>
       <c r="K7" t="n">
-        <v>1.59754823899218</v>
+        <v>1.675626357857574</v>
       </c>
       <c r="L7" t="n">
-        <v>3.98744746276812</v>
+        <v>3.644199298747727</v>
       </c>
       <c r="M7" t="n">
-        <v>1.159118529517449</v>
+        <v>1.133788516484939</v>
       </c>
       <c r="N7" t="n">
-        <v>7.284623186455108</v>
+        <v>8.474483059333201</v>
       </c>
       <c r="O7" t="n">
-        <v>1.334733919997849</v>
+        <v>1.378186319190687</v>
       </c>
       <c r="P7" t="n">
-        <v>6.490408889732008</v>
+        <v>5.845457893258144</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.08079388843793</v>
+        <v>1.066172785732853</v>
       </c>
       <c r="R7" t="n">
-        <v>13.37717381022275</v>
+        <v>16.11195257877015</v>
       </c>
       <c r="S7" t="n">
-        <v>1.182135797184463</v>
+        <v>1.206378844276281</v>
       </c>
       <c r="T7" t="n">
-        <v>2.169559455444498</v>
+        <v>2.140916712195</v>
       </c>
       <c r="U7" t="n">
-        <v>1.855022799691653</v>
+        <v>1.876488168953287</v>
       </c>
       <c r="V7" t="n">
-        <v>2.909325373667551</v>
+        <v>3.26950042665028</v>
       </c>
       <c r="W7" t="n">
-        <v>1.523745200158912</v>
+        <v>1.440625605643076</v>
       </c>
       <c r="X7" t="n">
-        <v>3.438563341752452</v>
+        <v>3.374459036846887</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.410077516904424</v>
+        <v>1.421148558253474</v>
       </c>
       <c r="Z7" t="n">
-        <v>5.173236529299468</v>
+        <v>6.067476620961528</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.239622171659621</v>
+        <v>1.197336874898153</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.087143064392392</v>
+        <v>5.938053584079541</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.196573988060122</v>
+        <v>1.20250894061256</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.35764988703591</v>
+        <v>12.70965803814324</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.106864438408344</v>
+        <v>1.0853995903845</v>
       </c>
     </row>
     <row r="8">
@@ -1230,85 +1230,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.228247375928119</v>
+        <v>1.197650570116782</v>
       </c>
       <c r="F8" t="n">
-        <v>13.60877304293317</v>
+        <v>14.63348087887389</v>
       </c>
       <c r="G8" t="n">
-        <v>8.900776108486051</v>
+        <v>10.34174538436804</v>
       </c>
       <c r="H8" t="n">
-        <v>1.394659184208896</v>
+        <v>1.348040023443233</v>
       </c>
       <c r="I8" t="n">
-        <v>1.066517007803577</v>
+        <v>1.05462284356884</v>
       </c>
       <c r="J8" t="n">
-        <v>16.03374900676496</v>
+        <v>19.30735887522466</v>
       </c>
       <c r="K8" t="n">
-        <v>3.533831822524354</v>
+        <v>3.873232768193696</v>
       </c>
       <c r="L8" t="n">
-        <v>1.663251078268325</v>
+        <v>1.592683828435819</v>
       </c>
       <c r="M8" t="n">
-        <v>1.032768463759347</v>
+        <v>1.025982620472115</v>
       </c>
       <c r="N8" t="n">
-        <v>31.5171462215633</v>
+        <v>39.48726501906232</v>
       </c>
       <c r="O8" t="n">
-        <v>2.507724650234854</v>
+        <v>2.687240231674869</v>
       </c>
       <c r="P8" t="n">
-        <v>2.098644397953699</v>
+        <v>1.990309909457913</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.015002231558599</v>
+        <v>1.01143031292475</v>
       </c>
       <c r="R8" t="n">
-        <v>67.65675010374164</v>
+        <v>88.48666870132178</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91021262372299</v>
+        <v>2.009784907178594</v>
       </c>
       <c r="T8" t="n">
-        <v>1.21439841630241</v>
+        <v>1.218971720315888</v>
       </c>
       <c r="U8" t="n">
-        <v>5.664213557386983</v>
+        <v>5.566799760980112</v>
       </c>
       <c r="V8" t="n">
-        <v>3.440324578918324</v>
+        <v>4.080805764880753</v>
       </c>
       <c r="W8" t="n">
-        <v>1.409781554732056</v>
+        <v>1.324590407937875</v>
       </c>
       <c r="X8" t="n">
-        <v>1.440241638351324</v>
+        <v>1.449197887599449</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.271479825817781</v>
+        <v>3.226190344180121</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.501777137720017</v>
+        <v>8.183471205415268</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.1817594524402</v>
+        <v>1.139208465017045</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.836500500624285</v>
+        <v>1.853406163803555</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.195456546952087</v>
+        <v>2.17177499110516</v>
       </c>
       <c r="AD8" t="n">
-        <v>13.88317850161273</v>
+        <v>18.59626157338881</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.077620596491372</v>
+        <v>1.05683025316652</v>
       </c>
     </row>
     <row r="9">
@@ -1333,85 +1333,85 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.334402234855335</v>
+        <v>1.397341699192</v>
       </c>
       <c r="F9" t="n">
-        <v>11.74089700161742</v>
+        <v>10.95597698930233</v>
       </c>
       <c r="G9" t="n">
-        <v>6.044910999287773</v>
+        <v>5.179172159519883</v>
       </c>
       <c r="H9" t="n">
-        <v>1.548254507496706</v>
+        <v>1.64383850984635</v>
       </c>
       <c r="I9" t="n">
-        <v>1.113366541021915</v>
+        <v>1.139810690266228</v>
       </c>
       <c r="J9" t="n">
-        <v>9.820944795402086</v>
+        <v>8.152528880987548</v>
       </c>
       <c r="K9" t="n">
-        <v>2.823970412146602</v>
+        <v>2.553184509324624</v>
       </c>
       <c r="L9" t="n">
-        <v>1.886008477427632</v>
+        <v>2.033291807601187</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06173316743412</v>
+        <v>1.078126697042901</v>
       </c>
       <c r="N9" t="n">
-        <v>17.19874763541294</v>
+        <v>13.79972196253071</v>
       </c>
       <c r="O9" t="n">
-        <v>2.128657372334993</v>
+        <v>1.967780826910383</v>
       </c>
       <c r="P9" t="n">
-        <v>2.430160651031313</v>
+        <v>2.664386267457723</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.031665883095736</v>
+        <v>1.041280041306569</v>
       </c>
       <c r="R9" t="n">
-        <v>32.57972878813131</v>
+        <v>25.22478196117684</v>
       </c>
       <c r="S9" t="n">
-        <v>1.699222146322431</v>
+        <v>1.600822068501837</v>
       </c>
       <c r="T9" t="n">
-        <v>1.166443789860528</v>
+        <v>1.171653534075385</v>
       </c>
       <c r="U9" t="n">
-        <v>7.008034308987739</v>
+        <v>6.82568838670594</v>
       </c>
       <c r="V9" t="n">
-        <v>2.102227622486454</v>
+        <v>1.895477684869314</v>
       </c>
       <c r="W9" t="n">
-        <v>1.907253619487557</v>
+        <v>2.116722411844289</v>
       </c>
       <c r="X9" t="n">
-        <v>1.34631555932132</v>
+        <v>1.356528136508337</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.887539912904044</v>
+        <v>3.804827719330968</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.288261204316027</v>
+        <v>2.835442224839383</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.437013046462458</v>
+        <v>1.544827827575727</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.660335507152873</v>
+        <v>1.679396051478627</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.514381688047697</v>
+        <v>2.471895513410205</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.738700557621166</v>
+        <v>4.713646497062293</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.211028316273692</v>
+        <v>1.269277110998868</v>
       </c>
     </row>
     <row r="10">
@@ -1436,85 +1436,85 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.265096296269618</v>
+        <v>2.296045582829089</v>
       </c>
       <c r="F10" t="n">
-        <v>8.629818534769685</v>
+        <v>7.248819894631831</v>
       </c>
       <c r="G10" t="n">
-        <v>1.730543844615891</v>
+        <v>2.344582945826466</v>
       </c>
       <c r="H10" t="n">
-        <v>4.825383997291196</v>
+        <v>3.275102276660757</v>
       </c>
       <c r="I10" t="n">
-        <v>1.835230624263089</v>
+        <v>1.423144863561081</v>
       </c>
       <c r="J10" t="n">
-        <v>2.197274107235095</v>
+        <v>3.363256856255448</v>
       </c>
       <c r="K10" t="n">
-        <v>1.261411665000981</v>
+        <v>1.439540679229478</v>
       </c>
       <c r="L10" t="n">
-        <v>7.678608511831407</v>
+        <v>5.086657607388717</v>
       </c>
       <c r="M10" t="n">
-        <v>1.507845135649227</v>
+        <v>1.23498809493461</v>
       </c>
       <c r="N10" t="n">
-        <v>2.969104220564414</v>
+        <v>5.255534733699044</v>
       </c>
       <c r="O10" t="n">
-        <v>1.149731788924064</v>
+        <v>1.244698747992</v>
       </c>
       <c r="P10" t="n">
-        <v>13.19993100021979</v>
+        <v>8.62410964101991</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.303720912611814</v>
+        <v>1.12549913016933</v>
       </c>
       <c r="R10" t="n">
-        <v>4.292496362534315</v>
+        <v>8.968182716890107</v>
       </c>
       <c r="S10" t="n">
-        <v>1.081967676700957</v>
+        <v>1.131162856659315</v>
       </c>
       <c r="T10" t="n">
-        <v>1.879159567130174</v>
+        <v>2.29717897437963</v>
       </c>
       <c r="U10" t="n">
-        <v>2.137449943545839</v>
+        <v>1.770903645334095</v>
       </c>
       <c r="V10" t="n">
-        <v>1.39811291765775</v>
+        <v>2.332029950445262</v>
       </c>
       <c r="W10" t="n">
-        <v>3.511850170256669</v>
+        <v>1.750733870259994</v>
       </c>
       <c r="X10" t="n">
-        <v>2.800276346519784</v>
+        <v>3.727120522529917</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.555470276512357</v>
+        <v>1.366687130890831</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.802815269073003</v>
+        <v>3.806739638307498</v>
       </c>
       <c r="AA10" t="n">
-        <v>2.245616567749992</v>
+        <v>1.356285273614839</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.635681058554906</v>
+        <v>6.76675017204875</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.275051629638128</v>
+        <v>1.17340789355623</v>
       </c>
       <c r="AD10" t="n">
-        <v>2.537652860031162</v>
+        <v>6.956637492890146</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.650341846325271</v>
+        <v>1.167879949248817</v>
       </c>
     </row>
     <row r="11">
@@ -1539,85 +1539,85 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.226319080135184</v>
+        <v>1.24918937659046</v>
       </c>
       <c r="F11" t="n">
-        <v>13.26680572978846</v>
+        <v>12.15329744630967</v>
       </c>
       <c r="G11" t="n">
-        <v>9.159568378138054</v>
+        <v>8.532520140624117</v>
       </c>
       <c r="H11" t="n">
-        <v>1.399266501176754</v>
+        <v>1.446380047024028</v>
       </c>
       <c r="I11" t="n">
-        <v>1.062575765552453</v>
+        <v>1.066512906147236</v>
       </c>
       <c r="J11" t="n">
-        <v>16.98062750285907</v>
+        <v>16.03467609408546</v>
       </c>
       <c r="K11" t="n">
-        <v>3.504592789659814</v>
+        <v>3.240243502519665</v>
       </c>
       <c r="L11" t="n">
-        <v>1.682785256133764</v>
+        <v>1.775418490159151</v>
       </c>
       <c r="M11" t="n">
-        <v>1.029786753218364</v>
+        <v>1.03095200743408</v>
       </c>
       <c r="N11" t="n">
-        <v>34.57197048866252</v>
+        <v>33.30808218593783</v>
       </c>
       <c r="O11" t="n">
-        <v>2.464589328806612</v>
+        <v>2.289626198873276</v>
       </c>
       <c r="P11" t="n">
-        <v>2.148901511835553</v>
+        <v>2.327610562419719</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.013107104763413</v>
+        <v>1.013258988404829</v>
       </c>
       <c r="R11" t="n">
-        <v>77.29449966642562</v>
+        <v>76.42053507157576</v>
       </c>
       <c r="S11" t="n">
-        <v>1.870396626428266</v>
+        <v>1.753232934647182</v>
       </c>
       <c r="T11" t="n">
-        <v>1.274601444085482</v>
+        <v>1.375630834913591</v>
       </c>
       <c r="U11" t="n">
-        <v>4.641641446316306</v>
+        <v>3.66218826319207</v>
       </c>
       <c r="V11" t="n">
-        <v>4.273132189612152</v>
+        <v>5.127439292895184</v>
       </c>
       <c r="W11" t="n">
-        <v>1.30551775549233</v>
+        <v>1.242280971090565</v>
       </c>
       <c r="X11" t="n">
-        <v>1.558310799266583</v>
+        <v>1.758013589152671</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.791117064748947</v>
+        <v>2.319237562901515</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.703781222804402</v>
+        <v>11.09188626966581</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.129806386121122</v>
+        <v>1.099089503515889</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.06100107177948</v>
+        <v>2.449117319988442</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.942506116721286</v>
+        <v>1.690075252159691</v>
       </c>
       <c r="AD11" t="n">
-        <v>20.10362292711571</v>
+        <v>27.27821054434122</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.052346091828509</v>
+        <v>1.038054341573701</v>
       </c>
     </row>
     <row r="12">
@@ -1642,85 +1642,85 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.435147593418753</v>
+        <v>1.440640972153018</v>
       </c>
       <c r="F12" t="n">
-        <v>8.633275553174727</v>
+        <v>8.676113583873347</v>
       </c>
       <c r="G12" t="n">
-        <v>5.336843856946512</v>
+        <v>5.246436973803526</v>
       </c>
       <c r="H12" t="n">
-        <v>1.793279545584552</v>
+        <v>1.797576418868881</v>
       </c>
       <c r="I12" t="n">
-        <v>1.115850473093247</v>
+        <v>1.119557625363144</v>
       </c>
       <c r="J12" t="n">
-        <v>9.631816282658711</v>
+        <v>9.364167462866575</v>
       </c>
       <c r="K12" t="n">
-        <v>2.260589669261067</v>
+        <v>2.253798352536793</v>
       </c>
       <c r="L12" t="n">
-        <v>2.424314317537287</v>
+        <v>2.422950141669079</v>
       </c>
       <c r="M12" t="n">
-        <v>1.054288253600862</v>
+        <v>1.056741528387245</v>
       </c>
       <c r="N12" t="n">
-        <v>19.42019099292078</v>
+        <v>18.62377624330573</v>
       </c>
       <c r="O12" t="n">
-        <v>1.702092219173259</v>
+        <v>1.702765311809891</v>
       </c>
       <c r="P12" t="n">
-        <v>3.566897361318845</v>
+        <v>3.548732027422933</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.02342827559132</v>
+        <v>1.024858811006861</v>
       </c>
       <c r="R12" t="n">
-        <v>43.68346580191678</v>
+        <v>41.22718543231893</v>
       </c>
       <c r="S12" t="n">
-        <v>1.389575374173204</v>
+        <v>1.39235195745985</v>
       </c>
       <c r="T12" t="n">
-        <v>1.875628956268738</v>
+        <v>1.826747538789952</v>
       </c>
       <c r="U12" t="n">
-        <v>2.142036239026672</v>
+        <v>2.209559089179297</v>
       </c>
       <c r="V12" t="n">
-        <v>5.868910277483962</v>
+        <v>5.418239430113728</v>
       </c>
       <c r="W12" t="n">
-        <v>1.205384766407475</v>
+        <v>1.2263344972172</v>
       </c>
       <c r="X12" t="n">
-        <v>2.792679064850803</v>
+        <v>2.687908179151589</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.557824330973166</v>
+        <v>1.592449288623413</v>
       </c>
       <c r="Z12" t="n">
-        <v>13.25675567672143</v>
+        <v>11.93132550632533</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.081587658787981</v>
+        <v>1.091480214308993</v>
       </c>
       <c r="AB12" t="n">
-        <v>4.618869754061607</v>
+        <v>4.388224317899716</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.276329370206722</v>
+        <v>1.295139844997004</v>
       </c>
       <c r="AD12" t="n">
-        <v>34.0984406951853</v>
+        <v>29.8899461190184</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.0302129036594</v>
+        <v>1.034614117862328</v>
       </c>
     </row>
     <row r="13">
@@ -1745,85 +1745,85 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.550757924121823</v>
+        <v>1.71163978300812</v>
       </c>
       <c r="F13" t="n">
-        <v>8.35509382498692</v>
+        <v>7.524974221195833</v>
       </c>
       <c r="G13" t="n">
-        <v>4.246887476825171</v>
+        <v>3.535141573573095</v>
       </c>
       <c r="H13" t="n">
-        <v>1.963410705599463</v>
+        <v>2.265429789588809</v>
       </c>
       <c r="I13" t="n">
-        <v>1.165800702756189</v>
+        <v>1.211754156050916</v>
       </c>
       <c r="J13" t="n">
-        <v>7.031337523764923</v>
+        <v>5.722457488671688</v>
       </c>
       <c r="K13" t="n">
-        <v>2.037978916144357</v>
+        <v>1.790245344488803</v>
       </c>
       <c r="L13" t="n">
-        <v>2.675617037956051</v>
+        <v>3.257369861368612</v>
       </c>
       <c r="M13" t="n">
-        <v>1.084654046310819</v>
+        <v>1.108285785735807</v>
       </c>
       <c r="N13" t="n">
-        <v>12.81278442767354</v>
+        <v>10.23482240263539</v>
       </c>
       <c r="O13" t="n">
-        <v>1.596795077483706</v>
+        <v>1.442993422173943</v>
       </c>
       <c r="P13" t="n">
-        <v>3.944485611541809</v>
+        <v>5.109296445507246</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.040474835138492</v>
+        <v>1.051994521173882</v>
       </c>
       <c r="R13" t="n">
-        <v>25.70670965251162</v>
+        <v>20.2327956373667</v>
       </c>
       <c r="S13" t="n">
-        <v>1.339617893217136</v>
+        <v>1.243350659476835</v>
       </c>
       <c r="T13" t="n">
-        <v>1.718601232334322</v>
+        <v>2.064046445039668</v>
       </c>
       <c r="U13" t="n">
-        <v>2.391592381147991</v>
+        <v>1.939808600143126</v>
       </c>
       <c r="V13" t="n">
-        <v>3.570574385086793</v>
+        <v>3.709987944781333</v>
       </c>
       <c r="W13" t="n">
-        <v>1.38901811431776</v>
+        <v>1.369005331527661</v>
       </c>
       <c r="X13" t="n">
-        <v>2.458883323559423</v>
+        <v>3.20363978318581</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.685455775558647</v>
+        <v>1.453794675350386</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.837098575625629</v>
+        <v>7.199885580839406</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.171317990786684</v>
+        <v>1.16129329920063</v>
       </c>
       <c r="AB13" t="n">
-        <v>3.892039849476746</v>
+        <v>5.544267188255363</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.345776701583462</v>
+        <v>1.220057483104096</v>
       </c>
       <c r="AD13" t="n">
-        <v>14.80218276152656</v>
+        <v>15.80855834473871</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.072452308252829</v>
+        <v>1.067528518085306</v>
       </c>
     </row>
     <row r="14">
@@ -1848,85 +1848,85 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.681456099389919</v>
+        <v>1.703896554126942</v>
       </c>
       <c r="F14" t="n">
-        <v>7.84904914470032</v>
+        <v>7.730052306342691</v>
       </c>
       <c r="G14" t="n">
-        <v>3.598761175395635</v>
+        <v>3.524295145749021</v>
       </c>
       <c r="H14" t="n">
-        <v>2.189104906264907</v>
+        <v>2.233399759202283</v>
       </c>
       <c r="I14" t="n">
-        <v>1.210688221451939</v>
+        <v>1.216292824408709</v>
       </c>
       <c r="J14" t="n">
-        <v>5.746349810675639</v>
+        <v>5.623361883288327</v>
       </c>
       <c r="K14" t="n">
-        <v>1.840968693957453</v>
+        <v>1.810767143855097</v>
       </c>
       <c r="L14" t="n">
-        <v>3.077908726047001</v>
+        <v>3.166823590928426</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1101622592743</v>
+        <v>1.112795530561286</v>
       </c>
       <c r="N14" t="n">
-        <v>10.07751898506397</v>
+        <v>9.865599505794775</v>
       </c>
       <c r="O14" t="n">
-        <v>1.481253092335</v>
+        <v>1.461505036305945</v>
       </c>
       <c r="P14" t="n">
-        <v>4.694271322071139</v>
+        <v>4.878361607006066</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.054269820707731</v>
+        <v>1.055416125146828</v>
       </c>
       <c r="R14" t="n">
-        <v>19.4264474612045</v>
+        <v>19.04528911666859</v>
       </c>
       <c r="S14" t="n">
-        <v>1.270689376285271</v>
+        <v>1.257840836242178</v>
       </c>
       <c r="T14" t="n">
-        <v>1.839444524784601</v>
+        <v>1.90153767063629</v>
       </c>
       <c r="U14" t="n">
-        <v>2.191263949522568</v>
+        <v>2.109215990158478</v>
       </c>
       <c r="V14" t="n">
-        <v>3.201769095563906</v>
+        <v>3.272012726336726</v>
       </c>
       <c r="W14" t="n">
-        <v>1.454180232620571</v>
+        <v>1.440138379687841</v>
       </c>
       <c r="X14" t="n">
-        <v>2.715048088113982</v>
+        <v>2.8485233579093</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.58307402977819</v>
+        <v>1.540972336498367</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.897048122161619</v>
+        <v>6.073817772154045</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.204204650445335</v>
+        <v>1.19709024740466</v>
       </c>
       <c r="AB14" t="n">
-        <v>4.447755790818254</v>
+        <v>4.74271108187116</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.290043744589773</v>
+        <v>1.267185999166158</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.25453064247297</v>
+        <v>12.7266517480229</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.088853105630736</v>
+        <v>1.085275833331419</v>
       </c>
     </row>
     <row r="15">
@@ -1951,85 +1951,85 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1.225639787306493</v>
+        <v>1.205348351559482</v>
       </c>
       <c r="F15" t="n">
-        <v>13.70937098088537</v>
+        <v>14.4133621532274</v>
       </c>
       <c r="G15" t="n">
-        <v>8.996301759298465</v>
+        <v>9.902533853313274</v>
       </c>
       <c r="H15" t="n">
-        <v>1.39026647950519</v>
+        <v>1.358731457264756</v>
       </c>
       <c r="I15" t="n">
-        <v>1.065675670041128</v>
+        <v>1.058026749344401</v>
       </c>
       <c r="J15" t="n">
-        <v>16.22633875488097</v>
+        <v>18.23343132776206</v>
       </c>
       <c r="K15" t="n">
-        <v>3.562351758387952</v>
+        <v>3.787600528888004</v>
       </c>
       <c r="L15" t="n">
-        <v>1.655901521324592</v>
+        <v>1.607118224727634</v>
       </c>
       <c r="M15" t="n">
-        <v>1.032326222122872</v>
+        <v>1.028007698729542</v>
       </c>
       <c r="N15" t="n">
-        <v>31.93463864100807</v>
+        <v>36.70446860545587</v>
       </c>
       <c r="O15" t="n">
-        <v>2.524619119621039</v>
+        <v>2.647125649124797</v>
       </c>
       <c r="P15" t="n">
-        <v>2.086244867577658</v>
+        <v>2.009663052140199</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.014785492922726</v>
+        <v>1.01252845741556</v>
       </c>
       <c r="R15" t="n">
-        <v>68.63386281582218</v>
+        <v>80.81828622875626</v>
       </c>
       <c r="S15" t="n">
-        <v>1.920602738708459</v>
+        <v>1.990429428788429</v>
       </c>
       <c r="T15" t="n">
-        <v>1.211528998685025</v>
+        <v>1.20933294693584</v>
       </c>
       <c r="U15" t="n">
-        <v>5.727484204135241</v>
+        <v>5.777078881455286</v>
       </c>
       <c r="V15" t="n">
-        <v>3.444718325564795</v>
+        <v>3.769347847938092</v>
       </c>
       <c r="W15" t="n">
-        <v>1.409045078749092</v>
+        <v>1.361095844548581</v>
       </c>
       <c r="X15" t="n">
-        <v>1.43462272211295</v>
+        <v>1.430322590586996</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.300846111170691</v>
+        <v>3.323838027271394</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.513030503699436</v>
+        <v>7.355541183662514</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.181388439503276</v>
+        <v>1.157343013144276</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.825904343600649</v>
+        <v>1.817800326432506</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.210793971176317</v>
+        <v>2.222792370800712</v>
       </c>
       <c r="AD15" t="n">
-        <v>13.91384098560217</v>
+        <v>16.24407229692171</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.077436294988835</v>
+        <v>1.065599269048464</v>
       </c>
     </row>
     <row r="16">
@@ -2054,85 +2054,85 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.268333939771984</v>
+        <v>1.487195705113666</v>
       </c>
       <c r="F16" t="n">
-        <v>12.79525154561171</v>
+        <v>9.95046748991645</v>
       </c>
       <c r="G16" t="n">
-        <v>7.495683466843229</v>
+        <v>4.403428973104227</v>
       </c>
       <c r="H16" t="n">
-        <v>1.451507389336741</v>
+        <v>1.792075168892118</v>
       </c>
       <c r="I16" t="n">
-        <v>1.084417547085788</v>
+        <v>1.172287587925937</v>
       </c>
       <c r="J16" t="n">
-        <v>12.8458784283766</v>
+        <v>6.804248652142492</v>
       </c>
       <c r="K16" t="n">
-        <v>3.214803176242558</v>
+        <v>2.262506437865876</v>
       </c>
       <c r="L16" t="n">
-        <v>1.743223802912986</v>
+        <v>2.28009045776773</v>
       </c>
       <c r="M16" t="n">
-        <v>1.043734834846962</v>
+        <v>1.096934460980383</v>
       </c>
       <c r="N16" t="n">
-        <v>23.86506862319779</v>
+        <v>11.31624862702201</v>
       </c>
       <c r="O16" t="n">
-        <v>2.345489738192732</v>
+        <v>1.781194792861621</v>
       </c>
       <c r="P16" t="n">
-        <v>2.213006892470256</v>
+        <v>3.083582692417719</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.021204030237162</v>
+        <v>1.051732866214974</v>
       </c>
       <c r="R16" t="n">
-        <v>48.16084578333601</v>
+        <v>20.33007144519175</v>
       </c>
       <c r="S16" t="n">
-        <v>1.824397623960344</v>
+        <v>1.47994255454274</v>
       </c>
       <c r="T16" t="n">
-        <v>1.184435470229143</v>
+        <v>1.237010108009563</v>
       </c>
       <c r="U16" t="n">
-        <v>6.421950554075082</v>
+        <v>5.219229333289248</v>
       </c>
       <c r="V16" t="n">
-        <v>2.654919776245267</v>
+        <v>1.923863493667771</v>
       </c>
       <c r="W16" t="n">
-        <v>1.604258897835417</v>
+        <v>2.082410991292626</v>
       </c>
       <c r="X16" t="n">
-        <v>1.381570129907354</v>
+        <v>1.484538140532977</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.620750215020247</v>
+        <v>3.063821021189439</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.560337918112054</v>
+        <v>2.896817282470011</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.280872215784021</v>
+        <v>1.527198908003312</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.726226320716223</v>
+        <v>1.920308696125572</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.376981212982992</v>
+        <v>2.086591927480336</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.800808562485315</v>
+        <v>4.850305873511333</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.128191839600971</v>
+        <v>1.259719625622376</v>
       </c>
     </row>
     <row r="17">
@@ -2157,85 +2157,85 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.236186872993979</v>
+        <v>1.25672158395333</v>
       </c>
       <c r="F17" t="n">
-        <v>13.17340321372456</v>
+        <v>12.43958562325839</v>
       </c>
       <c r="G17" t="n">
-        <v>8.684303091723834</v>
+        <v>8.071658530328525</v>
       </c>
       <c r="H17" t="n">
-        <v>1.410828708783499</v>
+        <v>1.447218155664095</v>
       </c>
       <c r="I17" t="n">
-        <v>1.067877252978094</v>
+        <v>1.073784086541147</v>
       </c>
       <c r="J17" t="n">
-        <v>15.73247599343366</v>
+        <v>14.55305794078426</v>
       </c>
       <c r="K17" t="n">
-        <v>3.434104478630737</v>
+        <v>3.236045176911597</v>
       </c>
       <c r="L17" t="n">
-        <v>1.694484605409988</v>
+        <v>1.758314157173604</v>
       </c>
       <c r="M17" t="n">
-        <v>1.033143045928731</v>
+        <v>1.036049101839211</v>
       </c>
       <c r="N17" t="n">
-        <v>31.17224192822628</v>
+        <v>28.73994216167386</v>
       </c>
       <c r="O17" t="n">
-        <v>2.439916727037672</v>
+        <v>2.318714665340299</v>
       </c>
       <c r="P17" t="n">
-        <v>2.157410840473787</v>
+        <v>2.269963924469773</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.015018394414802</v>
+        <v>1.016343747148599</v>
       </c>
       <c r="R17" t="n">
-        <v>67.58501384238616</v>
+        <v>62.18547912592319</v>
       </c>
       <c r="S17" t="n">
-        <v>1.863997437237281</v>
+        <v>1.787423942311994</v>
       </c>
       <c r="T17" t="n">
-        <v>1.24440799699623</v>
+        <v>1.281028897802623</v>
       </c>
       <c r="U17" t="n">
-        <v>5.091519149495856</v>
+        <v>4.558352923201293</v>
       </c>
       <c r="V17" t="n">
-        <v>3.685729906868383</v>
+        <v>3.782086249092302</v>
       </c>
       <c r="W17" t="n">
-        <v>1.372338259868439</v>
+        <v>1.35944248684823</v>
       </c>
       <c r="X17" t="n">
-        <v>1.499040964780522</v>
+        <v>1.570947471981923</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.003843513006593</v>
+        <v>2.751474608563749</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.136477708399448</v>
+        <v>7.389035282376331</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.162959933616515</v>
+        <v>1.156518152710539</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.947855552527791</v>
+        <v>2.085243899931438</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.055013073809768</v>
+        <v>1.921451850651431</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.63178066901687</v>
+        <v>16.33807257333963</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.068344381495379</v>
+        <v>1.065197240084662</v>
       </c>
     </row>
     <row r="18">
@@ -2260,85 +2260,85 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.439709604162419</v>
+        <v>2.082177298497246</v>
       </c>
       <c r="F18" t="n">
-        <v>6.986266284184028</v>
+        <v>6.908742208963451</v>
       </c>
       <c r="G18" t="n">
-        <v>2.237250688440733</v>
+        <v>2.666742370947179</v>
       </c>
       <c r="H18" t="n">
-        <v>3.594329239789308</v>
+        <v>2.953796570669478</v>
       </c>
       <c r="I18" t="n">
-        <v>1.451037319453757</v>
+        <v>1.326873793716729</v>
       </c>
       <c r="J18" t="n">
-        <v>3.217111438164543</v>
+        <v>4.059284712394554</v>
       </c>
       <c r="K18" t="n">
-        <v>1.38545608809513</v>
+        <v>1.51182401229077</v>
       </c>
       <c r="L18" t="n">
-        <v>5.811065458756594</v>
+        <v>4.595692429775343</v>
       </c>
       <c r="M18" t="n">
-        <v>1.245916385282837</v>
+        <v>1.171908480487358</v>
       </c>
       <c r="N18" t="n">
-        <v>5.066422816234327</v>
+        <v>6.817048682909727</v>
       </c>
       <c r="O18" t="n">
-        <v>1.207854166311519</v>
+        <v>1.278110550201447</v>
       </c>
       <c r="P18" t="n">
-        <v>10.32918753369157</v>
+        <v>7.862286260130481</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.128890081127581</v>
+        <v>1.08586766350283</v>
       </c>
       <c r="R18" t="n">
-        <v>8.758548922086185</v>
+        <v>12.64582753514705</v>
       </c>
       <c r="S18" t="n">
-        <v>1.107190470380039</v>
+        <v>1.145724028711822</v>
       </c>
       <c r="T18" t="n">
-        <v>2.780438373378985</v>
+        <v>2.619762428917716</v>
       </c>
       <c r="U18" t="n">
-        <v>1.561659428909163</v>
+        <v>1.617374487855095</v>
       </c>
       <c r="V18" t="n">
-        <v>2.592075773939143</v>
+        <v>3.237266522596841</v>
       </c>
       <c r="W18" t="n">
-        <v>1.628110807518779</v>
+        <v>1.446974014897107</v>
       </c>
       <c r="X18" t="n">
-        <v>4.860707636526706</v>
+        <v>4.476930103891311</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.259019872558817</v>
+        <v>1.287610038200314</v>
       </c>
       <c r="Z18" t="n">
-        <v>4.411472997577356</v>
+        <v>5.986240882076375</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.293128510971696</v>
+        <v>1.200551883402709</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.557802676722552</v>
+        <v>8.592728758227977</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.116852425532085</v>
+        <v>1.131704955075122</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.430095946855287</v>
+        <v>12.49233118312156</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.134587764027898</v>
+        <v>1.087014547707141</v>
       </c>
     </row>
     <row r="19">
@@ -2363,85 +2363,85 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.248767068474845</v>
+        <v>1.207296419555711</v>
       </c>
       <c r="F19" t="n">
-        <v>13.12971762475197</v>
+        <v>14.38287722491219</v>
       </c>
       <c r="G19" t="n">
-        <v>8.126972933092244</v>
+        <v>9.787045233953114</v>
       </c>
       <c r="H19" t="n">
-        <v>1.424397808471153</v>
+        <v>1.361067063294647</v>
       </c>
       <c r="I19" t="n">
-        <v>1.075318546691913</v>
+        <v>1.059051478259643</v>
       </c>
       <c r="J19" t="n">
-        <v>14.27694231927293</v>
+        <v>17.9343770803352</v>
       </c>
       <c r="K19" t="n">
-        <v>3.356279839432702</v>
+        <v>3.769568597244096</v>
       </c>
       <c r="L19" t="n">
-        <v>1.706045547487899</v>
+        <v>1.609616219088733</v>
       </c>
       <c r="M19" t="n">
-        <v>1.038050644073013</v>
+        <v>1.028653076710665</v>
       </c>
       <c r="N19" t="n">
-        <v>27.28076408065957</v>
+        <v>35.90026603767061</v>
       </c>
       <c r="O19" t="n">
-        <v>2.416339219980903</v>
+        <v>2.64037630346322</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16120788431881</v>
+        <v>2.011873880300244</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.017928154722262</v>
+        <v>1.012894742939007</v>
       </c>
       <c r="R19" t="n">
-        <v>56.77818885946215</v>
+        <v>78.55098374043548</v>
       </c>
       <c r="S19" t="n">
-        <v>1.861172244439781</v>
+        <v>1.988265454290884</v>
       </c>
       <c r="T19" t="n">
-        <v>1.20224235490825</v>
+        <v>1.204174948296406</v>
       </c>
       <c r="U19" t="n">
-        <v>5.944562678048635</v>
+        <v>5.897760515400138</v>
       </c>
       <c r="V19" t="n">
-        <v>3.026156104221216</v>
+        <v>3.657126075814595</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4935453877007</v>
+        <v>1.376346462857782</v>
       </c>
       <c r="X19" t="n">
-        <v>1.416439066636317</v>
+        <v>1.420223060122829</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.401311692673915</v>
+        <v>3.379688539005225</v>
       </c>
       <c r="Z19" t="n">
-        <v>5.460003630696178</v>
+        <v>7.061862489186114</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.22421506411283</v>
+        <v>1.164965800821764</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.791665770821588</v>
+        <v>1.798784262180422</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.26315932412008</v>
+        <v>2.251902481491466</v>
       </c>
       <c r="AD19" t="n">
-        <v>11.10198180350985</v>
+        <v>15.42423251258681</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.098990477259874</v>
+        <v>1.0693277787312</v>
       </c>
     </row>
     <row r="20">
@@ -2466,85 +2466,85 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.882039435407671</v>
+        <v>2.504899975173385</v>
       </c>
       <c r="F20" t="n">
-        <v>8.449106699901371</v>
+        <v>8.42835722898162</v>
       </c>
       <c r="G20" t="n">
-        <v>1.870320303953321</v>
+        <v>2.074106242315329</v>
       </c>
       <c r="H20" t="n">
-        <v>4.129295277584635</v>
+        <v>3.452501575947106</v>
       </c>
       <c r="I20" t="n">
-        <v>1.704997742527725</v>
+        <v>1.576060206671622</v>
       </c>
       <c r="J20" t="n">
-        <v>2.418444258295867</v>
+        <v>2.73592966224456</v>
       </c>
       <c r="K20" t="n">
-        <v>1.319560767295778</v>
+        <v>1.407746934724729</v>
       </c>
       <c r="L20" t="n">
-        <v>6.351043759827246</v>
+        <v>5.085578713578353</v>
       </c>
       <c r="M20" t="n">
-        <v>1.429030619676207</v>
+        <v>1.351592389119269</v>
       </c>
       <c r="N20" t="n">
-        <v>3.330835968665149</v>
+        <v>3.844202636197493</v>
       </c>
       <c r="O20" t="n">
-        <v>1.186879428553259</v>
+        <v>1.244763366491145</v>
       </c>
       <c r="P20" t="n">
-        <v>10.5269273394231</v>
+        <v>8.045724652923537</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.2556391882929</v>
+        <v>1.208976011325618</v>
       </c>
       <c r="R20" t="n">
-        <v>4.911763320317871</v>
+        <v>5.785238236946912</v>
       </c>
       <c r="S20" t="n">
-        <v>1.104965637332189</v>
+        <v>1.141930042580512</v>
       </c>
       <c r="T20" t="n">
-        <v>1.711597471625693</v>
+        <v>1.515330655184207</v>
       </c>
       <c r="U20" t="n">
-        <v>2.405288860450039</v>
+        <v>2.940501675846444</v>
       </c>
       <c r="V20" t="n">
-        <v>1.414056858004632</v>
+        <v>1.406083936774595</v>
       </c>
       <c r="W20" t="n">
-        <v>3.415127248028371</v>
+        <v>3.462545078593121</v>
       </c>
       <c r="X20" t="n">
-        <v>2.444184169488584</v>
+        <v>2.038891733549027</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.692432461958173</v>
+        <v>1.962564209250018</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.834677190816383</v>
+        <v>1.818734917104943</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.198067960886672</v>
+        <v>2.221396546193501</v>
       </c>
       <c r="AB20" t="n">
-        <v>3.860581533416709</v>
+        <v>3.012833838653937</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.349579268522226</v>
+        <v>1.496811997491427</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.600940755880244</v>
+        <v>2.569240851094599</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.624632733177044</v>
+        <v>1.637250807804593</v>
       </c>
     </row>
     <row r="21">
@@ -2569,85 +2569,85 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1.224800618620842</v>
+        <v>1.196470591847266</v>
       </c>
       <c r="F21" t="n">
-        <v>13.72600774432911</v>
+        <v>14.69342638335617</v>
       </c>
       <c r="G21" t="n">
-        <v>9.034551030179617</v>
+        <v>10.4003280180995</v>
       </c>
       <c r="H21" t="n">
-        <v>1.389143807107691</v>
+        <v>1.346014938189593</v>
       </c>
       <c r="I21" t="n">
-        <v>1.065278552244129</v>
+        <v>1.054263581642742</v>
       </c>
       <c r="J21" t="n">
-        <v>16.31896718940998</v>
+        <v>19.42856607924912</v>
       </c>
       <c r="K21" t="n">
-        <v>3.569744093918629</v>
+        <v>3.890048635565172</v>
       </c>
       <c r="L21" t="n">
-        <v>1.65445088861696</v>
+        <v>1.589251183516605</v>
       </c>
       <c r="M21" t="n">
-        <v>1.032081489214636</v>
+        <v>1.025801205450406</v>
       </c>
       <c r="N21" t="n">
-        <v>32.17062282581876</v>
+        <v>39.75787904259595</v>
       </c>
       <c r="O21" t="n">
-        <v>2.527998536472743</v>
+        <v>2.697069141265152</v>
       </c>
       <c r="P21" t="n">
-        <v>2.084400286888521</v>
+        <v>1.984468867065779</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.01464784657242</v>
+        <v>1.011345461926059</v>
       </c>
       <c r="R21" t="n">
-        <v>69.26942069989278</v>
+        <v>89.14096830232521</v>
       </c>
       <c r="S21" t="n">
-        <v>1.922168697381397</v>
+        <v>2.015776154486745</v>
       </c>
       <c r="T21" t="n">
-        <v>1.212775585183075</v>
+        <v>1.217378637858823</v>
       </c>
       <c r="U21" t="n">
-        <v>5.699787332929137</v>
+        <v>5.600268038524791</v>
       </c>
       <c r="V21" t="n">
-        <v>3.473763011775798</v>
+        <v>4.08225197091319</v>
       </c>
       <c r="W21" t="n">
-        <v>1.404242441672756</v>
+        <v>1.324438108706514</v>
       </c>
       <c r="X21" t="n">
-        <v>1.437063758517431</v>
+        <v>1.446077911296517</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.287995699739808</v>
+        <v>3.241760855392994</v>
       </c>
       <c r="Z21" t="n">
-        <v>6.587523229732842</v>
+        <v>8.187358412281649</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.178970173167014</v>
+        <v>1.139133175589409</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.830506708327698</v>
+        <v>1.847514713285317</v>
       </c>
       <c r="AC21" t="n">
-        <v>2.204084193387905</v>
+        <v>2.179920518575527</v>
       </c>
       <c r="AD21" t="n">
-        <v>14.11713149882709</v>
+        <v>18.60744202180017</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.076236180150319</v>
+        <v>1.056794166850692</v>
       </c>
     </row>
     <row r="22">
@@ -2672,85 +2672,85 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.226347161713955</v>
+        <v>1.194500608485201</v>
       </c>
       <c r="F22" t="n">
-        <v>13.6800302939626</v>
+        <v>14.74442977266398</v>
       </c>
       <c r="G22" t="n">
-        <v>8.9709460415752</v>
+        <v>10.52544721131783</v>
       </c>
       <c r="H22" t="n">
-        <v>1.39149099146704</v>
+        <v>1.343412885510455</v>
       </c>
       <c r="I22" t="n">
-        <v>1.065889492053107</v>
+        <v>1.053343632756246</v>
       </c>
       <c r="J22" t="n">
-        <v>16.1769268337052</v>
+        <v>19.74637980824281</v>
       </c>
       <c r="K22" t="n">
-        <v>3.554337192415806</v>
+        <v>3.91194664554762</v>
       </c>
       <c r="L22" t="n">
-        <v>1.65799826410443</v>
+        <v>1.58599319309021</v>
       </c>
       <c r="M22" t="n">
-        <v>1.032434477618637</v>
+        <v>1.025247180616482</v>
       </c>
       <c r="N22" t="n">
-        <v>31.83138910877366</v>
+        <v>40.60838301870285</v>
       </c>
       <c r="O22" t="n">
-        <v>2.519760848246388</v>
+        <v>2.706504464201268</v>
       </c>
       <c r="P22" t="n">
-        <v>2.089849292063409</v>
+        <v>1.98056967585966</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.014836502139987</v>
+        <v>1.011043409702121</v>
       </c>
       <c r="R22" t="n">
-        <v>68.40133156485837</v>
+        <v>91.55174325444021</v>
       </c>
       <c r="S22" t="n">
-        <v>1.917558058056544</v>
+        <v>2.019815342671397</v>
       </c>
       <c r="T22" t="n">
-        <v>1.212552173984993</v>
+        <v>1.221077296626943</v>
       </c>
       <c r="U22" t="n">
-        <v>5.704727226504891</v>
+        <v>5.523304813553301</v>
       </c>
       <c r="V22" t="n">
-        <v>3.446614452965914</v>
+        <v>4.189315022128604</v>
       </c>
       <c r="W22" t="n">
-        <v>1.408728068612424</v>
+        <v>1.313546950696825</v>
       </c>
       <c r="X22" t="n">
-        <v>1.436626275762263</v>
+        <v>1.453321784611834</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.290288183536822</v>
+        <v>3.205938549492545</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.517888174234371</v>
+        <v>8.476199230888927</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.1812287542668</v>
+        <v>1.133757805151629</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.829681765643286</v>
+        <v>1.861197004837049</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.205281399940928</v>
+        <v>2.161174498266183</v>
       </c>
       <c r="AD22" t="n">
-        <v>13.92708076867061</v>
+        <v>19.44164691446771</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.077356985532538</v>
+        <v>1.054225091969172</v>
       </c>
     </row>
     <row r="23">
@@ -2775,85 +2775,85 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.237217219795525</v>
+        <v>1.274370144536584</v>
       </c>
       <c r="F23" t="n">
-        <v>13.3026662007282</v>
+        <v>12.22767617051539</v>
       </c>
       <c r="G23" t="n">
-        <v>8.579155046282555</v>
+        <v>7.489686301140394</v>
       </c>
       <c r="H23" t="n">
-        <v>1.409328478445265</v>
+        <v>1.470535251707834</v>
       </c>
       <c r="I23" t="n">
-        <v>1.069611098703656</v>
+        <v>1.082352451361568</v>
       </c>
       <c r="J23" t="n">
-        <v>15.36552530591617</v>
+        <v>13.14292936599422</v>
       </c>
       <c r="K23" t="n">
-        <v>3.443025718118263</v>
+        <v>3.12523928094748</v>
       </c>
       <c r="L23" t="n">
-        <v>1.68716592985188</v>
+        <v>1.787926500475461</v>
       </c>
       <c r="M23" t="n">
-        <v>1.034454017721953</v>
+        <v>1.041405468729118</v>
       </c>
       <c r="N23" t="n">
-        <v>30.02419125891463</v>
+        <v>25.15139909518195</v>
       </c>
       <c r="O23" t="n">
-        <v>2.4552525911981</v>
+        <v>2.269153911432812</v>
       </c>
       <c r="P23" t="n">
-        <v>2.138137349969164</v>
+        <v>2.306460876374204</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.015858152125503</v>
+        <v>1.019402879424909</v>
       </c>
       <c r="R23" t="n">
-        <v>64.05904950878654</v>
+        <v>52.53874216814535</v>
       </c>
       <c r="S23" t="n">
-        <v>1.878628576794438</v>
+        <v>1.765426671463198</v>
       </c>
       <c r="T23" t="n">
-        <v>1.220988350907927</v>
+        <v>1.251432637201276</v>
       </c>
       <c r="U23" t="n">
-        <v>5.525125400915996</v>
+        <v>4.977208413080776</v>
       </c>
       <c r="V23" t="n">
-        <v>3.386151640845752</v>
+        <v>3.226227232096829</v>
       </c>
       <c r="W23" t="n">
-        <v>1.41908484896021</v>
+        <v>1.449190444525344</v>
       </c>
       <c r="X23" t="n">
-        <v>1.453147573585147</v>
+        <v>1.512818286975812</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.206786614983603</v>
+        <v>2.95000846381121</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.363366223412545</v>
+        <v>5.958472796079508</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.186450068547385</v>
+        <v>1.201674999768208</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.860867801280326</v>
+        <v>1.974074538628875</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.161618541793235</v>
+        <v>2.026615479968934</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.50708396247979</v>
+        <v>12.41820578904966</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.079954688319029</v>
+        <v>1.087579433973683</v>
       </c>
     </row>
     <row r="24">
@@ -2878,85 +2878,85 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1.889881938222094</v>
+        <v>2.117217788369778</v>
       </c>
       <c r="F24" t="n">
-        <v>7.144323227413614</v>
+        <v>7.06708540582145</v>
       </c>
       <c r="G24" t="n">
-        <v>3.02210536700392</v>
+        <v>2.589459450936699</v>
       </c>
       <c r="H24" t="n">
-        <v>2.591132018654211</v>
+        <v>2.988343199401122</v>
       </c>
       <c r="I24" t="n">
-        <v>1.268233910987816</v>
+        <v>1.349016745226066</v>
       </c>
       <c r="J24" t="n">
-        <v>4.728089398977686</v>
+        <v>3.865192039288191</v>
       </c>
       <c r="K24" t="n">
-        <v>1.628483361704836</v>
+        <v>1.502931284851224</v>
       </c>
       <c r="L24" t="n">
-        <v>3.877924930337019</v>
+        <v>4.607570207883318</v>
       </c>
       <c r="M24" t="n">
-        <v>1.139580181843697</v>
+        <v>1.187556906850213</v>
       </c>
       <c r="N24" t="n">
-        <v>8.164340859792027</v>
+        <v>6.331715140720566</v>
       </c>
       <c r="O24" t="n">
-        <v>1.347472579794809</v>
+        <v>1.277194882531955</v>
       </c>
       <c r="P24" t="n">
-        <v>6.356378877961673</v>
+        <v>7.781521131312281</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.068620606381528</v>
+        <v>1.096134394174198</v>
       </c>
       <c r="R24" t="n">
-        <v>15.57288200631804</v>
+        <v>11.40210435183037</v>
       </c>
       <c r="S24" t="n">
-        <v>1.186693290893668</v>
+        <v>1.147459541987225</v>
       </c>
       <c r="T24" t="n">
-        <v>2.314882463361826</v>
+        <v>2.417011153542355</v>
       </c>
       <c r="U24" t="n">
-        <v>1.760524250542706</v>
+        <v>1.705710747230269</v>
       </c>
       <c r="V24" t="n">
-        <v>3.416278167435292</v>
+        <v>2.835768119544907</v>
       </c>
       <c r="W24" t="n">
-        <v>1.4138596348207</v>
+        <v>1.54473110702451</v>
       </c>
       <c r="X24" t="n">
-        <v>3.767521925158507</v>
+        <v>4.002321335457702</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.361334084080554</v>
+        <v>1.333075606594772</v>
       </c>
       <c r="Z24" t="n">
-        <v>6.440261614383041</v>
+        <v>4.994372258143498</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.183814689601725</v>
+        <v>1.250352229430108</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.862980414779464</v>
+        <v>7.427262558840952</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.170561715928504</v>
+        <v>1.155587233420931</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.71578854264991</v>
+        <v>9.898400862029797</v>
       </c>
       <c r="AE24" t="n">
-        <v>1.078642389864058</v>
+        <v>1.112379742776826</v>
       </c>
     </row>
     <row r="25">
@@ -2981,85 +2981,85 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.781595645891238</v>
+        <v>2.916747941119397</v>
       </c>
       <c r="F25" t="n">
-        <v>7.837123353704357</v>
+        <v>7.866147260276521</v>
       </c>
       <c r="G25" t="n">
-        <v>1.949711945172339</v>
+        <v>1.886702129692933</v>
       </c>
       <c r="H25" t="n">
-        <v>4.063501803771715</v>
+        <v>4.318539230340339</v>
       </c>
       <c r="I25" t="n">
-        <v>1.624007799897829</v>
+        <v>1.666793113622248</v>
       </c>
       <c r="J25" t="n">
-        <v>2.60254407102561</v>
+        <v>2.499715548302019</v>
       </c>
       <c r="K25" t="n">
-        <v>1.326423832611693</v>
+        <v>1.301337404981481</v>
       </c>
       <c r="L25" t="n">
-        <v>6.426820089626299</v>
+        <v>6.933649333688003</v>
       </c>
       <c r="M25" t="n">
-        <v>1.365703431973173</v>
+        <v>1.390631298487454</v>
       </c>
       <c r="N25" t="n">
-        <v>3.734456153732125</v>
+        <v>3.559958722898179</v>
       </c>
       <c r="O25" t="n">
-        <v>1.184269974586326</v>
+        <v>1.168530350171276</v>
       </c>
       <c r="P25" t="n">
-        <v>11.03276165615339</v>
+        <v>12.09969701510672</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.209068434833474</v>
+        <v>1.223631969042839</v>
       </c>
       <c r="R25" t="n">
-        <v>5.783122812377261</v>
+        <v>5.471632585806364</v>
       </c>
       <c r="S25" t="n">
-        <v>1.099673453259669</v>
+        <v>1.090092549250578</v>
       </c>
       <c r="T25" t="n">
-        <v>2.100406564302203</v>
+        <v>2.203646257421247</v>
       </c>
       <c r="U25" t="n">
-        <v>1.908755029677714</v>
+        <v>1.830808880793972</v>
       </c>
       <c r="V25" t="n">
-        <v>1.706454281483715</v>
+        <v>1.698905339167943</v>
       </c>
       <c r="W25" t="n">
-        <v>2.415519767110439</v>
+        <v>2.430808929275764</v>
       </c>
       <c r="X25" t="n">
-        <v>3.284215096962412</v>
+        <v>3.51516950429364</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.437787142432347</v>
+        <v>1.397587517776795</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.433400245311607</v>
+        <v>2.417587978784983</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.697641850746725</v>
+        <v>1.7054235891991</v>
       </c>
       <c r="AB25" t="n">
-        <v>5.729374934658539</v>
+        <v>6.266223733104001</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.211444432682138</v>
+        <v>1.189889387667657</v>
       </c>
       <c r="AD25" t="n">
-        <v>3.837532848499966</v>
+        <v>3.803783816513742</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.352418827689921</v>
+        <v>1.356660878813193</v>
       </c>
     </row>
     <row r="26">
@@ -3084,85 +3084,85 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.256668288432168</v>
+        <v>1.444901670389981</v>
       </c>
       <c r="F26" t="n">
-        <v>12.34344135375082</v>
+        <v>8.796949090950847</v>
       </c>
       <c r="G26" t="n">
-        <v>8.114882400793705</v>
+        <v>5.148386598436098</v>
       </c>
       <c r="H26" t="n">
-        <v>1.449383048810964</v>
+        <v>1.795770306724668</v>
       </c>
       <c r="I26" t="n">
-        <v>1.072817102731415</v>
+        <v>1.12441908732852</v>
       </c>
       <c r="J26" t="n">
-        <v>14.73303746632828</v>
+        <v>9.037351996961409</v>
       </c>
       <c r="K26" t="n">
-        <v>3.225273077491304</v>
+        <v>2.256644023469443</v>
       </c>
       <c r="L26" t="n">
-        <v>1.765406994622295</v>
+        <v>2.404161077195266</v>
       </c>
       <c r="M26" t="n">
-        <v>1.035276905125758</v>
+        <v>1.060236100701441</v>
       </c>
       <c r="N26" t="n">
-        <v>29.3471579050126</v>
+        <v>17.60134019890304</v>
       </c>
       <c r="O26" t="n">
-        <v>2.306494462457153</v>
+        <v>1.712169006989885</v>
       </c>
       <c r="P26" t="n">
-        <v>2.287232457405177</v>
+        <v>3.487363712153682</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.015837262031239</v>
+        <v>1.027019398001626</v>
       </c>
       <c r="R26" t="n">
-        <v>64.14222736401592</v>
+        <v>38.01044708471408</v>
       </c>
       <c r="S26" t="n">
-        <v>1.77686046078718</v>
+        <v>1.402032077220484</v>
       </c>
       <c r="T26" t="n">
-        <v>1.299212629878402</v>
+        <v>1.739864656618967</v>
       </c>
       <c r="U26" t="n">
-        <v>4.342104911836088</v>
+        <v>2.351598553943366</v>
       </c>
       <c r="V26" t="n">
-        <v>3.992502419272927</v>
+        <v>4.770235479762145</v>
       </c>
       <c r="W26" t="n">
-        <v>1.334168485064405</v>
+        <v>1.265235422394117</v>
       </c>
       <c r="X26" t="n">
-        <v>1.606741258059263</v>
+        <v>2.503609460765237</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.648149003742755</v>
+        <v>1.665066312825052</v>
       </c>
       <c r="Z26" t="n">
-        <v>7.94686289754767</v>
+        <v>10.07870741833349</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.143949868415139</v>
+        <v>1.110147838664853</v>
       </c>
       <c r="AB26" t="n">
-        <v>2.15414315204475</v>
+        <v>3.988052947515606</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.866443645425041</v>
+        <v>1.334666091118446</v>
       </c>
       <c r="AD26" t="n">
-        <v>17.91807994310629</v>
+        <v>24.18579634029519</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.059108362376989</v>
+        <v>1.043129853524249</v>
       </c>
     </row>
     <row r="27">
@@ -3187,85 +3187,85 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.226584611365943</v>
+        <v>1.196266606358978</v>
       </c>
       <c r="F27" t="n">
-        <v>13.69091925882421</v>
+        <v>14.70360022387592</v>
       </c>
       <c r="G27" t="n">
-        <v>8.953596861892818</v>
+        <v>10.41066028895995</v>
       </c>
       <c r="H27" t="n">
-        <v>1.391528010793769</v>
+        <v>1.345668924646057</v>
       </c>
       <c r="I27" t="n">
-        <v>1.066124394209475</v>
+        <v>1.054199814448806</v>
       </c>
       <c r="J27" t="n">
-        <v>16.12301189228442</v>
+        <v>19.45024766541474</v>
       </c>
       <c r="K27" t="n">
-        <v>3.554095677529273</v>
+        <v>3.892941565470304</v>
       </c>
       <c r="L27" t="n">
-        <v>1.657527917074839</v>
+        <v>1.588670742362505</v>
       </c>
       <c r="M27" t="n">
-        <v>1.032603293925576</v>
+        <v>1.025768540895089</v>
       </c>
       <c r="N27" t="n">
-        <v>31.67174753209653</v>
+        <v>39.80700906082682</v>
       </c>
       <c r="O27" t="n">
-        <v>2.52084797319135</v>
+        <v>2.698742485462608</v>
       </c>
       <c r="P27" t="n">
-        <v>2.088307751651774</v>
+        <v>1.983489953959051</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.014941645022878</v>
+        <v>1.011329960599527</v>
       </c>
       <c r="R27" t="n">
-        <v>67.92703503990755</v>
+        <v>89.2615602424698</v>
       </c>
       <c r="S27" t="n">
-        <v>1.918857738982613</v>
+        <v>2.016787203544365</v>
       </c>
       <c r="T27" t="n">
-        <v>1.210118995244397</v>
+        <v>1.217136288077348</v>
       </c>
       <c r="U27" t="n">
-        <v>5.759207985155571</v>
+        <v>5.605402481798821</v>
       </c>
       <c r="V27" t="n">
-        <v>3.412357400366559</v>
+        <v>4.083034212879504</v>
       </c>
       <c r="W27" t="n">
-        <v>1.414532274466482</v>
+        <v>1.324355790740972</v>
       </c>
       <c r="X27" t="n">
-        <v>1.431861750255443</v>
+        <v>1.445603292787417</v>
       </c>
       <c r="Y27" t="n">
-        <v>3.315555844916823</v>
+        <v>3.244148587288533</v>
       </c>
       <c r="Z27" t="n">
-        <v>6.430243195187749</v>
+        <v>8.189461134865875</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.184153814857904</v>
+        <v>1.139092482905349</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.820700509240372</v>
+        <v>1.846618701244902</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.218471280011248</v>
+        <v>2.181169277892822</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.68856336683554</v>
+        <v>18.6134904240254</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.078811128658878</v>
+        <v>1.056774663960754</v>
       </c>
     </row>
     <row r="28">
@@ -3290,91 +3290,91 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.531441508218451</v>
+        <v>4.579963848920398</v>
       </c>
       <c r="F28" t="n">
-        <v>9.092812146774564</v>
+        <v>9.320767948062867</v>
       </c>
       <c r="G28" t="n">
-        <v>1.494003011126019</v>
+        <v>1.482864679815116</v>
       </c>
       <c r="H28" t="n">
-        <v>7.391113090219253</v>
+        <v>7.413536541604162</v>
       </c>
       <c r="I28" t="n">
-        <v>2.187222394497526</v>
+        <v>2.225501472068745</v>
       </c>
       <c r="J28" t="n">
-        <v>1.842302170709335</v>
+        <v>1.815992491883277</v>
       </c>
       <c r="K28" t="n">
-        <v>1.156467267263721</v>
+        <v>1.155920215549264</v>
       </c>
       <c r="L28" t="n">
-        <v>13.15869953036086</v>
+        <v>13.06121166874811</v>
       </c>
       <c r="M28" t="n">
-        <v>1.702197442493762</v>
+        <v>1.73154870246452</v>
       </c>
       <c r="N28" t="n">
-        <v>2.424100885996724</v>
+        <v>2.366962987742429</v>
       </c>
       <c r="O28" t="n">
-        <v>1.082245637989734</v>
+        <v>1.082910409622534</v>
       </c>
       <c r="P28" t="n">
-        <v>25.59887154020417</v>
+        <v>25.08156761340341</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.41284348064727</v>
+        <v>1.434399525693922</v>
       </c>
       <c r="R28" t="n">
-        <v>3.422225484661078</v>
+        <v>3.302028296192479</v>
       </c>
       <c r="S28" t="n">
-        <v>1.04065227131926</v>
+        <v>1.041525535880954</v>
       </c>
       <c r="T28" t="n">
-        <v>2.903103580231359</v>
+        <v>2.689469243573419</v>
       </c>
       <c r="U28" t="n">
-        <v>1.525457473984906</v>
+        <v>1.591901867289923</v>
       </c>
       <c r="V28" t="n">
-        <v>1.478531661416006</v>
+        <v>1.416902294449519</v>
       </c>
       <c r="W28" t="n">
-        <v>3.089725885724959</v>
+        <v>3.398643551051711</v>
       </c>
       <c r="X28" t="n">
-        <v>5.158056438542981</v>
+        <v>4.642615148348021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.240496976118585</v>
+        <v>1.274528040782325</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.964312864770857</v>
+        <v>1.840371390135172</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.037007838983485</v>
+        <v>2.189950076524085</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.31852179922797</v>
+        <v>9.006984830178284</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.107313157767453</v>
+        <v>1.124890957234115</v>
       </c>
       <c r="AD28" t="n">
-        <v>2.861172205022023</v>
+        <v>2.612279420252841</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.537295795252953</v>
+        <v>1.620239883632068</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3384,100 +3384,100 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>bahia</t>
+          <t>américa-mg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>santos</t>
+          <t>red bull bragantino</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.228568679804165</v>
+        <v>4.19834239242808</v>
       </c>
       <c r="F29" t="n">
-        <v>13.62325947720341</v>
+        <v>9.138080268381989</v>
       </c>
       <c r="G29" t="n">
-        <v>8.877776427422909</v>
+        <v>1.532852287140679</v>
       </c>
       <c r="H29" t="n">
-        <v>1.394711705847992</v>
+        <v>6.625174820718067</v>
       </c>
       <c r="I29" t="n">
-        <v>1.066834138851545</v>
+        <v>2.122441583302304</v>
       </c>
       <c r="J29" t="n">
-        <v>15.96241317960635</v>
+        <v>1.890914961523367</v>
       </c>
       <c r="K29" t="n">
-        <v>3.533494662519872</v>
+        <v>1.177772252751488</v>
       </c>
       <c r="L29" t="n">
-        <v>1.662622181209103</v>
+        <v>11.3402700739333</v>
       </c>
       <c r="M29" t="n">
-        <v>1.032996489019833</v>
+        <v>1.675082909863918</v>
       </c>
       <c r="N29" t="n">
-        <v>31.30625468664046</v>
+        <v>2.481299534306947</v>
       </c>
       <c r="O29" t="n">
-        <v>2.509155637040817</v>
+        <v>1.096709272857475</v>
       </c>
       <c r="P29" t="n">
-        <v>2.096575041907802</v>
+        <v>21.09604466083879</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.015144377600795</v>
+        <v>1.402783610637014</v>
       </c>
       <c r="R29" t="n">
-        <v>67.03110582421631</v>
+        <v>3.482722666938883</v>
       </c>
       <c r="S29" t="n">
-        <v>1.911930293671665</v>
+        <v>1.049761035909156</v>
       </c>
       <c r="T29" t="n">
-        <v>1.211128865389927</v>
+        <v>2.396352826598013</v>
       </c>
       <c r="U29" t="n">
-        <v>5.736443774057765</v>
+        <v>1.716151377325126</v>
       </c>
       <c r="V29" t="n">
-        <v>3.39480167968372</v>
+        <v>1.399875531239303</v>
       </c>
       <c r="W29" t="n">
-        <v>1.417571111830884</v>
+        <v>3.500778171899587</v>
       </c>
       <c r="X29" t="n">
-        <v>1.433839202071947</v>
+        <v>3.954591081181775</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.305001473412637</v>
+        <v>1.338456311727585</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.385424802886438</v>
+        <v>1.806333935917271</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.185686373239123</v>
+        <v>2.240180966540144</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.824427390337794</v>
+        <v>7.311871683423369</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.212963096228849</v>
+        <v>1.158431611121985</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.56689277770571</v>
+        <v>2.544628881075444</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.079574165045321</v>
+        <v>1.647404701706569</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>18/09/2023</t>
+          <t>19/09/2023</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3487,100 +3487,100 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>corinthians</t>
+          <t>vasco da gama</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>grêmio</t>
+          <t>coritiba</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.391457416613515</v>
+        <v>1.499032751147369</v>
       </c>
       <c r="F30" t="n">
-        <v>7.816733088870117</v>
+        <v>8.32198806433742</v>
       </c>
       <c r="G30" t="n">
-        <v>2.203059202860209</v>
+        <v>4.700582905311083</v>
       </c>
       <c r="H30" t="n">
-        <v>3.349181185597883</v>
+        <v>1.896093532143453</v>
       </c>
       <c r="I30" t="n">
-        <v>1.49442771254118</v>
+        <v>1.139769359878313</v>
       </c>
       <c r="J30" t="n">
-        <v>3.022540352482186</v>
+        <v>8.15464391387804</v>
       </c>
       <c r="K30" t="n">
-        <v>1.425680235364857</v>
+        <v>2.115954935650526</v>
       </c>
       <c r="L30" t="n">
-        <v>5.05382434109153</v>
+        <v>2.593503577087615</v>
       </c>
       <c r="M30" t="n">
-        <v>1.288937868516328</v>
+        <v>1.06794469593028</v>
       </c>
       <c r="N30" t="n">
-        <v>4.460951674956686</v>
+        <v>15.71785231074006</v>
       </c>
       <c r="O30" t="n">
-        <v>1.246680644216257</v>
+        <v>1.627548010797479</v>
       </c>
       <c r="P30" t="n">
-        <v>8.243939678442034</v>
+        <v>3.856881634765622</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.163717624046797</v>
+        <v>1.030638876073025</v>
       </c>
       <c r="R30" t="n">
-        <v>7.10807789217707</v>
+        <v>33.63827294501827</v>
       </c>
       <c r="S30" t="n">
-        <v>1.138046428378745</v>
+        <v>1.350032002667146</v>
       </c>
       <c r="T30" t="n">
-        <v>1.834146228920247</v>
+        <v>1.864542537744072</v>
       </c>
       <c r="U30" t="n">
-        <v>2.198830571103152</v>
+        <v>2.156681084321646</v>
       </c>
       <c r="V30" t="n">
-        <v>1.75305642865509</v>
+        <v>4.785203457408847</v>
       </c>
       <c r="W30" t="n">
-        <v>2.327921735939411</v>
+        <v>1.264186591619714</v>
       </c>
       <c r="X30" t="n">
-        <v>2.703716570456488</v>
+        <v>2.768849048015777</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.586952088945207</v>
+        <v>1.565339366364676</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.53143254057808</v>
+        <v>10.12075209266279</v>
       </c>
       <c r="AA30" t="n">
-        <v>1.652983382227547</v>
+        <v>1.109640081195108</v>
       </c>
       <c r="AB30" t="n">
-        <v>4.422881635116434</v>
+        <v>4.566213831658513</v>
       </c>
       <c r="AC30" t="n">
-        <v>1.292151498825049</v>
+        <v>1.280409433422824</v>
       </c>
       <c r="AD30" t="n">
-        <v>4.048000835285617</v>
+        <v>24.31275937208328</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.328083899591942</v>
+        <v>1.042894965115004</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>19/09/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3590,100 +3590,100 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>américa-mg</t>
+          <t>são paulo</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>red bull bragantino</t>
+          <t>fortaleza</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4.242895696866269</v>
+        <v>1.951603094541535</v>
       </c>
       <c r="F31" t="n">
-        <v>9.001301059565357</v>
+        <v>7.16789736280308</v>
       </c>
       <c r="G31" t="n">
-        <v>1.530885175968164</v>
+        <v>2.872821862791667</v>
       </c>
       <c r="H31" t="n">
-        <v>6.770985429228261</v>
+        <v>2.689757755409868</v>
       </c>
       <c r="I31" t="n">
-        <v>2.116185248878931</v>
+        <v>1.293393904820815</v>
       </c>
       <c r="J31" t="n">
-        <v>1.895908632553938</v>
+        <v>4.408387098602924</v>
       </c>
       <c r="K31" t="n">
-        <v>1.173280631577288</v>
+        <v>1.591800805055302</v>
       </c>
       <c r="L31" t="n">
-        <v>11.75429691165642</v>
+        <v>4.041517765496812</v>
       </c>
       <c r="M31" t="n">
-        <v>1.665404133497675</v>
+        <v>1.155253586780203</v>
       </c>
       <c r="N31" t="n">
-        <v>2.502846089553928</v>
+        <v>7.441075022735102</v>
       </c>
       <c r="O31" t="n">
-        <v>1.092986088092483</v>
+        <v>1.328783218478639</v>
       </c>
       <c r="P31" t="n">
-        <v>22.23151163847099</v>
+        <v>6.641627159962835</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.393535210923863</v>
+        <v>1.077927392490986</v>
       </c>
       <c r="R31" t="n">
-        <v>3.541068682653325</v>
+        <v>13.83245811305273</v>
       </c>
       <c r="S31" t="n">
-        <v>1.04709980226693</v>
+        <v>1.177253826182762</v>
       </c>
       <c r="T31" t="n">
-        <v>2.600107201975876</v>
+        <v>2.272863770830983</v>
       </c>
       <c r="U31" t="n">
-        <v>1.624958127033714</v>
+        <v>1.785630028064319</v>
       </c>
       <c r="V31" t="n">
-        <v>1.451062848949653</v>
+        <v>3.09327222729123</v>
       </c>
       <c r="W31" t="n">
-        <v>3.216985952907903</v>
+        <v>1.477720951418744</v>
       </c>
       <c r="X31" t="n">
-        <v>4.430440280082625</v>
+        <v>3.671776874779108</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.291507771117914</v>
+        <v>1.374282751467664</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.908924897587009</v>
+        <v>5.626197415159251</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.100200910608539</v>
+        <v>1.216160252202635</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.477160848204246</v>
+        <v>6.635351669584449</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.133740602924192</v>
+        <v>1.177451214872228</v>
       </c>
       <c r="AD31" t="n">
-        <v>2.749453343822806</v>
+        <v>11.53773404108687</v>
       </c>
       <c r="AE31" t="n">
-        <v>1.571607127181144</v>
+        <v>1.094897061939595</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>19/09/2023</t>
+          <t>20/09/2023</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3693,94 +3693,94 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>vasco da gama</t>
+          <t>goiás</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>coritiba</t>
+          <t>flamengo</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.518661016344501</v>
+        <v>2.232160813324713</v>
       </c>
       <c r="F32" t="n">
-        <v>8.215430028254628</v>
+        <v>7.40171561875123</v>
       </c>
       <c r="G32" t="n">
-        <v>4.549527771963183</v>
+        <v>2.398657953379985</v>
       </c>
       <c r="H32" t="n">
-        <v>1.929857236168166</v>
+        <v>3.135059485024102</v>
       </c>
       <c r="I32" t="n">
-        <v>1.146394924542444</v>
+        <v>1.410915217719024</v>
       </c>
       <c r="J32" t="n">
-        <v>7.830837907294174</v>
+        <v>3.433592032806581</v>
       </c>
       <c r="K32" t="n">
-        <v>2.075433906521913</v>
+        <v>1.468371025263828</v>
       </c>
       <c r="L32" t="n">
-        <v>2.653259954997265</v>
+        <v>4.775911823019935</v>
       </c>
       <c r="M32" t="n">
-        <v>1.071603016330377</v>
+        <v>1.230452705244083</v>
       </c>
       <c r="N32" t="n">
-        <v>14.96589209853931</v>
+        <v>5.33928514287065</v>
       </c>
       <c r="O32" t="n">
-        <v>1.604865554855621</v>
+        <v>1.26483669292897</v>
       </c>
       <c r="P32" t="n">
-        <v>3.967413386792087</v>
+        <v>7.914252018451003</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.032530214713429</v>
+        <v>1.124340088585685</v>
       </c>
       <c r="R32" t="n">
-        <v>31.74065169287655</v>
+        <v>9.042458481207229</v>
       </c>
       <c r="S32" t="n">
-        <v>1.336993829188405</v>
+        <v>1.144628804002436</v>
       </c>
       <c r="T32" t="n">
-        <v>1.882755213289317</v>
+        <v>2.099060308808768</v>
       </c>
       <c r="U32" t="n">
-        <v>2.132816872611612</v>
+        <v>1.909868177374055</v>
       </c>
       <c r="V32" t="n">
-        <v>4.641436195363752</v>
+        <v>2.203187966760489</v>
       </c>
       <c r="W32" t="n">
-        <v>1.274616922101558</v>
+        <v>1.831125333386137</v>
       </c>
       <c r="X32" t="n">
-        <v>2.808017693417883</v>
+        <v>3.281224573711961</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.553091932474177</v>
+        <v>1.438361050255048</v>
       </c>
       <c r="Z32" t="n">
-        <v>9.718438715179696</v>
+        <v>3.514137272646043</v>
       </c>
       <c r="AA32" t="n">
-        <v>1.114699435606389</v>
+        <v>1.397750755648889</v>
       </c>
       <c r="AB32" t="n">
-        <v>4.652823041233455</v>
+        <v>5.722484118509218</v>
       </c>
       <c r="AC32" t="n">
-        <v>1.273760866242874</v>
+        <v>1.211752961980458</v>
       </c>
       <c r="AD32" t="n">
-        <v>23.10291941649784</v>
+        <v>6.263804155265768</v>
       </c>
       <c r="AE32" t="n">
-        <v>1.045242892178921</v>
+        <v>1.189976672859234</v>
       </c>
     </row>
     <row r="33">
@@ -3796,100 +3796,100 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>são paulo</t>
+          <t>fluminense</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>fortaleza</t>
+          <t>cruzeiro</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.889123189880085</v>
+        <v>1.741117061732129</v>
       </c>
       <c r="F33" t="n">
-        <v>7.244051373835008</v>
+        <v>8.056795684654849</v>
       </c>
       <c r="G33" t="n">
-        <v>3.006527805349357</v>
+        <v>3.316339791593403</v>
       </c>
       <c r="H33" t="n">
-        <v>2.576570880663251</v>
+        <v>2.258901620316785</v>
       </c>
       <c r="I33" t="n">
-        <v>1.27289425013224</v>
+        <v>1.245378064163562</v>
       </c>
       <c r="J33" t="n">
-        <v>4.664423121833523</v>
+        <v>5.075343912296213</v>
       </c>
       <c r="K33" t="n">
-        <v>1.634288005864543</v>
+        <v>1.794343246415366</v>
       </c>
       <c r="L33" t="n">
-        <v>3.826779590097049</v>
+        <v>3.146673418225226</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14357251283776</v>
+        <v>1.134215556589062</v>
       </c>
       <c r="N33" t="n">
-        <v>7.965121528032472</v>
+        <v>8.450701136394926</v>
       </c>
       <c r="O33" t="n">
-        <v>1.353759452453691</v>
+        <v>1.465837044195924</v>
       </c>
       <c r="P33" t="n">
-        <v>6.210433897691788</v>
+        <v>4.727219678901088</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.07149776265315</v>
+        <v>1.069753583909567</v>
       </c>
       <c r="R33" t="n">
-        <v>14.98645164396541</v>
+        <v>15.33618093797813</v>
       </c>
       <c r="S33" t="n">
-        <v>1.191922596013165</v>
+        <v>1.26829650145409</v>
       </c>
       <c r="T33" t="n">
-        <v>2.2042589716956</v>
+        <v>1.653320812888553</v>
       </c>
       <c r="U33" t="n">
-        <v>1.830386173990464</v>
+        <v>2.530641578030646</v>
       </c>
       <c r="V33" t="n">
-        <v>3.188648265493155</v>
+        <v>2.460671694914673</v>
       </c>
       <c r="W33" t="n">
-        <v>1.456903018984951</v>
+        <v>1.684616538734542</v>
       </c>
       <c r="X33" t="n">
-        <v>3.516549648788703</v>
+        <v>2.322507439584453</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.3973694699333</v>
+        <v>1.756139413714157</v>
       </c>
       <c r="Z33" t="n">
-        <v>5.864151500256875</v>
+        <v>4.103584987062113</v>
       </c>
       <c r="AA33" t="n">
-        <v>1.205585701832517</v>
+        <v>1.322208028511767</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.269459105600862</v>
+        <v>3.602036166161751</v>
       </c>
       <c r="AC33" t="n">
-        <v>1.189772798300514</v>
+        <v>1.384314412306995</v>
       </c>
       <c r="AD33" t="n">
-        <v>12.16704058089681</v>
+        <v>7.67320113012422</v>
       </c>
       <c r="AE33" t="n">
-        <v>1.089549240262516</v>
+        <v>1.149853118540934</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3899,100 +3899,100 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>goiás</t>
+          <t>athletico-pr</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>flamengo</t>
+          <t>internacional</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3.095527336609438</v>
+        <v>1.249444773310343</v>
       </c>
       <c r="F34" t="n">
-        <v>8.583928967768681</v>
+        <v>12.79676548228217</v>
       </c>
       <c r="G34" t="n">
-        <v>1.784259812608156</v>
+        <v>8.230469603827625</v>
       </c>
       <c r="H34" t="n">
-        <v>4.505822161138225</v>
+        <v>1.431915626725948</v>
       </c>
       <c r="I34" t="n">
-        <v>1.781878876507784</v>
+        <v>1.072717077302259</v>
       </c>
       <c r="J34" t="n">
-        <v>2.278970477456099</v>
+        <v>14.75192784280031</v>
       </c>
       <c r="K34" t="n">
-        <v>1.285239796554692</v>
+        <v>3.315267006151883</v>
       </c>
       <c r="L34" t="n">
-        <v>7.048685094928046</v>
+        <v>1.728002010117912</v>
       </c>
       <c r="M34" t="n">
-        <v>1.476818632464644</v>
+        <v>1.035849122658209</v>
       </c>
       <c r="N34" t="n">
-        <v>3.097233480225102</v>
+        <v>28.8946854441643</v>
       </c>
       <c r="O34" t="n">
-        <v>1.165325187922003</v>
+        <v>2.373622580847041</v>
       </c>
       <c r="P34" t="n">
-        <v>11.89418843067251</v>
+        <v>2.211602334602</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.285472203850156</v>
+        <v>1.016424090974533</v>
       </c>
       <c r="R34" t="n">
-        <v>4.502968017596906</v>
+        <v>61.88617029402818</v>
       </c>
       <c r="S34" t="n">
-        <v>1.091792060176278</v>
+        <v>1.825353312255287</v>
       </c>
       <c r="T34" t="n">
-        <v>1.7759223734226</v>
+        <v>1.249348222740536</v>
       </c>
       <c r="U34" t="n">
-        <v>2.288788716826133</v>
+        <v>5.010455695289107</v>
       </c>
       <c r="V34" t="n">
-        <v>1.389453552108861</v>
+        <v>3.535058814893459</v>
       </c>
       <c r="W34" t="n">
-        <v>3.567700293359955</v>
+        <v>1.394468165442555</v>
       </c>
       <c r="X34" t="n">
-        <v>2.579795505316267</v>
+        <v>1.508729477886279</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.632993318840849</v>
+        <v>2.965681257856144</v>
       </c>
       <c r="Z34" t="n">
-        <v>1.785541921196089</v>
+        <v>6.745314389266628</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.27300653601958</v>
+        <v>1.174054878853661</v>
       </c>
       <c r="AB34" t="n">
-        <v>4.152601740292029</v>
+        <v>1.966288189122317</v>
       </c>
       <c r="AC34" t="n">
-        <v>1.317198327723872</v>
+        <v>2.034887946740096</v>
       </c>
       <c r="AD34" t="n">
-        <v>2.503454717471127</v>
+        <v>14.54954506508962</v>
       </c>
       <c r="AE34" t="n">
-        <v>1.66513476487143</v>
+        <v>1.073803215915824</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20/09/2023</t>
+          <t>21/09/2023</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4002,100 +4002,100 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>fluminense</t>
+          <t>grêmio</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>cruzeiro</t>
+          <t>palmeiras</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.728134943938299</v>
+        <v>4.72175822557251</v>
       </c>
       <c r="F35" t="n">
-        <v>8.163104547646373</v>
+        <v>9.375964454450678</v>
       </c>
       <c r="G35" t="n">
-        <v>3.346282635213128</v>
+        <v>1.467224859594132</v>
       </c>
       <c r="H35" t="n">
-        <v>2.230524143139671</v>
+        <v>7.717950774264067</v>
       </c>
       <c r="I35" t="n">
-        <v>1.243444257705313</v>
+        <v>2.260722863089056</v>
       </c>
       <c r="J35" t="n">
-        <v>5.107716523798603</v>
+        <v>1.793195736571139</v>
       </c>
       <c r="K35" t="n">
-        <v>1.812661828355931</v>
+        <v>1.148854916268651</v>
       </c>
       <c r="L35" t="n">
-        <v>3.0863314589773</v>
+        <v>13.75081012937343</v>
       </c>
       <c r="M35" t="n">
-        <v>1.133866117303287</v>
+        <v>1.749967979378142</v>
       </c>
       <c r="N35" t="n">
-        <v>8.470150177990178</v>
+        <v>2.333390261313796</v>
       </c>
       <c r="O35" t="n">
-        <v>1.479310224507755</v>
+        <v>1.078426389370848</v>
       </c>
       <c r="P35" t="n">
-        <v>4.598866897815891</v>
+        <v>26.73700371599431</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.069981811942432</v>
+        <v>1.444207738207907</v>
       </c>
       <c r="R35" t="n">
-        <v>15.28942709889569</v>
+        <v>3.251198963877479</v>
       </c>
       <c r="S35" t="n">
-        <v>1.277865236029398</v>
+        <v>1.038854561744441</v>
       </c>
       <c r="T35" t="n">
-        <v>1.604764903950565</v>
+        <v>2.823362175209932</v>
       </c>
       <c r="U35" t="n">
-        <v>2.653535106729247</v>
+        <v>1.548437394169847</v>
       </c>
       <c r="V35" t="n">
-        <v>2.3782153185774</v>
+        <v>1.427297067860449</v>
       </c>
       <c r="W35" t="n">
-        <v>1.725576030479914</v>
+        <v>3.340292211709234</v>
       </c>
       <c r="X35" t="n">
-        <v>2.221989446975765</v>
+        <v>4.964336209244906</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.818337672616442</v>
+        <v>1.252249039238393</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.912782995617401</v>
+        <v>1.861193848542312</v>
       </c>
       <c r="AA35" t="n">
-        <v>1.343314281051698</v>
+        <v>2.161178753996718</v>
       </c>
       <c r="AB35" t="n">
-        <v>3.391013881778082</v>
+        <v>9.821668580861846</v>
       </c>
       <c r="AC35" t="n">
-        <v>1.418232619902795</v>
+        <v>1.113357239714202</v>
       </c>
       <c r="AD35" t="n">
-        <v>7.211081451190083</v>
+        <v>2.653814930631878</v>
       </c>
       <c r="AE35" t="n">
-        <v>1.161002557744335</v>
+        <v>1.604662578307917</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>21/09/2023</t>
+          <t>22/09/2023</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4105,94 +4105,94 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>athletico-pr</t>
+          <t>corinthians</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>internacional</t>
+          <t>botafogo</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1.234211121461765</v>
+        <v>3.801304936173115</v>
       </c>
       <c r="F36" t="n">
-        <v>13.28543562867453</v>
+        <v>8.956227373363765</v>
       </c>
       <c r="G36" t="n">
-        <v>8.733971281761097</v>
+        <v>1.599287897973735</v>
       </c>
       <c r="H36" t="n">
-        <v>1.406662461785406</v>
+        <v>5.830430519453442</v>
       </c>
       <c r="I36" t="n">
-        <v>1.067597214404246</v>
+        <v>2.009230937914256</v>
       </c>
       <c r="J36" t="n">
-        <v>15.79350900496844</v>
+        <v>1.990853492924688</v>
       </c>
       <c r="K36" t="n">
-        <v>3.459041819620166</v>
+        <v>1.207020884778848</v>
       </c>
       <c r="L36" t="n">
-        <v>1.686248466043054</v>
+        <v>9.664325304123047</v>
       </c>
       <c r="M36" t="n">
-        <v>1.033096414453598</v>
+        <v>1.611623959629223</v>
       </c>
       <c r="N36" t="n">
-        <v>31.21475336556592</v>
+        <v>2.63499154056394</v>
       </c>
       <c r="O36" t="n">
-        <v>2.457198157055352</v>
+        <v>1.115415795794756</v>
       </c>
       <c r="P36" t="n">
-        <v>2.141647703317963</v>
+        <v>17.35661488065502</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.015044795558793</v>
+        <v>1.366515430743432</v>
       </c>
       <c r="R36" t="n">
-        <v>67.46816808457821</v>
+        <v>3.728398086737091</v>
       </c>
       <c r="S36" t="n">
-        <v>1.8759269581095</v>
+        <v>1.061137344572605</v>
       </c>
       <c r="T36" t="n">
-        <v>1.235758183852575</v>
+        <v>2.123064625548853</v>
       </c>
       <c r="U36" t="n">
-        <v>5.24163430366992</v>
+        <v>1.890420708880657</v>
       </c>
       <c r="V36" t="n">
-        <v>3.611221170670556</v>
+        <v>1.382683203362396</v>
       </c>
       <c r="W36" t="n">
-        <v>1.382962581351622</v>
+        <v>3.613127493481892</v>
       </c>
       <c r="X36" t="n">
-        <v>1.48208446787448</v>
+        <v>3.334629202033757</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.074325282473877</v>
+        <v>1.42833354398586</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.942462600791217</v>
+        <v>1.772051783557892</v>
       </c>
       <c r="AA36" t="n">
-        <v>1.168280402785682</v>
+        <v>2.295249905895743</v>
       </c>
       <c r="AB36" t="n">
-        <v>1.915653476792428</v>
+        <v>5.845776590615127</v>
       </c>
       <c r="AC36" t="n">
-        <v>2.092116204814775</v>
+        <v>1.20636527113873</v>
       </c>
       <c r="AD36" t="n">
-        <v>15.09319168419172</v>
+        <v>2.476801725625896</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.070956247698078</v>
+        <v>1.677138970416751</v>
       </c>
     </row>
     <row r="37">
@@ -4217,85 +4217,85 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1.580756181439548</v>
+        <v>1.730672321723633</v>
       </c>
       <c r="F37" t="n">
-        <v>8.92809704574217</v>
+        <v>7.799436443533932</v>
       </c>
       <c r="G37" t="n">
-        <v>3.915650306532557</v>
+        <v>3.40164427214999</v>
       </c>
       <c r="H37" t="n">
-        <v>1.967266842986858</v>
+        <v>2.266833299251845</v>
       </c>
       <c r="I37" t="n">
-        <v>1.196817413298654</v>
+        <v>1.230812629847924</v>
       </c>
       <c r="J37" t="n">
-        <v>6.080851248068101</v>
+        <v>5.33251854830853</v>
       </c>
       <c r="K37" t="n">
-        <v>2.033840875711261</v>
+        <v>1.789369840996895</v>
       </c>
       <c r="L37" t="n">
-        <v>2.606037743325137</v>
+        <v>3.204545814109501</v>
       </c>
       <c r="M37" t="n">
-        <v>1.108359311449428</v>
+        <v>1.122611026486796</v>
       </c>
       <c r="N37" t="n">
-        <v>10.22855624148836</v>
+        <v>9.155873322760973</v>
       </c>
       <c r="O37" t="n">
-        <v>1.622650373041422</v>
+        <v>1.453608173438635</v>
       </c>
       <c r="P37" t="n">
-        <v>3.694442661264249</v>
+        <v>4.910174492538473</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056570948943095</v>
+        <v>1.061583381520586</v>
       </c>
       <c r="R37" t="n">
-        <v>18.67691754659977</v>
+        <v>17.23814696933644</v>
       </c>
       <c r="S37" t="n">
-        <v>1.371134266234782</v>
+        <v>1.255743062594325</v>
       </c>
       <c r="T37" t="n">
-        <v>1.412169204628156</v>
+        <v>1.823882029500602</v>
       </c>
       <c r="U37" t="n">
-        <v>3.426188052797793</v>
+        <v>2.21376600556047</v>
       </c>
       <c r="V37" t="n">
-        <v>2.271697945066003</v>
+        <v>2.933187979540472</v>
       </c>
       <c r="W37" t="n">
-        <v>1.786350252337711</v>
+        <v>1.517280269990974</v>
       </c>
       <c r="X37" t="n">
-        <v>1.830901016171018</v>
+        <v>2.681790379530771</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.203512789776367</v>
+        <v>1.594604424053731</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.669127623718562</v>
+        <v>5.231543727807751</v>
       </c>
       <c r="AA37" t="n">
-        <v>1.374654246995813</v>
+        <v>1.236320374861888</v>
       </c>
       <c r="AB37" t="n">
-        <v>2.593426091522097</v>
+        <v>4.37482589077099</v>
       </c>
       <c r="AC37" t="n">
-        <v>1.627578527376042</v>
+        <v>1.296311582394417</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.629074065124749</v>
+        <v>10.50820070708044</v>
       </c>
       <c r="AE37" t="n">
-        <v>1.177649110391984</v>
+        <v>1.105172369705588</v>
       </c>
     </row>
     <row r="38">
@@ -4320,85 +4320,85 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.445998298794004</v>
+        <v>3.029735968732794</v>
       </c>
       <c r="F38" t="n">
-        <v>8.700654553910205</v>
+        <v>8.084721277030972</v>
       </c>
       <c r="G38" t="n">
-        <v>1.681026983198692</v>
+        <v>1.83066987129905</v>
       </c>
       <c r="H38" t="n">
-        <v>5.168852287469418</v>
+        <v>4.489555690022643</v>
       </c>
       <c r="I38" t="n">
-        <v>1.891806237340683</v>
+        <v>1.718724622085847</v>
       </c>
       <c r="J38" t="n">
-        <v>2.121319809314123</v>
+        <v>2.3913534742943</v>
       </c>
       <c r="K38" t="n">
-        <v>1.239874174243535</v>
+        <v>1.286569434286206</v>
       </c>
       <c r="L38" t="n">
-        <v>8.362953826485986</v>
+        <v>7.199010098510745</v>
       </c>
       <c r="M38" t="n">
-        <v>1.540799489448878</v>
+        <v>1.426084023541771</v>
       </c>
       <c r="N38" t="n">
-        <v>2.849114171722104</v>
+        <v>3.346954930831771</v>
       </c>
       <c r="O38" t="n">
-        <v>1.135815057864794</v>
+        <v>1.161316078552646</v>
       </c>
       <c r="P38" t="n">
-        <v>14.63807414190524</v>
+        <v>12.52265028550422</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.323171428988157</v>
+        <v>1.247455288723295</v>
       </c>
       <c r="R38" t="n">
-        <v>4.094332946235316</v>
+        <v>5.041134077834162</v>
       </c>
       <c r="S38" t="n">
-        <v>1.073324135768359</v>
+        <v>1.086785589705697</v>
       </c>
       <c r="T38" t="n">
-        <v>1.98553221952866</v>
+        <v>2.108521182347184</v>
       </c>
       <c r="U38" t="n">
-        <v>2.014680169947421</v>
+        <v>1.902102743659439</v>
       </c>
       <c r="V38" t="n">
-        <v>1.403069094267252</v>
+        <v>1.591955947694139</v>
       </c>
       <c r="W38" t="n">
-        <v>3.480964217358124</v>
+        <v>2.689314895635945</v>
       </c>
       <c r="X38" t="n">
-        <v>3.031036657737484</v>
+        <v>3.302252249849802</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.492359404834165</v>
+        <v>1.434357269089536</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.812711499708587</v>
+        <v>2.195603649976393</v>
       </c>
       <c r="AA38" t="n">
-        <v>2.230448935887543</v>
+        <v>1.83639758043541</v>
       </c>
       <c r="AB38" t="n">
-        <v>5.151706012762853</v>
+        <v>5.770969876391728</v>
       </c>
       <c r="AC38" t="n">
-        <v>1.240864838918237</v>
+        <v>1.209600988039836</v>
       </c>
       <c r="AD38" t="n">
-        <v>2.5572812251431</v>
+        <v>3.336014880808135</v>
       </c>
       <c r="AE38" t="n">
-        <v>1.642144773759864</v>
+        <v>1.428079464825179</v>
       </c>
     </row>
     <row r="39">
@@ -4423,85 +4423,85 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.554639107777683</v>
+        <v>1.469554146497654</v>
       </c>
       <c r="F39" t="n">
-        <v>8.049864154921057</v>
+        <v>8.613253548446686</v>
       </c>
       <c r="G39" t="n">
-        <v>4.300368732185355</v>
+        <v>4.915904742528005</v>
       </c>
       <c r="H39" t="n">
-        <v>1.99132196059887</v>
+        <v>1.838366089715569</v>
       </c>
       <c r="I39" t="n">
-        <v>1.158787279971617</v>
+        <v>1.132556763152766</v>
       </c>
       <c r="J39" t="n">
-        <v>7.297733673495448</v>
+        <v>8.543937979592505</v>
       </c>
       <c r="K39" t="n">
-        <v>2.008754007018958</v>
+        <v>2.192796335953031</v>
       </c>
       <c r="L39" t="n">
-        <v>2.761500141861374</v>
+        <v>2.479503369978999</v>
       </c>
       <c r="M39" t="n">
-        <v>1.078538619178847</v>
+        <v>1.064658591365906</v>
       </c>
       <c r="N39" t="n">
-        <v>13.73258952672453</v>
+        <v>16.46584883578666</v>
       </c>
       <c r="O39" t="n">
-        <v>1.567697938952932</v>
+        <v>1.67590248207018</v>
       </c>
       <c r="P39" t="n">
-        <v>4.166952991793787</v>
+        <v>3.62594844588171</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.03617207569299</v>
+        <v>1.029266805490027</v>
       </c>
       <c r="R39" t="n">
-        <v>28.64563495021642</v>
+        <v>35.16840284604219</v>
       </c>
       <c r="S39" t="n">
-        <v>1.315760923067441</v>
+        <v>1.380814787726814</v>
       </c>
       <c r="T39" t="n">
-        <v>1.910643502908022</v>
+        <v>1.767504931655114</v>
       </c>
       <c r="U39" t="n">
-        <v>2.098124564449897</v>
+        <v>2.302923224015661</v>
       </c>
       <c r="V39" t="n">
-        <v>4.38349271741038</v>
+        <v>4.608858809256688</v>
       </c>
       <c r="W39" t="n">
-        <v>1.295552579396526</v>
+        <v>1.277095905618421</v>
       </c>
       <c r="X39" t="n">
-        <v>2.868201361419404</v>
+        <v>2.561972055783516</v>
       </c>
       <c r="Y39" t="n">
-        <v>1.535274205795584</v>
+        <v>1.640216319041879</v>
       </c>
       <c r="Z39" t="n">
-        <v>9.00534683870643</v>
+        <v>9.627752853553465</v>
       </c>
       <c r="AA39" t="n">
-        <v>1.124916511445192</v>
+        <v>1.115905035410018</v>
       </c>
       <c r="AB39" t="n">
-        <v>4.786496717336004</v>
+        <v>4.113994236214898</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.264096359947078</v>
+        <v>1.321130973323674</v>
       </c>
       <c r="AD39" t="n">
-        <v>20.98700126946467</v>
+        <v>22.83178071051243</v>
       </c>
       <c r="AE39" t="n">
-        <v>1.050032517960949</v>
+        <v>1.045804784010059</v>
       </c>
     </row>
     <row r="40">
@@ -4526,85 +4526,85 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.37259487660966</v>
+        <v>2.13954739445857</v>
       </c>
       <c r="F40" t="n">
-        <v>7.131426849847232</v>
+        <v>6.989783200972402</v>
       </c>
       <c r="G40" t="n">
-        <v>2.281562362202359</v>
+        <v>2.567094381375253</v>
       </c>
       <c r="H40" t="n">
-        <v>3.437515796528468</v>
+        <v>3.040981943065534</v>
       </c>
       <c r="I40" t="n">
-        <v>1.440456914946</v>
+        <v>1.352108937970197</v>
       </c>
       <c r="J40" t="n">
-        <v>3.270369623150538</v>
+        <v>3.840030150227658</v>
       </c>
       <c r="K40" t="n">
-        <v>1.410253751554845</v>
+        <v>1.489960238696679</v>
       </c>
       <c r="L40" t="n">
-        <v>5.441747700962662</v>
+        <v>4.730868129495455</v>
       </c>
       <c r="M40" t="n">
-        <v>1.242869992722548</v>
+        <v>1.18817911728664</v>
       </c>
       <c r="N40" t="n">
-        <v>5.117429200660415</v>
+        <v>6.314085932695561</v>
       </c>
       <c r="O40" t="n">
-        <v>1.225136605526529</v>
+        <v>1.268034131813508</v>
       </c>
       <c r="P40" t="n">
-        <v>9.43358838291865</v>
+        <v>8.076301138125805</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.128816020474939</v>
+        <v>1.095873839759431</v>
       </c>
       <c r="R40" t="n">
-        <v>8.763009572202611</v>
+        <v>11.43037394256063</v>
       </c>
       <c r="S40" t="n">
-        <v>1.118573489076772</v>
+        <v>1.141316767118938</v>
       </c>
       <c r="T40" t="n">
-        <v>2.501635517000615</v>
+        <v>2.528628553548285</v>
       </c>
       <c r="U40" t="n">
-        <v>1.66594056192638</v>
+        <v>1.654181159758385</v>
       </c>
       <c r="V40" t="n">
-        <v>2.42848122944584</v>
+        <v>2.934668903196562</v>
       </c>
       <c r="W40" t="n">
-        <v>1.700044200362322</v>
+        <v>1.5168843094277</v>
       </c>
       <c r="X40" t="n">
-        <v>4.199067802702253</v>
+        <v>4.26223408269972</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.312591061419611</v>
+        <v>1.306538395053623</v>
       </c>
       <c r="Z40" t="n">
-        <v>4.028873528143972</v>
+        <v>5.235166813070594</v>
       </c>
       <c r="AA40" t="n">
-        <v>1.330155746256193</v>
+        <v>1.236118208358121</v>
       </c>
       <c r="AB40" t="n">
-        <v>7.906480321013585</v>
+        <v>8.061528954235238</v>
       </c>
       <c r="AC40" t="n">
-        <v>1.144791551343079</v>
+        <v>1.141612391095591</v>
       </c>
       <c r="AD40" t="n">
-        <v>7.491602279166455</v>
+        <v>10.51756910147861</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.1540451735944</v>
+        <v>1.105068845766998</v>
       </c>
     </row>
     <row r="41">
@@ -4629,85 +4629,85 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.401818252661311</v>
+        <v>1.432335751171055</v>
       </c>
       <c r="F41" t="n">
-        <v>8.990816335406558</v>
+        <v>8.771417641219379</v>
       </c>
       <c r="G41" t="n">
-        <v>5.700729156122578</v>
+        <v>5.323877735456295</v>
       </c>
       <c r="H41" t="n">
-        <v>1.731407052008536</v>
+        <v>1.781452527311192</v>
       </c>
       <c r="I41" t="n">
-        <v>1.106575081489306</v>
+        <v>1.117497379265476</v>
       </c>
       <c r="J41" t="n">
-        <v>10.38305639578934</v>
+        <v>9.510828124434832</v>
       </c>
       <c r="K41" t="n">
-        <v>2.367227725319129</v>
+        <v>2.279668265250589</v>
       </c>
       <c r="L41" t="n">
-        <v>2.307657352577683</v>
+        <v>2.391405070506203</v>
       </c>
       <c r="M41" t="n">
-        <v>1.049724024473564</v>
+        <v>1.055797128694288</v>
       </c>
       <c r="N41" t="n">
-        <v>21.11100289220663</v>
+        <v>18.92206917096015</v>
       </c>
       <c r="O41" t="n">
-        <v>1.764726323779527</v>
+        <v>1.718697970272735</v>
       </c>
       <c r="P41" t="n">
-        <v>3.339706595530147</v>
+        <v>3.485433401406992</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.021345087800866</v>
+        <v>1.024461223594304</v>
       </c>
       <c r="R41" t="n">
-        <v>47.84918653552912</v>
+        <v>41.88102936244204</v>
       </c>
       <c r="S41" t="n">
-        <v>1.42740401805527</v>
+        <v>1.402344315254597</v>
       </c>
       <c r="T41" t="n">
-        <v>1.792730166415805</v>
+        <v>1.799269237912789</v>
       </c>
       <c r="U41" t="n">
-        <v>2.261463285194924</v>
+        <v>2.251142859709451</v>
       </c>
       <c r="V41" t="n">
-        <v>5.904038107725871</v>
+        <v>5.368739963277114</v>
       </c>
       <c r="W41" t="n">
-        <v>1.203913586728576</v>
+        <v>1.2288989521935</v>
       </c>
       <c r="X41" t="n">
-        <v>2.615454647866906</v>
+        <v>2.629352853147769</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.619020782366394</v>
+        <v>1.613740601409993</v>
       </c>
       <c r="Z41" t="n">
-        <v>13.36127214282175</v>
+        <v>11.78754023867786</v>
       </c>
       <c r="AA41" t="n">
-        <v>1.080897822525549</v>
+        <v>1.092699538344671</v>
       </c>
       <c r="AB41" t="n">
-        <v>4.230046228703087</v>
+        <v>4.260303159677619</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.309593092233084</v>
+        <v>1.306719943214999</v>
       </c>
       <c r="AD41" t="n">
-        <v>34.43448898381927</v>
+        <v>29.43953377906061</v>
       </c>
       <c r="AE41" t="n">
-        <v>1.029909235355263</v>
+        <v>1.035162320443392</v>
       </c>
     </row>
     <row r="42">
@@ -4732,85 +4732,85 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.986227020349576</v>
+        <v>1.812918071498738</v>
       </c>
       <c r="F42" t="n">
-        <v>6.997770907941417</v>
+        <v>7.133944991927136</v>
       </c>
       <c r="G42" t="n">
-        <v>2.827812544904633</v>
+        <v>3.244349509144837</v>
       </c>
       <c r="H42" t="n">
-        <v>2.773241711877845</v>
+        <v>2.467989787373062</v>
       </c>
       <c r="I42" t="n">
-        <v>1.297247158030169</v>
+        <v>1.237221676464968</v>
       </c>
       <c r="J42" t="n">
-        <v>4.36420373747864</v>
+        <v>5.215466372642716</v>
       </c>
       <c r="K42" t="n">
-        <v>1.563938911035998</v>
+        <v>1.681203649099957</v>
       </c>
       <c r="L42" t="n">
-        <v>4.238233267560402</v>
+        <v>3.673629611497166</v>
       </c>
       <c r="M42" t="n">
-        <v>1.155413208528286</v>
+        <v>1.120516453509337</v>
       </c>
       <c r="N42" t="n">
-        <v>7.434459525478442</v>
+        <v>9.297622199134203</v>
       </c>
       <c r="O42" t="n">
-        <v>1.308810365830555</v>
+        <v>1.374023385924435</v>
       </c>
       <c r="P42" t="n">
-        <v>7.110347705332988</v>
+        <v>6.000203120189636</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.07696374692562</v>
+        <v>1.057519882145194</v>
       </c>
       <c r="R42" t="n">
-        <v>13.99313040159584</v>
+        <v>18.38529292316278</v>
       </c>
       <c r="S42" t="n">
-        <v>1.163656807799533</v>
+        <v>1.199991875522464</v>
       </c>
       <c r="T42" t="n">
-        <v>2.47902883881844</v>
+        <v>2.371440841798194</v>
       </c>
       <c r="U42" t="n">
-        <v>1.676119338415927</v>
+        <v>1.729160142765494</v>
       </c>
       <c r="V42" t="n">
-        <v>3.342808277461276</v>
+        <v>3.940629839398915</v>
       </c>
       <c r="W42" t="n">
-        <v>1.426838170933741</v>
+        <v>1.340063202311926</v>
       </c>
       <c r="X42" t="n">
-        <v>4.146317380296539</v>
+        <v>3.897190992067151</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.317831890152719</v>
+        <v>1.345161918126253</v>
       </c>
       <c r="Z42" t="n">
-        <v>6.253078595577955</v>
+        <v>7.808555181996543</v>
       </c>
       <c r="AA42" t="n">
-        <v>1.190364560858046</v>
+        <v>1.146874039097787</v>
       </c>
       <c r="AB42" t="n">
-        <v>7.777438888628804</v>
+        <v>7.17356077404679</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.147548361030271</v>
+        <v>1.161981073257419</v>
       </c>
       <c r="AD42" t="n">
-        <v>13.20879854911784</v>
+        <v>17.52382857096693</v>
       </c>
       <c r="AE42" t="n">
-        <v>1.081908141573215</v>
+        <v>1.060518662228017</v>
       </c>
     </row>
     <row r="43">
@@ -4835,85 +4835,85 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.209191840447237</v>
+        <v>2.043084629689755</v>
       </c>
       <c r="F43" t="n">
-        <v>6.876953529876485</v>
+        <v>6.965891387216162</v>
       </c>
       <c r="G43" t="n">
-        <v>2.487979588322568</v>
+        <v>2.724889418844648</v>
       </c>
       <c r="H43" t="n">
-        <v>3.186998907896635</v>
+        <v>2.875932049439939</v>
       </c>
       <c r="I43" t="n">
-        <v>1.368654193255923</v>
+        <v>1.316286337584474</v>
       </c>
       <c r="J43" t="n">
-        <v>3.712569172665809</v>
+        <v>4.16169205295792</v>
       </c>
       <c r="K43" t="n">
-        <v>1.457247599159416</v>
+        <v>1.533068348770175</v>
       </c>
       <c r="L43" t="n">
-        <v>5.048461897871965</v>
+        <v>4.433606589875772</v>
       </c>
       <c r="M43" t="n">
-        <v>1.196061420436232</v>
+        <v>1.16642125444217</v>
       </c>
       <c r="N43" t="n">
-        <v>6.100442492842419</v>
+        <v>7.008847868332148</v>
       </c>
       <c r="O43" t="n">
-        <v>1.247007388293722</v>
+        <v>1.291238956422256</v>
       </c>
       <c r="P43" t="n">
-        <v>8.801058229710085</v>
+        <v>7.506122381415668</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.099444320889786</v>
+        <v>1.083115872784593</v>
       </c>
       <c r="R43" t="n">
-        <v>11.05587841570454</v>
+        <v>13.03139624836338</v>
       </c>
       <c r="S43" t="n">
-        <v>1.128187736913888</v>
+        <v>1.153701381771796</v>
       </c>
       <c r="T43" t="n">
-        <v>2.735826864385441</v>
+        <v>2.52800922000121</v>
       </c>
       <c r="U43" t="n">
-        <v>1.576094321684579</v>
+        <v>1.654446312829976</v>
       </c>
       <c r="V43" t="n">
-        <v>3.026708446508516</v>
+        <v>3.222462440096023</v>
       </c>
       <c r="W43" t="n">
-        <v>1.493410880939849</v>
+        <v>1.449951361138321</v>
       </c>
       <c r="X43" t="n">
-        <v>4.753492778023142</v>
+        <v>4.260782588424934</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.266418522463941</v>
+        <v>1.306674846568974</v>
       </c>
       <c r="Z43" t="n">
-        <v>5.461367061157165</v>
+        <v>5.949009104483473</v>
       </c>
       <c r="AA43" t="n">
-        <v>1.224146542145453</v>
+        <v>1.202060650705626</v>
       </c>
       <c r="AB43" t="n">
-        <v>9.286246701662325</v>
+        <v>8.057959698545501</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.120681900503806</v>
+        <v>1.141684005394091</v>
       </c>
       <c r="AD43" t="n">
-        <v>11.10554377225462</v>
+        <v>12.39296188454343</v>
       </c>
       <c r="AE43" t="n">
-        <v>1.098955585422881</v>
+        <v>1.087773487714084</v>
       </c>
     </row>
     <row r="44">
@@ -4938,85 +4938,85 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4.163005883058023</v>
+        <v>3.686694790195037</v>
       </c>
       <c r="F44" t="n">
-        <v>8.96701275515241</v>
+        <v>8.758187041434084</v>
       </c>
       <c r="G44" t="n">
-        <v>1.542569295529832</v>
+        <v>1.627139520554059</v>
       </c>
       <c r="H44" t="n">
-        <v>6.605660729556446</v>
+        <v>5.647645841804721</v>
       </c>
       <c r="I44" t="n">
-        <v>2.09474832337512</v>
+        <v>1.959955221412083</v>
       </c>
       <c r="J44" t="n">
-        <v>1.91345195845287</v>
+        <v>2.041715256810637</v>
       </c>
       <c r="K44" t="n">
-        <v>1.178391102894863</v>
+        <v>1.215162693982658</v>
       </c>
       <c r="L44" t="n">
-        <v>11.39293150809326</v>
+        <v>9.360314326786733</v>
       </c>
       <c r="M44" t="n">
-        <v>1.653725074096194</v>
+        <v>1.578443985919124</v>
       </c>
       <c r="N44" t="n">
-        <v>2.529695034847098</v>
+        <v>2.728775861349896</v>
       </c>
       <c r="O44" t="n">
-        <v>1.096219242782585</v>
+        <v>1.119612727573647</v>
       </c>
       <c r="P44" t="n">
-        <v>21.39374688493639</v>
+        <v>16.82462314894812</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.387049479560508</v>
+        <v>1.344239125707541</v>
       </c>
       <c r="R44" t="n">
-        <v>3.58364899788909</v>
+        <v>3.90495741280026</v>
       </c>
       <c r="S44" t="n">
-        <v>1.049034638197782</v>
+        <v>1.063192658086551</v>
       </c>
       <c r="T44" t="n">
-        <v>2.53272985591552</v>
+        <v>2.177048776724524</v>
       </c>
       <c r="U44" t="n">
-        <v>1.652430691645063</v>
+        <v>1.849582464018855</v>
       </c>
       <c r="V44" t="n">
-        <v>1.446662314928372</v>
+        <v>1.425858502896274</v>
       </c>
       <c r="W44" t="n">
-        <v>3.238827782371483</v>
+        <v>3.34819780091034</v>
       </c>
       <c r="X44" t="n">
-        <v>4.271848648744756</v>
+        <v>3.455365235054224</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.305637609607538</v>
+        <v>1.407271385015727</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.90007371209104</v>
+        <v>1.858310210889472</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.111020115982293</v>
+        <v>2.165079929509046</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.085178947147055</v>
+        <v>6.126335739273345</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.141139695618085</v>
+        <v>1.195071109435714</v>
       </c>
       <c r="AD44" t="n">
-        <v>2.731673561041583</v>
+        <v>2.648056029263268</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.577476045426547</v>
+        <v>1.606775487145926</v>
       </c>
     </row>
     <row r="45">
@@ -5041,85 +5041,85 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>3.842403370575945</v>
+        <v>3.030383961057647</v>
       </c>
       <c r="F45" t="n">
-        <v>8.871236022409267</v>
+        <v>7.944687968031136</v>
       </c>
       <c r="G45" t="n">
-        <v>1.594839465126173</v>
+        <v>1.837767252664871</v>
       </c>
       <c r="H45" t="n">
-        <v>5.942241690496679</v>
+        <v>4.52408726503249</v>
       </c>
       <c r="I45" t="n">
-        <v>2.010153663214961</v>
+        <v>1.706370111774635</v>
       </c>
       <c r="J45" t="n">
-        <v>1.989948397372885</v>
+        <v>2.415688437733682</v>
       </c>
       <c r="K45" t="n">
-        <v>1.202337332454395</v>
+        <v>1.28376141814717</v>
       </c>
       <c r="L45" t="n">
-        <v>9.950479968193878</v>
+        <v>7.327146630025127</v>
       </c>
       <c r="M45" t="n">
-        <v>1.608446465075182</v>
+        <v>1.414900191198477</v>
       </c>
       <c r="N45" t="n">
-        <v>2.643529969192007</v>
+        <v>3.410218219257522</v>
       </c>
       <c r="O45" t="n">
-        <v>1.111725851971466</v>
+        <v>1.158049126798256</v>
       </c>
       <c r="P45" t="n">
-        <v>18.08260382175794</v>
+        <v>12.90230665133113</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.362468047866453</v>
+        <v>1.238553098120153</v>
       </c>
       <c r="R45" t="n">
-        <v>3.758863866446063</v>
+        <v>5.191938850847898</v>
       </c>
       <c r="S45" t="n">
-        <v>1.058539085167234</v>
+        <v>1.084017327841924</v>
       </c>
       <c r="T45" t="n">
-        <v>2.243068480778871</v>
+        <v>2.244327736983172</v>
       </c>
       <c r="U45" t="n">
-        <v>1.804460909002719</v>
+        <v>1.803646796803279</v>
       </c>
       <c r="V45" t="n">
-        <v>1.41691972224092</v>
+        <v>1.666811505678978</v>
       </c>
       <c r="W45" t="n">
-        <v>3.398543284604184</v>
+        <v>2.499674183008817</v>
       </c>
       <c r="X45" t="n">
-        <v>3.604192758880621</v>
+        <v>3.607043893405481</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.383996152585048</v>
+        <v>1.383576203887284</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.84040627358425</v>
+        <v>2.350574443926212</v>
       </c>
       <c r="AA45" t="n">
-        <v>2.189900684266787</v>
+        <v>1.740425679233891</v>
       </c>
       <c r="AB45" t="n">
-        <v>6.475561199552079</v>
+        <v>6.482287181405264</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.18262968188207</v>
+        <v>1.182405621396811</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.612348908737588</v>
+        <v>3.661376724147044</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.620213152736875</v>
+        <v>1.375745376791966</v>
       </c>
     </row>
     <row r="46">
@@ -5144,85 +5144,85 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2.141499439582688</v>
+        <v>2.039638738719094</v>
       </c>
       <c r="F46" t="n">
-        <v>6.780990989160464</v>
+        <v>6.954243262918402</v>
       </c>
       <c r="G46" t="n">
-        <v>2.593587007818885</v>
+        <v>2.732837779302455</v>
       </c>
       <c r="H46" t="n">
-        <v>3.082694559348814</v>
+        <v>2.87187920700435</v>
       </c>
       <c r="I46" t="n">
-        <v>1.339435058246896</v>
+        <v>1.314355060815827</v>
       </c>
       <c r="J46" t="n">
-        <v>3.94607164376234</v>
+        <v>4.181116274714201</v>
       </c>
       <c r="K46" t="n">
-        <v>1.48014721866497</v>
+        <v>1.534222505521788</v>
       </c>
       <c r="L46" t="n">
-        <v>4.883915301343253</v>
+        <v>4.429960940948583</v>
       </c>
       <c r="M46" t="n">
-        <v>1.17734262877672</v>
+        <v>1.165099304865505</v>
       </c>
       <c r="N46" t="n">
-        <v>6.638802170114586</v>
+        <v>7.056960692927421</v>
       </c>
       <c r="O46" t="n">
-        <v>1.257472144064045</v>
+        <v>1.291548509506771</v>
       </c>
       <c r="P46" t="n">
-        <v>8.535031650204985</v>
+        <v>7.506632411063879</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.087994991802196</v>
+        <v>1.082272017695475</v>
       </c>
       <c r="R46" t="n">
-        <v>12.36428312020185</v>
+        <v>13.15480096405859</v>
       </c>
       <c r="S46" t="n">
-        <v>1.132713443874226</v>
+        <v>1.153689333717331</v>
       </c>
       <c r="T46" t="n">
-        <v>2.847929096915409</v>
+        <v>2.543421393118711</v>
       </c>
       <c r="U46" t="n">
-        <v>1.541146303540117</v>
+        <v>1.647911195515667</v>
       </c>
       <c r="V46" t="n">
-        <v>3.37880120966547</v>
+        <v>3.259443012616854</v>
       </c>
       <c r="W46" t="n">
-        <v>1.420379809770077</v>
+        <v>1.442586953694315</v>
       </c>
       <c r="X46" t="n">
-        <v>5.023852017923951</v>
+        <v>4.296933671623571</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.248518085542305</v>
+        <v>1.303312137762102</v>
       </c>
       <c r="Z46" t="n">
-        <v>6.344634430155047</v>
+        <v>6.042105252657141</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.187103535904698</v>
+        <v>1.198329854275257</v>
       </c>
       <c r="AB46" t="n">
-        <v>9.973821345289281</v>
+        <v>8.146945072745323</v>
       </c>
       <c r="AC46" t="n">
-        <v>1.11143524720658</v>
+        <v>1.139919922403416</v>
       </c>
       <c r="AD46" t="n">
-        <v>13.45633407994343</v>
+        <v>12.641707660806</v>
       </c>
       <c r="AE46" t="n">
-        <v>1.080280441547417</v>
+        <v>1.085898051139584</v>
       </c>
     </row>
     <row r="47">
@@ -5247,85 +5247,85 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>4.304167819100158</v>
+        <v>3.029076169087218</v>
       </c>
       <c r="F47" t="n">
-        <v>9.010138483098917</v>
+        <v>8.226585476140944</v>
       </c>
       <c r="G47" t="n">
-        <v>1.522809479302963</v>
+        <v>1.823788391372699</v>
       </c>
       <c r="H47" t="n">
-        <v>6.904980405881893</v>
+        <v>4.455897367898044</v>
       </c>
       <c r="I47" t="n">
-        <v>2.130334538322583</v>
+        <v>1.731040685033399</v>
       </c>
       <c r="J47" t="n">
-        <v>1.884693837174966</v>
+        <v>2.367912922595154</v>
       </c>
       <c r="K47" t="n">
-        <v>1.169348572097531</v>
+        <v>1.289360444927861</v>
       </c>
       <c r="L47" t="n">
-        <v>12.06086648620177</v>
+        <v>7.075910403581183</v>
       </c>
       <c r="M47" t="n">
-        <v>1.672354963721936</v>
+        <v>1.437310478629199</v>
       </c>
       <c r="N47" t="n">
-        <v>2.487309611673466</v>
+        <v>3.286704867293868</v>
       </c>
       <c r="O47" t="n">
-        <v>1.090408830198564</v>
+        <v>1.164584388770874</v>
       </c>
       <c r="P47" t="n">
-        <v>22.96980316290443</v>
+        <v>12.16405539826137</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.3969319059642</v>
+        <v>1.256435339648681</v>
       </c>
       <c r="R47" t="n">
-        <v>3.519323805857503</v>
+        <v>4.899618521261584</v>
       </c>
       <c r="S47" t="n">
-        <v>1.045517021367241</v>
+        <v>1.089573185041319</v>
       </c>
       <c r="T47" t="n">
-        <v>2.673874819473371</v>
+        <v>1.985524212834073</v>
       </c>
       <c r="U47" t="n">
-        <v>1.597416239473999</v>
+        <v>2.014688413513757</v>
       </c>
       <c r="V47" t="n">
-        <v>1.460276527258977</v>
+        <v>1.524010426865572</v>
       </c>
       <c r="W47" t="n">
-        <v>3.172606989009768</v>
+        <v>2.908358972896043</v>
       </c>
       <c r="X47" t="n">
-        <v>4.605440027406982</v>
+        <v>3.031019153801882</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.27735865591951</v>
+        <v>1.492363648136007</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.927476791931208</v>
+        <v>2.056546537901547</v>
       </c>
       <c r="AA47" t="n">
-        <v>2.078194094666005</v>
+        <v>1.946479841755143</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.913716810199446</v>
+        <v>5.151666482645577</v>
       </c>
       <c r="AC47" t="n">
-        <v>1.126362873979919</v>
+        <v>1.240867132314243</v>
       </c>
       <c r="AD47" t="n">
-        <v>2.786785097578559</v>
+        <v>3.048940812321501</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.559664394646673</v>
+        <v>1.488057045858233</v>
       </c>
     </row>
     <row r="48">
@@ -5350,85 +5350,85 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.111242517071542</v>
+        <v>3.904338908755122</v>
       </c>
       <c r="F48" t="n">
-        <v>8.962108262780999</v>
+        <v>9.013431594031847</v>
       </c>
       <c r="G48" t="n">
-        <v>1.549946298946001</v>
+        <v>1.579955652829713</v>
       </c>
       <c r="H48" t="n">
-        <v>6.493364909568412</v>
+        <v>6.030761256608344</v>
       </c>
       <c r="I48" t="n">
-        <v>2.082694233351444</v>
+        <v>2.040449413684525</v>
       </c>
       <c r="J48" t="n">
-        <v>1.923621803087038</v>
+        <v>1.961123132799622</v>
       </c>
       <c r="K48" t="n">
-        <v>1.182037788579853</v>
+        <v>1.198777073486923</v>
       </c>
       <c r="L48" t="n">
-        <v>11.13866817893795</v>
+        <v>10.07510774242411</v>
       </c>
       <c r="M48" t="n">
-        <v>1.647805796597211</v>
+        <v>1.629681671545363</v>
       </c>
       <c r="N48" t="n">
-        <v>2.543672509960226</v>
+        <v>2.588104029685036</v>
       </c>
       <c r="O48" t="n">
-        <v>1.098632284078238</v>
+        <v>1.110191529222868</v>
       </c>
       <c r="P48" t="n">
-        <v>20.78903918515586</v>
+        <v>18.24888467539229</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.384165778533923</v>
+        <v>1.377158333460755</v>
       </c>
       <c r="R48" t="n">
-        <v>3.603042894180375</v>
+        <v>3.651406349222442</v>
       </c>
       <c r="S48" t="n">
-        <v>1.0505330244002</v>
+        <v>1.057974762937955</v>
       </c>
       <c r="T48" t="n">
-        <v>2.471523875812867</v>
+        <v>2.181037488032367</v>
       </c>
       <c r="U48" t="n">
-        <v>1.679567634910172</v>
+        <v>1.846713173911203</v>
       </c>
       <c r="V48" t="n">
-        <v>1.438212699912486</v>
+        <v>1.38369614607025</v>
       </c>
       <c r="W48" t="n">
-        <v>3.281996848105286</v>
+        <v>3.606228939857302</v>
       </c>
       <c r="X48" t="n">
-        <v>4.128835971224699</v>
+        <v>3.464320489917981</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.319607678125925</v>
+        <v>1.405791374981946</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.883095104395707</v>
+        <v>1.774069270038529</v>
       </c>
       <c r="AA48" t="n">
-        <v>2.132380867046353</v>
+        <v>2.291874046298499</v>
       </c>
       <c r="AB48" t="n">
-        <v>7.734763953540764</v>
+        <v>6.147244612048045</v>
       </c>
       <c r="AC48" t="n">
-        <v>1.148483303483006</v>
+        <v>1.194278701591007</v>
       </c>
       <c r="AD48" t="n">
-        <v>2.697624740216318</v>
+        <v>2.480784676231008</v>
       </c>
       <c r="AE48" t="n">
-        <v>1.589058333276043</v>
+        <v>1.675317631288073</v>
       </c>
     </row>
     <row r="49">
@@ -5453,85 +5453,85 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1.227134827673293</v>
+        <v>1.196318566927619</v>
       </c>
       <c r="F49" t="n">
-        <v>13.66665543170218</v>
+        <v>14.69808161519651</v>
       </c>
       <c r="G49" t="n">
-        <v>8.934727751403631</v>
+        <v>10.40949291159858</v>
       </c>
       <c r="H49" t="n">
-        <v>1.392508412067785</v>
+        <v>1.345802434598439</v>
       </c>
       <c r="I49" t="n">
-        <v>1.06627856166381</v>
+        <v>1.054197308745598</v>
       </c>
       <c r="J49" t="n">
-        <v>16.08783496347393</v>
+        <v>19.45110067538601</v>
       </c>
       <c r="K49" t="n">
-        <v>3.547716097935</v>
+        <v>3.891824637270826</v>
       </c>
       <c r="L49" t="n">
-        <v>1.659246487021133</v>
+        <v>1.588962457746602</v>
       </c>
       <c r="M49" t="n">
-        <v>1.032677642451804</v>
+        <v>1.025762116379566</v>
       </c>
       <c r="N49" t="n">
-        <v>31.601962839727</v>
+        <v>39.81668669089637</v>
       </c>
       <c r="O49" t="n">
-        <v>2.516883320104737</v>
+        <v>2.697901091736893</v>
       </c>
       <c r="P49" t="n">
-        <v>2.091316459262945</v>
+        <v>1.984079336378234</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.014974781712077</v>
+        <v>1.011324466174674</v>
       </c>
       <c r="R49" t="n">
-        <v>67.77893669685572</v>
+        <v>89.30438314491586</v>
       </c>
       <c r="S49" t="n">
-        <v>1.916324491866807</v>
+        <v>2.016178231808383</v>
       </c>
       <c r="T49" t="n">
-        <v>1.211120582962224</v>
+        <v>1.21756610931325</v>
       </c>
       <c r="U49" t="n">
-        <v>5.736629588498853</v>
+        <v>5.596304098816279</v>
       </c>
       <c r="V49" t="n">
-        <v>3.416474421948459</v>
+        <v>4.088793996729361</v>
       </c>
       <c r="W49" t="n">
-        <v>1.413826023117463</v>
+        <v>1.323750952979989</v>
       </c>
       <c r="X49" t="n">
-        <v>1.433822983912638</v>
+        <v>1.446445058052967</v>
       </c>
       <c r="Y49" t="n">
-        <v>3.305087644229975</v>
+        <v>3.239917279768296</v>
       </c>
       <c r="Z49" t="n">
-        <v>6.440763173944506</v>
+        <v>8.204947339377322</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.183797744549688</v>
+        <v>1.13879351963264</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.824396820306783</v>
+        <v>1.84820787198545</v>
       </c>
       <c r="AC49" t="n">
-        <v>2.213008074955784</v>
+        <v>2.178956283038546</v>
       </c>
       <c r="AD49" t="n">
-        <v>13.71715180227956</v>
+        <v>18.65804707760611</v>
       </c>
       <c r="AE49" t="n">
-        <v>1.07863395951763</v>
+        <v>1.05663140411876</v>
       </c>
     </row>
     <row r="50">
@@ -5556,85 +5556,85 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4.161604808595225</v>
+        <v>4.046013107830075</v>
       </c>
       <c r="F50" t="n">
-        <v>8.995097957370213</v>
+        <v>9.106806384420493</v>
       </c>
       <c r="G50" t="n">
-        <v>1.541933452601751</v>
+        <v>1.555124976348599</v>
       </c>
       <c r="H50" t="n">
-        <v>6.592918635740391</v>
+        <v>6.304520103245793</v>
       </c>
       <c r="I50" t="n">
-        <v>2.097707397080504</v>
+        <v>2.084223344333378</v>
       </c>
       <c r="J50" t="n">
-        <v>1.91098957942675</v>
+        <v>1.922319193020916</v>
       </c>
       <c r="K50" t="n">
-        <v>1.178797523284123</v>
+        <v>1.188518467370518</v>
       </c>
       <c r="L50" t="n">
-        <v>11.34749952092442</v>
+        <v>10.63451560367416</v>
       </c>
       <c r="M50" t="n">
-        <v>1.656482985313662</v>
+        <v>1.655334179530371</v>
       </c>
       <c r="N50" t="n">
-        <v>2.523268724965062</v>
+        <v>2.525939026584306</v>
       </c>
       <c r="O50" t="n">
-        <v>1.096641705368319</v>
+        <v>1.103793490107447</v>
       </c>
       <c r="P50" t="n">
-        <v>21.25578791858442</v>
+        <v>19.46306586042796</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.389288627684554</v>
+        <v>1.392489330218053</v>
       </c>
       <c r="R50" t="n">
-        <v>3.568788114741214</v>
+        <v>3.547839961520577</v>
       </c>
       <c r="S50" t="n">
-        <v>1.049368605359583</v>
+        <v>1.054162185606634</v>
       </c>
       <c r="T50" t="n">
-        <v>2.500126943915458</v>
+        <v>2.25059825053749</v>
       </c>
       <c r="U50" t="n">
-        <v>1.666610251923024</v>
+        <v>1.799617302815044</v>
       </c>
       <c r="V50" t="n">
-        <v>1.437236109276311</v>
+        <v>1.381402426860991</v>
       </c>
       <c r="W50" t="n">
-        <v>3.287093812208567</v>
+        <v>3.62190256163333</v>
       </c>
       <c r="X50" t="n">
-        <v>4.195543390256073</v>
+        <v>3.621248089852811</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.312935822761545</v>
+        <v>1.381497655209031</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.881134171328968</v>
+        <v>1.769501268483162</v>
       </c>
       <c r="AA50" t="n">
-        <v>2.13490094078607</v>
+        <v>2.299543016961097</v>
       </c>
       <c r="AB50" t="n">
-        <v>7.897846130968086</v>
+        <v>6.515815435926065</v>
       </c>
       <c r="AC50" t="n">
-        <v>1.144972790203375</v>
+        <v>1.181296856578398</v>
       </c>
       <c r="AD50" t="n">
-        <v>2.693697122287076</v>
+        <v>2.471768012108684</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.590424336701744</v>
+        <v>1.679454908499638</v>
       </c>
     </row>
     <row r="51">
@@ -5659,85 +5659,85 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3.298309250745932</v>
+        <v>2.137205274181237</v>
       </c>
       <c r="F51" t="n">
-        <v>8.67374458232284</v>
+        <v>8.399784480170499</v>
       </c>
       <c r="G51" t="n">
-        <v>1.719619776358181</v>
+        <v>2.421022884131069</v>
       </c>
       <c r="H51" t="n">
-        <v>4.880511536304932</v>
+        <v>2.840051031446082</v>
       </c>
       <c r="I51" t="n">
-        <v>1.848667686150187</v>
+        <v>1.43252957452486</v>
       </c>
       <c r="J51" t="n">
-        <v>2.178317516172085</v>
+        <v>3.311980634153205</v>
       </c>
       <c r="K51" t="n">
-        <v>1.257697984052951</v>
+        <v>1.54346318819979</v>
       </c>
       <c r="L51" t="n">
-        <v>7.774979799826114</v>
+        <v>4.022564520081115</v>
       </c>
       <c r="M51" t="n">
-        <v>1.516669681191469</v>
+        <v>1.260433860745558</v>
       </c>
       <c r="N51" t="n">
-        <v>2.935472578328852</v>
+        <v>4.839746479729037</v>
       </c>
       <c r="O51" t="n">
-        <v>1.147601916101014</v>
+        <v>1.330844881343728</v>
       </c>
       <c r="P51" t="n">
-        <v>13.37921477709519</v>
+        <v>6.105453857349502</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.309508069909559</v>
+        <v>1.15168479221996</v>
       </c>
       <c r="R51" t="n">
-        <v>4.230933527168477</v>
+        <v>7.592618715196489</v>
       </c>
       <c r="S51" t="n">
-        <v>1.080780567912131</v>
+        <v>1.195868972267855</v>
       </c>
       <c r="T51" t="n">
-        <v>1.875182375886798</v>
+        <v>1.424168635350067</v>
       </c>
       <c r="U51" t="n">
-        <v>2.142618987255917</v>
+        <v>3.357552908584808</v>
       </c>
       <c r="V51" t="n">
-        <v>1.388169173808921</v>
+        <v>1.496479080727628</v>
       </c>
       <c r="W51" t="n">
-        <v>3.576196327460706</v>
+        <v>3.014183555396581</v>
       </c>
       <c r="X51" t="n">
-        <v>2.791718384630459</v>
+        <v>1.854923634956011</v>
       </c>
       <c r="Y51" t="n">
-        <v>1.558123424182115</v>
+        <v>2.169695115577725</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.782981745174362</v>
+        <v>2.000631573223699</v>
       </c>
       <c r="AA51" t="n">
-        <v>2.277168984032074</v>
+        <v>1.999368825409272</v>
       </c>
       <c r="AB51" t="n">
-        <v>4.61674478033785</v>
+        <v>2.641295491046463</v>
       </c>
       <c r="AC51" t="n">
-        <v>1.276491724115127</v>
+        <v>1.609274810937558</v>
       </c>
       <c r="AD51" t="n">
-        <v>2.498392760395721</v>
+        <v>2.93485346742738</v>
       </c>
       <c r="AE51" t="n">
-        <v>1.667381761598943</v>
+        <v>1.516835004218495</v>
       </c>
     </row>
     <row r="52">
@@ -5762,85 +5762,85 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1.485374257312368</v>
+        <v>1.521987272147571</v>
       </c>
       <c r="F52" t="n">
-        <v>7.970379980760611</v>
+        <v>8.002086426154269</v>
       </c>
       <c r="G52" t="n">
-        <v>4.967599700446781</v>
+        <v>4.587221741493108</v>
       </c>
       <c r="H52" t="n">
-        <v>1.903925791646327</v>
+        <v>1.950414832438133</v>
       </c>
       <c r="I52" t="n">
-        <v>1.123967035547691</v>
+        <v>1.142029988361937</v>
       </c>
       <c r="J52" t="n">
-        <v>9.066660589099069</v>
+        <v>8.040766612271259</v>
       </c>
       <c r="K52" t="n">
-        <v>2.106285504011002</v>
+        <v>2.052172131441451</v>
       </c>
       <c r="L52" t="n">
-        <v>2.663331736066915</v>
+        <v>2.715905956920036</v>
       </c>
       <c r="M52" t="n">
-        <v>1.056706629067589</v>
+        <v>1.067857641256409</v>
       </c>
       <c r="N52" t="n">
-        <v>18.63462255547044</v>
+        <v>15.73673386643916</v>
       </c>
       <c r="O52" t="n">
-        <v>1.601202982133066</v>
+        <v>1.582782521365535</v>
       </c>
       <c r="P52" t="n">
-        <v>4.088043258965689</v>
+        <v>4.130779757117715</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.023789626500732</v>
+        <v>1.029985198507711</v>
       </c>
       <c r="R52" t="n">
-        <v>43.03512820889458</v>
+        <v>34.34978755411098</v>
       </c>
       <c r="S52" t="n">
-        <v>1.323829660448132</v>
+        <v>1.319409245484782</v>
       </c>
       <c r="T52" t="n">
-        <v>2.195527366129574</v>
+        <v>2.036371227375122</v>
       </c>
       <c r="U52" t="n">
-        <v>1.836450949038015</v>
+        <v>1.964905213098938</v>
       </c>
       <c r="V52" t="n">
-        <v>7.08468003056579</v>
+        <v>5.417092146844189</v>
       </c>
       <c r="W52" t="n">
-        <v>1.164347179305502</v>
+        <v>1.226393284712082</v>
       </c>
       <c r="X52" t="n">
-        <v>3.496892070163007</v>
+        <v>3.142581801624769</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.400497887733976</v>
+        <v>1.4667266375742</v>
       </c>
       <c r="Z52" t="n">
-        <v>16.96821153584213</v>
+        <v>11.92798878855374</v>
       </c>
       <c r="AA52" t="n">
-        <v>1.062624420884919</v>
+        <v>1.091508146590288</v>
       </c>
       <c r="AB52" t="n">
-        <v>6.223407300351306</v>
+        <v>5.404774228376316</v>
       </c>
       <c r="AC52" t="n">
-        <v>1.191445916908058</v>
+        <v>1.227026391854054</v>
       </c>
       <c r="AD52" t="n">
-        <v>46.37063295669299</v>
+        <v>29.87947970793152</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.022040688763468</v>
+        <v>1.034626662603113</v>
       </c>
     </row>
     <row r="53">
@@ -5865,85 +5865,85 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1.598293105044249</v>
+        <v>1.473348016148674</v>
       </c>
       <c r="F53" t="n">
-        <v>7.724712633645469</v>
+        <v>8.47698058414816</v>
       </c>
       <c r="G53" t="n">
-        <v>4.08366818234914</v>
+        <v>4.918664944800547</v>
       </c>
       <c r="H53" t="n">
-        <v>2.079739619240236</v>
+        <v>1.851971813272921</v>
       </c>
       <c r="I53" t="n">
-        <v>1.168772572529896</v>
+        <v>1.131130585035161</v>
       </c>
       <c r="J53" t="n">
-        <v>6.925133361481846</v>
+        <v>8.625985956913579</v>
       </c>
       <c r="K53" t="n">
-        <v>1.926149214292659</v>
+        <v>2.173747751299913</v>
       </c>
       <c r="L53" t="n">
-        <v>2.942454183535698</v>
+        <v>2.515644425248837</v>
       </c>
       <c r="M53" t="n">
-        <v>1.082905552040833</v>
+        <v>1.063200512440914</v>
       </c>
       <c r="N53" t="n">
-        <v>13.0619183562939</v>
+        <v>16.82265651619368</v>
       </c>
       <c r="O53" t="n">
-        <v>1.514812657346583</v>
+        <v>1.659785358189024</v>
       </c>
       <c r="P53" t="n">
-        <v>4.547755159414322</v>
+        <v>3.713457535719717</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.037895781086318</v>
+        <v>1.02820491829863</v>
       </c>
       <c r="R53" t="n">
-        <v>27.38816172497488</v>
+        <v>36.45480931418172</v>
       </c>
       <c r="S53" t="n">
-        <v>1.281868380163271</v>
+        <v>1.368533498990159</v>
       </c>
       <c r="T53" t="n">
-        <v>2.07458274656008</v>
+        <v>1.840441522696227</v>
       </c>
       <c r="U53" t="n">
-        <v>1.930593761347061</v>
+        <v>2.18985077842405</v>
       </c>
       <c r="V53" t="n">
-        <v>4.657603119650449</v>
+        <v>4.993298934574415</v>
       </c>
       <c r="W53" t="n">
-        <v>1.273403091392695</v>
+        <v>1.250419519395829</v>
       </c>
       <c r="X53" t="n">
-        <v>3.226947099541789</v>
+        <v>2.717181395972912</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.449045242343546</v>
+        <v>1.582349658775231</v>
       </c>
       <c r="Z53" t="n">
-        <v>9.763508668559449</v>
+        <v>10.70903621019642</v>
       </c>
       <c r="AA53" t="n">
-        <v>1.114109546509341</v>
+        <v>1.102996834943287</v>
       </c>
       <c r="AB53" t="n">
-        <v>5.59769258745187</v>
+        <v>4.452441627467731</v>
       </c>
       <c r="AC53" t="n">
-        <v>1.217500405035609</v>
+        <v>1.289650081856264</v>
       </c>
       <c r="AD53" t="n">
-        <v>23.23789002855532</v>
+        <v>26.10173726131449</v>
       </c>
       <c r="AE53" t="n">
-        <v>1.044968295045794</v>
+        <v>1.039837880127171</v>
       </c>
     </row>
     <row r="54">
@@ -5968,85 +5968,85 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4.245991202546384</v>
+        <v>3.788985333590057</v>
       </c>
       <c r="F54" t="n">
-        <v>9.01802230900698</v>
+        <v>8.94095668645102</v>
       </c>
       <c r="G54" t="n">
-        <v>1.530000226832953</v>
+        <v>1.601967870783849</v>
       </c>
       <c r="H54" t="n">
-        <v>6.771951674823217</v>
+        <v>5.809037143094869</v>
       </c>
       <c r="I54" t="n">
-        <v>2.118833832827316</v>
+        <v>2.004572604326126</v>
       </c>
       <c r="J54" t="n">
-        <v>1.893787773178953</v>
+        <v>1.995448209212122</v>
       </c>
       <c r="K54" t="n">
-        <v>1.173251623772583</v>
+        <v>1.207941833311865</v>
       </c>
       <c r="L54" t="n">
-        <v>11.74653899185702</v>
+        <v>9.624993737565415</v>
       </c>
       <c r="M54" t="n">
-        <v>1.667467295654686</v>
+        <v>1.608632030342008</v>
       </c>
       <c r="N54" t="n">
-        <v>2.498200745579824</v>
+        <v>2.643028874832747</v>
       </c>
       <c r="O54" t="n">
-        <v>1.093053214691514</v>
+        <v>1.115942113168684</v>
       </c>
       <c r="P54" t="n">
-        <v>22.19479857962176</v>
+        <v>17.27942709275378</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.395063913413674</v>
+        <v>1.364578927569458</v>
       </c>
       <c r="R54" t="n">
-        <v>3.53123600016814</v>
+        <v>3.742890288988201</v>
       </c>
       <c r="S54" t="n">
-        <v>1.047181387274964</v>
+        <v>1.061427223102041</v>
       </c>
       <c r="T54" t="n">
-        <v>2.585174197868528</v>
+        <v>2.123487799417721</v>
       </c>
       <c r="U54" t="n">
-        <v>1.630845494043891</v>
+        <v>1.890085322260089</v>
       </c>
       <c r="V54" t="n">
-        <v>1.446210778891039</v>
+        <v>1.385180893082583</v>
       </c>
       <c r="W54" t="n">
-        <v>3.241093329222761</v>
+        <v>3.596182775311235</v>
       </c>
       <c r="X54" t="n">
-        <v>4.395187575830167</v>
+        <v>3.335572237051201</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.294534536801104</v>
+        <v>1.428160595564605</v>
       </c>
       <c r="Z54" t="n">
-        <v>1.899165838451051</v>
+        <v>1.777026982309863</v>
       </c>
       <c r="AA54" t="n">
-        <v>2.112141895562504</v>
+        <v>2.286956595802256</v>
       </c>
       <c r="AB54" t="n">
-        <v>8.389725435768687</v>
+        <v>5.847958211141608</v>
       </c>
       <c r="AC54" t="n">
-        <v>1.135323025015202</v>
+        <v>1.206272405092477</v>
       </c>
       <c r="AD54" t="n">
-        <v>2.729851021404505</v>
+        <v>2.48662579062725</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.578084463706058</v>
+        <v>1.672664234876533</v>
       </c>
     </row>
     <row r="55">
@@ -6071,85 +6071,85 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1.55423867040608</v>
+        <v>1.318934524154589</v>
       </c>
       <c r="F55" t="n">
-        <v>7.869853026025827</v>
+        <v>10.82549924348762</v>
       </c>
       <c r="G55" t="n">
-        <v>4.35671004328102</v>
+        <v>6.691749269202035</v>
       </c>
       <c r="H55" t="n">
-        <v>2.005271159635889</v>
+        <v>1.557726050221929</v>
       </c>
       <c r="I55" t="n">
-        <v>1.153198689631674</v>
+        <v>1.091916349757313</v>
       </c>
       <c r="J55" t="n">
-        <v>7.527470975138487</v>
+        <v>11.87945727436198</v>
       </c>
       <c r="K55" t="n">
-        <v>1.99475647979616</v>
+        <v>2.792994965184223</v>
       </c>
       <c r="L55" t="n">
-        <v>2.812243280175473</v>
+        <v>1.953920556110736</v>
       </c>
       <c r="M55" t="n">
-        <v>1.074085569895724</v>
+        <v>1.045092016741606</v>
       </c>
       <c r="N55" t="n">
-        <v>14.49790521160213</v>
+        <v>23.17687458359586</v>
       </c>
       <c r="O55" t="n">
-        <v>1.551802294393485</v>
+        <v>2.048305326469887</v>
       </c>
       <c r="P55" t="n">
-        <v>4.308401915184434</v>
+        <v>2.620392981363771</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.033222696373625</v>
+        <v>1.020535443650192</v>
       </c>
       <c r="R55" t="n">
-        <v>31.09990485883338</v>
+        <v>49.69629393132998</v>
       </c>
       <c r="S55" t="n">
-        <v>1.302260736644585</v>
+        <v>1.617134245520102</v>
       </c>
       <c r="T55" t="n">
-        <v>2.055208207782195</v>
+        <v>1.393613133095116</v>
       </c>
       <c r="U55" t="n">
-        <v>1.947680270703892</v>
+        <v>3.540565636457946</v>
       </c>
       <c r="V55" t="n">
-        <v>5.074250659302534</v>
+        <v>3.965021826274204</v>
       </c>
       <c r="W55" t="n">
-        <v>1.245443907020485</v>
+        <v>1.337265645446052</v>
       </c>
       <c r="X55" t="n">
-        <v>3.184114978619971</v>
+        <v>1.793836564465636</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.457851353884239</v>
+        <v>2.259705139272769</v>
       </c>
       <c r="Z55" t="n">
-        <v>10.93974477940429</v>
+        <v>7.873527875683308</v>
       </c>
       <c r="AA55" t="n">
-        <v>1.100606204906997</v>
+        <v>1.145485697895797</v>
       </c>
       <c r="AB55" t="n">
-        <v>5.499587368822462</v>
+        <v>2.51986675841664</v>
       </c>
       <c r="AC55" t="n">
-        <v>1.222242600939139</v>
+        <v>1.657952412250779</v>
       </c>
       <c r="AD55" t="n">
-        <v>26.80956054740497</v>
+        <v>17.70883363529418</v>
       </c>
       <c r="AE55" t="n">
-        <v>1.03874533230286</v>
+        <v>1.059848582003216</v>
       </c>
     </row>
     <row r="56">
@@ -6174,85 +6174,85 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2.035669134587441</v>
+        <v>1.936790890754206</v>
       </c>
       <c r="F56" t="n">
-        <v>6.887331393700006</v>
+        <v>7.084159518505095</v>
       </c>
       <c r="G56" t="n">
-        <v>2.750525287346188</v>
+        <v>2.919520552748094</v>
       </c>
       <c r="H56" t="n">
-        <v>2.876131952038398</v>
+        <v>2.677061716567519</v>
       </c>
       <c r="I56" t="n">
-        <v>1.308989972429211</v>
+        <v>1.283295154905268</v>
       </c>
       <c r="J56" t="n">
-        <v>4.236350979736401</v>
+        <v>4.529887407832274</v>
       </c>
       <c r="K56" t="n">
-        <v>1.533011550127649</v>
+        <v>1.596280977689195</v>
       </c>
       <c r="L56" t="n">
-        <v>4.459632034955696</v>
+        <v>4.042924752935107</v>
       </c>
       <c r="M56" t="n">
-        <v>1.160951470658233</v>
+        <v>1.148058791372254</v>
       </c>
       <c r="N56" t="n">
-        <v>7.213052890479112</v>
+        <v>7.754073775232787</v>
       </c>
       <c r="O56" t="n">
-        <v>1.289048080806318</v>
+        <v>1.328631195705852</v>
       </c>
       <c r="P56" t="n">
-        <v>7.60910427749105</v>
+        <v>6.692080806163098</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.079429038217229</v>
+        <v>1.073222092415789</v>
       </c>
       <c r="R56" t="n">
-        <v>13.58985406905109</v>
+        <v>14.65708035658885</v>
       </c>
       <c r="S56" t="n">
-        <v>1.151306433975591</v>
+        <v>1.175682678102048</v>
       </c>
       <c r="T56" t="n">
-        <v>2.638712213510438</v>
+        <v>2.373542380227525</v>
       </c>
       <c r="U56" t="n">
-        <v>1.610235276063396</v>
+        <v>1.728044517879639</v>
       </c>
       <c r="V56" t="n">
-        <v>3.431670097625929</v>
+        <v>3.339001464736929</v>
       </c>
       <c r="W56" t="n">
-        <v>1.411239995497873</v>
+        <v>1.427532866086713</v>
       </c>
       <c r="X56" t="n">
-        <v>4.521846936305136</v>
+        <v>3.902026476351745</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.283941925383369</v>
+        <v>1.344586794141568</v>
       </c>
       <c r="Z56" t="n">
-        <v>6.479623070369718</v>
+        <v>6.243411549043246</v>
       </c>
       <c r="AA56" t="n">
-        <v>1.182494304290264</v>
+        <v>1.190715527600054</v>
       </c>
       <c r="AB56" t="n">
-        <v>8.704666877882753</v>
+        <v>7.185192926222812</v>
       </c>
       <c r="AC56" t="n">
-        <v>1.129791464816036</v>
+        <v>1.16167644436124</v>
       </c>
       <c r="AD56" t="n">
-        <v>13.82285138806922</v>
+        <v>13.18271243793897</v>
       </c>
       <c r="AE56" t="n">
-        <v>1.07798577474979</v>
+        <v>1.082083526562265</v>
       </c>
     </row>
     <row r="57">
@@ -6277,85 +6277,85 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2.528951198844917</v>
+        <v>2.266552349646305</v>
       </c>
       <c r="F57" t="n">
-        <v>7.444415013693304</v>
+        <v>6.952309575820493</v>
       </c>
       <c r="G57" t="n">
-        <v>2.126527204839289</v>
+        <v>2.409846527666692</v>
       </c>
       <c r="H57" t="n">
-        <v>3.666382046236328</v>
+        <v>3.277220110002383</v>
       </c>
       <c r="I57" t="n">
-        <v>1.5140819004212</v>
+        <v>1.392933413825564</v>
       </c>
       <c r="J57" t="n">
-        <v>2.945215342498301</v>
+        <v>3.544960455930918</v>
       </c>
       <c r="K57" t="n">
-        <v>1.375040029020421</v>
+        <v>1.4391319028001</v>
       </c>
       <c r="L57" t="n">
-        <v>5.778248877863725</v>
+        <v>5.195134291995729</v>
       </c>
       <c r="M57" t="n">
-        <v>1.292564977052958</v>
+        <v>1.211621316024869</v>
       </c>
       <c r="N57" t="n">
-        <v>4.418044121593504</v>
+        <v>5.725421894089735</v>
       </c>
       <c r="O57" t="n">
-        <v>1.209281689916303</v>
+        <v>1.238371391806929</v>
       </c>
       <c r="P57" t="n">
-        <v>9.92310317119864</v>
+        <v>9.049004027292828</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.161273516323316</v>
+        <v>1.109029833749928</v>
       </c>
       <c r="R57" t="n">
-        <v>7.200646099854554</v>
+        <v>10.17180156665749</v>
       </c>
       <c r="S57" t="n">
-        <v>1.112068635856159</v>
+        <v>1.124238973742486</v>
       </c>
       <c r="T57" t="n">
-        <v>2.264827759224411</v>
+        <v>2.663979267747197</v>
       </c>
       <c r="U57" t="n">
-        <v>1.790621483998104</v>
+        <v>1.600969026106837</v>
       </c>
       <c r="V57" t="n">
-        <v>2.017162087346086</v>
+        <v>2.801350134478757</v>
       </c>
       <c r="W57" t="n">
-        <v>1.983127480310573</v>
+        <v>1.555139159711092</v>
       </c>
       <c r="X57" t="n">
-        <v>3.653523616751567</v>
+        <v>4.581882734382917</v>
       </c>
       <c r="Y57" t="n">
-        <v>1.376857395836633</v>
+        <v>1.279182785745854</v>
       </c>
       <c r="Z57" t="n">
-        <v>3.100340894599623</v>
+        <v>4.911136534715656</v>
       </c>
       <c r="AA57" t="n">
-        <v>1.47611318837394</v>
+        <v>1.255680156170437</v>
       </c>
       <c r="AB57" t="n">
-        <v>6.592122142580507</v>
+        <v>8.854709680353656</v>
       </c>
       <c r="AC57" t="n">
-        <v>1.178822989645671</v>
+        <v>1.127312152924152</v>
       </c>
       <c r="AD57" t="n">
-        <v>5.308668952710479</v>
+        <v>9.686038525268184</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.23209023737387</v>
+        <v>1.115127281221577</v>
       </c>
     </row>
     <row r="58">
@@ -6380,85 +6380,85 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1.24308074826074</v>
+        <v>1.286445085630439</v>
       </c>
       <c r="F58" t="n">
-        <v>12.30879867267064</v>
+        <v>11.01139859263654</v>
       </c>
       <c r="G58" t="n">
-        <v>8.748574737563324</v>
+        <v>7.584429408943487</v>
       </c>
       <c r="H58" t="n">
-        <v>1.436531207773643</v>
+        <v>1.516537041034357</v>
       </c>
       <c r="I58" t="n">
-        <v>1.064371664662385</v>
+        <v>1.075769738556126</v>
       </c>
       <c r="J58" t="n">
-        <v>16.53478545637704</v>
+        <v>14.1978810941687</v>
       </c>
       <c r="K58" t="n">
-        <v>3.290786963663169</v>
+        <v>2.93596958312518</v>
       </c>
       <c r="L58" t="n">
-        <v>1.759549755674456</v>
+        <v>1.905924185538732</v>
       </c>
       <c r="M58" t="n">
-        <v>1.029794882789104</v>
+        <v>1.035092842082735</v>
       </c>
       <c r="N58" t="n">
-        <v>34.56281033485779</v>
+        <v>29.49583962571049</v>
       </c>
       <c r="O58" t="n">
-        <v>2.316569444633724</v>
+        <v>2.10384512960687</v>
       </c>
       <c r="P58" t="n">
-        <v>2.301550297935243</v>
+        <v>2.572028483268746</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.012684533010461</v>
+        <v>1.014941083837134</v>
       </c>
       <c r="R58" t="n">
-        <v>79.83616993824823</v>
+        <v>67.92954881322923</v>
       </c>
       <c r="S58" t="n">
-        <v>1.768314525828454</v>
+        <v>1.636120789567809</v>
       </c>
       <c r="T58" t="n">
-        <v>1.373462884938771</v>
+        <v>1.484486629494027</v>
       </c>
       <c r="U58" t="n">
-        <v>3.677642251288099</v>
+        <v>3.06404044843167</v>
       </c>
       <c r="V58" t="n">
-        <v>5.263309638176247</v>
+        <v>5.556902500849151</v>
       </c>
       <c r="W58" t="n">
-        <v>1.234559552289</v>
+        <v>1.219447310934051</v>
       </c>
       <c r="X58" t="n">
-        <v>1.753700960489228</v>
+        <v>1.976351999074109</v>
       </c>
       <c r="Y58" t="n">
-        <v>2.32678615581291</v>
+        <v>2.024220773807313</v>
       </c>
       <c r="Z58" t="n">
-        <v>11.48250672861889</v>
+        <v>12.33603041181138</v>
       </c>
       <c r="AA58" t="n">
-        <v>1.095397029154281</v>
+        <v>1.088214301097681</v>
       </c>
       <c r="AB58" t="n">
-        <v>2.440623025911436</v>
+        <v>2.885559365067029</v>
       </c>
       <c r="AC58" t="n">
-        <v>1.694144118213946</v>
+        <v>1.530346600868995</v>
       </c>
       <c r="AD58" t="n">
-        <v>28.48814751566446</v>
+        <v>31.16427901227232</v>
       </c>
       <c r="AE58" t="n">
-        <v>1.036379315828036</v>
+        <v>1.033151795194347</v>
       </c>
     </row>
     <row r="59">
@@ -6483,85 +6483,85 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2.067721433405485</v>
+        <v>1.319921713816288</v>
       </c>
       <c r="F59" t="n">
-        <v>8.017075067626983</v>
+        <v>11.23393851006309</v>
       </c>
       <c r="G59" t="n">
-        <v>2.553351711481512</v>
+        <v>6.520463370168565</v>
       </c>
       <c r="H59" t="n">
-        <v>2.772119572242595</v>
+        <v>1.546227698173787</v>
       </c>
       <c r="I59" t="n">
-        <v>1.383849713747811</v>
+        <v>1.097928256512261</v>
       </c>
       <c r="J59" t="n">
-        <v>3.605186259581263</v>
+        <v>11.21155727279596</v>
       </c>
       <c r="K59" t="n">
-        <v>1.564296007822154</v>
+        <v>2.830738359375255</v>
       </c>
       <c r="L59" t="n">
-        <v>3.982289785573495</v>
+        <v>1.914141322752842</v>
       </c>
       <c r="M59" t="n">
-        <v>1.223401954038029</v>
+        <v>1.049949332311024</v>
       </c>
       <c r="N59" t="n">
-        <v>5.476236585781047</v>
+        <v>21.0202876341414</v>
       </c>
       <c r="O59" t="n">
-        <v>1.335312820651229</v>
+        <v>2.093922761295381</v>
       </c>
       <c r="P59" t="n">
-        <v>6.155512362798222</v>
+        <v>2.520756456739362</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.125316415897839</v>
+        <v>1.023800437832865</v>
       </c>
       <c r="R59" t="n">
-        <v>8.979800514046193</v>
+        <v>43.01603378149366</v>
       </c>
       <c r="S59" t="n">
-        <v>1.19396714227977</v>
+        <v>1.657567485949782</v>
       </c>
       <c r="T59" t="n">
-        <v>1.603313545562049</v>
+        <v>1.292492712482592</v>
       </c>
       <c r="U59" t="n">
-        <v>2.65751292566852</v>
+        <v>4.418888599009161</v>
       </c>
       <c r="V59" t="n">
-        <v>1.784792644481808</v>
+        <v>3.100650398688573</v>
       </c>
       <c r="W59" t="n">
-        <v>2.274221932419222</v>
+        <v>1.476043039157918</v>
       </c>
       <c r="X59" t="n">
-        <v>2.218996985716398</v>
+        <v>1.593505580785723</v>
       </c>
       <c r="Y59" t="n">
-        <v>1.820346573221677</v>
+        <v>2.684904122849411</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.598602981901347</v>
+        <v>5.644531020781406</v>
       </c>
       <c r="AA59" t="n">
-        <v>1.625546187090568</v>
+        <v>1.215306991281922</v>
       </c>
       <c r="AB59" t="n">
-        <v>3.384768023531284</v>
+        <v>2.12862604504712</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.419327997579921</v>
+        <v>1.886033070376512</v>
       </c>
       <c r="AD59" t="n">
-        <v>4.193414188743356</v>
+        <v>11.58599600658479</v>
       </c>
       <c r="AE59" t="n">
-        <v>1.313144471996447</v>
+        <v>1.094464422561464</v>
       </c>
     </row>
     <row r="60">
@@ -6586,85 +6586,85 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>4.683508100856486</v>
+        <v>4.185301656379039</v>
       </c>
       <c r="F60" t="n">
-        <v>9.133156247464287</v>
+        <v>9.024811646058243</v>
       </c>
       <c r="G60" t="n">
-        <v>1.477118702986973</v>
+        <v>1.537839400610779</v>
       </c>
       <c r="H60" t="n">
-        <v>7.728627315137062</v>
+        <v>6.635000803728352</v>
       </c>
       <c r="I60" t="n">
-        <v>2.22209310445284</v>
+        <v>2.106395006229289</v>
       </c>
       <c r="J60" t="n">
-        <v>1.818268261523105</v>
+        <v>1.903836328227932</v>
       </c>
       <c r="K60" t="n">
-        <v>1.148618723130994</v>
+        <v>1.177462263951827</v>
       </c>
       <c r="L60" t="n">
-        <v>13.94750505198537</v>
+        <v>11.42690677163102</v>
       </c>
       <c r="M60" t="n">
-        <v>1.719511675424064</v>
+        <v>1.662010994016231</v>
       </c>
       <c r="N60" t="n">
-        <v>2.389831512338728</v>
+        <v>2.510548932024958</v>
       </c>
       <c r="O60" t="n">
-        <v>1.077234957313004</v>
+        <v>1.095905719874733</v>
       </c>
       <c r="P60" t="n">
-        <v>27.55022035133727</v>
+        <v>21.41615801853795</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.421483975646851</v>
+        <v>1.392848798381637</v>
       </c>
       <c r="R60" t="n">
-        <v>3.372569439835283</v>
+        <v>3.545508613287238</v>
       </c>
       <c r="S60" t="n">
-        <v>1.037664470831769</v>
+        <v>1.048980812114208</v>
       </c>
       <c r="T60" t="n">
-        <v>3.089844429740125</v>
+        <v>2.498298964061621</v>
       </c>
       <c r="U60" t="n">
-        <v>1.478504517259379</v>
+        <v>1.667423540952854</v>
       </c>
       <c r="V60" t="n">
-        <v>1.496129837570696</v>
+        <v>1.432269272066613</v>
       </c>
       <c r="W60" t="n">
-        <v>3.015601409696518</v>
+        <v>3.313372854885458</v>
       </c>
       <c r="X60" t="n">
-        <v>5.617684141798049</v>
+        <v>4.191273585962709</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.216558770433921</v>
+        <v>1.313354519148295</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.999923851742887</v>
+        <v>1.871165611290109</v>
       </c>
       <c r="AA60" t="n">
-        <v>2.000076154056112</v>
+        <v>2.147887367270042</v>
       </c>
       <c r="AB60" t="n">
-        <v>11.51533630648567</v>
+        <v>7.887388262030714</v>
       </c>
       <c r="AC60" t="n">
-        <v>1.095099193297624</v>
+        <v>1.145192918121499</v>
       </c>
       <c r="AD60" t="n">
-        <v>2.933414489149875</v>
+        <v>2.673746256557781</v>
       </c>
       <c r="AE60" t="n">
-        <v>1.517219667904579</v>
+        <v>1.597462127895417</v>
       </c>
     </row>
     <row r="61">
@@ -6689,85 +6689,85 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4.253634068460408</v>
+        <v>3.959640564114464</v>
       </c>
       <c r="F61" t="n">
-        <v>9.028828430536098</v>
+        <v>9.066778574676043</v>
       </c>
       <c r="G61" t="n">
-        <v>1.52870005105193</v>
+        <v>1.569466793944114</v>
       </c>
       <c r="H61" t="n">
-        <v>6.785150618910112</v>
+        <v>6.132094910634113</v>
       </c>
       <c r="I61" t="n">
-        <v>2.121763383542122</v>
+        <v>2.059486372822174</v>
       </c>
       <c r="J61" t="n">
-        <v>1.891453594110339</v>
+        <v>1.943853574384615</v>
       </c>
       <c r="K61" t="n">
-        <v>1.172856346510887</v>
+        <v>1.194852203128185</v>
       </c>
       <c r="L61" t="n">
-        <v>11.7706611141879</v>
+        <v>10.27208054828898</v>
       </c>
       <c r="M61" t="n">
-        <v>1.669364140055962</v>
+        <v>1.641440679895805</v>
       </c>
       <c r="N61" t="n">
-        <v>2.493955143632876</v>
+        <v>2.55899061494266</v>
       </c>
       <c r="O61" t="n">
-        <v>1.092844811418561</v>
+        <v>1.10785065927674</v>
       </c>
       <c r="P61" t="n">
-        <v>22.24180344766067</v>
+        <v>18.65743763933429</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.396303342090977</v>
+        <v>1.384531017241923</v>
       </c>
       <c r="R61" t="n">
-        <v>3.52331962360902</v>
+        <v>3.600570448575451</v>
       </c>
       <c r="S61" t="n">
-        <v>1.047076982068118</v>
+        <v>1.056633358725411</v>
       </c>
       <c r="T61" t="n">
-        <v>2.583122326494269</v>
+        <v>2.19273017045678</v>
       </c>
       <c r="U61" t="n">
-        <v>1.631663127519931</v>
+        <v>1.838412597223922</v>
       </c>
       <c r="V61" t="n">
-        <v>1.444202212286856</v>
+        <v>1.377697387010574</v>
       </c>
       <c r="W61" t="n">
-        <v>3.251226969023337</v>
+        <v>3.647622235130806</v>
       </c>
       <c r="X61" t="n">
-        <v>4.390348264498398</v>
+        <v>3.490599462058468</v>
       </c>
       <c r="Y61" t="n">
-        <v>1.294954949163003</v>
+        <v>1.401509763104785</v>
       </c>
       <c r="Z61" t="n">
-        <v>1.89512811378425</v>
+        <v>1.762125738928065</v>
       </c>
       <c r="AA61" t="n">
-        <v>2.117158521334329</v>
+        <v>2.312119442923561</v>
       </c>
       <c r="AB61" t="n">
-        <v>8.377736180871288</v>
+        <v>6.208679282535669</v>
       </c>
       <c r="AC61" t="n">
-        <v>1.135542932884041</v>
+        <v>1.191987247775637</v>
       </c>
       <c r="AD61" t="n">
-        <v>2.721747953261485</v>
+        <v>2.457221361867918</v>
       </c>
       <c r="AE61" t="n">
-        <v>1.580805104548382</v>
+        <v>1.68623753821325</v>
       </c>
     </row>
     <row r="62">
@@ -6792,85 +6792,85 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.227211723460287</v>
+        <v>1.198176212721951</v>
       </c>
       <c r="F62" t="n">
-        <v>13.67989101594477</v>
+        <v>14.6488744310254</v>
       </c>
       <c r="G62" t="n">
-        <v>8.92501068731937</v>
+        <v>10.29509982990978</v>
       </c>
       <c r="H62" t="n">
-        <v>1.392344786567048</v>
+        <v>1.348286157517112</v>
       </c>
       <c r="I62" t="n">
-        <v>1.066431523116624</v>
+        <v>1.055055012130897</v>
       </c>
       <c r="J62" t="n">
-        <v>16.05309457144991</v>
+        <v>19.1636505250864</v>
       </c>
       <c r="K62" t="n">
-        <v>3.548778610644569</v>
+        <v>3.871202252564019</v>
       </c>
       <c r="L62" t="n">
-        <v>1.658543542119793</v>
+        <v>1.592134523413936</v>
       </c>
       <c r="M62" t="n">
-        <v>1.03279488718441</v>
+        <v>1.026277923886733</v>
       </c>
       <c r="N62" t="n">
-        <v>31.4925580129878</v>
+        <v>39.05475669654725</v>
       </c>
       <c r="O62" t="n">
-        <v>2.518502477119567</v>
+        <v>2.688805432648186</v>
       </c>
       <c r="P62" t="n">
-        <v>2.08952879341176</v>
+        <v>1.988002464739415</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.015050503001831</v>
+        <v>1.011605822188699</v>
       </c>
       <c r="R62" t="n">
-        <v>67.44296206434562</v>
+        <v>87.16364991130894</v>
       </c>
       <c r="S62" t="n">
-        <v>1.917827969344978</v>
+        <v>2.012143224018931</v>
       </c>
       <c r="T62" t="n">
-        <v>1.209038649405106</v>
+        <v>1.214390198764355</v>
       </c>
       <c r="U62" t="n">
-        <v>5.783804348362651</v>
+        <v>5.664392335860191</v>
       </c>
       <c r="V62" t="n">
-        <v>3.389322262437592</v>
+        <v>3.995926256540637</v>
       </c>
       <c r="W62" t="n">
-        <v>1.418528724953074</v>
+        <v>1.333786586975171</v>
       </c>
       <c r="X62" t="n">
-        <v>1.429746331533833</v>
+        <v>1.440225546228477</v>
       </c>
       <c r="Y62" t="n">
-        <v>3.326954127638136</v>
+        <v>3.27156285810138</v>
       </c>
       <c r="Z62" t="n">
-        <v>6.371449802292336</v>
+        <v>7.956009790025726</v>
       </c>
       <c r="AA62" t="n">
-        <v>1.186169476920968</v>
+        <v>1.143760579726887</v>
       </c>
       <c r="AB62" t="n">
-        <v>1.816714649404493</v>
+        <v>1.836470143101315</v>
       </c>
       <c r="AC62" t="n">
-        <v>2.224417856015132</v>
+        <v>2.195499932959206</v>
       </c>
       <c r="AD62" t="n">
-        <v>13.52899574791651</v>
+        <v>17.94421053285179</v>
       </c>
       <c r="AE62" t="n">
-        <v>1.07981485668285</v>
+        <v>1.059017208152671</v>
       </c>
     </row>
     <row r="63">
@@ -6895,85 +6895,85 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3.845645972011868</v>
+        <v>3.777723741441723</v>
       </c>
       <c r="F63" t="n">
-        <v>8.899982615337244</v>
+        <v>8.987810805502452</v>
       </c>
       <c r="G63" t="n">
-        <v>1.593356612703392</v>
+        <v>1.602490829104831</v>
       </c>
       <c r="H63" t="n">
-        <v>5.940469386366117</v>
+        <v>5.77204862021581</v>
       </c>
       <c r="I63" t="n">
-        <v>2.014037880985227</v>
+        <v>2.006717388553154</v>
       </c>
       <c r="J63" t="n">
-        <v>1.986156453078864</v>
+        <v>1.993327433667548</v>
       </c>
       <c r="K63" t="n">
-        <v>1.202409917316689</v>
+        <v>1.209553606759936</v>
       </c>
       <c r="L63" t="n">
-        <v>9.932323123740009</v>
+        <v>9.522939849835526</v>
       </c>
       <c r="M63" t="n">
-        <v>1.611623001729875</v>
+        <v>1.611682423416567</v>
       </c>
       <c r="N63" t="n">
-        <v>2.634994101221935</v>
+        <v>2.634835270260795</v>
       </c>
       <c r="O63" t="n">
-        <v>1.111952958502165</v>
+        <v>1.117330406833658</v>
       </c>
       <c r="P63" t="n">
-        <v>18.0161850429804</v>
+        <v>17.01142514820806</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.3648850030307</v>
+        <v>1.36743425933222</v>
       </c>
       <c r="R63" t="n">
-        <v>3.740589478038548</v>
+        <v>3.721575287555968</v>
       </c>
       <c r="S63" t="n">
-        <v>1.058767579070993</v>
+        <v>1.062455402360727</v>
       </c>
       <c r="T63" t="n">
-        <v>2.220006219917365</v>
+        <v>2.072702871115217</v>
       </c>
       <c r="U63" t="n">
-        <v>1.819667952240222</v>
+        <v>1.932224595390863</v>
       </c>
       <c r="V63" t="n">
-        <v>1.408246350121849</v>
+        <v>1.369001662875302</v>
       </c>
       <c r="W63" t="n">
-        <v>3.449501384890594</v>
+        <v>3.710014887759281</v>
       </c>
       <c r="X63" t="n">
-        <v>3.552058328779776</v>
+        <v>3.222786144950166</v>
       </c>
       <c r="Y63" t="n">
-        <v>1.391840573831294</v>
+        <v>1.449885834618795</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.823056905793393</v>
+        <v>1.744830530320896</v>
       </c>
       <c r="AA63" t="n">
-        <v>2.21498281948809</v>
+        <v>2.342587285686542</v>
       </c>
       <c r="AB63" t="n">
-        <v>6.352808533883495</v>
+        <v>5.588147636527867</v>
       </c>
       <c r="AC63" t="n">
-        <v>1.186817816043664</v>
+        <v>1.217952881907863</v>
       </c>
       <c r="AD63" t="n">
-        <v>2.577828153584585</v>
+        <v>2.42316713584022</v>
       </c>
       <c r="AE63" t="n">
-        <v>1.633782581283109</v>
+        <v>1.702658159267859</v>
       </c>
     </row>
     <row r="64">
@@ -6998,85 +6998,85 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3.374418073705304</v>
+        <v>2.216027892704747</v>
       </c>
       <c r="F64" t="n">
-        <v>8.645689726628914</v>
+        <v>7.072396292556054</v>
       </c>
       <c r="G64" t="n">
-        <v>1.70071487954281</v>
+        <v>2.454907338685301</v>
       </c>
       <c r="H64" t="n">
-        <v>5.038743282484511</v>
+        <v>3.162800212609449</v>
       </c>
       <c r="I64" t="n">
-        <v>1.867113872471543</v>
+        <v>1.383969764934243</v>
       </c>
       <c r="J64" t="n">
-        <v>2.153251068570372</v>
+        <v>3.60437172747509</v>
       </c>
       <c r="K64" t="n">
-        <v>1.247601773635097</v>
+        <v>1.462363557285528</v>
       </c>
       <c r="L64" t="n">
-        <v>8.113280414477064</v>
+        <v>4.932494328195848</v>
       </c>
       <c r="M64" t="n">
-        <v>1.525640798248796</v>
+        <v>1.208502063627634</v>
       </c>
       <c r="N64" t="n">
-        <v>2.902439847385441</v>
+        <v>5.796115600015899</v>
       </c>
       <c r="O64" t="n">
-        <v>1.140582114261204</v>
+        <v>1.254291530144121</v>
       </c>
       <c r="P64" t="n">
-        <v>14.12925283502606</v>
+        <v>8.42641098344539</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.313765618715353</v>
+        <v>1.108359079180207</v>
       </c>
       <c r="R64" t="n">
-        <v>4.187092340117722</v>
+        <v>10.22857602302937</v>
       </c>
       <c r="S64" t="n">
-        <v>1.076165796528209</v>
+        <v>1.134654546082779</v>
       </c>
       <c r="T64" t="n">
-        <v>1.962891787511846</v>
+        <v>2.460381261399291</v>
       </c>
       <c r="U64" t="n">
-        <v>2.038538299910152</v>
+        <v>1.684752691938701</v>
       </c>
       <c r="V64" t="n">
-        <v>1.41005563296608</v>
+        <v>2.665288863036721</v>
       </c>
       <c r="W64" t="n">
-        <v>3.438693483532072</v>
+        <v>1.600496419688089</v>
       </c>
       <c r="X64" t="n">
-        <v>2.981621366690422</v>
+        <v>4.102909644613043</v>
       </c>
       <c r="Y64" t="n">
-        <v>1.504637271685325</v>
+        <v>1.322278156483254</v>
       </c>
       <c r="Z64" t="n">
-        <v>1.826674164439192</v>
+        <v>4.584998899935298</v>
       </c>
       <c r="AA64" t="n">
-        <v>2.209666447817915</v>
+        <v>1.278940113487356</v>
       </c>
       <c r="AB64" t="n">
-        <v>5.040339361722618</v>
+        <v>7.671555904482554</v>
       </c>
       <c r="AC64" t="n">
-        <v>1.247503962036903</v>
+        <v>1.149890072768199</v>
       </c>
       <c r="AD64" t="n">
-        <v>2.585019023403371</v>
+        <v>8.862510900236112</v>
       </c>
       <c r="AE64" t="n">
-        <v>1.630907254256664</v>
+        <v>1.127185833213913</v>
       </c>
     </row>
     <row r="65">
@@ -7101,85 +7101,85 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1.986887810590455</v>
+        <v>1.839906509774019</v>
       </c>
       <c r="F65" t="n">
-        <v>7.480371975702175</v>
+        <v>7.361816372770223</v>
       </c>
       <c r="G65" t="n">
-        <v>2.754690957422163</v>
+        <v>3.118586613203832</v>
       </c>
       <c r="H65" t="n">
-        <v>2.705814360547453</v>
+        <v>2.482582667648289</v>
       </c>
       <c r="I65" t="n">
-        <v>1.323537868618975</v>
+        <v>1.258718135781388</v>
       </c>
       <c r="J65" t="n">
-        <v>4.090828298611568</v>
+        <v>4.865210287557814</v>
       </c>
       <c r="K65" t="n">
-        <v>1.586230262288955</v>
+        <v>1.674498644710467</v>
       </c>
       <c r="L65" t="n">
-        <v>3.988220030292307</v>
+        <v>3.640482847945037</v>
       </c>
       <c r="M65" t="n">
-        <v>1.177894754715351</v>
+        <v>1.136077863792948</v>
       </c>
       <c r="N65" t="n">
-        <v>6.621301210370696</v>
+        <v>8.348733821406622</v>
       </c>
       <c r="O65" t="n">
-        <v>1.334647378661129</v>
+        <v>1.378718612309204</v>
       </c>
       <c r="P65" t="n">
-        <v>6.384220166771398</v>
+        <v>5.823012499845651</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.093424904671576</v>
+        <v>1.067685511023936</v>
       </c>
       <c r="R65" t="n">
-        <v>11.70378400187169</v>
+        <v>15.77421068219998</v>
       </c>
       <c r="S65" t="n">
-        <v>1.185727917697623</v>
+        <v>1.207339292616804</v>
       </c>
       <c r="T65" t="n">
-        <v>1.964514401110457</v>
+        <v>2.106850806894726</v>
       </c>
       <c r="U65" t="n">
-        <v>2.036791155060711</v>
+        <v>1.903464128833681</v>
       </c>
       <c r="V65" t="n">
-        <v>2.455608666146461</v>
+        <v>3.175580722142818</v>
       </c>
       <c r="W65" t="n">
-        <v>1.686997833454353</v>
+        <v>1.459647389693295</v>
       </c>
       <c r="X65" t="n">
-        <v>2.985157544277414</v>
+        <v>3.298537713416592</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.503738357130741</v>
+        <v>1.435059209236807</v>
       </c>
       <c r="Z65" t="n">
-        <v>4.091815274922133</v>
+        <v>5.831427020706947</v>
       </c>
       <c r="AA65" t="n">
-        <v>1.323434588124022</v>
+        <v>1.206978185888789</v>
       </c>
       <c r="AB65" t="n">
-        <v>5.048293410138109</v>
+        <v>5.762399213559354</v>
       </c>
       <c r="AC65" t="n">
-        <v>1.247017668604679</v>
+        <v>1.209978196945949</v>
       </c>
       <c r="AD65" t="n">
-        <v>7.64453811716705</v>
+        <v>12.08012522150434</v>
       </c>
       <c r="AE65" t="n">
-        <v>1.150499550512979</v>
+        <v>1.090251687594577</v>
       </c>
     </row>
     <row r="66">
@@ -7204,85 +7204,85 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3.396043217629221</v>
+        <v>2.457445937079533</v>
       </c>
       <c r="F66" t="n">
-        <v>8.67916482765302</v>
+        <v>7.388982769537627</v>
       </c>
       <c r="G66" t="n">
-        <v>1.693992996880594</v>
+        <v>2.184661471298806</v>
       </c>
       <c r="H66" t="n">
-        <v>5.073746478405721</v>
+        <v>3.544146761902749</v>
       </c>
       <c r="I66" t="n">
-        <v>1.876220033343323</v>
+        <v>1.48686309628772</v>
       </c>
       <c r="J66" t="n">
-        <v>2.141265848698277</v>
+        <v>3.053965493841895</v>
       </c>
       <c r="K66" t="n">
-        <v>1.245474284003887</v>
+        <v>1.39305908565279</v>
       </c>
       <c r="L66" t="n">
-        <v>8.172734145648318</v>
+        <v>5.557922098996324</v>
       </c>
       <c r="M66" t="n">
-        <v>1.531716995824753</v>
+        <v>1.275445474925381</v>
       </c>
       <c r="N66" t="n">
-        <v>2.880699710282699</v>
+        <v>4.630482585603943</v>
       </c>
       <c r="O66" t="n">
-        <v>1.139416849933954</v>
+        <v>1.219398221005183</v>
       </c>
       <c r="P66" t="n">
-        <v>14.2363996510671</v>
+        <v>9.500424505981819</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.317804626210519</v>
+        <v>1.150657653918861</v>
       </c>
       <c r="R66" t="n">
-        <v>4.146587297749352</v>
+        <v>7.637565194919114</v>
       </c>
       <c r="S66" t="n">
-        <v>1.075549244988185</v>
+        <v>1.11764118360163</v>
       </c>
       <c r="T66" t="n">
-        <v>1.956529427482888</v>
+        <v>2.263495640675011</v>
       </c>
       <c r="U66" t="n">
-        <v>2.045446142343478</v>
+        <v>1.791455045674522</v>
       </c>
       <c r="V66" t="n">
-        <v>1.402062380813194</v>
+        <v>2.089474792272263</v>
       </c>
       <c r="W66" t="n">
-        <v>3.487176238616118</v>
+        <v>1.917873462601507</v>
       </c>
       <c r="X66" t="n">
-        <v>2.967763817397759</v>
+        <v>3.650499602762797</v>
       </c>
       <c r="Y66" t="n">
-        <v>1.508191070065733</v>
+        <v>1.377287360827231</v>
       </c>
       <c r="Z66" t="n">
-        <v>1.810700763224667</v>
+        <v>3.259947562076798</v>
       </c>
       <c r="AA66" t="n">
-        <v>2.233500750662144</v>
+        <v>1.442488142990823</v>
       </c>
       <c r="AB66" t="n">
-        <v>5.009192086585739</v>
+        <v>6.584965511727716</v>
       </c>
       <c r="AC66" t="n">
-        <v>1.249426811787312</v>
+        <v>1.179052135219121</v>
       </c>
       <c r="AD66" t="n">
-        <v>2.553290997597831</v>
+        <v>5.67350290721021</v>
       </c>
       <c r="AE66" t="n">
-        <v>1.643794370498833</v>
+        <v>1.213972264456542</v>
       </c>
     </row>
     <row r="67">
@@ -7307,85 +7307,85 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1.233567080523874</v>
+        <v>1.243349023432524</v>
       </c>
       <c r="F67" t="n">
-        <v>13.51705795929539</v>
+        <v>13.30079597992821</v>
       </c>
       <c r="G67" t="n">
-        <v>8.668348152480348</v>
+        <v>8.296198516055247</v>
       </c>
       <c r="H67" t="n">
-        <v>1.401625676090297</v>
+        <v>1.415543875751284</v>
       </c>
       <c r="I67" t="n">
-        <v>1.069113224982958</v>
+        <v>1.073431869317514</v>
       </c>
       <c r="J67" t="n">
-        <v>15.46901081879167</v>
+        <v>14.61806541620335</v>
       </c>
       <c r="K67" t="n">
-        <v>3.489880651393344</v>
+        <v>3.406484750117053</v>
       </c>
       <c r="L67" t="n">
-        <v>1.671996392669672</v>
+        <v>1.691605169901942</v>
       </c>
       <c r="M67" t="n">
-        <v>1.034389423079105</v>
+        <v>1.037012132218917</v>
       </c>
       <c r="N67" t="n">
-        <v>30.07870823246257</v>
+        <v>28.01816782900429</v>
       </c>
       <c r="O67" t="n">
-        <v>2.488103226309374</v>
+        <v>2.445911689962906</v>
       </c>
       <c r="P67" t="n">
-        <v>2.109327438353927</v>
+        <v>2.137345735977223</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.015925103927075</v>
+        <v>1.017393063291265</v>
       </c>
       <c r="R67" t="n">
-        <v>63.79393871331838</v>
+        <v>58.49418508137151</v>
       </c>
       <c r="S67" t="n">
-        <v>1.901447097967618</v>
+        <v>1.879240118784801</v>
       </c>
       <c r="T67" t="n">
-        <v>1.205630919987237</v>
+        <v>1.198227908102542</v>
       </c>
       <c r="U67" t="n">
-        <v>5.863081875342821</v>
+        <v>6.044698345314251</v>
       </c>
       <c r="V67" t="n">
-        <v>3.256168523051289</v>
+        <v>3.046458945526784</v>
       </c>
       <c r="W67" t="n">
-        <v>1.443229302147864</v>
+        <v>1.488648942694811</v>
       </c>
       <c r="X67" t="n">
-        <v>1.423073855156396</v>
+        <v>1.408578823208179</v>
       </c>
       <c r="Y67" t="n">
-        <v>3.363653503548063</v>
+        <v>3.447508150686705</v>
       </c>
       <c r="Z67" t="n">
-        <v>6.033849681854839</v>
+        <v>5.510167155058006</v>
       </c>
       <c r="AA67" t="n">
-        <v>1.198655117494793</v>
+        <v>1.221721272321034</v>
       </c>
       <c r="AB67" t="n">
-        <v>1.804149456521921</v>
+        <v>1.776889780630748</v>
       </c>
       <c r="AC67" t="n">
-        <v>2.243549929543153</v>
+        <v>2.287183877213717</v>
       </c>
       <c r="AD67" t="n">
-        <v>12.61961205922057</v>
+        <v>11.23317540053319</v>
       </c>
       <c r="AE67" t="n">
-        <v>1.086061393005498</v>
+        <v>1.097721377857737</v>
       </c>
     </row>
     <row r="68">
@@ -7410,85 +7410,85 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4.820520029799469</v>
+        <v>5.151305256865331</v>
       </c>
       <c r="F68" t="n">
-        <v>9.174323287696332</v>
+        <v>9.586110459990394</v>
       </c>
       <c r="G68" t="n">
-        <v>1.462942988358487</v>
+        <v>1.425401239999731</v>
       </c>
       <c r="H68" t="n">
-        <v>8.035223081820821</v>
+        <v>8.64356979368166</v>
       </c>
       <c r="I68" t="n">
-        <v>2.253252764746561</v>
+        <v>2.368588916637009</v>
       </c>
       <c r="J68" t="n">
-        <v>1.797923633707063</v>
+        <v>1.730679598412407</v>
       </c>
       <c r="K68" t="n">
-        <v>1.142141903443548</v>
+        <v>1.130828922478947</v>
       </c>
       <c r="L68" t="n">
-        <v>14.67166264683967</v>
+        <v>15.867009227323</v>
       </c>
       <c r="M68" t="n">
-        <v>1.734991028745186</v>
+        <v>1.807268257355586</v>
       </c>
       <c r="N68" t="n">
-        <v>2.360560824405231</v>
+        <v>2.238745597746845</v>
       </c>
       <c r="O68" t="n">
-        <v>1.073143993223908</v>
+        <v>1.067263024103205</v>
       </c>
       <c r="P68" t="n">
-        <v>29.36450830012812</v>
+        <v>31.88885179801201</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.429235721343772</v>
+        <v>1.475390911675027</v>
       </c>
       <c r="R68" t="n">
-        <v>3.32972222551605</v>
+        <v>3.103532010059948</v>
       </c>
       <c r="S68" t="n">
-        <v>1.035255326460056</v>
+        <v>1.032374139593766</v>
       </c>
       <c r="T68" t="n">
-        <v>3.261900451696473</v>
+        <v>3.208270786132438</v>
       </c>
       <c r="U68" t="n">
-        <v>1.442106105620156</v>
+        <v>1.452843014670044</v>
       </c>
       <c r="V68" t="n">
-        <v>1.510590627794738</v>
+        <v>1.446737454570796</v>
       </c>
       <c r="W68" t="n">
-        <v>2.958516168459735</v>
+        <v>3.238451219544043</v>
       </c>
       <c r="X68" t="n">
-        <v>6.04830245352539</v>
+        <v>5.913363529271532</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.19808638828715</v>
+        <v>1.203526564652191</v>
       </c>
       <c r="Z68" t="n">
-        <v>2.029260786005094</v>
+        <v>1.90022479654981</v>
       </c>
       <c r="AA68" t="n">
-        <v>1.971571066922053</v>
+        <v>2.110833653808012</v>
       </c>
       <c r="AB68" t="n">
-        <v>12.65829889732123</v>
+        <v>12.29796574004173</v>
       </c>
       <c r="AC68" t="n">
-        <v>1.085775807328955</v>
+        <v>1.088511509329139</v>
       </c>
       <c r="AD68" t="n">
-        <v>2.99316979510433</v>
+        <v>2.731976881056018</v>
       </c>
       <c r="AE68" t="n">
-        <v>1.501713402669568</v>
+        <v>1.577374912412388</v>
       </c>
     </row>
     <row r="69">
@@ -7513,85 +7513,85 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.148741074366706</v>
+        <v>5.019418317177058</v>
       </c>
       <c r="F69" t="n">
-        <v>9.274067106460992</v>
+        <v>9.531803478991399</v>
       </c>
       <c r="G69" t="n">
-        <v>1.432766963766912</v>
+        <v>1.437066984206464</v>
       </c>
       <c r="H69" t="n">
-        <v>8.785901271098201</v>
+        <v>8.351754012775803</v>
       </c>
       <c r="I69" t="n">
-        <v>2.324966696989577</v>
+        <v>2.337469630834975</v>
       </c>
       <c r="J69" t="n">
-        <v>1.754735950927729</v>
+        <v>1.747680528174464</v>
       </c>
       <c r="K69" t="n">
-        <v>1.128437282362168</v>
+        <v>1.136021961325448</v>
       </c>
       <c r="L69" t="n">
-        <v>16.48687643828141</v>
+        <v>15.18353108263033</v>
       </c>
       <c r="M69" t="n">
-        <v>1.769923949826363</v>
+        <v>1.791345304031358</v>
       </c>
       <c r="N69" t="n">
-        <v>2.298829579500059</v>
+        <v>2.263670858859831</v>
       </c>
       <c r="O69" t="n">
-        <v>1.064570799927617</v>
+        <v>1.070504304899408</v>
       </c>
       <c r="P69" t="n">
-        <v>34.02857036069761</v>
+        <v>30.18740807372778</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.446356041033774</v>
+        <v>1.467086086663069</v>
       </c>
       <c r="R69" t="n">
-        <v>3.240363987645309</v>
+        <v>3.140932964079802</v>
       </c>
       <c r="S69" t="n">
-        <v>1.030276817587901</v>
+        <v>1.034261349876426</v>
       </c>
       <c r="T69" t="n">
-        <v>3.713448283977461</v>
+        <v>3.071211383751329</v>
       </c>
       <c r="U69" t="n">
-        <v>1.368534755537764</v>
+        <v>1.482809242863866</v>
       </c>
       <c r="V69" t="n">
-        <v>1.545395640570828</v>
+        <v>1.437775849150347</v>
       </c>
       <c r="W69" t="n">
-        <v>2.83353134057575</v>
+        <v>3.284274022746662</v>
       </c>
       <c r="X69" t="n">
-        <v>7.20894013961753</v>
+        <v>5.57145462686838</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.161058083588095</v>
+        <v>1.2187487532136</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.100149504524112</v>
+        <v>1.882217898994714</v>
       </c>
       <c r="AA69" t="n">
-        <v>1.908967368423773</v>
+        <v>2.133506814064302</v>
       </c>
       <c r="AB69" t="n">
-        <v>15.83383204452417</v>
+        <v>11.39385328779372</v>
       </c>
       <c r="AC69" t="n">
-        <v>1.067413463830416</v>
+        <v>1.096210709571432</v>
       </c>
       <c r="AD69" t="n">
-        <v>3.138447464963922</v>
+        <v>2.695867632645241</v>
       </c>
       <c r="AE69" t="n">
-        <v>1.467628976808589</v>
+        <v>1.589668663255389</v>
       </c>
     </row>
     <row r="70">
@@ -7616,85 +7616,85 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3.364317591544931</v>
+        <v>2.498169912099338</v>
       </c>
       <c r="F70" t="n">
-        <v>8.65923275266395</v>
+        <v>7.430118393446128</v>
       </c>
       <c r="G70" t="n">
-        <v>1.702767527077073</v>
+        <v>2.149984584422831</v>
       </c>
       <c r="H70" t="n">
-        <v>5.015177530036887</v>
+        <v>3.611738765486891</v>
       </c>
       <c r="I70" t="n">
-        <v>1.865639512443884</v>
+        <v>1.503120343525715</v>
       </c>
       <c r="J70" t="n">
-        <v>2.155215289534079</v>
+        <v>2.987596035159905</v>
       </c>
       <c r="K70" t="n">
-        <v>1.249054990101724</v>
+        <v>1.382886685764523</v>
       </c>
       <c r="L70" t="n">
-        <v>8.05880420122592</v>
+        <v>5.67579274399185</v>
       </c>
       <c r="M70" t="n">
-        <v>1.525333618377645</v>
+        <v>1.285858763101814</v>
       </c>
       <c r="N70" t="n">
-        <v>2.903552266630562</v>
+        <v>4.498231046511004</v>
       </c>
       <c r="O70" t="n">
-        <v>1.141667054573681</v>
+        <v>1.213867477613277</v>
       </c>
       <c r="P70" t="n">
-        <v>14.0016057118673</v>
+        <v>9.71854130301257</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.313907139269317</v>
+        <v>1.157210799004267</v>
       </c>
       <c r="R70" t="n">
-        <v>4.18565548501925</v>
+        <v>7.360886188059222</v>
       </c>
       <c r="S70" t="n">
-        <v>1.076913576842839</v>
+        <v>1.11469808598079</v>
       </c>
       <c r="T70" t="n">
-        <v>1.943325333041811</v>
+        <v>2.253268648622223</v>
       </c>
       <c r="U70" t="n">
-        <v>2.060079661780564</v>
+        <v>1.797913520855522</v>
       </c>
       <c r="V70" t="n">
-        <v>1.403703103646935</v>
+        <v>2.037668296762506</v>
       </c>
       <c r="W70" t="n">
-        <v>3.477067902045575</v>
+        <v>1.963699096445338</v>
       </c>
       <c r="X70" t="n">
-        <v>2.939045394210294</v>
+        <v>3.627300641228034</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.515717684065496</v>
+        <v>1.380618793413984</v>
       </c>
       <c r="Z70" t="n">
-        <v>1.813977977437925</v>
+        <v>3.145438170923466</v>
       </c>
       <c r="AA70" t="n">
-        <v>2.2285344661874</v>
+        <v>1.466105252322218</v>
       </c>
       <c r="AB70" t="n">
-        <v>4.944759526439972</v>
+        <v>6.530112156576807</v>
       </c>
       <c r="AC70" t="n">
-        <v>1.253500877125068</v>
+        <v>1.180828158939006</v>
       </c>
       <c r="AD70" t="n">
-        <v>2.559795048716335</v>
+        <v>5.411284770620049</v>
       </c>
       <c r="AE70" t="n">
-        <v>1.64110986941712</v>
+        <v>1.226691327356642</v>
       </c>
     </row>
     <row r="71">
@@ -7719,85 +7719,85 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>3.595877773961674</v>
+        <v>2.3168743845794</v>
       </c>
       <c r="F71" t="n">
-        <v>8.620583719131094</v>
+        <v>7.01203447566155</v>
       </c>
       <c r="G71" t="n">
-        <v>1.65043093986787</v>
+        <v>2.348674543128509</v>
       </c>
       <c r="H71" t="n">
-        <v>5.497440852577151</v>
+        <v>3.358129087724508</v>
       </c>
       <c r="I71" t="n">
-        <v>1.922869785036215</v>
+        <v>1.413706406044407</v>
       </c>
       <c r="J71" t="n">
-        <v>2.083576487403104</v>
+        <v>3.417173109697171</v>
       </c>
       <c r="K71" t="n">
-        <v>1.222348671784527</v>
+        <v>1.424064995086828</v>
       </c>
       <c r="L71" t="n">
-        <v>9.099028768958041</v>
+        <v>5.330645753273528</v>
       </c>
       <c r="M71" t="n">
-        <v>1.553942057269712</v>
+        <v>1.224884739359254</v>
       </c>
       <c r="N71" t="n">
-        <v>2.805242961563224</v>
+        <v>5.44672236475103</v>
       </c>
       <c r="O71" t="n">
-        <v>1.123471594993316</v>
+        <v>1.230912445157654</v>
       </c>
       <c r="P71" t="n">
-        <v>16.34212068737517</v>
+        <v>9.287530505224067</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.32803973863849</v>
+        <v>1.117216842345444</v>
       </c>
       <c r="R71" t="n">
-        <v>4.048411159423678</v>
+        <v>9.531197223799548</v>
       </c>
       <c r="S71" t="n">
-        <v>1.065180037387066</v>
+        <v>1.120663205929637</v>
       </c>
       <c r="T71" t="n">
-        <v>2.205152805908928</v>
+        <v>2.618245390782876</v>
       </c>
       <c r="U71" t="n">
-        <v>1.829770295598157</v>
+        <v>1.61795325090728</v>
       </c>
       <c r="V71" t="n">
-        <v>1.45773068262807</v>
+        <v>2.646896694312282</v>
       </c>
       <c r="W71" t="n">
-        <v>3.184690775498118</v>
+        <v>1.607202627495457</v>
       </c>
       <c r="X71" t="n">
-        <v>3.518563216689205</v>
+        <v>4.47333830500061</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.397051776732671</v>
+        <v>1.287907457376175</v>
       </c>
       <c r="Z71" t="n">
-        <v>1.922348029993096</v>
+        <v>4.541275565226437</v>
       </c>
       <c r="AA71" t="n">
-        <v>2.084189446371437</v>
+        <v>1.282384124471843</v>
       </c>
       <c r="AB71" t="n">
-        <v>6.274179936743239</v>
+        <v>8.583789436194682</v>
       </c>
       <c r="AC71" t="n">
-        <v>1.189602935810622</v>
+        <v>1.131860201079339</v>
       </c>
       <c r="AD71" t="n">
-        <v>2.776455669204138</v>
+        <v>8.753170159806499</v>
       </c>
       <c r="AE71" t="n">
-        <v>1.56291863474871</v>
+        <v>1.128979498629366</v>
       </c>
     </row>
     <row r="72">
@@ -7822,85 +7822,85 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>3.98085726483135</v>
+        <v>3.81237034413952</v>
       </c>
       <c r="F72" t="n">
-        <v>8.923059942735826</v>
+        <v>8.955084148687535</v>
       </c>
       <c r="G72" t="n">
-        <v>1.570527735230412</v>
+        <v>1.597373691462267</v>
       </c>
       <c r="H72" t="n">
-        <v>6.222453650737959</v>
+        <v>5.853981326095687</v>
       </c>
       <c r="I72" t="n">
-        <v>2.048571049939444</v>
+        <v>2.01183313302564</v>
       </c>
       <c r="J72" t="n">
-        <v>1.953678818481352</v>
+        <v>1.988305252477495</v>
       </c>
       <c r="K72" t="n">
-        <v>1.191480876016715</v>
+        <v>1.206016449759264</v>
       </c>
       <c r="L72" t="n">
-        <v>10.54719144757451</v>
+        <v>9.716159697126724</v>
       </c>
       <c r="M72" t="n">
-        <v>1.629617751362087</v>
+        <v>1.612884251372438</v>
       </c>
       <c r="N72" t="n">
-        <v>2.588265257510044</v>
+        <v>2.631629459821638</v>
       </c>
       <c r="O72" t="n">
-        <v>1.104742845630696</v>
+        <v>1.114729426117519</v>
       </c>
       <c r="P72" t="n">
-        <v>19.42564015213922</v>
+        <v>17.47548993970634</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.374334248100834</v>
+        <v>1.367114528997186</v>
       </c>
       <c r="R72" t="n">
-        <v>3.671409322212568</v>
+        <v>3.723945583770845</v>
       </c>
       <c r="S72" t="n">
-        <v>1.054272198509418</v>
+        <v>1.060696222307172</v>
       </c>
       <c r="T72" t="n">
-        <v>2.352119862674432</v>
+        <v>2.135465237127813</v>
       </c>
       <c r="U72" t="n">
-        <v>1.739579402392659</v>
+        <v>1.880696270833905</v>
       </c>
       <c r="V72" t="n">
-        <v>1.425987113108268</v>
+        <v>1.384998179617485</v>
       </c>
       <c r="W72" t="n">
-        <v>3.347488854072074</v>
+        <v>3.597414878671764</v>
       </c>
       <c r="X72" t="n">
-        <v>3.852792972512986</v>
+        <v>3.36228608180955</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.350533673363305</v>
+        <v>1.423318753685406</v>
       </c>
       <c r="Z72" t="n">
-        <v>1.858567987484264</v>
+        <v>1.776662971247911</v>
       </c>
       <c r="AA72" t="n">
-        <v>2.164730125718004</v>
+        <v>2.287559774342325</v>
       </c>
       <c r="AB72" t="n">
-        <v>7.066925771372253</v>
+        <v>5.909822341127134</v>
       </c>
       <c r="AC72" t="n">
-        <v>1.164828125097336</v>
+        <v>1.203673357307351</v>
       </c>
       <c r="AD72" t="n">
-        <v>2.648570745314465</v>
+        <v>2.485906788481458</v>
       </c>
       <c r="AE72" t="n">
-        <v>1.606586039963514</v>
+        <v>1.672989724356777</v>
       </c>
     </row>
     <row r="73">
@@ -7925,85 +7925,85 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>4.291603266035715</v>
+        <v>4.729566340759909</v>
       </c>
       <c r="F73" t="n">
-        <v>9.006854091538234</v>
+        <v>9.365053787718267</v>
       </c>
       <c r="G73" t="n">
-        <v>1.524482521858795</v>
+        <v>1.466739829535378</v>
       </c>
       <c r="H73" t="n">
-        <v>6.877953218023061</v>
+        <v>7.740464385684964</v>
       </c>
       <c r="I73" t="n">
-        <v>2.127274710637586</v>
+        <v>2.260853316008589</v>
       </c>
       <c r="J73" t="n">
-        <v>1.88709521340579</v>
+        <v>1.793113669372456</v>
       </c>
       <c r="K73" t="n">
-        <v>1.170127247174031</v>
+        <v>1.148357730681546</v>
       </c>
       <c r="L73" t="n">
-        <v>11.99975709617619</v>
+        <v>13.81245074419241</v>
       </c>
       <c r="M73" t="n">
-        <v>1.670787692006894</v>
+        <v>1.749398288263594</v>
       </c>
       <c r="N73" t="n">
-        <v>2.490784657971515</v>
+        <v>2.334403901985242</v>
       </c>
       <c r="O73" t="n">
-        <v>1.090911098423039</v>
+        <v>1.078049080536234</v>
       </c>
       <c r="P73" t="n">
-        <v>22.82383195439381</v>
+        <v>26.90583159256805</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.396121893878701</v>
+        <v>1.443499364993369</v>
       </c>
       <c r="R73" t="n">
-        <v>3.524475459329742</v>
+        <v>3.25479466022449</v>
       </c>
       <c r="S73" t="n">
-        <v>1.045821467196491</v>
+        <v>1.038601347207355</v>
       </c>
       <c r="T73" t="n">
-        <v>2.660282356129707</v>
+        <v>2.848441915670547</v>
       </c>
       <c r="U73" t="n">
-        <v>1.602307189682546</v>
+        <v>1.540996171706719</v>
       </c>
       <c r="V73" t="n">
-        <v>1.458864787727363</v>
+        <v>1.431972973530115</v>
       </c>
       <c r="W73" t="n">
-        <v>3.179291213328308</v>
+        <v>3.314959641636666</v>
       </c>
       <c r="X73" t="n">
-        <v>4.57308836838222</v>
+        <v>5.025095954789872</v>
       </c>
       <c r="Y73" t="n">
-        <v>1.279869932366875</v>
+        <v>1.248441282203471</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.924632503495053</v>
+        <v>1.870571172360118</v>
       </c>
       <c r="AA73" t="n">
-        <v>2.081510758295931</v>
+        <v>2.148671161817821</v>
       </c>
       <c r="AB73" t="n">
-        <v>8.83270028852006</v>
+        <v>9.977006184444479</v>
       </c>
       <c r="AC73" t="n">
-        <v>1.127669892012291</v>
+        <v>1.111395712496313</v>
       </c>
       <c r="AD73" t="n">
-        <v>2.781055806928302</v>
+        <v>2.672557377899752</v>
       </c>
       <c r="AE73" t="n">
-        <v>1.561464720032917</v>
+        <v>1.597886812861219</v>
       </c>
     </row>
     <row r="74">
@@ -8028,85 +8028,85 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.539194060849367</v>
+        <v>1.814037013923404</v>
       </c>
       <c r="F74" t="n">
-        <v>8.102719920131316</v>
+        <v>7.927378263522625</v>
       </c>
       <c r="G74" t="n">
-        <v>2.071427355930985</v>
+        <v>3.099831092471862</v>
       </c>
       <c r="H74" t="n">
-        <v>3.565279502905162</v>
+        <v>2.380944453174902</v>
       </c>
       <c r="I74" t="n">
-        <v>1.565550779027574</v>
+        <v>1.272675695581709</v>
       </c>
       <c r="J74" t="n">
-        <v>2.76818782164783</v>
+        <v>4.667360223897702</v>
       </c>
       <c r="K74" t="n">
-        <v>1.389821069738213</v>
+        <v>1.724142088192555</v>
       </c>
       <c r="L74" t="n">
-        <v>5.377197825164253</v>
+        <v>3.358382221494737</v>
       </c>
       <c r="M74" t="n">
-        <v>1.338001013001044</v>
+        <v>1.150707344591261</v>
       </c>
       <c r="N74" t="n">
-        <v>3.958571014687795</v>
+        <v>7.635376681290049</v>
       </c>
       <c r="O74" t="n">
-        <v>1.228456661074594</v>
+        <v>1.424019478643374</v>
       </c>
       <c r="P74" t="n">
-        <v>8.743598001601619</v>
+        <v>5.112186844344616</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.196690187717059</v>
+        <v>1.079374170574911</v>
       </c>
       <c r="R74" t="n">
-        <v>6.084137707156538</v>
+        <v>13.59855684483944</v>
       </c>
       <c r="S74" t="n">
-        <v>1.12913893512979</v>
+        <v>1.243179611688918</v>
       </c>
       <c r="T74" t="n">
-        <v>1.7196304902229</v>
+        <v>1.686780192353339</v>
       </c>
       <c r="U74" t="n">
-        <v>2.38960204380759</v>
+        <v>2.456069949503601</v>
       </c>
       <c r="V74" t="n">
-        <v>1.558140643770389</v>
+        <v>2.340846521410288</v>
       </c>
       <c r="W74" t="n">
-        <v>2.79166310707053</v>
+        <v>1.745797512267258</v>
       </c>
       <c r="X74" t="n">
-        <v>2.461044849896035</v>
+        <v>2.392229835847133</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.68444168573686</v>
+        <v>1.718272209266028</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.126207105159363</v>
+        <v>3.826936348226967</v>
       </c>
       <c r="AA74" t="n">
-        <v>1.887936149060697</v>
+        <v>1.35373983592775</v>
       </c>
       <c r="AB74" t="n">
-        <v>3.896669858792166</v>
+        <v>3.749777310273067</v>
       </c>
       <c r="AC74" t="n">
-        <v>1.345224015420581</v>
+        <v>1.363665812596546</v>
       </c>
       <c r="AD74" t="n">
-        <v>3.192160966764734</v>
+        <v>7.004963837591908</v>
       </c>
       <c r="AE74" t="n">
-        <v>1.456170881226772</v>
+        <v>1.166528896267428</v>
       </c>
     </row>
     <row r="75">
@@ -8131,85 +8131,85 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>2.677257354563273</v>
+        <v>2.031118648560658</v>
       </c>
       <c r="F75" t="n">
-        <v>8.048928947292605</v>
+        <v>7.227544167519464</v>
       </c>
       <c r="G75" t="n">
-        <v>1.991066913362393</v>
+        <v>2.707819112276213</v>
       </c>
       <c r="H75" t="n">
-        <v>3.825539787061233</v>
+        <v>2.814703973688661</v>
       </c>
       <c r="I75" t="n">
-        <v>1.607841592627043</v>
+        <v>1.326877153066855</v>
       </c>
       <c r="J75" t="n">
-        <v>2.645165470954497</v>
+        <v>4.059253271810877</v>
       </c>
       <c r="K75" t="n">
-        <v>1.35391467661479</v>
+        <v>1.551054064188414</v>
       </c>
       <c r="L75" t="n">
-        <v>5.887250354869185</v>
+        <v>4.244732238793283</v>
       </c>
       <c r="M75" t="n">
-        <v>1.361862501767649</v>
+        <v>1.176524633527344</v>
       </c>
       <c r="N75" t="n">
-        <v>3.763480590321289</v>
+        <v>6.664931743620339</v>
       </c>
       <c r="O75" t="n">
-        <v>1.204614031897035</v>
+        <v>1.308191840314041</v>
       </c>
       <c r="P75" t="n">
-        <v>9.789430679196558</v>
+        <v>6.987551692957156</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.21012475558325</v>
+        <v>1.090860643109975</v>
       </c>
       <c r="R75" t="n">
-        <v>5.759077516707955</v>
+        <v>12.00586530946768</v>
       </c>
       <c r="S75" t="n">
-        <v>1.113773011756822</v>
+        <v>1.167013171873948</v>
       </c>
       <c r="T75" t="n">
-        <v>1.842813470135404</v>
+        <v>2.208138091998101</v>
       </c>
       <c r="U75" t="n">
-        <v>2.186502156686393</v>
+        <v>1.827719949088048</v>
       </c>
       <c r="V75" t="n">
-        <v>1.582734221000614</v>
+        <v>2.743332307529338</v>
       </c>
       <c r="W75" t="n">
-        <v>2.716048181077984</v>
+        <v>1.573614104253713</v>
       </c>
       <c r="X75" t="n">
-        <v>2.72225802271381</v>
+        <v>3.525289966243751</v>
       </c>
       <c r="Y75" t="n">
-        <v>1.580633091448326</v>
+        <v>1.395994128740571</v>
       </c>
       <c r="Z75" t="n">
-        <v>2.17664106908709</v>
+        <v>4.771495541465703</v>
       </c>
       <c r="AA75" t="n">
-        <v>1.849876845430749</v>
+        <v>1.265146806884829</v>
       </c>
       <c r="AB75" t="n">
-        <v>4.463596250140884</v>
+        <v>6.289955773626445</v>
       </c>
       <c r="AC75" t="n">
-        <v>1.288717254489268</v>
+        <v>1.189037497248198</v>
       </c>
       <c r="AD75" t="n">
-        <v>3.296591606600763</v>
+        <v>9.331740900337973</v>
       </c>
       <c r="AE75" t="n">
-        <v>1.435427873691536</v>
+        <v>1.120022935417907</v>
       </c>
     </row>
     <row r="76">
@@ -8234,85 +8234,85 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4.955545204860474</v>
+        <v>5.072064974752728</v>
       </c>
       <c r="F76" t="n">
-        <v>9.223852054336719</v>
+        <v>9.547347929781173</v>
       </c>
       <c r="G76" t="n">
-        <v>1.449713886956183</v>
+        <v>1.432458479286483</v>
       </c>
       <c r="H76" t="n">
-        <v>8.337272472440013</v>
+        <v>8.470614341128465</v>
       </c>
       <c r="I76" t="n">
-        <v>2.284416553789653</v>
+        <v>2.349134803858998</v>
       </c>
       <c r="J76" t="n">
-        <v>1.778563618671461</v>
+        <v>1.741215775576799</v>
       </c>
       <c r="K76" t="n">
-        <v>1.136290427233848</v>
+        <v>1.133857799952894</v>
       </c>
       <c r="L76" t="n">
-        <v>15.38750410861492</v>
+        <v>15.46607960850949</v>
       </c>
       <c r="M76" t="n">
-        <v>1.75072877004845</v>
+        <v>1.797035522487781</v>
       </c>
       <c r="N76" t="n">
-        <v>2.332038999831408</v>
+        <v>2.254649224263816</v>
       </c>
       <c r="O76" t="n">
-        <v>1.069504758605158</v>
+        <v>1.069127229150029</v>
       </c>
       <c r="P76" t="n">
-        <v>31.16966867613956</v>
+        <v>30.89829293982361</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.437305340145961</v>
+        <v>1.469873673123882</v>
       </c>
       <c r="R76" t="n">
-        <v>3.286731736836844</v>
+        <v>3.128231601808324</v>
       </c>
       <c r="S76" t="n">
-        <v>1.033145872788152</v>
+        <v>1.033446725604458</v>
       </c>
       <c r="T76" t="n">
-        <v>3.42643485646435</v>
+        <v>3.133903756241126</v>
       </c>
       <c r="U76" t="n">
-        <v>1.41212728103368</v>
+        <v>1.468624696439684</v>
       </c>
       <c r="V76" t="n">
-        <v>1.521915424867413</v>
+        <v>1.443123004440992</v>
       </c>
       <c r="W76" t="n">
-        <v>2.916019248241301</v>
+        <v>3.256709739683946</v>
       </c>
       <c r="X76" t="n">
-        <v>6.466229434960309</v>
+        <v>5.727315589879393</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.182941461184251</v>
+        <v>1.21153654351761</v>
       </c>
       <c r="Z76" t="n">
-        <v>2.052283019957028</v>
+        <v>1.892959151145799</v>
       </c>
       <c r="AA76" t="n">
-        <v>1.950314678688664</v>
+        <v>2.119872055420287</v>
       </c>
       <c r="AB76" t="n">
-        <v>13.78640336764212</v>
+        <v>11.80438978386923</v>
       </c>
       <c r="AC76" t="n">
-        <v>1.07820807550391</v>
+        <v>1.092554972562447</v>
       </c>
       <c r="AD76" t="n">
-        <v>3.040214101670604</v>
+        <v>2.717396938809565</v>
       </c>
       <c r="AE76" t="n">
-        <v>1.490144636869808</v>
+        <v>1.582276570664649</v>
       </c>
     </row>
   </sheetData>
